--- a/input/reg_wages.xlsx
+++ b/input/reg_wages.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patryk\git\SimPaths_HU\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29093447-7D46-472E-843E-344BB9A99E9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F567F15-7C3E-4A2F-981F-457A889A34D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="20985" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-83" yWindow="0" windowWidth="14566" windowHeight="17363" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -560,9 +560,9 @@
       <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -570,7 +570,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -578,7 +578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -586,7 +586,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -594,7 +594,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -602,7 +602,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -610,7 +610,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" s="3" t="s">
         <v>11</v>
       </c>
@@ -618,22 +618,22 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B12" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B13" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B14" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B15" t="s">
         <v>15</v>
       </c>
@@ -647,14 +647,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:V21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="23.28515625" customWidth="1"/>
+    <col min="1" max="1" width="23.265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -722,1364 +722,1364 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>18</v>
       </c>
       <c r="B2">
-        <v>1.4062681070286482E-2</v>
+        <v>1.5480113912950087E-2</v>
       </c>
       <c r="C2">
-        <v>5.2803046817057873E-6</v>
+        <v>7.1127588084689483E-6</v>
       </c>
       <c r="D2">
-        <v>-5.8919965584294345E-8</v>
+        <v>-7.9757633614627737E-8</v>
       </c>
       <c r="E2">
-        <v>9.7704729676556778E-6</v>
+        <v>1.39605207105314E-5</v>
       </c>
       <c r="F2">
-        <v>1.1362103360433145E-5</v>
+        <v>1.2466097163920378E-5</v>
       </c>
       <c r="G2">
-        <v>-2.2218370246510243E-7</v>
+        <v>-3.0091676969628554E-7</v>
       </c>
       <c r="H2">
-        <v>-2.5633473019850241E-7</v>
+        <v>-2.7267595929057485E-7</v>
       </c>
       <c r="I2">
-        <v>7.1670835648268287E-7</v>
+        <v>1.4550655116348484E-6</v>
       </c>
       <c r="J2">
-        <v>1.5145877595448053E-6</v>
+        <v>2.5751089586659854E-6</v>
       </c>
       <c r="K2">
-        <v>1.3952195619406253E-6</v>
+        <v>2.2563399033664776E-6</v>
       </c>
       <c r="L2">
-        <v>3.6504830648872857E-6</v>
+        <v>5.1063666915474843E-6</v>
       </c>
       <c r="M2">
-        <v>2.4865437432507561E-7</v>
+        <v>4.4151966812266023E-7</v>
       </c>
       <c r="N2">
-        <v>8.381193424115274E-7</v>
+        <v>1.2227382191795803E-6</v>
       </c>
       <c r="O2">
-        <v>3.0574387631658874E-7</v>
+        <v>6.0690407531789986E-7</v>
       </c>
       <c r="P2">
-        <v>3.039946283479872E-7</v>
+        <v>5.7503003436120629E-7</v>
       </c>
       <c r="Q2">
-        <v>7.608265502409031E-7</v>
+        <v>1.0980540487328166E-6</v>
       </c>
       <c r="R2">
-        <v>-7.9567950767619778E-7</v>
+        <v>-1.4956620084041213E-6</v>
       </c>
       <c r="S2">
-        <v>-8.6027880458266393E-8</v>
+        <v>1.5888584572992342E-6</v>
       </c>
       <c r="T2">
-        <v>-3.8027245988400287E-8</v>
+        <v>1.229313569753428E-6</v>
       </c>
       <c r="U2">
-        <v>-1.1452872890484959E-4</v>
+        <v>-1.5933694661009071E-4</v>
       </c>
       <c r="V2">
-        <v>4.8323382378936426E-6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+        <v>8.5071394222263699E-6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>19</v>
       </c>
       <c r="B3">
-        <v>3.9504369524808965E-5</v>
+        <v>-7.2970025909650238E-6</v>
       </c>
       <c r="C3">
-        <v>-5.8919965584294345E-8</v>
+        <v>-7.9757633614627737E-8</v>
       </c>
       <c r="D3">
-        <v>6.8601704866439827E-10</v>
+        <v>9.3150913988143226E-10</v>
       </c>
       <c r="E3">
-        <v>-1.525624980577349E-8</v>
+        <v>-3.390643230691571E-8</v>
       </c>
       <c r="F3">
-        <v>-3.5008983892973609E-8</v>
+        <v>-1.7290354526064623E-8</v>
       </c>
       <c r="G3">
-        <v>1.8836942193805036E-10</v>
+        <v>3.8893744260246279E-10</v>
       </c>
       <c r="H3">
-        <v>6.1491320334526252E-10</v>
+        <v>8.3292707493163875E-11</v>
       </c>
       <c r="I3">
-        <v>-8.3611364712182837E-9</v>
+        <v>-1.8922679592678675E-8</v>
       </c>
       <c r="J3">
-        <v>-1.7119124770180817E-8</v>
+        <v>-3.1115678828273638E-8</v>
       </c>
       <c r="K3">
-        <v>-1.1182285582313645E-8</v>
+        <v>-2.1775363548630176E-8</v>
       </c>
       <c r="L3">
-        <v>-3.0079143524411356E-8</v>
+        <v>-4.5522554741136941E-8</v>
       </c>
       <c r="M3">
-        <v>-3.4300176599467226E-9</v>
+        <v>-5.8738606473010284E-9</v>
       </c>
       <c r="N3">
-        <v>-1.018769210361858E-8</v>
+        <v>-1.4685814442014623E-8</v>
       </c>
       <c r="O3">
-        <v>-4.6600578070543735E-9</v>
+        <v>-8.4863972177928964E-9</v>
       </c>
       <c r="P3">
-        <v>-4.0277252873558957E-9</v>
+        <v>-7.3002707586178508E-9</v>
       </c>
       <c r="Q3">
-        <v>-1.0824342476592797E-8</v>
+        <v>-1.4640711591866925E-8</v>
       </c>
       <c r="R3">
-        <v>-1.5933090104661073E-9</v>
+        <v>3.1048906804133775E-9</v>
       </c>
       <c r="S3">
-        <v>1.4675746588610891E-9</v>
+        <v>-1.6887215715471747E-8</v>
       </c>
       <c r="T3">
-        <v>6.0034611052694563E-10</v>
+        <v>-1.3272413199489726E-8</v>
       </c>
       <c r="U3">
-        <v>1.2340622281052946E-6</v>
+        <v>1.7320997701301001E-6</v>
       </c>
       <c r="V3">
-        <v>-5.3374172049651523E-8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+        <v>-9.5780797943743603E-8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>20</v>
       </c>
       <c r="B4">
-        <v>-0.10587693781646806</v>
+        <v>-6.3461577639454925E-2</v>
       </c>
       <c r="C4">
-        <v>9.7704729676556778E-6</v>
+        <v>1.39605207105314E-5</v>
       </c>
       <c r="D4">
-        <v>-1.525624980577349E-8</v>
+        <v>-3.390643230691571E-8</v>
       </c>
       <c r="E4">
-        <v>6.3668686122800311E-4</v>
+        <v>8.3622237352277691E-4</v>
       </c>
       <c r="F4">
-        <v>3.812028420152445E-4</v>
+        <v>4.8913495218234676E-4</v>
       </c>
       <c r="G4">
-        <v>-1.4102366390084138E-5</v>
+        <v>-1.8542495570384543E-5</v>
       </c>
       <c r="H4">
-        <v>-8.6636585675085695E-6</v>
+        <v>-1.1177521597377809E-5</v>
       </c>
       <c r="I4">
-        <v>6.2150352036546736E-7</v>
+        <v>-5.9648083801114725E-6</v>
       </c>
       <c r="J4">
-        <v>-3.697158914866207E-6</v>
+        <v>-1.1573891143053765E-5</v>
       </c>
       <c r="K4">
-        <v>-8.4759691341883504E-6</v>
+        <v>-1.6811226096926086E-5</v>
       </c>
       <c r="L4">
-        <v>7.8342213966458696E-7</v>
+        <v>-4.243480982189056E-6</v>
       </c>
       <c r="M4">
-        <v>-7.5899141229941466E-6</v>
+        <v>-8.9694311364526852E-6</v>
       </c>
       <c r="N4">
-        <v>-3.0320512769001724E-6</v>
+        <v>-1.4293680973194623E-6</v>
       </c>
       <c r="O4">
-        <v>-6.2252031160904114E-6</v>
+        <v>-7.3289992377250205E-6</v>
       </c>
       <c r="P4">
-        <v>-9.9057882133093686E-8</v>
+        <v>1.0164366233192993E-6</v>
       </c>
       <c r="Q4">
-        <v>-2.8809708783238775E-6</v>
+        <v>-3.782986605420025E-6</v>
       </c>
       <c r="R4">
-        <v>6.7846122909906782E-7</v>
+        <v>3.0820380676953535E-6</v>
       </c>
       <c r="S4">
-        <v>5.4453232142294374E-7</v>
+        <v>9.1411487075207717E-7</v>
       </c>
       <c r="T4">
-        <v>-4.9258058076726966E-8</v>
+        <v>-1.0325945374454206E-6</v>
       </c>
       <c r="U4">
-        <v>-3.8518628607065342E-4</v>
+        <v>-5.2657710495985306E-4</v>
       </c>
       <c r="V4">
-        <v>-5.761923759839597E-6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+        <v>-8.4771581142810307E-7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>21</v>
       </c>
       <c r="B5">
-        <v>-0.16999604044653588</v>
+        <v>-0.11278142799786742</v>
       </c>
       <c r="C5">
-        <v>1.1362103360433145E-5</v>
+        <v>1.2466097163920378E-5</v>
       </c>
       <c r="D5">
-        <v>-3.5008983892973609E-8</v>
+        <v>-1.7290354526064623E-8</v>
       </c>
       <c r="E5">
-        <v>3.812028420152445E-4</v>
+        <v>4.8913495218234676E-4</v>
       </c>
       <c r="F5">
-        <v>3.5973706056862333E-3</v>
+        <v>5.1003474193414295E-3</v>
       </c>
       <c r="G5">
-        <v>-8.6261664145137255E-6</v>
+        <v>-1.1152591702306034E-5</v>
       </c>
       <c r="H5">
-        <v>-7.3612386772850793E-5</v>
+        <v>-1.0433566121744277E-4</v>
       </c>
       <c r="I5">
-        <v>-4.6360642308613784E-5</v>
+        <v>-4.7670560848744368E-5</v>
       </c>
       <c r="J5">
-        <v>-5.8438904993715247E-5</v>
+        <v>-6.825083006797958E-5</v>
       </c>
       <c r="K5">
-        <v>-6.6409337240843345E-5</v>
+        <v>-7.5792167663661243E-5</v>
       </c>
       <c r="L5">
-        <v>-4.9553302817627667E-5</v>
+        <v>-5.0358078720110137E-5</v>
       </c>
       <c r="M5">
-        <v>-1.3896832051522281E-5</v>
+        <v>-1.9699399889695063E-5</v>
       </c>
       <c r="N5">
-        <v>-5.9850109971051289E-6</v>
+        <v>-5.1833326783120503E-7</v>
       </c>
       <c r="O5">
-        <v>-6.1517210047274991E-6</v>
+        <v>-9.7476164790243588E-6</v>
       </c>
       <c r="P5">
-        <v>-1.6156628850121871E-7</v>
+        <v>-2.6907265010842423E-7</v>
       </c>
       <c r="Q5">
-        <v>-1.7746060187445887E-5</v>
+        <v>-1.9230938860993924E-5</v>
       </c>
       <c r="R5">
-        <v>-1.855215439687582E-5</v>
+        <v>-3.8923625597379499E-6</v>
       </c>
       <c r="S5">
-        <v>5.3334777472785261E-6</v>
+        <v>-5.157981230609925E-6</v>
       </c>
       <c r="T5">
-        <v>9.3826637301873666E-7</v>
+        <v>-6.8822015829762088E-6</v>
       </c>
       <c r="U5">
-        <v>-3.2892228458597088E-4</v>
+        <v>-3.7974350286134738E-4</v>
       </c>
       <c r="V5">
-        <v>-3.1147253347948914E-5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+        <v>-5.7869132540309102E-5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>22</v>
       </c>
       <c r="B6">
-        <v>-8.8296809848296166E-3</v>
+        <v>-9.953393251249984E-3</v>
       </c>
       <c r="C6">
-        <v>-2.2218370246510243E-7</v>
+        <v>-3.0091676969628554E-7</v>
       </c>
       <c r="D6">
-        <v>1.8836942193805036E-10</v>
+        <v>3.8893744260246279E-10</v>
       </c>
       <c r="E6">
-        <v>-1.4102366390084138E-5</v>
+        <v>-1.8542495570384543E-5</v>
       </c>
       <c r="F6">
-        <v>-8.6261664145137255E-6</v>
+        <v>-1.1152591702306034E-5</v>
       </c>
       <c r="G6">
-        <v>3.3247715619450225E-7</v>
+        <v>4.358592710042027E-7</v>
       </c>
       <c r="H6">
-        <v>2.0990143252145768E-7</v>
+        <v>2.7092094046570672E-7</v>
       </c>
       <c r="I6">
-        <v>-1.1830957475855699E-7</v>
+        <v>2.6145119792560518E-8</v>
       </c>
       <c r="J6">
-        <v>-7.8546839964421622E-9</v>
+        <v>1.8631348548634003E-7</v>
       </c>
       <c r="K6">
-        <v>1.7406860640695359E-7</v>
+        <v>4.0482180268313516E-7</v>
       </c>
       <c r="L6">
-        <v>3.8477619745501632E-8</v>
+        <v>2.1240598096514318E-7</v>
       </c>
       <c r="M6">
-        <v>1.4410364741835341E-7</v>
+        <v>1.7530001883485156E-7</v>
       </c>
       <c r="N6">
-        <v>8.4199522122881703E-8</v>
+        <v>6.7829277521374339E-8</v>
       </c>
       <c r="O6">
-        <v>1.4768422270141869E-7</v>
+        <v>1.8034306501066659E-7</v>
       </c>
       <c r="P6">
-        <v>5.1766701863300721E-8</v>
+        <v>4.1630368712126931E-8</v>
       </c>
       <c r="Q6">
-        <v>1.4841555580057104E-7</v>
+        <v>1.7535665525485707E-7</v>
       </c>
       <c r="R6">
-        <v>2.5873300778637611E-7</v>
+        <v>2.8225844168944421E-7</v>
       </c>
       <c r="S6">
-        <v>-1.2022803185915018E-8</v>
+        <v>-2.462870248257693E-8</v>
       </c>
       <c r="T6">
-        <v>-1.8099147029252528E-10</v>
+        <v>1.4149763880930139E-8</v>
       </c>
       <c r="U6">
-        <v>8.2982982183953966E-6</v>
+        <v>1.0984571337613032E-5</v>
       </c>
       <c r="V6">
-        <v>1.4748084986789485E-8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+        <v>-2.5275885959211387E-8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>23</v>
       </c>
       <c r="B7">
-        <v>-1.2042882832639849E-2</v>
+        <v>-1.2994630442215594E-2</v>
       </c>
       <c r="C7">
-        <v>-2.5633473019850241E-7</v>
+        <v>-2.7267595929057485E-7</v>
       </c>
       <c r="D7">
-        <v>6.1491320334526252E-10</v>
+        <v>8.3292707493163875E-11</v>
       </c>
       <c r="E7">
-        <v>-8.6636585675085695E-6</v>
+        <v>-1.1177521597377809E-5</v>
       </c>
       <c r="F7">
-        <v>-7.3612386772850793E-5</v>
+        <v>-1.0433566121744277E-4</v>
       </c>
       <c r="G7">
-        <v>2.0990143252145768E-7</v>
+        <v>2.7092094046570672E-7</v>
       </c>
       <c r="H7">
-        <v>1.6041068344321594E-6</v>
+        <v>2.2599860353546843E-6</v>
       </c>
       <c r="I7">
-        <v>1.2700125448887941E-6</v>
+        <v>1.4841115371447032E-6</v>
       </c>
       <c r="J7">
-        <v>1.6023124522063736E-6</v>
+        <v>2.019033561154817E-6</v>
       </c>
       <c r="K7">
-        <v>1.9680653537732897E-6</v>
+        <v>2.422941854481499E-6</v>
       </c>
       <c r="L7">
-        <v>1.6962229486153072E-6</v>
+        <v>1.9959621327260744E-6</v>
       </c>
       <c r="M7">
-        <v>1.6540004344764467E-7</v>
+        <v>2.5212835954495956E-7</v>
       </c>
       <c r="N7">
-        <v>1.2087843399264475E-7</v>
+        <v>2.3724220558263129E-8</v>
       </c>
       <c r="O7">
-        <v>2.3337078368451594E-8</v>
+        <v>6.4218511320855552E-8</v>
       </c>
       <c r="P7">
-        <v>1.1519924762857899E-8</v>
+        <v>6.7056741765086407E-9</v>
       </c>
       <c r="Q7">
-        <v>3.67003846993464E-7</v>
+        <v>3.9120387921005469E-7</v>
       </c>
       <c r="R7">
-        <v>7.8166085711421123E-7</v>
+        <v>6.3900689334369787E-7</v>
       </c>
       <c r="S7">
-        <v>-1.0232141738619312E-7</v>
+        <v>5.2837663585639183E-8</v>
       </c>
       <c r="T7">
-        <v>-2.2197132887395416E-8</v>
+        <v>1.0237482967583039E-7</v>
       </c>
       <c r="U7">
-        <v>6.5515429272138312E-6</v>
+        <v>7.3043391758059595E-6</v>
       </c>
       <c r="V7">
-        <v>3.6997527290808156E-7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+        <v>8.6727234952892878E-7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>24</v>
       </c>
       <c r="B8">
-        <v>6.0901456638888005E-2</v>
+        <v>0.20752779855982872</v>
       </c>
       <c r="C8">
-        <v>7.1670835648268287E-7</v>
+        <v>1.4550655116348484E-6</v>
       </c>
       <c r="D8">
-        <v>-8.3611364712182837E-9</v>
+        <v>-1.8922679592678675E-8</v>
       </c>
       <c r="E8">
-        <v>6.2150352036546736E-7</v>
+        <v>-5.9648083801114725E-6</v>
       </c>
       <c r="F8">
-        <v>-4.6360642308613784E-5</v>
+        <v>-4.7670560848744368E-5</v>
       </c>
       <c r="G8">
-        <v>-1.1830957475855699E-7</v>
+        <v>2.6145119792560518E-8</v>
       </c>
       <c r="H8">
-        <v>1.2700125448887941E-6</v>
+        <v>1.4841115371447032E-6</v>
       </c>
       <c r="I8">
-        <v>4.0810126906886289E-3</v>
+        <v>5.4616880923924124E-3</v>
       </c>
       <c r="J8">
-        <v>3.8124581304241102E-3</v>
+        <v>5.1042151970832929E-3</v>
       </c>
       <c r="K8">
-        <v>3.8131516730314924E-3</v>
+        <v>5.1045692003296259E-3</v>
       </c>
       <c r="L8">
-        <v>3.8122427469035559E-3</v>
+        <v>5.1031716203052309E-3</v>
       </c>
       <c r="M8">
-        <v>-5.1344957166550708E-7</v>
+        <v>-1.4830180883014599E-6</v>
       </c>
       <c r="N8">
-        <v>-4.2933339751486527E-6</v>
+        <v>-4.4170237494588969E-6</v>
       </c>
       <c r="O8">
-        <v>-3.5986121411165975E-6</v>
+        <v>-4.3526821769587457E-7</v>
       </c>
       <c r="P8">
-        <v>-4.0090255572087677E-6</v>
+        <v>-6.306233577834668E-6</v>
       </c>
       <c r="Q8">
-        <v>1.641139116869422E-6</v>
+        <v>-4.1624232502529999E-6</v>
       </c>
       <c r="R8">
-        <v>1.867185217947307E-5</v>
+        <v>2.1021873678520292E-5</v>
       </c>
       <c r="S8">
-        <v>-4.5070043237946888E-6</v>
+        <v>6.0746598907570916E-7</v>
       </c>
       <c r="T8">
-        <v>-2.0379534623784757E-6</v>
+        <v>8.213472980740339E-6</v>
       </c>
       <c r="U8">
-        <v>-3.8464864571491689E-3</v>
+        <v>-5.1695623184485088E-3</v>
       </c>
       <c r="V8">
-        <v>1.0544788949018711E-5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+        <v>2.503319819362831E-5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>25</v>
       </c>
       <c r="B9">
-        <v>7.504091763512595E-2</v>
+        <v>0.24701430713076597</v>
       </c>
       <c r="C9">
-        <v>1.5145877595448053E-6</v>
+        <v>2.5751089586659854E-6</v>
       </c>
       <c r="D9">
-        <v>-1.7119124770180817E-8</v>
+        <v>-3.1115678828273638E-8</v>
       </c>
       <c r="E9">
-        <v>-3.697158914866207E-6</v>
+        <v>-1.1573891143053765E-5</v>
       </c>
       <c r="F9">
-        <v>-5.8438904993715247E-5</v>
+        <v>-6.825083006797958E-5</v>
       </c>
       <c r="G9">
-        <v>-7.8546839964421622E-9</v>
+        <v>1.8631348548634003E-7</v>
       </c>
       <c r="H9">
-        <v>1.6023124522063736E-6</v>
+        <v>2.019033561154817E-6</v>
       </c>
       <c r="I9">
-        <v>3.8124581304241102E-3</v>
+        <v>5.1042151970832929E-3</v>
       </c>
       <c r="J9">
-        <v>3.8551762879636001E-3</v>
+        <v>5.1601137750674009E-3</v>
       </c>
       <c r="K9">
-        <v>3.8183318898375226E-3</v>
+        <v>5.1129700892158323E-3</v>
       </c>
       <c r="L9">
-        <v>3.8181214425422223E-3</v>
+        <v>5.1127222927524292E-3</v>
       </c>
       <c r="M9">
-        <v>-8.2769716273936427E-7</v>
+        <v>-9.6618948632712321E-7</v>
       </c>
       <c r="N9">
-        <v>-2.7762742831591837E-6</v>
+        <v>-1.8231430905255316E-6</v>
       </c>
       <c r="O9">
-        <v>-3.0449081461128226E-6</v>
+        <v>3.8201771457264419E-7</v>
       </c>
       <c r="P9">
-        <v>-3.3780648442590759E-6</v>
+        <v>-4.7123148569667452E-6</v>
       </c>
       <c r="Q9">
-        <v>2.3026252793003067E-6</v>
+        <v>-3.034430533350378E-6</v>
       </c>
       <c r="R9">
-        <v>1.7532570830063445E-5</v>
+        <v>1.697407490928134E-5</v>
       </c>
       <c r="S9">
-        <v>-4.7596386674859461E-6</v>
+        <v>2.7728610691738784E-6</v>
       </c>
       <c r="T9">
-        <v>-2.6879694764577749E-6</v>
+        <v>9.6443468511844414E-6</v>
       </c>
       <c r="U9">
-        <v>-3.8708936679929273E-3</v>
+        <v>-5.210856190784696E-3</v>
       </c>
       <c r="V9">
-        <v>1.6990990777050661E-5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+        <v>3.7492743340893531E-5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>26</v>
       </c>
       <c r="B10">
-        <v>0.11782715885018491</v>
+        <v>0.30728618391958468</v>
       </c>
       <c r="C10">
-        <v>1.3952195619406253E-6</v>
+        <v>2.2563399033664776E-6</v>
       </c>
       <c r="D10">
-        <v>-1.1182285582313645E-8</v>
+        <v>-2.1775363548630176E-8</v>
       </c>
       <c r="E10">
-        <v>-8.4759691341883504E-6</v>
+        <v>-1.6811226096926086E-5</v>
       </c>
       <c r="F10">
-        <v>-6.6409337240843345E-5</v>
+        <v>-7.5792167663661243E-5</v>
       </c>
       <c r="G10">
-        <v>1.7406860640695359E-7</v>
+        <v>4.0482180268313516E-7</v>
       </c>
       <c r="H10">
-        <v>1.9680653537732897E-6</v>
+        <v>2.422941854481499E-6</v>
       </c>
       <c r="I10">
-        <v>3.8131516730314924E-3</v>
+        <v>5.1045692003296259E-3</v>
       </c>
       <c r="J10">
-        <v>3.8183318898375226E-3</v>
+        <v>5.1129700892158323E-3</v>
       </c>
       <c r="K10">
-        <v>3.8389278658840943E-3</v>
+        <v>5.1379178397476227E-3</v>
       </c>
       <c r="L10">
-        <v>3.8281499785134082E-3</v>
+        <v>5.1242857846887108E-3</v>
       </c>
       <c r="M10">
-        <v>-8.8852443689669149E-7</v>
+        <v>-1.7526964551510545E-6</v>
       </c>
       <c r="N10">
-        <v>-2.5730986491504174E-6</v>
+        <v>-1.7149553468464359E-6</v>
       </c>
       <c r="O10">
-        <v>-2.9388740826683845E-6</v>
+        <v>2.5067665951300378E-7</v>
       </c>
       <c r="P10">
-        <v>-2.6224320741080685E-6</v>
+        <v>-4.2563624707978356E-6</v>
       </c>
       <c r="Q10">
-        <v>3.3933072966464568E-6</v>
+        <v>-9.225120729353929E-7</v>
       </c>
       <c r="R10">
-        <v>8.6320427684769192E-6</v>
+        <v>7.1282094857233867E-6</v>
       </c>
       <c r="S10">
-        <v>-4.7553379772289886E-6</v>
+        <v>3.0478935665868615E-6</v>
       </c>
       <c r="T10">
-        <v>-3.5540857401025155E-6</v>
+        <v>8.2952680968771936E-6</v>
       </c>
       <c r="U10">
-        <v>-3.8776954222204917E-3</v>
+        <v>-5.2174809260281804E-3</v>
       </c>
       <c r="V10">
-        <v>1.9709386223176973E-5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+        <v>4.0591226333024823E-5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>27</v>
       </c>
       <c r="B11">
-        <v>0.17641196402024531</v>
+        <v>0.34942282003200142</v>
       </c>
       <c r="C11">
-        <v>3.6504830648872857E-6</v>
+        <v>5.1063666915474843E-6</v>
       </c>
       <c r="D11">
-        <v>-3.0079143524411356E-8</v>
+        <v>-4.5522554741136941E-8</v>
       </c>
       <c r="E11">
-        <v>7.8342213966458696E-7</v>
+        <v>-4.243480982189056E-6</v>
       </c>
       <c r="F11">
-        <v>-4.9553302817627667E-5</v>
+        <v>-5.0358078720110137E-5</v>
       </c>
       <c r="G11">
-        <v>3.8477619745501632E-8</v>
+        <v>2.1240598096514318E-7</v>
       </c>
       <c r="H11">
-        <v>1.6962229486153072E-6</v>
+        <v>1.9959621327260744E-6</v>
       </c>
       <c r="I11">
-        <v>3.8122427469035559E-3</v>
+        <v>5.1031716203052309E-3</v>
       </c>
       <c r="J11">
-        <v>3.8181214425422223E-3</v>
+        <v>5.1127222927524292E-3</v>
       </c>
       <c r="K11">
-        <v>3.8281499785134082E-3</v>
+        <v>5.1242857846887108E-3</v>
       </c>
       <c r="L11">
-        <v>3.8852531935552465E-3</v>
+        <v>5.1959802853261952E-3</v>
       </c>
       <c r="M11">
-        <v>9.2769475094258466E-8</v>
+        <v>-6.755622108371564E-7</v>
       </c>
       <c r="N11">
-        <v>-1.1623336029273882E-6</v>
+        <v>-4.651760867121056E-7</v>
       </c>
       <c r="O11">
-        <v>-3.2888482030380765E-6</v>
+        <v>1.1595008666270568E-7</v>
       </c>
       <c r="P11">
-        <v>-1.0794153145377044E-6</v>
+        <v>-2.4386768289791733E-6</v>
       </c>
       <c r="Q11">
-        <v>3.4120569149091451E-6</v>
+        <v>-5.6253486312175501E-7</v>
       </c>
       <c r="R11">
-        <v>9.3231083114971498E-6</v>
+        <v>7.4331851865402881E-6</v>
       </c>
       <c r="S11">
-        <v>-4.0739955260015005E-6</v>
+        <v>4.4585131653617669E-6</v>
       </c>
       <c r="T11">
-        <v>-3.4256404826201645E-6</v>
+        <v>8.9473664297849363E-6</v>
       </c>
       <c r="U11">
-        <v>-3.9446487075611228E-3</v>
+        <v>-5.3023835327402243E-3</v>
       </c>
       <c r="V11">
-        <v>1.9877581441241758E-5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+        <v>4.1426567991621489E-5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>35</v>
       </c>
       <c r="B12">
-        <v>-9.4821706659561789E-3</v>
+        <v>-2.8002523581106263E-3</v>
       </c>
       <c r="C12">
-        <v>2.4865437432507561E-7</v>
+        <v>4.4151966812266023E-7</v>
       </c>
       <c r="D12">
-        <v>-3.4300176599467226E-9</v>
+        <v>-5.8738606473010284E-9</v>
       </c>
       <c r="E12">
-        <v>-7.5899141229941466E-6</v>
+        <v>-8.9694311364526852E-6</v>
       </c>
       <c r="F12">
-        <v>-1.3896832051522281E-5</v>
+        <v>-1.9699399889695063E-5</v>
       </c>
       <c r="G12">
-        <v>1.4410364741835341E-7</v>
+        <v>1.7530001883485156E-7</v>
       </c>
       <c r="H12">
-        <v>1.6540004344764467E-7</v>
+        <v>2.5212835954495956E-7</v>
       </c>
       <c r="I12">
-        <v>-5.1344957166550708E-7</v>
+        <v>-1.4830180883014599E-6</v>
       </c>
       <c r="J12">
-        <v>-8.2769716273936427E-7</v>
+        <v>-9.6618948632712321E-7</v>
       </c>
       <c r="K12">
-        <v>-8.8852443689669149E-7</v>
+        <v>-1.7526964551510545E-6</v>
       </c>
       <c r="L12">
-        <v>9.2769475094258466E-8</v>
+        <v>-6.755622108371564E-7</v>
       </c>
       <c r="M12">
-        <v>1.0194133716873396E-4</v>
+        <v>1.3027136176387407E-4</v>
       </c>
       <c r="N12">
-        <v>4.9605038796796339E-5</v>
+        <v>6.4717767890933034E-5</v>
       </c>
       <c r="O12">
-        <v>4.9815719118786738E-5</v>
+        <v>6.5151724014853144E-5</v>
       </c>
       <c r="P12">
-        <v>4.9491868945287081E-5</v>
+        <v>6.4715114158160538E-5</v>
       </c>
       <c r="Q12">
-        <v>2.4286869773679357E-6</v>
+        <v>3.5421098373726555E-6</v>
       </c>
       <c r="R12">
-        <v>-1.0886194021428871E-5</v>
+        <v>-1.5437372242279984E-5</v>
       </c>
       <c r="S12">
-        <v>-1.981114071901221E-9</v>
+        <v>1.0179372180249233E-7</v>
       </c>
       <c r="T12">
-        <v>-6.2218247196524454E-7</v>
+        <v>-6.5203613415927646E-7</v>
       </c>
       <c r="U12">
-        <v>-4.0963431212814134E-5</v>
+        <v>-5.6127523591145185E-5</v>
       </c>
       <c r="V12">
-        <v>1.8407605408738848E-6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+        <v>3.4075377748076019E-6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>36</v>
       </c>
       <c r="B13">
-        <v>-1.8705057230026835E-3</v>
+        <v>1.3438461772660379E-2</v>
       </c>
       <c r="C13">
-        <v>8.381193424115274E-7</v>
+        <v>1.2227382191795803E-6</v>
       </c>
       <c r="D13">
-        <v>-1.018769210361858E-8</v>
+        <v>-1.4685814442014623E-8</v>
       </c>
       <c r="E13">
-        <v>-3.0320512769001724E-6</v>
+        <v>-1.4293680973194623E-6</v>
       </c>
       <c r="F13">
-        <v>-5.9850109971051289E-6</v>
+        <v>-5.1833326783120503E-7</v>
       </c>
       <c r="G13">
-        <v>8.4199522122881703E-8</v>
+        <v>6.7829277521374339E-8</v>
       </c>
       <c r="H13">
-        <v>1.2087843399264475E-7</v>
+        <v>2.3724220558263129E-8</v>
       </c>
       <c r="I13">
-        <v>-4.2933339751486527E-6</v>
+        <v>-4.4170237494588969E-6</v>
       </c>
       <c r="J13">
-        <v>-2.7762742831591837E-6</v>
+        <v>-1.8231430905255316E-6</v>
       </c>
       <c r="K13">
-        <v>-2.5730986491504174E-6</v>
+        <v>-1.7149553468464359E-6</v>
       </c>
       <c r="L13">
-        <v>-1.1623336029273882E-6</v>
+        <v>-4.651760867121056E-7</v>
       </c>
       <c r="M13">
-        <v>4.9605038796796339E-5</v>
+        <v>6.4717767890933034E-5</v>
       </c>
       <c r="N13">
-        <v>1.2768077635538037E-4</v>
+        <v>1.6439171380716326E-4</v>
       </c>
       <c r="O13">
-        <v>4.9619802557859444E-5</v>
+        <v>6.4815407676287919E-5</v>
       </c>
       <c r="P13">
-        <v>4.9541194715142033E-5</v>
+        <v>6.4740945569246634E-5</v>
       </c>
       <c r="Q13">
-        <v>1.5488071949265329E-6</v>
+        <v>2.2644025606561353E-6</v>
       </c>
       <c r="R13">
-        <v>-7.8560235901890273E-6</v>
+        <v>-9.8604597656469192E-6</v>
       </c>
       <c r="S13">
-        <v>-1.5353791684385144E-8</v>
+        <v>3.625552739468996E-7</v>
       </c>
       <c r="T13">
-        <v>-3.1103018209006382E-7</v>
+        <v>-4.6650803378107139E-7</v>
       </c>
       <c r="U13">
-        <v>-5.573536270823734E-5</v>
+        <v>-7.9955857795098302E-5</v>
       </c>
       <c r="V13">
-        <v>1.6079840902757264E-6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+        <v>3.2794703550231556E-6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>37</v>
       </c>
       <c r="B14">
-        <v>-2.9158703882811526E-2</v>
+        <v>-1.44118389824475E-2</v>
       </c>
       <c r="C14">
-        <v>3.0574387631658874E-7</v>
+        <v>6.0690407531789986E-7</v>
       </c>
       <c r="D14">
-        <v>-4.6600578070543735E-9</v>
+        <v>-8.4863972177928964E-9</v>
       </c>
       <c r="E14">
-        <v>-6.2252031160904114E-6</v>
+        <v>-7.3289992377250205E-6</v>
       </c>
       <c r="F14">
-        <v>-6.1517210047274991E-6</v>
+        <v>-9.7476164790243588E-6</v>
       </c>
       <c r="G14">
-        <v>1.4768422270141869E-7</v>
+        <v>1.8034306501066659E-7</v>
       </c>
       <c r="H14">
-        <v>2.3337078368451594E-8</v>
+        <v>6.4218511320855552E-8</v>
       </c>
       <c r="I14">
-        <v>-3.5986121411165975E-6</v>
+        <v>-4.3526821769587457E-7</v>
       </c>
       <c r="J14">
-        <v>-3.0449081461128226E-6</v>
+        <v>3.8201771457264419E-7</v>
       </c>
       <c r="K14">
-        <v>-2.9388740826683845E-6</v>
+        <v>2.5067665951300378E-7</v>
       </c>
       <c r="L14">
-        <v>-3.2888482030380765E-6</v>
+        <v>1.1595008666270568E-7</v>
       </c>
       <c r="M14">
-        <v>4.9815719118786738E-5</v>
+        <v>6.5151724014853144E-5</v>
       </c>
       <c r="N14">
-        <v>4.9619802557859444E-5</v>
+        <v>6.4815407676287919E-5</v>
       </c>
       <c r="O14">
-        <v>9.8261128546714777E-5</v>
+        <v>1.2520026993564193E-4</v>
       </c>
       <c r="P14">
-        <v>4.9578314115228733E-5</v>
+        <v>6.4858883387974961E-5</v>
       </c>
       <c r="Q14">
-        <v>1.5537853190079795E-6</v>
+        <v>2.471150523176832E-6</v>
       </c>
       <c r="R14">
-        <v>-1.3776610396371905E-5</v>
+        <v>-1.8047141506108638E-5</v>
       </c>
       <c r="S14">
-        <v>6.8058406774256393E-7</v>
+        <v>1.278523559387897E-6</v>
       </c>
       <c r="T14">
-        <v>5.073736275316641E-7</v>
+        <v>3.3840039429458545E-9</v>
       </c>
       <c r="U14">
-        <v>-3.6275782957897424E-5</v>
+        <v>-5.8377830230209688E-5</v>
       </c>
       <c r="V14">
-        <v>1.1818619040760879E-6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+        <v>3.6690197326062295E-6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>39</v>
       </c>
       <c r="B15">
-        <v>-5.3006522868718542E-2</v>
+        <v>-5.9113531186044635E-2</v>
       </c>
       <c r="C15">
-        <v>3.039946283479872E-7</v>
+        <v>5.7503003436120629E-7</v>
       </c>
       <c r="D15">
-        <v>-4.0277252873558957E-9</v>
+        <v>-7.3002707586178508E-9</v>
       </c>
       <c r="E15">
-        <v>-9.9057882133093686E-8</v>
+        <v>1.0164366233192993E-6</v>
       </c>
       <c r="F15">
-        <v>-1.6156628850121871E-7</v>
+        <v>-2.6907265010842423E-7</v>
       </c>
       <c r="G15">
-        <v>5.1766701863300721E-8</v>
+        <v>4.1630368712126931E-8</v>
       </c>
       <c r="H15">
-        <v>1.1519924762857899E-8</v>
+        <v>6.7056741765086407E-9</v>
       </c>
       <c r="I15">
-        <v>-4.0090255572087677E-6</v>
+        <v>-6.306233577834668E-6</v>
       </c>
       <c r="J15">
-        <v>-3.3780648442590759E-6</v>
+        <v>-4.7123148569667452E-6</v>
       </c>
       <c r="K15">
-        <v>-2.6224320741080685E-6</v>
+        <v>-4.2563624707978356E-6</v>
       </c>
       <c r="L15">
-        <v>-1.0794153145377044E-6</v>
+        <v>-2.4386768289791733E-6</v>
       </c>
       <c r="M15">
-        <v>4.9491868945287081E-5</v>
+        <v>6.4715114158160538E-5</v>
       </c>
       <c r="N15">
-        <v>4.9541194715142033E-5</v>
+        <v>6.4740945569246634E-5</v>
       </c>
       <c r="O15">
-        <v>4.9578314115228733E-5</v>
+        <v>6.4858883387974961E-5</v>
       </c>
       <c r="P15">
-        <v>7.0218211485466886E-5</v>
+        <v>9.0605783685723674E-5</v>
       </c>
       <c r="Q15">
-        <v>2.0550359699828879E-6</v>
+        <v>3.0317557918962174E-6</v>
       </c>
       <c r="R15">
-        <v>-7.588343106304976E-6</v>
+        <v>-1.3218583202574251E-5</v>
       </c>
       <c r="S15">
-        <v>-3.75268412217497E-8</v>
+        <v>4.9169999077140715E-7</v>
       </c>
       <c r="T15">
-        <v>-1.8506880504153162E-7</v>
+        <v>-2.1969847988588212E-7</v>
       </c>
       <c r="U15">
-        <v>-4.5379442808047208E-5</v>
+        <v>-5.9585999694824487E-5</v>
       </c>
       <c r="V15">
-        <v>3.5525744887315854E-7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+        <v>1.3775232823295929E-6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>28</v>
       </c>
       <c r="B16">
-        <v>0.23108975156786471</v>
+        <v>0.25957586913692388</v>
       </c>
       <c r="C16">
-        <v>7.608265502409031E-7</v>
+        <v>1.0980540487328166E-6</v>
       </c>
       <c r="D16">
-        <v>-1.0824342476592797E-8</v>
+        <v>-1.4640711591866925E-8</v>
       </c>
       <c r="E16">
-        <v>-2.8809708783238775E-6</v>
+        <v>-3.782986605420025E-6</v>
       </c>
       <c r="F16">
-        <v>-1.7746060187445887E-5</v>
+        <v>-1.9230938860993924E-5</v>
       </c>
       <c r="G16">
-        <v>1.4841555580057104E-7</v>
+        <v>1.7535665525485707E-7</v>
       </c>
       <c r="H16">
-        <v>3.67003846993464E-7</v>
+        <v>3.9120387921005469E-7</v>
       </c>
       <c r="I16">
-        <v>1.641139116869422E-6</v>
+        <v>-4.1624232502529999E-6</v>
       </c>
       <c r="J16">
-        <v>2.3026252793003067E-6</v>
+        <v>-3.034430533350378E-6</v>
       </c>
       <c r="K16">
-        <v>3.3933072966464568E-6</v>
+        <v>-9.225120729353929E-7</v>
       </c>
       <c r="L16">
-        <v>3.4120569149091451E-6</v>
+        <v>-5.6253486312175501E-7</v>
       </c>
       <c r="M16">
-        <v>2.4286869773679357E-6</v>
+        <v>3.5421098373726555E-6</v>
       </c>
       <c r="N16">
-        <v>1.5488071949265329E-6</v>
+        <v>2.2644025606561353E-6</v>
       </c>
       <c r="O16">
-        <v>1.5537853190079795E-6</v>
+        <v>2.471150523176832E-6</v>
       </c>
       <c r="P16">
-        <v>2.0550359699828879E-6</v>
+        <v>3.0317557918962174E-6</v>
       </c>
       <c r="Q16">
-        <v>1.0974829786558754E-4</v>
+        <v>1.5232558811907428E-4</v>
       </c>
       <c r="R16">
-        <v>1.2142681506104528E-5</v>
+        <v>1.6543908628363688E-5</v>
       </c>
       <c r="S16">
-        <v>-6.1149469405479214E-7</v>
+        <v>-1.8503556192745612E-6</v>
       </c>
       <c r="T16">
-        <v>1.2206918379267099E-7</v>
+        <v>-9.3940750737549572E-7</v>
       </c>
       <c r="U16">
-        <v>-3.7380012735097622E-5</v>
+        <v>-4.2554706711649121E-5</v>
       </c>
       <c r="V16">
-        <v>-5.788289508764242E-6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+        <v>-9.4639793107988877E-6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>29</v>
       </c>
       <c r="B17">
-        <v>0.39303979506629999</v>
+        <v>0.28368736804887662</v>
       </c>
       <c r="C17">
-        <v>-7.9567950767619778E-7</v>
+        <v>-1.4956620084041213E-6</v>
       </c>
       <c r="D17">
-        <v>-1.5933090104661073E-9</v>
+        <v>3.1048906804133775E-9</v>
       </c>
       <c r="E17">
-        <v>6.7846122909906782E-7</v>
+        <v>3.0820380676953535E-6</v>
       </c>
       <c r="F17">
-        <v>-1.855215439687582E-5</v>
+        <v>-3.8923625597379499E-6</v>
       </c>
       <c r="G17">
-        <v>2.5873300778637611E-7</v>
+        <v>2.8225844168944421E-7</v>
       </c>
       <c r="H17">
-        <v>7.8166085711421123E-7</v>
+        <v>6.3900689334369787E-7</v>
       </c>
       <c r="I17">
-        <v>1.867185217947307E-5</v>
+        <v>2.1021873678520292E-5</v>
       </c>
       <c r="J17">
-        <v>1.7532570830063445E-5</v>
+        <v>1.697407490928134E-5</v>
       </c>
       <c r="K17">
-        <v>8.6320427684769192E-6</v>
+        <v>7.1282094857233867E-6</v>
       </c>
       <c r="L17">
-        <v>9.3231083114971498E-6</v>
+        <v>7.4331851865402881E-6</v>
       </c>
       <c r="M17">
-        <v>-1.0886194021428871E-5</v>
+        <v>-1.5437372242279984E-5</v>
       </c>
       <c r="N17">
-        <v>-7.8560235901890273E-6</v>
+        <v>-9.8604597656469192E-6</v>
       </c>
       <c r="O17">
-        <v>-1.3776610396371905E-5</v>
+        <v>-1.8047141506108638E-5</v>
       </c>
       <c r="P17">
-        <v>-7.588343106304976E-6</v>
+        <v>-1.3218583202574251E-5</v>
       </c>
       <c r="Q17">
-        <v>1.2142681506104528E-5</v>
+        <v>1.6543908628363688E-5</v>
       </c>
       <c r="R17">
-        <v>6.4696373126168691E-4</v>
+        <v>8.5702250143448501E-4</v>
       </c>
       <c r="S17">
-        <v>-1.1478281707553202E-4</v>
+        <v>-1.500240655241596E-4</v>
       </c>
       <c r="T17">
-        <v>-1.3122246291911787E-4</v>
+        <v>-1.7138900962193938E-4</v>
       </c>
       <c r="U17">
-        <v>-6.5051670533170956E-4</v>
+        <v>-8.4453617703435571E-4</v>
       </c>
       <c r="V17">
-        <v>-5.5962205134021933E-6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+        <v>-9.5746601582941276E-6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>30</v>
       </c>
       <c r="B18">
-        <v>0.10106835139847886</v>
+        <v>1.1540962507768647E-2</v>
       </c>
       <c r="C18">
-        <v>-8.6027880458266393E-8</v>
+        <v>1.5888584572992342E-6</v>
       </c>
       <c r="D18">
-        <v>1.4675746588610891E-9</v>
+        <v>-1.6887215715471747E-8</v>
       </c>
       <c r="E18">
-        <v>5.4453232142294374E-7</v>
+        <v>9.1411487075207717E-7</v>
       </c>
       <c r="F18">
-        <v>5.3334777472785261E-6</v>
+        <v>-5.157981230609925E-6</v>
       </c>
       <c r="G18">
-        <v>-1.2022803185915018E-8</v>
+        <v>-2.462870248257693E-8</v>
       </c>
       <c r="H18">
-        <v>-1.0232141738619312E-7</v>
+        <v>5.2837663585639183E-8</v>
       </c>
       <c r="I18">
-        <v>-4.5070043237946888E-6</v>
+        <v>6.0746598907570916E-7</v>
       </c>
       <c r="J18">
-        <v>-4.7596386674859461E-6</v>
+        <v>2.7728610691738784E-6</v>
       </c>
       <c r="K18">
-        <v>-4.7553379772289886E-6</v>
+        <v>3.0478935665868615E-6</v>
       </c>
       <c r="L18">
-        <v>-4.0739955260015005E-6</v>
+        <v>4.4585131653617669E-6</v>
       </c>
       <c r="M18">
-        <v>-1.981114071901221E-9</v>
+        <v>1.0179372180249233E-7</v>
       </c>
       <c r="N18">
-        <v>-1.5353791684385144E-8</v>
+        <v>3.625552739468996E-7</v>
       </c>
       <c r="O18">
-        <v>6.8058406774256393E-7</v>
+        <v>1.278523559387897E-6</v>
       </c>
       <c r="P18">
-        <v>-3.75268412217497E-8</v>
+        <v>4.9169999077140715E-7</v>
       </c>
       <c r="Q18">
-        <v>-6.1149469405479214E-7</v>
+        <v>-1.8503556192745612E-6</v>
       </c>
       <c r="R18">
-        <v>-1.1478281707553202E-4</v>
+        <v>-1.500240655241596E-4</v>
       </c>
       <c r="S18">
-        <v>1.0227184633121069E-4</v>
+        <v>1.2228944999290628E-4</v>
       </c>
       <c r="T18">
-        <v>3.4042365738081541E-5</v>
+        <v>4.6224143546778153E-5</v>
       </c>
       <c r="U18">
-        <v>1.1536239986968143E-4</v>
+        <v>9.1427397015555052E-5</v>
       </c>
       <c r="V18">
-        <v>7.8639090755938209E-8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+        <v>1.6389901829992694E-5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>31</v>
       </c>
       <c r="B19">
-        <v>3.3447395664253025E-2</v>
+        <v>-4.5034150128031768E-2</v>
       </c>
       <c r="C19">
-        <v>-3.8027245988400287E-8</v>
+        <v>1.229313569753428E-6</v>
       </c>
       <c r="D19">
-        <v>6.0034611052694563E-10</v>
+        <v>-1.3272413199489726E-8</v>
       </c>
       <c r="E19">
-        <v>-4.9258058076726966E-8</v>
+        <v>-1.0325945374454206E-6</v>
       </c>
       <c r="F19">
-        <v>9.3826637301873666E-7</v>
+        <v>-6.8822015829762088E-6</v>
       </c>
       <c r="G19">
-        <v>-1.8099147029252528E-10</v>
+        <v>1.4149763880930139E-8</v>
       </c>
       <c r="H19">
-        <v>-2.2197132887395416E-8</v>
+        <v>1.0237482967583039E-7</v>
       </c>
       <c r="I19">
-        <v>-2.0379534623784757E-6</v>
+        <v>8.213472980740339E-6</v>
       </c>
       <c r="J19">
-        <v>-2.6879694764577749E-6</v>
+        <v>9.6443468511844414E-6</v>
       </c>
       <c r="K19">
-        <v>-3.5540857401025155E-6</v>
+        <v>8.2952680968771936E-6</v>
       </c>
       <c r="L19">
-        <v>-3.4256404826201645E-6</v>
+        <v>8.9473664297849363E-6</v>
       </c>
       <c r="M19">
-        <v>-6.2218247196524454E-7</v>
+        <v>-6.5203613415927646E-7</v>
       </c>
       <c r="N19">
-        <v>-3.1103018209006382E-7</v>
+        <v>-4.6650803378107139E-7</v>
       </c>
       <c r="O19">
-        <v>5.073736275316641E-7</v>
+        <v>3.3840039429458545E-9</v>
       </c>
       <c r="P19">
-        <v>-1.8506880504153162E-7</v>
+        <v>-2.1969847988588212E-7</v>
       </c>
       <c r="Q19">
-        <v>1.2206918379267099E-7</v>
+        <v>-9.3940750737549572E-7</v>
       </c>
       <c r="R19">
-        <v>-1.3122246291911787E-4</v>
+        <v>-1.7138900962193938E-4</v>
       </c>
       <c r="S19">
-        <v>3.4042365738081541E-5</v>
+        <v>4.6224143546778153E-5</v>
       </c>
       <c r="T19">
-        <v>1.3247931034435478E-4</v>
+        <v>1.6275923234219559E-4</v>
       </c>
       <c r="U19">
-        <v>1.3047914865043243E-4</v>
+        <v>1.1916936991965922E-4</v>
       </c>
       <c r="V19">
-        <v>1.6787578038153701E-6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+        <v>1.4541020180305559E-5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>32</v>
       </c>
       <c r="B20">
-        <v>0.47836782750930223</v>
+        <v>0.51948954830877114</v>
       </c>
       <c r="C20">
-        <v>-1.1452872890484959E-4</v>
+        <v>-1.5933694661009071E-4</v>
       </c>
       <c r="D20">
-        <v>1.2340622281052946E-6</v>
+        <v>1.7320997701301001E-6</v>
       </c>
       <c r="E20">
-        <v>-3.8518628607065342E-4</v>
+        <v>-5.2657710495985306E-4</v>
       </c>
       <c r="F20">
-        <v>-3.2892228458597088E-4</v>
+        <v>-3.7974350286134738E-4</v>
       </c>
       <c r="G20">
-        <v>8.2982982183953966E-6</v>
+        <v>1.0984571337613032E-5</v>
       </c>
       <c r="H20">
-        <v>6.5515429272138312E-6</v>
+        <v>7.3043391758059595E-6</v>
       </c>
       <c r="I20">
-        <v>-3.8464864571491689E-3</v>
+        <v>-5.1695623184485088E-3</v>
       </c>
       <c r="J20">
-        <v>-3.8708936679929273E-3</v>
+        <v>-5.210856190784696E-3</v>
       </c>
       <c r="K20">
-        <v>-3.8776954222204917E-3</v>
+        <v>-5.2174809260281804E-3</v>
       </c>
       <c r="L20">
-        <v>-3.9446487075611228E-3</v>
+        <v>-5.3023835327402243E-3</v>
       </c>
       <c r="M20">
-        <v>-4.0963431212814134E-5</v>
+        <v>-5.6127523591145185E-5</v>
       </c>
       <c r="N20">
-        <v>-5.573536270823734E-5</v>
+        <v>-7.9955857795098302E-5</v>
       </c>
       <c r="O20">
-        <v>-3.6275782957897424E-5</v>
+        <v>-5.8377830230209688E-5</v>
       </c>
       <c r="P20">
-        <v>-4.5379442808047208E-5</v>
+        <v>-5.9585999694824487E-5</v>
       </c>
       <c r="Q20">
-        <v>-3.7380012735097622E-5</v>
+        <v>-4.2554706711649121E-5</v>
       </c>
       <c r="R20">
-        <v>-6.5051670533170956E-4</v>
+        <v>-8.4453617703435571E-4</v>
       </c>
       <c r="S20">
-        <v>1.1536239986968143E-4</v>
+        <v>9.1427397015555052E-5</v>
       </c>
       <c r="T20">
-        <v>1.3047914865043243E-4</v>
+        <v>1.1916936991965922E-4</v>
       </c>
       <c r="U20">
-        <v>7.1743454117572294E-3</v>
+        <v>9.9096089116600204E-3</v>
       </c>
       <c r="V20">
-        <v>-1.2831448137596519E-4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+        <v>-2.8160930074145517E-4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>33</v>
       </c>
       <c r="B21">
-        <v>-0.3996665027392689</v>
+        <v>-0.15933348626994642</v>
       </c>
       <c r="C21">
-        <v>4.8323382378936426E-6</v>
+        <v>8.5071394222263699E-6</v>
       </c>
       <c r="D21">
-        <v>-5.3374172049651523E-8</v>
+        <v>-9.5780797943743603E-8</v>
       </c>
       <c r="E21">
-        <v>-5.761923759839597E-6</v>
+        <v>-8.4771581142810307E-7</v>
       </c>
       <c r="F21">
-        <v>-3.1147253347948914E-5</v>
+        <v>-5.7869132540309102E-5</v>
       </c>
       <c r="G21">
-        <v>1.4748084986789485E-8</v>
+        <v>-2.5275885959211387E-8</v>
       </c>
       <c r="H21">
-        <v>3.6997527290808156E-7</v>
+        <v>8.6727234952892878E-7</v>
       </c>
       <c r="I21">
-        <v>1.0544788949018711E-5</v>
+        <v>2.503319819362831E-5</v>
       </c>
       <c r="J21">
-        <v>1.6990990777050661E-5</v>
+        <v>3.7492743340893531E-5</v>
       </c>
       <c r="K21">
-        <v>1.9709386223176973E-5</v>
+        <v>4.0591226333024823E-5</v>
       </c>
       <c r="L21">
-        <v>1.9877581441241758E-5</v>
+        <v>4.1426567991621489E-5</v>
       </c>
       <c r="M21">
-        <v>1.8407605408738848E-6</v>
+        <v>3.4075377748076019E-6</v>
       </c>
       <c r="N21">
-        <v>1.6079840902757264E-6</v>
+        <v>3.2794703550231556E-6</v>
       </c>
       <c r="O21">
-        <v>1.1818619040760879E-6</v>
+        <v>3.6690197326062295E-6</v>
       </c>
       <c r="P21">
-        <v>3.5525744887315854E-7</v>
+        <v>1.3775232823295929E-6</v>
       </c>
       <c r="Q21">
-        <v>-5.788289508764242E-6</v>
+        <v>-9.4639793107988877E-6</v>
       </c>
       <c r="R21">
-        <v>-5.5962205134021933E-6</v>
+        <v>-9.5746601582941276E-6</v>
       </c>
       <c r="S21">
-        <v>7.8639090755938209E-8</v>
+        <v>1.6389901829992694E-5</v>
       </c>
       <c r="T21">
-        <v>1.6787578038153701E-6</v>
+        <v>1.4541020180305559E-5</v>
       </c>
       <c r="U21">
-        <v>-1.2831448137596519E-4</v>
+        <v>-2.8160930074145517E-4</v>
       </c>
       <c r="V21">
-        <v>3.7215836304167453E-5</v>
+        <v>8.3000960658398179E-5</v>
       </c>
     </row>
   </sheetData>
@@ -2091,16 +2091,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:V21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="26.85546875" customWidth="1"/>
+    <col min="1" max="1" width="26.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -2168,1364 +2166,1364 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>18</v>
       </c>
       <c r="B2">
-        <v>5.3668697810105574E-2</v>
+        <v>3.9759745867694381E-2</v>
       </c>
       <c r="C2">
-        <v>4.418214460535345E-6</v>
+        <v>6.4340121819186968E-6</v>
       </c>
       <c r="D2">
-        <v>-4.6433011919907926E-8</v>
+        <v>-6.7525931846446172E-8</v>
       </c>
       <c r="E2">
-        <v>1.8936726326012857E-5</v>
+        <v>3.0387178480732583E-5</v>
       </c>
       <c r="F2">
-        <v>2.2245241954480568E-5</v>
+        <v>3.2001609497540675E-5</v>
       </c>
       <c r="G2">
-        <v>-4.2042382051491306E-7</v>
+        <v>-6.4516012755933352E-7</v>
       </c>
       <c r="H2">
-        <v>-4.7332617304395112E-7</v>
+        <v>-6.6313757437488586E-7</v>
       </c>
       <c r="I2">
-        <v>1.0188120485487913E-6</v>
+        <v>1.9386635978851178E-6</v>
       </c>
       <c r="J2">
-        <v>1.4839198713356475E-6</v>
+        <v>3.1291317696965306E-6</v>
       </c>
       <c r="K2">
-        <v>7.9760338032984223E-7</v>
+        <v>1.9731400202890582E-6</v>
       </c>
       <c r="L2">
-        <v>2.9049059609684703E-6</v>
+        <v>5.0389973682978872E-6</v>
       </c>
       <c r="M2">
-        <v>5.0252050992346118E-7</v>
+        <v>9.5090032166777057E-7</v>
       </c>
       <c r="N2">
-        <v>4.4529626621375925E-7</v>
+        <v>9.9795430963928009E-7</v>
       </c>
       <c r="O2">
-        <v>3.4309902872248524E-7</v>
+        <v>7.5451810562831619E-7</v>
       </c>
       <c r="P2">
-        <v>3.3064183317993969E-7</v>
+        <v>7.0145002575936086E-7</v>
       </c>
       <c r="Q2">
-        <v>1.8680283772953761E-6</v>
+        <v>2.8992480259470054E-6</v>
       </c>
       <c r="R2">
-        <v>-1.196842797510921E-7</v>
+        <v>-6.1454418855833277E-7</v>
       </c>
       <c r="S2">
-        <v>-6.4966341507632609E-8</v>
+        <v>1.9274255388636937E-6</v>
       </c>
       <c r="T2">
-        <v>9.8568120402832351E-8</v>
+        <v>1.4957377364991421E-6</v>
       </c>
       <c r="U2">
-        <v>-1.0141571570846216E-4</v>
+        <v>-1.5508398949142942E-4</v>
       </c>
       <c r="V2">
-        <v>4.2683263040192437E-6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+        <v>8.960335623176053E-6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>19</v>
       </c>
       <c r="B3">
-        <v>-4.9451899811548154E-4</v>
+        <v>-3.6416034649222568E-4</v>
       </c>
       <c r="C3">
-        <v>-4.6433011919907926E-8</v>
+        <v>-6.7525931846446172E-8</v>
       </c>
       <c r="D3">
-        <v>5.3165044043730342E-10</v>
+        <v>7.7278876567090288E-10</v>
       </c>
       <c r="E3">
-        <v>-5.1887453855365715E-8</v>
+        <v>-1.0310847154132236E-7</v>
       </c>
       <c r="F3">
-        <v>-9.0390669433048846E-8</v>
+        <v>-1.2338801725073356E-7</v>
       </c>
       <c r="G3">
-        <v>8.18988868902324E-10</v>
+        <v>1.4861921131842019E-9</v>
       </c>
       <c r="H3">
-        <v>1.4375011624372974E-9</v>
+        <v>1.7299191813367613E-9</v>
       </c>
       <c r="I3">
-        <v>-1.3484399536279725E-8</v>
+        <v>-2.7415109261825024E-8</v>
       </c>
       <c r="J3">
-        <v>-1.751077855531745E-8</v>
+        <v>-3.8481689190160879E-8</v>
       </c>
       <c r="K3">
-        <v>-5.0693680746816331E-9</v>
+        <v>-1.914955834455691E-8</v>
       </c>
       <c r="L3">
-        <v>-2.1916144068137096E-8</v>
+        <v>-4.385912803908526E-8</v>
       </c>
       <c r="M3">
-        <v>-5.9431084459126438E-9</v>
+        <v>-1.1459192900873751E-8</v>
       </c>
       <c r="N3">
-        <v>-6.3303237410087164E-9</v>
+        <v>-1.3623270356359833E-8</v>
       </c>
       <c r="O3">
-        <v>-4.5154865019042804E-9</v>
+        <v>-9.7399294723006021E-9</v>
       </c>
       <c r="P3">
-        <v>-3.5014732948486936E-9</v>
+        <v>-7.9164716815852616E-9</v>
       </c>
       <c r="Q3">
-        <v>-2.6275685705431225E-8</v>
+        <v>-4.0180734407472368E-8</v>
       </c>
       <c r="R3">
-        <v>-6.3788728862367531E-9</v>
+        <v>-4.4274582676928459E-9</v>
       </c>
       <c r="S3">
-        <v>1.377687525976754E-9</v>
+        <v>-1.9896247670083309E-8</v>
       </c>
       <c r="T3">
-        <v>-8.2151704970237417E-10</v>
+        <v>-1.5513986517103527E-8</v>
       </c>
       <c r="U3">
-        <v>9.9261971790637638E-7</v>
+        <v>1.5259104208562563E-6</v>
       </c>
       <c r="V3">
-        <v>-4.5851820517817924E-8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+        <v>-9.7310949942539979E-8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>20</v>
       </c>
       <c r="B4">
-        <v>-0.17434706120120733</v>
+        <v>-0.16346076774682619</v>
       </c>
       <c r="C4">
-        <v>1.8936726326012857E-5</v>
+        <v>3.0387178480732583E-5</v>
       </c>
       <c r="D4">
-        <v>-5.1887453855365715E-8</v>
+        <v>-1.0310847154132236E-7</v>
       </c>
       <c r="E4">
-        <v>8.0683917913332618E-4</v>
+        <v>1.2030384410601929E-3</v>
       </c>
       <c r="F4">
-        <v>6.3776945120534289E-4</v>
+        <v>9.3832265571152274E-4</v>
       </c>
       <c r="G4">
-        <v>-1.8132829267956714E-5</v>
+        <v>-2.6847307413816139E-5</v>
       </c>
       <c r="H4">
-        <v>-1.4527258725111158E-5</v>
+        <v>-2.1279044200980811E-5</v>
       </c>
       <c r="I4">
-        <v>-8.6534275976391745E-6</v>
+        <v>-7.6683052988331487E-6</v>
       </c>
       <c r="J4">
-        <v>-1.0043082874873747E-5</v>
+        <v>-1.1663708316376631E-6</v>
       </c>
       <c r="K4">
-        <v>-1.7014389279585444E-5</v>
+        <v>-1.1223195646818734E-5</v>
       </c>
       <c r="L4">
-        <v>-7.0348968000253615E-6</v>
+        <v>3.2372932294624501E-6</v>
       </c>
       <c r="M4">
-        <v>-2.2334614547471466E-6</v>
+        <v>-2.0333479726125717E-6</v>
       </c>
       <c r="N4">
-        <v>-2.7349803333034637E-6</v>
+        <v>-2.782028808590139E-6</v>
       </c>
       <c r="O4">
-        <v>-3.177476976081942E-6</v>
+        <v>-3.0078095984160877E-6</v>
       </c>
       <c r="P4">
-        <v>7.5845877178997508E-7</v>
+        <v>1.7226152327206421E-6</v>
       </c>
       <c r="Q4">
-        <v>-5.7892709488330974E-6</v>
+        <v>-1.0058344521740388E-5</v>
       </c>
       <c r="R4">
-        <v>7.3824650603265489E-6</v>
+        <v>1.1550904740004167E-5</v>
       </c>
       <c r="S4">
-        <v>9.7785846032303261E-7</v>
+        <v>9.9325327759699673E-6</v>
       </c>
       <c r="T4">
-        <v>2.9676083529101424E-7</v>
+        <v>8.7794411196413081E-6</v>
       </c>
       <c r="U4">
-        <v>-7.1965621700091154E-4</v>
+        <v>-1.1702066884681339E-3</v>
       </c>
       <c r="V4">
-        <v>8.2994311910149627E-6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+        <v>4.4493764707005579E-5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>21</v>
       </c>
       <c r="B5">
-        <v>-0.13423284147193792</v>
+        <v>-0.12847288550775551</v>
       </c>
       <c r="C5">
-        <v>2.2245241954480568E-5</v>
+        <v>3.2001609497540675E-5</v>
       </c>
       <c r="D5">
-        <v>-9.0390669433048846E-8</v>
+        <v>-1.2338801725073356E-7</v>
       </c>
       <c r="E5">
-        <v>6.3776945120534289E-4</v>
+        <v>9.3832265571152274E-4</v>
       </c>
       <c r="F5">
-        <v>1.9597638160860163E-3</v>
+        <v>2.9757779794535233E-3</v>
       </c>
       <c r="G5">
-        <v>-1.4547238279108792E-5</v>
+        <v>-2.1454950629401073E-5</v>
       </c>
       <c r="H5">
-        <v>-4.2011651107688505E-5</v>
+        <v>-6.3702579287890478E-5</v>
       </c>
       <c r="I5">
-        <v>-8.5974816694511956E-6</v>
+        <v>-4.7751251166141139E-5</v>
       </c>
       <c r="J5">
-        <v>-1.8544959786223714E-5</v>
+        <v>-5.708606879397536E-5</v>
       </c>
       <c r="K5">
-        <v>-2.9617546950186705E-5</v>
+        <v>-7.2797440088899894E-5</v>
       </c>
       <c r="L5">
-        <v>-1.4578083795171948E-5</v>
+        <v>-5.3181865513447626E-5</v>
       </c>
       <c r="M5">
-        <v>-1.3192110807509556E-5</v>
+        <v>-1.8134286416527054E-5</v>
       </c>
       <c r="N5">
-        <v>-6.7394066577293743E-6</v>
+        <v>-8.7533134135600946E-6</v>
       </c>
       <c r="O5">
-        <v>-1.3622544653730976E-5</v>
+        <v>-1.7276905078906226E-5</v>
       </c>
       <c r="P5">
-        <v>6.1600587451848161E-7</v>
+        <v>2.3987639581803593E-6</v>
       </c>
       <c r="Q5">
-        <v>-2.1805352584214116E-5</v>
+        <v>-3.3605142851759773E-5</v>
       </c>
       <c r="R5">
-        <v>-1.7450857978834311E-5</v>
+        <v>-1.3802452904544876E-5</v>
       </c>
       <c r="S5">
-        <v>3.233910050104118E-6</v>
+        <v>-1.0571208185655473E-6</v>
       </c>
       <c r="T5">
-        <v>3.0130515266828256E-6</v>
+        <v>-1.2413387059614713E-6</v>
       </c>
       <c r="U5">
-        <v>-7.3667055121126698E-4</v>
+        <v>-1.0424186495602466E-3</v>
       </c>
       <c r="V5">
-        <v>-1.4573987462305845E-5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+        <v>-2.2619361286945278E-5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>22</v>
       </c>
       <c r="B6">
-        <v>-7.5740594880053386E-3</v>
+        <v>-7.508481329409282E-3</v>
       </c>
       <c r="C6">
-        <v>-4.2042382051491306E-7</v>
+        <v>-6.4516012755933352E-7</v>
       </c>
       <c r="D6">
-        <v>8.18988868902324E-10</v>
+        <v>1.4861921131842019E-9</v>
       </c>
       <c r="E6">
-        <v>-1.8132829267956714E-5</v>
+        <v>-2.6847307413816139E-5</v>
       </c>
       <c r="F6">
-        <v>-1.4547238279108792E-5</v>
+        <v>-2.1454950629401073E-5</v>
       </c>
       <c r="G6">
-        <v>4.3547573606786658E-7</v>
+        <v>6.4163196923652035E-7</v>
       </c>
       <c r="H6">
-        <v>3.535068931511867E-7</v>
+        <v>5.1948388520054326E-7</v>
       </c>
       <c r="I6">
-        <v>2.5412799538792303E-7</v>
+        <v>4.1466111844453508E-7</v>
       </c>
       <c r="J6">
-        <v>3.1273669857495068E-7</v>
+        <v>3.800537178610983E-7</v>
       </c>
       <c r="K6">
-        <v>5.5747752095737904E-7</v>
+        <v>7.5009544507165276E-7</v>
       </c>
       <c r="L6">
-        <v>4.2688331846208986E-7</v>
+        <v>5.6475047071769195E-7</v>
       </c>
       <c r="M6">
-        <v>-2.5087032520520836E-8</v>
+        <v>-4.1724831653812047E-8</v>
       </c>
       <c r="N6">
-        <v>7.1098575712665358E-8</v>
+        <v>1.1014776169544901E-7</v>
       </c>
       <c r="O6">
-        <v>3.0010358550996524E-8</v>
+        <v>3.8414084219164404E-8</v>
       </c>
       <c r="P6">
-        <v>-2.7253456032357061E-8</v>
+        <v>-2.6888623684960292E-8</v>
       </c>
       <c r="Q6">
-        <v>2.6271440929604766E-7</v>
+        <v>4.0275427195405298E-7</v>
       </c>
       <c r="R6">
-        <v>4.7268911527324973E-8</v>
+        <v>5.8410714865205047E-8</v>
       </c>
       <c r="S6">
-        <v>-3.6714470973180378E-8</v>
+        <v>-1.3320815834739511E-7</v>
       </c>
       <c r="T6">
-        <v>-1.9769240668492087E-8</v>
+        <v>-1.1280318473546705E-7</v>
       </c>
       <c r="U6">
-        <v>1.5296400587727991E-5</v>
+        <v>2.3606983882771988E-5</v>
       </c>
       <c r="V6">
-        <v>-1.0459971532781808E-7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+        <v>-4.5262153861596644E-7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>23</v>
       </c>
       <c r="B7">
-        <v>-1.4064318953512664E-2</v>
+        <v>-1.3972232676139852E-2</v>
       </c>
       <c r="C7">
-        <v>-4.7332617304395112E-7</v>
+        <v>-6.6313757437488586E-7</v>
       </c>
       <c r="D7">
-        <v>1.4375011624372974E-9</v>
+        <v>1.7299191813367613E-9</v>
       </c>
       <c r="E7">
-        <v>-1.4527258725111158E-5</v>
+        <v>-2.1279044200980811E-5</v>
       </c>
       <c r="F7">
-        <v>-4.2011651107688505E-5</v>
+        <v>-6.3702579287890478E-5</v>
       </c>
       <c r="G7">
-        <v>3.535068931511867E-7</v>
+        <v>5.1948388520054326E-7</v>
       </c>
       <c r="H7">
-        <v>9.7838567616323124E-7</v>
+        <v>1.4766303779329741E-6</v>
       </c>
       <c r="I7">
-        <v>1.928435830017308E-7</v>
+        <v>1.3053393391961594E-6</v>
       </c>
       <c r="J7">
-        <v>4.1771320218794483E-7</v>
+        <v>1.5690401900071769E-6</v>
       </c>
       <c r="K7">
-        <v>7.8030153995168751E-7</v>
+        <v>2.1161838010254561E-6</v>
       </c>
       <c r="L7">
-        <v>5.7936502242875122E-7</v>
+        <v>1.8682751873742279E-6</v>
       </c>
       <c r="M7">
-        <v>1.4155985144854682E-7</v>
+        <v>2.1229943862250996E-7</v>
       </c>
       <c r="N7">
-        <v>1.1829393735117284E-7</v>
+        <v>1.8410677082872121E-7</v>
       </c>
       <c r="O7">
-        <v>1.4878701789098853E-7</v>
+        <v>1.9749502767260322E-7</v>
       </c>
       <c r="P7">
-        <v>-1.1755549806826591E-7</v>
+        <v>-1.7668878543439591E-7</v>
       </c>
       <c r="Q7">
-        <v>4.6186210924112096E-7</v>
+        <v>6.6073322792872961E-7</v>
       </c>
       <c r="R7">
-        <v>7.1553730012259263E-7</v>
+        <v>8.0690062988683154E-7</v>
       </c>
       <c r="S7">
-        <v>-8.101630975263704E-8</v>
+        <v>5.2960763983834096E-8</v>
       </c>
       <c r="T7">
-        <v>-8.0823722655464184E-8</v>
+        <v>3.9464077835310438E-8</v>
       </c>
       <c r="U7">
-        <v>1.5310201021584084E-5</v>
+        <v>2.0652346672889212E-5</v>
       </c>
       <c r="V7">
-        <v>2.469542163691896E-7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+        <v>6.8299161542846731E-7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>24</v>
       </c>
       <c r="B8">
-        <v>-7.3457585076108514E-2</v>
+        <v>-7.094049546124688E-2</v>
       </c>
       <c r="C8">
-        <v>1.0188120485487913E-6</v>
+        <v>1.9386635978851178E-6</v>
       </c>
       <c r="D8">
-        <v>-1.3484399536279725E-8</v>
+        <v>-2.7415109261825024E-8</v>
       </c>
       <c r="E8">
-        <v>-8.6534275976391745E-6</v>
+        <v>-7.6683052988331487E-6</v>
       </c>
       <c r="F8">
-        <v>-8.5974816694511956E-6</v>
+        <v>-4.7751251166141139E-5</v>
       </c>
       <c r="G8">
-        <v>2.5412799538792303E-7</v>
+        <v>4.1466111844453508E-7</v>
       </c>
       <c r="H8">
-        <v>1.928435830017308E-7</v>
+        <v>1.3053393391961594E-6</v>
       </c>
       <c r="I8">
-        <v>3.7504696892339149E-3</v>
+        <v>6.1001405968765876E-3</v>
       </c>
       <c r="J8">
-        <v>3.4676650825245913E-3</v>
+        <v>5.6812217319398804E-3</v>
       </c>
       <c r="K8">
-        <v>3.4688766832667887E-3</v>
+        <v>5.6829580148487734E-3</v>
       </c>
       <c r="L8">
-        <v>3.4689414232754673E-3</v>
+        <v>5.6827548202413704E-3</v>
       </c>
       <c r="M8">
-        <v>3.8076681423875945E-6</v>
+        <v>5.7530971680169482E-6</v>
       </c>
       <c r="N8">
-        <v>3.5514544441688629E-6</v>
+        <v>5.2795033998553662E-6</v>
       </c>
       <c r="O8">
-        <v>-8.536415251869689E-7</v>
+        <v>-1.2856162473985458E-7</v>
       </c>
       <c r="P8">
-        <v>-1.8464980689403425E-6</v>
+        <v>-1.5251429048612383E-6</v>
       </c>
       <c r="Q8">
-        <v>5.7025022756529497E-6</v>
+        <v>4.3694123089535128E-6</v>
       </c>
       <c r="R8">
-        <v>1.3730021675696581E-5</v>
+        <v>1.9120599141684589E-5</v>
       </c>
       <c r="S8">
-        <v>-3.9603714359504439E-6</v>
+        <v>-3.5031284676449775E-6</v>
       </c>
       <c r="T8">
-        <v>-1.4789966670199862E-6</v>
+        <v>3.1849819263808005E-6</v>
       </c>
       <c r="U8">
-        <v>-3.5058627162734791E-3</v>
+        <v>-5.7716414462508211E-3</v>
       </c>
       <c r="V8">
-        <v>1.1946788162474613E-5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+        <v>3.8028898010591502E-5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>25</v>
       </c>
       <c r="B9">
-        <v>-4.9301901671728189E-2</v>
+        <v>7.2394025698331388E-3</v>
       </c>
       <c r="C9">
-        <v>1.4839198713356475E-6</v>
+        <v>3.1291317696965306E-6</v>
       </c>
       <c r="D9">
-        <v>-1.751077855531745E-8</v>
+        <v>-3.8481689190160879E-8</v>
       </c>
       <c r="E9">
-        <v>-1.0043082874873747E-5</v>
+        <v>-1.1663708316376631E-6</v>
       </c>
       <c r="F9">
-        <v>-1.8544959786223714E-5</v>
+        <v>-5.708606879397536E-5</v>
       </c>
       <c r="G9">
-        <v>3.1273669857495068E-7</v>
+        <v>3.800537178610983E-7</v>
       </c>
       <c r="H9">
-        <v>4.1771320218794483E-7</v>
+        <v>1.5690401900071769E-6</v>
       </c>
       <c r="I9">
-        <v>3.4676650825245913E-3</v>
+        <v>5.6812217319398804E-3</v>
       </c>
       <c r="J9">
-        <v>3.5175355508917298E-3</v>
+        <v>5.7587393875750308E-3</v>
       </c>
       <c r="K9">
-        <v>3.4790744491943046E-3</v>
+        <v>5.7027105140220937E-3</v>
       </c>
       <c r="L9">
-        <v>3.479464408994778E-3</v>
+        <v>5.7034126696367624E-3</v>
       </c>
       <c r="M9">
-        <v>4.0073999140178286E-6</v>
+        <v>6.6216577905559298E-6</v>
       </c>
       <c r="N9">
-        <v>4.5046831727761335E-6</v>
+        <v>6.5706239747282867E-6</v>
       </c>
       <c r="O9">
-        <v>-4.5827881104606623E-7</v>
+        <v>5.023040594675328E-7</v>
       </c>
       <c r="P9">
-        <v>-1.9856158412531945E-6</v>
+        <v>-2.1015169914228372E-6</v>
       </c>
       <c r="Q9">
-        <v>1.3503830849648714E-5</v>
+        <v>1.9772451617812727E-5</v>
       </c>
       <c r="R9">
-        <v>6.0005936113728313E-6</v>
+        <v>5.7687787835625166E-6</v>
       </c>
       <c r="S9">
-        <v>-2.6548616163007698E-6</v>
+        <v>5.4492447371655401E-6</v>
       </c>
       <c r="T9">
-        <v>-4.63281469075084E-7</v>
+        <v>9.6766185773044048E-6</v>
       </c>
       <c r="U9">
-        <v>-3.5248272609064444E-3</v>
+        <v>-5.8340935249302853E-3</v>
       </c>
       <c r="V9">
-        <v>2.4585124251565308E-5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+        <v>6.6175842679888877E-5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>26</v>
       </c>
       <c r="B10">
-        <v>1.047415888136005E-2</v>
+        <v>7.7754799766990956E-2</v>
       </c>
       <c r="C10">
-        <v>7.9760338032984223E-7</v>
+        <v>1.9731400202890582E-6</v>
       </c>
       <c r="D10">
-        <v>-5.0693680746816331E-9</v>
+        <v>-1.914955834455691E-8</v>
       </c>
       <c r="E10">
-        <v>-1.7014389279585444E-5</v>
+        <v>-1.1223195646818734E-5</v>
       </c>
       <c r="F10">
-        <v>-2.9617546950186705E-5</v>
+        <v>-7.2797440088899894E-5</v>
       </c>
       <c r="G10">
-        <v>5.5747752095737904E-7</v>
+        <v>7.5009544507165276E-7</v>
       </c>
       <c r="H10">
-        <v>7.8030153995168751E-7</v>
+        <v>2.1161838010254561E-6</v>
       </c>
       <c r="I10">
-        <v>3.4688766832667887E-3</v>
+        <v>5.6829580148487734E-3</v>
       </c>
       <c r="J10">
-        <v>3.4790744491943046E-3</v>
+        <v>5.7027105140220937E-3</v>
       </c>
       <c r="K10">
-        <v>3.5033319158577865E-3</v>
+        <v>5.7361760836431496E-3</v>
       </c>
       <c r="L10">
-        <v>3.4932820246825836E-3</v>
+        <v>5.7220134562861267E-3</v>
       </c>
       <c r="M10">
-        <v>4.5278409894748878E-6</v>
+        <v>6.9095162711857492E-6</v>
       </c>
       <c r="N10">
-        <v>5.5444002931585399E-6</v>
+        <v>8.1197718873856888E-6</v>
       </c>
       <c r="O10">
-        <v>5.6894469822564736E-7</v>
+        <v>1.995247197919461E-6</v>
       </c>
       <c r="P10">
-        <v>-4.1873721534095333E-7</v>
+        <v>3.0110120647617354E-7</v>
       </c>
       <c r="Q10">
-        <v>1.7145690209355509E-5</v>
+        <v>2.3927126373810596E-5</v>
       </c>
       <c r="R10">
-        <v>-3.7419567825340132E-6</v>
+        <v>-7.957801469767098E-6</v>
       </c>
       <c r="S10">
-        <v>-2.6987539451040279E-6</v>
+        <v>6.5460439487107253E-6</v>
       </c>
       <c r="T10">
-        <v>-1.6051002261491979E-6</v>
+        <v>8.8576614787810585E-6</v>
       </c>
       <c r="U10">
-        <v>-3.5246041973057037E-3</v>
+        <v>-5.8315798592219869E-3</v>
       </c>
       <c r="V10">
-        <v>2.9431735654437744E-5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+        <v>7.2015521750454006E-5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>27</v>
       </c>
       <c r="B11">
-        <v>6.0856307187149669E-2</v>
+        <v>0.11271256911000357</v>
       </c>
       <c r="C11">
-        <v>2.9049059609684703E-6</v>
+        <v>5.0389973682978872E-6</v>
       </c>
       <c r="D11">
-        <v>-2.1916144068137096E-8</v>
+        <v>-4.385912803908526E-8</v>
       </c>
       <c r="E11">
-        <v>-7.0348968000253615E-6</v>
+        <v>3.2372932294624501E-6</v>
       </c>
       <c r="F11">
-        <v>-1.4578083795171948E-5</v>
+        <v>-5.3181865513447626E-5</v>
       </c>
       <c r="G11">
-        <v>4.2688331846208986E-7</v>
+        <v>5.6475047071769195E-7</v>
       </c>
       <c r="H11">
-        <v>5.7936502242875122E-7</v>
+        <v>1.8682751873742279E-6</v>
       </c>
       <c r="I11">
-        <v>3.4689414232754673E-3</v>
+        <v>5.6827548202413704E-3</v>
       </c>
       <c r="J11">
-        <v>3.479464408994778E-3</v>
+        <v>5.7034126696367624E-3</v>
       </c>
       <c r="K11">
-        <v>3.4932820246825836E-3</v>
+        <v>5.7220134562861267E-3</v>
       </c>
       <c r="L11">
-        <v>3.5446518326159378E-3</v>
+        <v>5.7962428675365973E-3</v>
       </c>
       <c r="M11">
-        <v>4.311547235917432E-6</v>
+        <v>6.53564654739029E-6</v>
       </c>
       <c r="N11">
-        <v>6.511712156374471E-6</v>
+        <v>9.9024148038266049E-6</v>
       </c>
       <c r="O11">
-        <v>7.8855783600835094E-9</v>
+        <v>1.5160045950841424E-6</v>
       </c>
       <c r="P11">
-        <v>-4.3578155728569335E-7</v>
+        <v>2.2385126007062945E-7</v>
       </c>
       <c r="Q11">
-        <v>1.7213748064028229E-5</v>
+        <v>2.4015695497177766E-5</v>
       </c>
       <c r="R11">
-        <v>-1.9243867548163566E-6</v>
+        <v>-5.9267697942573033E-6</v>
       </c>
       <c r="S11">
-        <v>-2.9019198083119156E-6</v>
+        <v>6.3016808087360598E-6</v>
       </c>
       <c r="T11">
-        <v>-1.2753904109599639E-6</v>
+        <v>9.4248966828697231E-6</v>
       </c>
       <c r="U11">
-        <v>-3.5915261914110626E-3</v>
+        <v>-5.9293441571045113E-3</v>
       </c>
       <c r="V11">
-        <v>2.8900718002572244E-5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+        <v>7.3080957330617162E-5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>35</v>
       </c>
       <c r="B12">
-        <v>-6.6605331282558022E-2</v>
+        <v>-5.0744453770870793E-2</v>
       </c>
       <c r="C12">
-        <v>5.0252050992346118E-7</v>
+        <v>9.5090032166777057E-7</v>
       </c>
       <c r="D12">
-        <v>-5.9431084459126438E-9</v>
+        <v>-1.1459192900873751E-8</v>
       </c>
       <c r="E12">
-        <v>-2.2334614547471466E-6</v>
+        <v>-2.0333479726125717E-6</v>
       </c>
       <c r="F12">
-        <v>-1.3192110807509556E-5</v>
+        <v>-1.8134286416527054E-5</v>
       </c>
       <c r="G12">
-        <v>-2.5087032520520836E-8</v>
+        <v>-4.1724831653812047E-8</v>
       </c>
       <c r="H12">
-        <v>1.4155985144854682E-7</v>
+        <v>2.1229943862250996E-7</v>
       </c>
       <c r="I12">
-        <v>3.8076681423875945E-6</v>
+        <v>5.7530971680169482E-6</v>
       </c>
       <c r="J12">
-        <v>4.0073999140178286E-6</v>
+        <v>6.6216577905559298E-6</v>
       </c>
       <c r="K12">
-        <v>4.5278409894748878E-6</v>
+        <v>6.9095162711857492E-6</v>
       </c>
       <c r="L12">
-        <v>4.311547235917432E-6</v>
+        <v>6.53564654739029E-6</v>
       </c>
       <c r="M12">
-        <v>1.061698178252604E-4</v>
+        <v>1.5617744054489895E-4</v>
       </c>
       <c r="N12">
-        <v>5.3755497027512087E-5</v>
+        <v>8.1143977005427724E-5</v>
       </c>
       <c r="O12">
-        <v>5.4114618551357098E-5</v>
+        <v>8.1606928595355358E-5</v>
       </c>
       <c r="P12">
-        <v>5.3766049365710467E-5</v>
+        <v>8.1072655373345232E-5</v>
       </c>
       <c r="Q12">
-        <v>3.3702569117893765E-6</v>
+        <v>5.5971377823818045E-6</v>
       </c>
       <c r="R12">
-        <v>-1.1248507002258988E-5</v>
+        <v>-1.9601359062975503E-5</v>
       </c>
       <c r="S12">
-        <v>1.8557158658182047E-7</v>
+        <v>2.0103077085908407E-6</v>
       </c>
       <c r="T12">
-        <v>4.3144514626295236E-7</v>
+        <v>2.190096241429905E-6</v>
       </c>
       <c r="U12">
-        <v>-5.439392036242617E-5</v>
+        <v>-8.8231397759865412E-5</v>
       </c>
       <c r="V12">
-        <v>3.9352591661741887E-6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+        <v>7.913920060132692E-6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>36</v>
       </c>
       <c r="B13">
-        <v>4.9098917488828671E-2</v>
+        <v>5.9189066218905136E-2</v>
       </c>
       <c r="C13">
-        <v>4.4529626621375925E-7</v>
+        <v>9.9795430963928009E-7</v>
       </c>
       <c r="D13">
-        <v>-6.3303237410087164E-9</v>
+        <v>-1.3623270356359833E-8</v>
       </c>
       <c r="E13">
-        <v>-2.7349803333034637E-6</v>
+        <v>-2.782028808590139E-6</v>
       </c>
       <c r="F13">
-        <v>-6.7394066577293743E-6</v>
+        <v>-8.7533134135600946E-6</v>
       </c>
       <c r="G13">
-        <v>7.1098575712665358E-8</v>
+        <v>1.1014776169544901E-7</v>
       </c>
       <c r="H13">
-        <v>1.1829393735117284E-7</v>
+        <v>1.8410677082872121E-7</v>
       </c>
       <c r="I13">
-        <v>3.5514544441688629E-6</v>
+        <v>5.2795033998553662E-6</v>
       </c>
       <c r="J13">
-        <v>4.5046831727761335E-6</v>
+        <v>6.5706239747282867E-6</v>
       </c>
       <c r="K13">
-        <v>5.5444002931585399E-6</v>
+        <v>8.1197718873856888E-6</v>
       </c>
       <c r="L13">
-        <v>6.511712156374471E-6</v>
+        <v>9.9024148038266049E-6</v>
       </c>
       <c r="M13">
-        <v>5.3755497027512087E-5</v>
+        <v>8.1143977005427724E-5</v>
       </c>
       <c r="N13">
-        <v>1.3386007712972114E-4</v>
+        <v>1.9679062397245215E-4</v>
       </c>
       <c r="O13">
-        <v>5.3817036641671322E-5</v>
+        <v>8.1287402601232554E-5</v>
       </c>
       <c r="P13">
-        <v>5.3649880746581299E-5</v>
+        <v>8.1016058095751542E-5</v>
       </c>
       <c r="Q13">
-        <v>4.9938337243587188E-6</v>
+        <v>7.526454058853123E-6</v>
       </c>
       <c r="R13">
-        <v>-1.1218137910546745E-5</v>
+        <v>-1.812863575343928E-5</v>
       </c>
       <c r="S13">
-        <v>-2.3491471851264929E-7</v>
+        <v>9.8603534665171992E-7</v>
       </c>
       <c r="T13">
-        <v>3.4308018264525727E-8</v>
+        <v>1.6148726553076424E-6</v>
       </c>
       <c r="U13">
-        <v>-5.4643489172011259E-5</v>
+        <v>-9.289493762926936E-5</v>
       </c>
       <c r="V13">
-        <v>2.5129117470973724E-6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+        <v>7.3137663336327047E-6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>37</v>
       </c>
       <c r="B14">
-        <v>-5.6349747936583455E-2</v>
+        <v>-4.2426116296650759E-2</v>
       </c>
       <c r="C14">
-        <v>3.4309902872248524E-7</v>
+        <v>7.5451810562831619E-7</v>
       </c>
       <c r="D14">
-        <v>-4.5154865019042804E-9</v>
+        <v>-9.7399294723006021E-9</v>
       </c>
       <c r="E14">
-        <v>-3.177476976081942E-6</v>
+        <v>-3.0078095984160877E-6</v>
       </c>
       <c r="F14">
-        <v>-1.3622544653730976E-5</v>
+        <v>-1.7276905078906226E-5</v>
       </c>
       <c r="G14">
-        <v>3.0010358550996524E-8</v>
+        <v>3.8414084219164404E-8</v>
       </c>
       <c r="H14">
-        <v>1.4878701789098853E-7</v>
+        <v>1.9749502767260322E-7</v>
       </c>
       <c r="I14">
-        <v>-8.536415251869689E-7</v>
+        <v>-1.2856162473985458E-7</v>
       </c>
       <c r="J14">
-        <v>-4.5827881104606623E-7</v>
+        <v>5.023040594675328E-7</v>
       </c>
       <c r="K14">
-        <v>5.6894469822564736E-7</v>
+        <v>1.995247197919461E-6</v>
       </c>
       <c r="L14">
-        <v>7.8855783600835094E-9</v>
+        <v>1.5160045950841424E-6</v>
       </c>
       <c r="M14">
-        <v>5.4114618551357098E-5</v>
+        <v>8.1606928595355358E-5</v>
       </c>
       <c r="N14">
-        <v>5.3817036641671322E-5</v>
+        <v>8.1287402601232554E-5</v>
       </c>
       <c r="O14">
-        <v>1.0135462315056425E-4</v>
+        <v>1.4900863463004113E-4</v>
       </c>
       <c r="P14">
-        <v>5.3842198200524248E-5</v>
+        <v>8.1256110505917252E-5</v>
       </c>
       <c r="Q14">
-        <v>4.0321598343948214E-6</v>
+        <v>6.0519147226061608E-6</v>
       </c>
       <c r="R14">
-        <v>-1.5269369010745716E-5</v>
+        <v>-2.2822101479029314E-5</v>
       </c>
       <c r="S14">
-        <v>9.4996626551873392E-7</v>
+        <v>3.0741793352755214E-6</v>
       </c>
       <c r="T14">
-        <v>1.5157543049058151E-6</v>
+        <v>2.4493588959883725E-6</v>
       </c>
       <c r="U14">
-        <v>-4.306134910811589E-5</v>
+        <v>-7.7392085534455136E-5</v>
       </c>
       <c r="V14">
-        <v>3.6615873384941576E-6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+        <v>8.899691650869313E-6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>39</v>
       </c>
       <c r="B15">
-        <v>-0.13035127065594732</v>
+        <v>-0.11775897128601467</v>
       </c>
       <c r="C15">
-        <v>3.3064183317993969E-7</v>
+        <v>7.0145002575936086E-7</v>
       </c>
       <c r="D15">
-        <v>-3.5014732948486936E-9</v>
+        <v>-7.9164716815852616E-9</v>
       </c>
       <c r="E15">
-        <v>7.5845877178997508E-7</v>
+        <v>1.7226152327206421E-6</v>
       </c>
       <c r="F15">
-        <v>6.1600587451848161E-7</v>
+        <v>2.3987639581803593E-6</v>
       </c>
       <c r="G15">
-        <v>-2.7253456032357061E-8</v>
+        <v>-2.6888623684960292E-8</v>
       </c>
       <c r="H15">
-        <v>-1.1755549806826591E-7</v>
+        <v>-1.7668878543439591E-7</v>
       </c>
       <c r="I15">
-        <v>-1.8464980689403425E-6</v>
+        <v>-1.5251429048612383E-6</v>
       </c>
       <c r="J15">
-        <v>-1.9856158412531945E-6</v>
+        <v>-2.1015169914228372E-6</v>
       </c>
       <c r="K15">
-        <v>-4.1873721534095333E-7</v>
+        <v>3.0110120647617354E-7</v>
       </c>
       <c r="L15">
-        <v>-4.3578155728569335E-7</v>
+        <v>2.2385126007062945E-7</v>
       </c>
       <c r="M15">
-        <v>5.3766049365710467E-5</v>
+        <v>8.1072655373345232E-5</v>
       </c>
       <c r="N15">
-        <v>5.3649880746581299E-5</v>
+        <v>8.1016058095751542E-5</v>
       </c>
       <c r="O15">
-        <v>5.3842198200524248E-5</v>
+        <v>8.1256110505917252E-5</v>
       </c>
       <c r="P15">
-        <v>7.3789814149860655E-5</v>
+        <v>1.0958679435972819E-4</v>
       </c>
       <c r="Q15">
-        <v>3.8674289744207745E-6</v>
+        <v>4.9601996608413303E-6</v>
       </c>
       <c r="R15">
-        <v>-9.7940402662275079E-6</v>
+        <v>-1.8357359964859394E-5</v>
       </c>
       <c r="S15">
-        <v>-2.1019857867004988E-7</v>
+        <v>1.4346224440735759E-6</v>
       </c>
       <c r="T15">
-        <v>4.030843314202234E-8</v>
+        <v>1.2341932771683724E-6</v>
       </c>
       <c r="U15">
-        <v>-5.0018358985790118E-5</v>
+        <v>-8.1007099396400201E-5</v>
       </c>
       <c r="V15">
-        <v>2.9779374596051364E-6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+        <v>6.7160353599280286E-6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>28</v>
       </c>
       <c r="B16">
-        <v>6.2353937340441826E-2</v>
+        <v>0.13476527201676086</v>
       </c>
       <c r="C16">
-        <v>1.8680283772953761E-6</v>
+        <v>2.8992480259470054E-6</v>
       </c>
       <c r="D16">
-        <v>-2.6275685705431225E-8</v>
+        <v>-4.0180734407472368E-8</v>
       </c>
       <c r="E16">
-        <v>-5.7892709488330974E-6</v>
+        <v>-1.0058344521740388E-5</v>
       </c>
       <c r="F16">
-        <v>-2.1805352584214116E-5</v>
+        <v>-3.3605142851759773E-5</v>
       </c>
       <c r="G16">
-        <v>2.6271440929604766E-7</v>
+        <v>4.0275427195405298E-7</v>
       </c>
       <c r="H16">
-        <v>4.6186210924112096E-7</v>
+        <v>6.6073322792872961E-7</v>
       </c>
       <c r="I16">
-        <v>5.7025022756529497E-6</v>
+        <v>4.3694123089535128E-6</v>
       </c>
       <c r="J16">
-        <v>1.3503830849648714E-5</v>
+        <v>1.9772451617812727E-5</v>
       </c>
       <c r="K16">
-        <v>1.7145690209355509E-5</v>
+        <v>2.3927126373810596E-5</v>
       </c>
       <c r="L16">
-        <v>1.7213748064028229E-5</v>
+        <v>2.4015695497177766E-5</v>
       </c>
       <c r="M16">
-        <v>3.3702569117893765E-6</v>
+        <v>5.5971377823818045E-6</v>
       </c>
       <c r="N16">
-        <v>4.9938337243587188E-6</v>
+        <v>7.526454058853123E-6</v>
       </c>
       <c r="O16">
-        <v>4.0321598343948214E-6</v>
+        <v>6.0519147226061608E-6</v>
       </c>
       <c r="P16">
-        <v>3.8674289744207745E-6</v>
+        <v>4.9601996608413303E-6</v>
       </c>
       <c r="Q16">
-        <v>3.536681454028894E-4</v>
+        <v>5.8376416168035375E-4</v>
       </c>
       <c r="R16">
-        <v>1.3194124235081792E-5</v>
+        <v>1.8264200437786692E-5</v>
       </c>
       <c r="S16">
-        <v>-1.9556236774235552E-6</v>
+        <v>-4.9759019025892016E-6</v>
       </c>
       <c r="T16">
-        <v>-9.9514592799208761E-7</v>
+        <v>-3.9384673374884882E-6</v>
       </c>
       <c r="U16">
-        <v>-6.9809382769934464E-5</v>
+        <v>-9.3936724113380114E-5</v>
       </c>
       <c r="V16">
-        <v>-1.1145574076036527E-5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+        <v>-1.772854696045211E-5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>29</v>
       </c>
       <c r="B17">
-        <v>0.48487994364256476</v>
+        <v>0.41060858205701517</v>
       </c>
       <c r="C17">
-        <v>-1.196842797510921E-7</v>
+        <v>-6.1454418855833277E-7</v>
       </c>
       <c r="D17">
-        <v>-6.3788728862367531E-9</v>
+        <v>-4.4274582676928459E-9</v>
       </c>
       <c r="E17">
-        <v>7.3824650603265489E-6</v>
+        <v>1.1550904740004167E-5</v>
       </c>
       <c r="F17">
-        <v>-1.7450857978834311E-5</v>
+        <v>-1.3802452904544876E-5</v>
       </c>
       <c r="G17">
-        <v>4.7268911527324973E-8</v>
+        <v>5.8410714865205047E-8</v>
       </c>
       <c r="H17">
-        <v>7.1553730012259263E-7</v>
+        <v>8.0690062988683154E-7</v>
       </c>
       <c r="I17">
-        <v>1.3730021675696581E-5</v>
+        <v>1.9120599141684589E-5</v>
       </c>
       <c r="J17">
-        <v>6.0005936113728313E-6</v>
+        <v>5.7687787835625166E-6</v>
       </c>
       <c r="K17">
-        <v>-3.7419567825340132E-6</v>
+        <v>-7.957801469767098E-6</v>
       </c>
       <c r="L17">
-        <v>-1.9243867548163566E-6</v>
+        <v>-5.9267697942573033E-6</v>
       </c>
       <c r="M17">
-        <v>-1.1248507002258988E-5</v>
+        <v>-1.9601359062975503E-5</v>
       </c>
       <c r="N17">
-        <v>-1.1218137910546745E-5</v>
+        <v>-1.812863575343928E-5</v>
       </c>
       <c r="O17">
-        <v>-1.5269369010745716E-5</v>
+        <v>-2.2822101479029314E-5</v>
       </c>
       <c r="P17">
-        <v>-9.7940402662275079E-6</v>
+        <v>-1.8357359964859394E-5</v>
       </c>
       <c r="Q17">
-        <v>1.3194124235081792E-5</v>
+        <v>1.8264200437786692E-5</v>
       </c>
       <c r="R17">
-        <v>6.6581564015932685E-4</v>
+        <v>9.8534893079686952E-4</v>
       </c>
       <c r="S17">
-        <v>-1.2281136875388511E-4</v>
+        <v>-1.7968716171257119E-4</v>
       </c>
       <c r="T17">
-        <v>-1.3990837754653438E-4</v>
+        <v>-2.0440697622719895E-4</v>
       </c>
       <c r="U17">
-        <v>-6.7273309101288886E-4</v>
+        <v>-9.8150056558226045E-4</v>
       </c>
       <c r="V17">
-        <v>-3.7645965301403083E-6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+        <v>-6.5958908089247562E-6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>30</v>
       </c>
       <c r="B18">
-        <v>0.10530825768161904</v>
+        <v>-2.6240143316569836E-3</v>
       </c>
       <c r="C18">
-        <v>-6.4966341507632609E-8</v>
+        <v>1.9274255388636937E-6</v>
       </c>
       <c r="D18">
-        <v>1.377687525976754E-9</v>
+        <v>-1.9896247670083309E-8</v>
       </c>
       <c r="E18">
-        <v>9.7785846032303261E-7</v>
+        <v>9.9325327759699673E-6</v>
       </c>
       <c r="F18">
-        <v>3.233910050104118E-6</v>
+        <v>-1.0571208185655473E-6</v>
       </c>
       <c r="G18">
-        <v>-3.6714470973180378E-8</v>
+        <v>-1.3320815834739511E-7</v>
       </c>
       <c r="H18">
-        <v>-8.101630975263704E-8</v>
+        <v>5.2960763983834096E-8</v>
       </c>
       <c r="I18">
-        <v>-3.9603714359504439E-6</v>
+        <v>-3.5031284676449775E-6</v>
       </c>
       <c r="J18">
-        <v>-2.6548616163007698E-6</v>
+        <v>5.4492447371655401E-6</v>
       </c>
       <c r="K18">
-        <v>-2.6987539451040279E-6</v>
+        <v>6.5460439487107253E-6</v>
       </c>
       <c r="L18">
-        <v>-2.9019198083119156E-6</v>
+        <v>6.3016808087360598E-6</v>
       </c>
       <c r="M18">
-        <v>1.8557158658182047E-7</v>
+        <v>2.0103077085908407E-6</v>
       </c>
       <c r="N18">
-        <v>-2.3491471851264929E-7</v>
+        <v>9.8603534665171992E-7</v>
       </c>
       <c r="O18">
-        <v>9.4996626551873392E-7</v>
+        <v>3.0741793352755214E-6</v>
       </c>
       <c r="P18">
-        <v>-2.1019857867004988E-7</v>
+        <v>1.4346224440735759E-6</v>
       </c>
       <c r="Q18">
-        <v>-1.9556236774235552E-6</v>
+        <v>-4.9759019025892016E-6</v>
       </c>
       <c r="R18">
-        <v>-1.2281136875388511E-4</v>
+        <v>-1.7968716171257119E-4</v>
       </c>
       <c r="S18">
-        <v>1.0704770096397532E-4</v>
+        <v>1.4663366024122155E-4</v>
       </c>
       <c r="T18">
-        <v>3.6308270724146367E-5</v>
+        <v>5.6543446679741755E-5</v>
       </c>
       <c r="U18">
-        <v>1.2119278913094424E-4</v>
+        <v>9.765896324695703E-5</v>
       </c>
       <c r="V18">
-        <v>-3.5314840748081894E-7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+        <v>2.5146673306909538E-5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>31</v>
       </c>
       <c r="B19">
-        <v>3.1252885149044507E-2</v>
+        <v>-6.9391168175160764E-2</v>
       </c>
       <c r="C19">
-        <v>9.8568120402832351E-8</v>
+        <v>1.4957377364991421E-6</v>
       </c>
       <c r="D19">
-        <v>-8.2151704970237417E-10</v>
+        <v>-1.5513986517103527E-8</v>
       </c>
       <c r="E19">
-        <v>2.9676083529101424E-7</v>
+        <v>8.7794411196413081E-6</v>
       </c>
       <c r="F19">
-        <v>3.0130515266828256E-6</v>
+        <v>-1.2413387059614713E-6</v>
       </c>
       <c r="G19">
-        <v>-1.9769240668492087E-8</v>
+        <v>-1.1280318473546705E-7</v>
       </c>
       <c r="H19">
-        <v>-8.0823722655464184E-8</v>
+        <v>3.9464077835310438E-8</v>
       </c>
       <c r="I19">
-        <v>-1.4789966670199862E-6</v>
+        <v>3.1849819263808005E-6</v>
       </c>
       <c r="J19">
-        <v>-4.63281469075084E-7</v>
+        <v>9.6766185773044048E-6</v>
       </c>
       <c r="K19">
-        <v>-1.6051002261491979E-6</v>
+        <v>8.8576614787810585E-6</v>
       </c>
       <c r="L19">
-        <v>-1.2753904109599639E-6</v>
+        <v>9.4248966828697231E-6</v>
       </c>
       <c r="M19">
-        <v>4.3144514626295236E-7</v>
+        <v>2.190096241429905E-6</v>
       </c>
       <c r="N19">
-        <v>3.4308018264525727E-8</v>
+        <v>1.6148726553076424E-6</v>
       </c>
       <c r="O19">
-        <v>1.5157543049058151E-6</v>
+        <v>2.4493588959883725E-6</v>
       </c>
       <c r="P19">
-        <v>4.030843314202234E-8</v>
+        <v>1.2341932771683724E-6</v>
       </c>
       <c r="Q19">
-        <v>-9.9514592799208761E-7</v>
+        <v>-3.9384673374884882E-6</v>
       </c>
       <c r="R19">
-        <v>-1.3990837754653438E-4</v>
+        <v>-2.0440697622719895E-4</v>
       </c>
       <c r="S19">
-        <v>3.6308270724146367E-5</v>
+        <v>5.6543446679741755E-5</v>
       </c>
       <c r="T19">
-        <v>1.3838184915036545E-4</v>
+        <v>1.9416050632125315E-4</v>
       </c>
       <c r="U19">
-        <v>1.3384858720280859E-4</v>
+        <v>1.3441540144499859E-4</v>
       </c>
       <c r="V19">
-        <v>1.7970048270461571E-6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+        <v>2.0821775556882383E-5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>32</v>
       </c>
       <c r="B20">
-        <v>1.1776310061377573E-2</v>
+        <v>0.43203695208544818</v>
       </c>
       <c r="C20">
-        <v>-1.0141571570846216E-4</v>
+        <v>-1.5508398949142942E-4</v>
       </c>
       <c r="D20">
-        <v>9.9261971790637638E-7</v>
+        <v>1.5259104208562563E-6</v>
       </c>
       <c r="E20">
-        <v>-7.1965621700091154E-4</v>
+        <v>-1.1702066884681339E-3</v>
       </c>
       <c r="F20">
-        <v>-7.3667055121126698E-4</v>
+        <v>-1.0424186495602466E-3</v>
       </c>
       <c r="G20">
-        <v>1.5296400587727991E-5</v>
+        <v>2.3606983882771988E-5</v>
       </c>
       <c r="H20">
-        <v>1.5310201021584084E-5</v>
+        <v>2.0652346672889212E-5</v>
       </c>
       <c r="I20">
-        <v>-3.5058627162734791E-3</v>
+        <v>-5.7716414462508211E-3</v>
       </c>
       <c r="J20">
-        <v>-3.5248272609064444E-3</v>
+        <v>-5.8340935249302853E-3</v>
       </c>
       <c r="K20">
-        <v>-3.5246041973057037E-3</v>
+        <v>-5.8315798592219869E-3</v>
       </c>
       <c r="L20">
-        <v>-3.5915261914110626E-3</v>
+        <v>-5.9293441571045113E-3</v>
       </c>
       <c r="M20">
-        <v>-5.439392036242617E-5</v>
+        <v>-8.8231397759865412E-5</v>
       </c>
       <c r="N20">
-        <v>-5.4643489172011259E-5</v>
+        <v>-9.289493762926936E-5</v>
       </c>
       <c r="O20">
-        <v>-4.306134910811589E-5</v>
+        <v>-7.7392085534455136E-5</v>
       </c>
       <c r="P20">
-        <v>-5.0018358985790118E-5</v>
+        <v>-8.1007099396400201E-5</v>
       </c>
       <c r="Q20">
-        <v>-6.9809382769934464E-5</v>
+        <v>-9.3936724113380114E-5</v>
       </c>
       <c r="R20">
-        <v>-6.7273309101288886E-4</v>
+        <v>-9.8150056558226045E-4</v>
       </c>
       <c r="S20">
-        <v>1.2119278913094424E-4</v>
+        <v>9.765896324695703E-5</v>
       </c>
       <c r="T20">
-        <v>1.3384858720280859E-4</v>
+        <v>1.3441540144499859E-4</v>
       </c>
       <c r="U20">
-        <v>6.7647777759640834E-3</v>
+        <v>1.103172077339178E-2</v>
       </c>
       <c r="V20">
-        <v>-1.3790402695204772E-4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+        <v>-3.8516204717332231E-4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>33</v>
       </c>
       <c r="B21">
-        <v>-0.32936635437735917</v>
+        <v>-0.14916125126462956</v>
       </c>
       <c r="C21">
-        <v>4.2683263040192437E-6</v>
+        <v>8.960335623176053E-6</v>
       </c>
       <c r="D21">
-        <v>-4.5851820517817924E-8</v>
+        <v>-9.7310949942539979E-8</v>
       </c>
       <c r="E21">
-        <v>8.2994311910149627E-6</v>
+        <v>4.4493764707005579E-5</v>
       </c>
       <c r="F21">
-        <v>-1.4573987462305845E-5</v>
+        <v>-2.2619361286945278E-5</v>
       </c>
       <c r="G21">
-        <v>-1.0459971532781808E-7</v>
+        <v>-4.5262153861596644E-7</v>
       </c>
       <c r="H21">
-        <v>2.469542163691896E-7</v>
+        <v>6.8299161542846731E-7</v>
       </c>
       <c r="I21">
-        <v>1.1946788162474613E-5</v>
+        <v>3.8028898010591502E-5</v>
       </c>
       <c r="J21">
-        <v>2.4585124251565308E-5</v>
+        <v>6.6175842679888877E-5</v>
       </c>
       <c r="K21">
-        <v>2.9431735654437744E-5</v>
+        <v>7.2015521750454006E-5</v>
       </c>
       <c r="L21">
-        <v>2.8900718002572244E-5</v>
+        <v>7.3080957330617162E-5</v>
       </c>
       <c r="M21">
-        <v>3.9352591661741887E-6</v>
+        <v>7.913920060132692E-6</v>
       </c>
       <c r="N21">
-        <v>2.5129117470973724E-6</v>
+        <v>7.3137663336327047E-6</v>
       </c>
       <c r="O21">
-        <v>3.6615873384941576E-6</v>
+        <v>8.899691650869313E-6</v>
       </c>
       <c r="P21">
-        <v>2.9779374596051364E-6</v>
+        <v>6.7160353599280286E-6</v>
       </c>
       <c r="Q21">
-        <v>-1.1145574076036527E-5</v>
+        <v>-1.772854696045211E-5</v>
       </c>
       <c r="R21">
-        <v>-3.7645965301403083E-6</v>
+        <v>-6.5958908089247562E-6</v>
       </c>
       <c r="S21">
-        <v>-3.5314840748081894E-7</v>
+        <v>2.5146673306909538E-5</v>
       </c>
       <c r="T21">
-        <v>1.7970048270461571E-6</v>
+        <v>2.0821775556882383E-5</v>
       </c>
       <c r="U21">
-        <v>-1.3790402695204772E-4</v>
+        <v>-3.8516204717332231E-4</v>
       </c>
       <c r="V21">
-        <v>4.8267287090252549E-5</v>
+        <v>1.2442189993190983E-4</v>
       </c>
     </row>
   </sheetData>
@@ -3537,16 +3535,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:W22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:W1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="37.42578125" customWidth="1"/>
+    <col min="1" max="1" width="37.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -3617,1495 +3613,1495 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>34</v>
       </c>
       <c r="B2">
-        <v>0.56906467616096057</v>
+        <v>0.68147228503237056</v>
       </c>
       <c r="C2">
-        <v>1.2693936394148797E-5</v>
+        <v>2.2360059507349992E-5</v>
       </c>
       <c r="D2">
-        <v>3.134892655966613E-7</v>
+        <v>-1.4651051676318775E-7</v>
       </c>
       <c r="E2">
-        <v>-5.964428322623181E-9</v>
+        <v>-2.1550090935842793E-9</v>
       </c>
       <c r="F2">
-        <v>3.1893900580857189E-6</v>
+        <v>2.7562469703107602E-6</v>
       </c>
       <c r="G2">
-        <v>4.637271073022078E-6</v>
+        <v>5.8409713772429599E-6</v>
       </c>
       <c r="H2">
-        <v>7.6146072027722193E-8</v>
+        <v>1.9801416630209272E-7</v>
       </c>
       <c r="I2">
-        <v>9.8095261227505373E-8</v>
+        <v>2.3379502822577055E-7</v>
       </c>
       <c r="J2">
-        <v>1.0932788840217681E-6</v>
+        <v>-2.5200594008657392E-6</v>
       </c>
       <c r="K2">
-        <v>2.2174228967848067E-6</v>
+        <v>-2.5433823430328099E-6</v>
       </c>
       <c r="L2">
-        <v>2.0620399708546502E-6</v>
+        <v>-3.8943505692465604E-6</v>
       </c>
       <c r="M2">
-        <v>1.389853601683477E-6</v>
+        <v>-4.7033095931954316E-6</v>
       </c>
       <c r="N2">
-        <v>3.2817017999911244E-7</v>
+        <v>4.2385799578582774E-7</v>
       </c>
       <c r="O2">
-        <v>1.6364892819606506E-7</v>
+        <v>-6.1740829952475008E-8</v>
       </c>
       <c r="P2">
-        <v>4.5363854746681521E-7</v>
+        <v>7.2885657548829167E-7</v>
       </c>
       <c r="Q2">
-        <v>5.8676678094100493E-7</v>
+        <v>1.3433935043590364E-6</v>
       </c>
       <c r="R2">
-        <v>-9.92275680604295E-7</v>
+        <v>-1.8368957003654608E-6</v>
       </c>
       <c r="S2">
-        <v>-4.9461644961062621E-6</v>
+        <v>-6.5324441886821259E-6</v>
       </c>
       <c r="T2">
-        <v>-7.3850866757849989E-7</v>
+        <v>4.2955874667280605E-7</v>
       </c>
       <c r="U2">
-        <v>-7.7147918275292697E-7</v>
+        <v>7.0172540214818685E-7</v>
       </c>
       <c r="V2">
-        <v>-2.1374411062684165E-5</v>
+        <v>-2.3165028219916705E-5</v>
       </c>
       <c r="W2">
-        <v>1.4054910621654818E-5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+        <v>9.4461595895599787E-6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>18</v>
       </c>
       <c r="B3">
-        <v>4.9184183727279526E-3</v>
+        <v>-5.6604700757689483E-3</v>
       </c>
       <c r="C3">
-        <v>3.134892655966613E-7</v>
+        <v>-1.4651051676318775E-7</v>
       </c>
       <c r="D3">
-        <v>4.8552171727710169E-5</v>
+        <v>6.0142549212859145E-5</v>
       </c>
       <c r="E3">
-        <v>-5.3372144089205881E-7</v>
+        <v>-6.9326204707032159E-7</v>
       </c>
       <c r="F3">
-        <v>4.8149114006274469E-5</v>
+        <v>5.5117270806019205E-5</v>
       </c>
       <c r="G3">
-        <v>-1.5700000773822889E-4</v>
+        <v>-1.787868589334567E-4</v>
       </c>
       <c r="H3">
-        <v>-1.3601379680821283E-6</v>
+        <v>-2.0714062320790535E-7</v>
       </c>
       <c r="I3">
-        <v>1.8638642680597968E-6</v>
+        <v>4.1052669773281425E-6</v>
       </c>
       <c r="J3">
-        <v>1.4259166413466422E-4</v>
+        <v>2.5145378121038523E-4</v>
       </c>
       <c r="K3">
-        <v>2.0689984511934899E-4</v>
+        <v>3.2957369481437893E-4</v>
       </c>
       <c r="L3">
-        <v>2.3113217930711256E-4</v>
+        <v>3.2854949797798705E-4</v>
       </c>
       <c r="M3">
-        <v>2.3559907065432735E-4</v>
+        <v>3.4885572666523419E-4</v>
       </c>
       <c r="N3">
-        <v>2.0317515382231306E-5</v>
+        <v>2.776631403964927E-5</v>
       </c>
       <c r="O3">
-        <v>9.4805958834978986E-6</v>
+        <v>1.710503374563238E-5</v>
       </c>
       <c r="P3">
-        <v>1.1369778490176209E-5</v>
+        <v>4.6837942350939346E-5</v>
       </c>
       <c r="Q3">
-        <v>2.5621394730716792E-6</v>
+        <v>1.5809690304022559E-5</v>
       </c>
       <c r="R3">
-        <v>-2.8895176183032592E-6</v>
+        <v>-2.8070676930198195E-6</v>
       </c>
       <c r="S3">
-        <v>-4.2537225607498377E-6</v>
+        <v>-3.7986386822630929E-6</v>
       </c>
       <c r="T3">
-        <v>-2.2411125809831106E-5</v>
+        <v>2.8976399777702817E-4</v>
       </c>
       <c r="U3">
-        <v>6.4063764217157828E-6</v>
+        <v>2.3863822950916699E-4</v>
       </c>
       <c r="V3">
-        <v>-1.3848254906977547E-3</v>
+        <v>-2.5536917718479947E-3</v>
       </c>
       <c r="W3">
-        <v>5.8367962059674406E-4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+        <v>1.2120651847203525E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>19</v>
       </c>
       <c r="B4">
-        <v>-6.1027126135265427E-6</v>
+        <v>1.102244628395309E-4</v>
       </c>
       <c r="C4">
-        <v>-5.964428322623181E-9</v>
+        <v>-2.1550090935842793E-9</v>
       </c>
       <c r="D4">
-        <v>-5.3372144089205881E-7</v>
+        <v>-6.9326204707032159E-7</v>
       </c>
       <c r="E4">
-        <v>5.8831279199298811E-9</v>
+        <v>8.0200414284199952E-9</v>
       </c>
       <c r="F4">
-        <v>-4.7680634961389368E-7</v>
+        <v>-5.4032398549458657E-7</v>
       </c>
       <c r="G4">
-        <v>1.7763947843280628E-6</v>
+        <v>2.165101105483001E-6</v>
       </c>
       <c r="H4">
-        <v>1.365882855162324E-8</v>
+        <v>3.7756479623675787E-11</v>
       </c>
       <c r="I4">
-        <v>-2.1759100279772046E-8</v>
+        <v>-4.9844417294427551E-8</v>
       </c>
       <c r="J4">
-        <v>-1.5669031158204172E-6</v>
+        <v>-2.9097137897835514E-6</v>
       </c>
       <c r="K4">
-        <v>-2.2731418457020861E-6</v>
+        <v>-3.812755127015082E-6</v>
       </c>
       <c r="L4">
-        <v>-2.5367443486323382E-6</v>
+        <v>-3.7967358489356546E-6</v>
       </c>
       <c r="M4">
-        <v>-2.5822273981941705E-6</v>
+        <v>-4.0241708663400443E-6</v>
       </c>
       <c r="N4">
-        <v>-2.2357729136866097E-7</v>
+        <v>-3.2193457508631488E-7</v>
       </c>
       <c r="O4">
-        <v>-1.0461451383341908E-7</v>
+        <v>-1.9832489459398075E-7</v>
       </c>
       <c r="P4">
-        <v>-1.2574824165010234E-7</v>
+        <v>-5.431660236376962E-7</v>
       </c>
       <c r="Q4">
-        <v>-2.8645990927989492E-8</v>
+        <v>-1.8369582163461772E-7</v>
       </c>
       <c r="R4">
-        <v>3.0628092813684616E-8</v>
+        <v>3.2038387864762524E-8</v>
       </c>
       <c r="S4">
-        <v>4.1859321152797972E-8</v>
+        <v>3.7023295809156888E-8</v>
       </c>
       <c r="T4">
-        <v>2.4660864092786197E-7</v>
+        <v>-3.3506296506431838E-6</v>
       </c>
       <c r="U4">
-        <v>-6.9941975398108338E-8</v>
+        <v>-2.7597589287345291E-6</v>
       </c>
       <c r="V4">
-        <v>1.5198276493922737E-5</v>
+        <v>2.9444894584346031E-5</v>
       </c>
       <c r="W4">
-        <v>-6.4119556614599141E-6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+        <v>-1.4018239629917956E-5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>20</v>
       </c>
       <c r="B5">
-        <v>1.6974588978422049E-3</v>
+        <v>-3.2513337399273742E-2</v>
       </c>
       <c r="C5">
-        <v>3.1893900580857189E-6</v>
+        <v>2.7562469703107602E-6</v>
       </c>
       <c r="D5">
-        <v>4.8149114006274469E-5</v>
+        <v>5.5117270806019205E-5</v>
       </c>
       <c r="E5">
-        <v>-4.7680634961389368E-7</v>
+        <v>-5.4032398549458657E-7</v>
       </c>
       <c r="F5">
-        <v>4.2884698244437475E-4</v>
+        <v>7.2096742294374782E-4</v>
       </c>
       <c r="G5">
-        <v>5.6140485968319962E-5</v>
+        <v>2.1470443786749543E-4</v>
       </c>
       <c r="H5">
-        <v>-9.6406085390434556E-6</v>
+        <v>-1.4868312825963847E-5</v>
       </c>
       <c r="I5">
-        <v>-2.8830816863356227E-6</v>
+        <v>-4.7989096370380809E-6</v>
       </c>
       <c r="J5">
-        <v>1.3679943412034531E-4</v>
+        <v>2.0885377047132666E-4</v>
       </c>
       <c r="K5">
-        <v>1.9720167172960435E-4</v>
+        <v>2.7174732191481525E-4</v>
       </c>
       <c r="L5">
-        <v>2.1842397259092867E-4</v>
+        <v>2.6708842214724507E-4</v>
       </c>
       <c r="M5">
-        <v>2.2707348450382508E-4</v>
+        <v>2.9341390569347114E-4</v>
       </c>
       <c r="N5">
-        <v>1.4759797803600631E-5</v>
+        <v>1.517099126368985E-5</v>
       </c>
       <c r="O5">
-        <v>7.6948818153425355E-6</v>
+        <v>1.2794421842732568E-5</v>
       </c>
       <c r="P5">
-        <v>7.4067890860631179E-6</v>
+        <v>3.4167185177198987E-5</v>
       </c>
       <c r="Q5">
-        <v>2.7621408589225929E-6</v>
+        <v>1.4093380990995644E-5</v>
       </c>
       <c r="R5">
-        <v>-4.7760222302328181E-6</v>
+        <v>-3.9005344446170628E-6</v>
       </c>
       <c r="S5">
-        <v>-5.6587974434996521E-6</v>
+        <v>-3.7634967796842416E-6</v>
       </c>
       <c r="T5">
-        <v>-2.1538580474593275E-5</v>
+        <v>2.4944413631331418E-4</v>
       </c>
       <c r="U5">
-        <v>6.4523719138111547E-6</v>
+        <v>2.0499490354647487E-4</v>
       </c>
       <c r="V5">
-        <v>-1.4694352560823149E-3</v>
+        <v>-2.444339972153594E-3</v>
       </c>
       <c r="W5">
-        <v>5.6546647052851473E-4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+        <v>1.0374808443535906E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>21</v>
       </c>
       <c r="B6">
-        <v>1.7434255003275754E-2</v>
+        <v>-0.10696436612973251</v>
       </c>
       <c r="C6">
-        <v>4.637271073022078E-6</v>
+        <v>5.8409713772429599E-6</v>
       </c>
       <c r="D6">
-        <v>-1.5700000773822889E-4</v>
+        <v>-1.787868589334567E-4</v>
       </c>
       <c r="E6">
-        <v>1.7763947843280628E-6</v>
+        <v>2.165101105483001E-6</v>
       </c>
       <c r="F6">
-        <v>5.6140485968319962E-5</v>
+        <v>2.1470443786749543E-4</v>
       </c>
       <c r="G6">
-        <v>3.7102320352511175E-3</v>
+        <v>6.0409713734897452E-3</v>
       </c>
       <c r="H6">
-        <v>-2.4205220207326313E-7</v>
+        <v>-8.3001036405353392E-6</v>
       </c>
       <c r="I6">
-        <v>-6.9755444308223499E-5</v>
+        <v>-1.2283843469512999E-4</v>
       </c>
       <c r="J6">
-        <v>-5.6060636802036717E-4</v>
+        <v>-9.4519966903698995E-4</v>
       </c>
       <c r="K6">
-        <v>-7.8811377680516816E-4</v>
+        <v>-1.2185647069483958E-3</v>
       </c>
       <c r="L6">
-        <v>-8.7742580265924922E-4</v>
+        <v>-1.221144726476804E-3</v>
       </c>
       <c r="M6">
-        <v>-8.788957003571568E-4</v>
+        <v>-1.2639268307380431E-3</v>
       </c>
       <c r="N6">
-        <v>-8.1145801780551914E-5</v>
+        <v>-1.0703977159967275E-4</v>
       </c>
       <c r="O6">
-        <v>-3.1205314061119257E-5</v>
+        <v>-5.0506781737186235E-5</v>
       </c>
       <c r="P6">
-        <v>-4.2961416407890507E-5</v>
+        <v>-1.6088309448472783E-4</v>
       </c>
       <c r="Q6">
-        <v>-9.326638673380409E-6</v>
+        <v>-5.2962700193619054E-5</v>
       </c>
       <c r="R6">
-        <v>2.5611819850506057E-7</v>
+        <v>-2.8796045056160611E-6</v>
       </c>
       <c r="S6">
-        <v>8.8121052149881211E-6</v>
+        <v>8.2749887872700617E-6</v>
       </c>
       <c r="T6">
-        <v>8.2867876657241948E-5</v>
+        <v>-9.7607524404441464E-4</v>
       </c>
       <c r="U6">
-        <v>-2.0631116346826324E-5</v>
+        <v>-8.0536694837925378E-4</v>
       </c>
       <c r="V6">
-        <v>4.5326761234257378E-3</v>
+        <v>8.0280663831512333E-3</v>
       </c>
       <c r="W6">
-        <v>-2.061730416351618E-3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+        <v>-4.1091039971619218E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>22</v>
       </c>
       <c r="B7">
-        <v>-4.4112617074770757E-3</v>
+        <v>-2.7171175157510241E-3</v>
       </c>
       <c r="C7">
-        <v>7.6146072027722193E-8</v>
+        <v>1.9801416630209272E-7</v>
       </c>
       <c r="D7">
-        <v>-1.3601379680821283E-6</v>
+        <v>-2.0714062320790535E-7</v>
       </c>
       <c r="E7">
-        <v>1.365882855162324E-8</v>
+        <v>3.7756479623675787E-11</v>
       </c>
       <c r="F7">
-        <v>-9.6406085390434556E-6</v>
+        <v>-1.4868312825963847E-5</v>
       </c>
       <c r="G7">
-        <v>-2.4205220207326313E-7</v>
+        <v>-8.3001036405353392E-6</v>
       </c>
       <c r="H7">
-        <v>2.3064406214275538E-7</v>
+        <v>3.4440163446798225E-7</v>
       </c>
       <c r="I7">
-        <v>6.1208747993144606E-8</v>
+        <v>2.0248985668914054E-7</v>
       </c>
       <c r="J7">
-        <v>-4.0020941940632794E-6</v>
+        <v>-9.0499260189733169E-8</v>
       </c>
       <c r="K7">
-        <v>-5.7428620952533102E-6</v>
+        <v>-2.6875690656621181E-8</v>
       </c>
       <c r="L7">
-        <v>-6.3342778065076893E-6</v>
+        <v>1.2624913778262673E-7</v>
       </c>
       <c r="M7">
-        <v>-6.5171791930210601E-6</v>
+        <v>-6.3680666452162684E-8</v>
       </c>
       <c r="N7">
-        <v>-4.6857347661731759E-7</v>
+        <v>1.572922321920243E-7</v>
       </c>
       <c r="O7">
-        <v>-2.1411628164153767E-7</v>
+        <v>4.7767056151632819E-8</v>
       </c>
       <c r="P7">
-        <v>-2.2501364705644312E-7</v>
+        <v>1.263059559784043E-7</v>
       </c>
       <c r="Q7">
-        <v>-4.2402732281415401E-8</v>
+        <v>3.7723926279988988E-8</v>
       </c>
       <c r="R7">
-        <v>1.6422017026080396E-7</v>
+        <v>4.7462836540201833E-8</v>
       </c>
       <c r="S7">
-        <v>2.3858811993171827E-7</v>
+        <v>1.4265509085303636E-7</v>
       </c>
       <c r="T7">
-        <v>6.1310136263656683E-7</v>
+        <v>-2.0228503418695436E-7</v>
       </c>
       <c r="U7">
-        <v>-1.9514524696756696E-7</v>
+        <v>-1.4475394787794488E-7</v>
       </c>
       <c r="V7">
-        <v>4.070975179053112E-5</v>
+        <v>8.4941546973961101E-6</v>
       </c>
       <c r="W7">
-        <v>-1.6238721122753195E-5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+        <v>-6.4781835722019824E-7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>23</v>
       </c>
       <c r="B8">
-        <v>-6.7246185587968785E-3</v>
+        <v>-2.3586863798153671E-3</v>
       </c>
       <c r="C8">
-        <v>9.8095261227505373E-8</v>
+        <v>2.3379502822577055E-7</v>
       </c>
       <c r="D8">
-        <v>1.8638642680597968E-6</v>
+        <v>4.1052669773281425E-6</v>
       </c>
       <c r="E8">
-        <v>-2.1759100279772046E-8</v>
+        <v>-4.9844417294427551E-8</v>
       </c>
       <c r="F8">
-        <v>-2.8830816863356227E-6</v>
+        <v>-4.7989096370380809E-6</v>
       </c>
       <c r="G8">
-        <v>-6.9755444308223499E-5</v>
+        <v>-1.2283843469512999E-4</v>
       </c>
       <c r="H8">
-        <v>6.1208747993144606E-8</v>
+        <v>2.0248985668914054E-7</v>
       </c>
       <c r="I8">
-        <v>1.4013121934392932E-6</v>
+        <v>2.6051278054057815E-6</v>
       </c>
       <c r="J8">
-        <v>7.4532402351077362E-6</v>
+        <v>2.1745559180920622E-5</v>
       </c>
       <c r="K8">
-        <v>1.0268356291063094E-5</v>
+        <v>2.8089998222907147E-5</v>
       </c>
       <c r="L8">
-        <v>1.1476020774628867E-5</v>
+        <v>2.8304834528794687E-5</v>
       </c>
       <c r="M8">
-        <v>1.1439658258268989E-5</v>
+        <v>2.9390881008957209E-5</v>
       </c>
       <c r="N8">
-        <v>1.0039651836383279E-6</v>
+        <v>2.3229684200600833E-6</v>
       </c>
       <c r="O8">
-        <v>3.9001119248958771E-7</v>
+        <v>1.2030883645435488E-6</v>
       </c>
       <c r="P8">
-        <v>4.9847609202260399E-7</v>
+        <v>3.5913273962783737E-6</v>
       </c>
       <c r="Q8">
-        <v>1.3513458599325228E-7</v>
+        <v>1.24098211441272E-6</v>
       </c>
       <c r="R8">
-        <v>7.5733731992868528E-8</v>
+        <v>-3.5270182403113206E-8</v>
       </c>
       <c r="S8">
-        <v>9.6749484363809886E-8</v>
+        <v>3.7049858263981013E-8</v>
       </c>
       <c r="T8">
-        <v>-1.0465355664696557E-6</v>
+        <v>2.2303816354850947E-5</v>
       </c>
       <c r="U8">
-        <v>2.1069304843016725E-7</v>
+        <v>1.8417809724835132E-5</v>
       </c>
       <c r="V8">
-        <v>-5.4299628276469563E-5</v>
+        <v>-1.8528514623863E-4</v>
       </c>
       <c r="W8">
-        <v>2.4973235739792267E-5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+        <v>9.3940417879720964E-5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>24</v>
       </c>
       <c r="B9">
-        <v>0.1074322307424256</v>
+        <v>1.0758292431468953E-2</v>
       </c>
       <c r="C9">
-        <v>1.0932788840217681E-6</v>
+        <v>-2.5200594008657392E-6</v>
       </c>
       <c r="D9">
-        <v>1.4259166413466422E-4</v>
+        <v>2.5145378121038523E-4</v>
       </c>
       <c r="E9">
-        <v>-1.5669031158204172E-6</v>
+        <v>-2.9097137897835514E-6</v>
       </c>
       <c r="F9">
-        <v>1.3679943412034531E-4</v>
+        <v>2.0885377047132666E-4</v>
       </c>
       <c r="G9">
-        <v>-5.6060636802036717E-4</v>
+        <v>-9.4519966903698995E-4</v>
       </c>
       <c r="H9">
-        <v>-4.0020941940632794E-6</v>
+        <v>-9.0499260189733169E-8</v>
       </c>
       <c r="I9">
-        <v>7.4532402351077362E-6</v>
+        <v>2.1745559180920622E-5</v>
       </c>
       <c r="J9">
-        <v>2.9686663173727904E-3</v>
+        <v>5.5028651607627573E-3</v>
       </c>
       <c r="K9">
-        <v>3.0175045521264989E-3</v>
+        <v>5.5975429568585634E-3</v>
       </c>
       <c r="L9">
-        <v>3.0941793074787611E-3</v>
+        <v>5.5950373614824947E-3</v>
       </c>
       <c r="M9">
-        <v>3.1039590644373724E-3</v>
+        <v>5.6780996718541355E-3</v>
       </c>
       <c r="N9">
-        <v>6.4920077409325811E-5</v>
+        <v>1.2858250988918212E-4</v>
       </c>
       <c r="O9">
-        <v>2.7595866305776873E-5</v>
+        <v>7.5286426199749182E-5</v>
       </c>
       <c r="P9">
-        <v>3.5530957896095797E-5</v>
+        <v>2.1822353222458735E-4</v>
       </c>
       <c r="Q9">
-        <v>6.7370816983213191E-6</v>
+        <v>6.9200029393912246E-5</v>
       </c>
       <c r="R9">
-        <v>-1.0605360856870384E-5</v>
+        <v>-2.1233429094132308E-5</v>
       </c>
       <c r="S9">
-        <v>-3.2699952396868393E-6</v>
+        <v>2.2445042639660332E-6</v>
       </c>
       <c r="T9">
-        <v>-7.1909717219965051E-5</v>
+        <v>1.3321831206951672E-3</v>
       </c>
       <c r="U9">
-        <v>1.9392059691235841E-5</v>
+        <v>1.1003215851970506E-3</v>
       </c>
       <c r="V9">
-        <v>-6.5131537695629028E-3</v>
+        <v>-1.5305147248755379E-2</v>
       </c>
       <c r="W9">
-        <v>1.8294576338009649E-3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+        <v>5.5759149442063845E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>25</v>
       </c>
       <c r="B10">
-        <v>0.13131371852335594</v>
+        <v>2.3727675111876498E-2</v>
       </c>
       <c r="C10">
-        <v>2.2174228967848067E-6</v>
+        <v>-2.5433823430328099E-6</v>
       </c>
       <c r="D10">
-        <v>2.0689984511934899E-4</v>
+        <v>3.2957369481437893E-4</v>
       </c>
       <c r="E10">
-        <v>-2.2731418457020861E-6</v>
+        <v>-3.812755127015082E-6</v>
       </c>
       <c r="F10">
-        <v>1.9720167172960435E-4</v>
+        <v>2.7174732191481525E-4</v>
       </c>
       <c r="G10">
-        <v>-7.8811377680516816E-4</v>
+        <v>-1.2185647069483958E-3</v>
       </c>
       <c r="H10">
-        <v>-5.7428620952533102E-6</v>
+        <v>-2.6875690656621181E-8</v>
       </c>
       <c r="I10">
-        <v>1.0268356291063094E-5</v>
+        <v>2.8089998222907147E-5</v>
       </c>
       <c r="J10">
-        <v>3.0175045521264989E-3</v>
+        <v>5.5975429568585634E-3</v>
       </c>
       <c r="K10">
-        <v>3.331685192988433E-3</v>
+        <v>6.1070346255876866E-3</v>
       </c>
       <c r="L10">
-        <v>3.4221177375396922E-3</v>
+        <v>6.067299903093298E-3</v>
       </c>
       <c r="M10">
-        <v>3.4367761683391411E-3</v>
+        <v>6.1770704895783455E-3</v>
       </c>
       <c r="N10">
-        <v>9.3008213504573695E-5</v>
+        <v>1.682490608084893E-4</v>
       </c>
       <c r="O10">
-        <v>4.1081397824179125E-5</v>
+        <v>1.0026118310844248E-4</v>
       </c>
       <c r="P10">
-        <v>5.1441818144486652E-5</v>
+        <v>2.8509048011863679E-4</v>
       </c>
       <c r="Q10">
-        <v>1.037745993368704E-5</v>
+        <v>9.2370009250125119E-5</v>
       </c>
       <c r="R10">
-        <v>-1.5028157485221406E-5</v>
+        <v>-2.5146487610342003E-5</v>
       </c>
       <c r="S10">
-        <v>-1.0325571991745547E-5</v>
+        <v>-6.8875050915536932E-6</v>
       </c>
       <c r="T10">
-        <v>-1.0329973367661661E-4</v>
+        <v>1.7460797894326215E-3</v>
       </c>
       <c r="U10">
-        <v>2.8566572537154473E-5</v>
+        <v>1.4410945127168165E-3</v>
       </c>
       <c r="V10">
-        <v>-8.3798832035729548E-3</v>
+        <v>-1.8785739814026529E-2</v>
       </c>
       <c r="W10">
-        <v>2.6554835713478073E-3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+        <v>7.305249121175336E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>26</v>
       </c>
       <c r="B11">
-        <v>0.15685908126732837</v>
+        <v>4.6091839006987198E-2</v>
       </c>
       <c r="C11">
-        <v>2.0620399708546502E-6</v>
+        <v>-3.8943505692465604E-6</v>
       </c>
       <c r="D11">
-        <v>2.3113217930711256E-4</v>
+        <v>3.2854949797798705E-4</v>
       </c>
       <c r="E11">
-        <v>-2.5367443486323382E-6</v>
+        <v>-3.7967358489356546E-6</v>
       </c>
       <c r="F11">
-        <v>2.1842397259092867E-4</v>
+        <v>2.6708842214724507E-4</v>
       </c>
       <c r="G11">
-        <v>-8.7742580265924922E-4</v>
+        <v>-1.221144726476804E-3</v>
       </c>
       <c r="H11">
-        <v>-6.3342778065076893E-6</v>
+        <v>1.2624913778262673E-7</v>
       </c>
       <c r="I11">
-        <v>1.1476020774628867E-5</v>
+        <v>2.8304834528794687E-5</v>
       </c>
       <c r="J11">
-        <v>3.0941793074787611E-3</v>
+        <v>5.5950373614824947E-3</v>
       </c>
       <c r="K11">
-        <v>3.4221177375396922E-3</v>
+        <v>6.067299903093298E-3</v>
       </c>
       <c r="L11">
-        <v>3.5565988501736288E-3</v>
+        <v>6.0817604652049807E-3</v>
       </c>
       <c r="M11">
-        <v>3.5672718056622187E-3</v>
+        <v>6.181138950191652E-3</v>
       </c>
       <c r="N11">
-        <v>1.0384278758343289E-4</v>
+        <v>1.6736281779087308E-4</v>
       </c>
       <c r="O11">
-        <v>4.5992219210805476E-5</v>
+        <v>1.001699577904068E-4</v>
       </c>
       <c r="P11">
-        <v>5.752439083903552E-5</v>
+        <v>2.8431475811620689E-4</v>
       </c>
       <c r="Q11">
-        <v>1.2081853222642493E-5</v>
+        <v>9.2386284686562701E-5</v>
       </c>
       <c r="R11">
-        <v>-1.6109364217949255E-5</v>
+        <v>-2.3472578418202832E-5</v>
       </c>
       <c r="S11">
-        <v>-1.7684853058273192E-5</v>
+        <v>-1.2406848139209457E-5</v>
       </c>
       <c r="T11">
-        <v>-1.1519376809526627E-4</v>
+        <v>1.7428093874511401E-3</v>
       </c>
       <c r="U11">
-        <v>3.168851124653206E-5</v>
+        <v>1.4369315050589227E-3</v>
       </c>
       <c r="V11">
-        <v>-9.0873588287574102E-3</v>
+        <v>-1.8757291057729567E-2</v>
       </c>
       <c r="W11">
-        <v>2.9694672088496081E-3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+        <v>7.2921836510720199E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>27</v>
       </c>
       <c r="B12">
-        <v>0.17608600691982285</v>
+        <v>5.3330561431971048E-2</v>
       </c>
       <c r="C12">
-        <v>1.389853601683477E-6</v>
+        <v>-4.7033095931954316E-6</v>
       </c>
       <c r="D12">
-        <v>2.3559907065432735E-4</v>
+        <v>3.4885572666523419E-4</v>
       </c>
       <c r="E12">
-        <v>-2.5822273981941705E-6</v>
+        <v>-4.0241708663400443E-6</v>
       </c>
       <c r="F12">
-        <v>2.2707348450382508E-4</v>
+        <v>2.9341390569347114E-4</v>
       </c>
       <c r="G12">
-        <v>-8.788957003571568E-4</v>
+        <v>-1.2639268307380431E-3</v>
       </c>
       <c r="H12">
-        <v>-6.5171791930210601E-6</v>
+        <v>-6.3680666452162684E-8</v>
       </c>
       <c r="I12">
-        <v>1.1439658258268989E-5</v>
+        <v>2.9390881008957209E-5</v>
       </c>
       <c r="J12">
-        <v>3.1039590644373724E-3</v>
+        <v>5.6780996718541355E-3</v>
       </c>
       <c r="K12">
-        <v>3.4367761683391411E-3</v>
+        <v>6.1770704895783455E-3</v>
       </c>
       <c r="L12">
-        <v>3.5672718056622187E-3</v>
+        <v>6.181138950191652E-3</v>
       </c>
       <c r="M12">
-        <v>3.6160960298719231E-3</v>
+        <v>6.3534840367186996E-3</v>
       </c>
       <c r="N12">
-        <v>1.0586953612507563E-4</v>
+        <v>1.7752768087108209E-4</v>
       </c>
       <c r="O12">
-        <v>4.749364505723907E-5</v>
+        <v>1.0668930690487563E-4</v>
       </c>
       <c r="P12">
-        <v>5.8197486446273032E-5</v>
+        <v>2.9985493085308592E-4</v>
       </c>
       <c r="Q12">
-        <v>1.3104443997159583E-5</v>
+        <v>9.9111763075980936E-5</v>
       </c>
       <c r="R12">
-        <v>-1.6439570442140989E-5</v>
+        <v>-2.4754571193417428E-5</v>
       </c>
       <c r="S12">
-        <v>-1.7134532582435641E-5</v>
+        <v>-1.3488667029064145E-5</v>
       </c>
       <c r="T12">
-        <v>-1.1647680220538452E-4</v>
+        <v>1.8398832741439153E-3</v>
       </c>
       <c r="U12">
-        <v>3.2225095101035632E-5</v>
+        <v>1.5166486933470629E-3</v>
       </c>
       <c r="V12">
-        <v>-9.2180754635531846E-3</v>
+        <v>-1.9630603412080172E-2</v>
       </c>
       <c r="W12">
-        <v>3.0105990569912933E-3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+        <v>7.6946672042879872E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>35</v>
       </c>
       <c r="B13">
-        <v>2.3523326317482487E-3</v>
+        <v>-9.4036871969538343E-3</v>
       </c>
       <c r="C13">
-        <v>3.2817017999911244E-7</v>
+        <v>4.2385799578582774E-7</v>
       </c>
       <c r="D13">
-        <v>2.0317515382231306E-5</v>
+        <v>2.776631403964927E-5</v>
       </c>
       <c r="E13">
-        <v>-2.2357729136866097E-7</v>
+        <v>-3.2193457508631488E-7</v>
       </c>
       <c r="F13">
-        <v>1.4759797803600631E-5</v>
+        <v>1.517099126368985E-5</v>
       </c>
       <c r="G13">
-        <v>-8.1145801780551914E-5</v>
+        <v>-1.0703977159967275E-4</v>
       </c>
       <c r="H13">
-        <v>-4.6857347661731759E-7</v>
+        <v>1.572922321920243E-7</v>
       </c>
       <c r="I13">
-        <v>1.0039651836383279E-6</v>
+        <v>2.3229684200600833E-6</v>
       </c>
       <c r="J13">
-        <v>6.4920077409325811E-5</v>
+        <v>1.2858250988918212E-4</v>
       </c>
       <c r="K13">
-        <v>9.3008213504573695E-5</v>
+        <v>1.682490608084893E-4</v>
       </c>
       <c r="L13">
-        <v>1.0384278758343289E-4</v>
+        <v>1.6736281779087308E-4</v>
       </c>
       <c r="M13">
-        <v>1.0586953612507563E-4</v>
+        <v>1.7752768087108209E-4</v>
       </c>
       <c r="N13">
-        <v>6.4232066063794413E-5</v>
+        <v>1.1253711670416483E-4</v>
       </c>
       <c r="O13">
-        <v>3.1497228867048306E-5</v>
+        <v>5.8133080334929092E-5</v>
       </c>
       <c r="P13">
-        <v>3.26506472291894E-5</v>
+        <v>7.3717485090283479E-5</v>
       </c>
       <c r="Q13">
-        <v>2.8544382703923978E-5</v>
+        <v>5.775382529674267E-5</v>
       </c>
       <c r="R13">
-        <v>4.3065114441341976E-8</v>
+        <v>1.7289853602060313E-7</v>
       </c>
       <c r="S13">
-        <v>-8.8244958400673528E-6</v>
+        <v>-1.2031294951611709E-5</v>
       </c>
       <c r="T13">
-        <v>-9.9373144528639957E-6</v>
+        <v>1.4555290300111222E-4</v>
       </c>
       <c r="U13">
-        <v>2.7304315443802863E-6</v>
+        <v>1.1939273576474625E-4</v>
       </c>
       <c r="V13">
-        <v>-6.0876178713357878E-4</v>
+        <v>-1.2722376599199358E-3</v>
       </c>
       <c r="W13">
-        <v>2.5979391748515954E-4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+        <v>6.1169641720209384E-4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>36</v>
       </c>
       <c r="B14">
-        <v>1.6485643293621368E-2</v>
+        <v>2.7202520480531069E-3</v>
       </c>
       <c r="C14">
-        <v>1.6364892819606506E-7</v>
+        <v>-6.1740829952475008E-8</v>
       </c>
       <c r="D14">
-        <v>9.4805958834978986E-6</v>
+        <v>1.710503374563238E-5</v>
       </c>
       <c r="E14">
-        <v>-1.0461451383341908E-7</v>
+        <v>-1.9832489459398075E-7</v>
       </c>
       <c r="F14">
-        <v>7.6948818153425355E-6</v>
+        <v>1.2794421842732568E-5</v>
       </c>
       <c r="G14">
-        <v>-3.1205314061119257E-5</v>
+        <v>-5.0506781737186235E-5</v>
       </c>
       <c r="H14">
-        <v>-2.1411628164153767E-7</v>
+        <v>4.7767056151632819E-8</v>
       </c>
       <c r="I14">
-        <v>3.9001119248958771E-7</v>
+        <v>1.2030883645435488E-6</v>
       </c>
       <c r="J14">
-        <v>2.7595866305776873E-5</v>
+        <v>7.5286426199749182E-5</v>
       </c>
       <c r="K14">
-        <v>4.1081397824179125E-5</v>
+        <v>1.0026118310844248E-4</v>
       </c>
       <c r="L14">
-        <v>4.5992219210805476E-5</v>
+        <v>1.001699577904068E-4</v>
       </c>
       <c r="M14">
-        <v>4.749364505723907E-5</v>
+        <v>1.0668930690487563E-4</v>
       </c>
       <c r="N14">
-        <v>3.1497228867048306E-5</v>
+        <v>5.8133080334929092E-5</v>
       </c>
       <c r="O14">
-        <v>7.1840258641743144E-5</v>
+        <v>1.3089335426323158E-4</v>
       </c>
       <c r="P14">
-        <v>2.9750047071246869E-5</v>
+        <v>6.3925027670543098E-5</v>
       </c>
       <c r="Q14">
-        <v>2.7983827001079284E-5</v>
+        <v>5.4601678812462337E-5</v>
       </c>
       <c r="R14">
-        <v>4.0383819866569507E-7</v>
+        <v>3.7041123594333056E-7</v>
       </c>
       <c r="S14">
-        <v>-5.8123974945718794E-6</v>
+        <v>-8.0040826125203215E-6</v>
       </c>
       <c r="T14">
-        <v>-4.5428437685264965E-6</v>
+        <v>8.6537647159350172E-5</v>
       </c>
       <c r="U14">
-        <v>1.232594790959722E-6</v>
+        <v>7.0907865865074644E-5</v>
       </c>
       <c r="V14">
-        <v>-2.9349844244827615E-4</v>
+        <v>-7.8889681139644578E-4</v>
       </c>
       <c r="W14">
-        <v>1.163378774196461E-4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+        <v>3.6351484614910527E-4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>37</v>
       </c>
       <c r="B15">
-        <v>2.4417163733175367E-4</v>
+        <v>-1.4374257575710267E-2</v>
       </c>
       <c r="C15">
-        <v>4.5363854746681521E-7</v>
+        <v>7.2885657548829167E-7</v>
       </c>
       <c r="D15">
-        <v>1.1369778490176209E-5</v>
+        <v>4.6837942350939346E-5</v>
       </c>
       <c r="E15">
-        <v>-1.2574824165010234E-7</v>
+        <v>-5.431660236376962E-7</v>
       </c>
       <c r="F15">
-        <v>7.4067890860631179E-6</v>
+        <v>3.4167185177198987E-5</v>
       </c>
       <c r="G15">
-        <v>-4.2961416407890507E-5</v>
+        <v>-1.6088309448472783E-4</v>
       </c>
       <c r="H15">
-        <v>-2.2501364705644312E-7</v>
+        <v>1.263059559784043E-7</v>
       </c>
       <c r="I15">
-        <v>4.9847609202260399E-7</v>
+        <v>3.5913273962783737E-6</v>
       </c>
       <c r="J15">
-        <v>3.5530957896095797E-5</v>
+        <v>2.1822353222458735E-4</v>
       </c>
       <c r="K15">
-        <v>5.1441818144486652E-5</v>
+        <v>2.8509048011863679E-4</v>
       </c>
       <c r="L15">
-        <v>5.752439083903552E-5</v>
+        <v>2.8431475811620689E-4</v>
       </c>
       <c r="M15">
-        <v>5.8197486446273032E-5</v>
+        <v>2.9985493085308592E-4</v>
       </c>
       <c r="N15">
-        <v>3.26506472291894E-5</v>
+        <v>7.3717485090283479E-5</v>
       </c>
       <c r="O15">
-        <v>2.9750047071246869E-5</v>
+        <v>6.3925027670543098E-5</v>
       </c>
       <c r="P15">
-        <v>5.6536504090010072E-5</v>
+        <v>1.3564992398061424E-4</v>
       </c>
       <c r="Q15">
-        <v>2.8145612666858112E-5</v>
+        <v>6.3302941167804524E-5</v>
       </c>
       <c r="R15">
-        <v>1.7051804713685414E-7</v>
+        <v>-1.8989513276299012E-6</v>
       </c>
       <c r="S15">
-        <v>-9.8033729597011128E-6</v>
+        <v>-1.4191808031309945E-5</v>
       </c>
       <c r="T15">
-        <v>-5.2164369632780852E-6</v>
+        <v>2.4740246010026634E-4</v>
       </c>
       <c r="U15">
-        <v>2.0452113798045346E-6</v>
+        <v>2.0346134769718441E-4</v>
       </c>
       <c r="V15">
-        <v>-3.463575609462108E-4</v>
+        <v>-2.1241451684502815E-3</v>
       </c>
       <c r="W15">
-        <v>1.454029554368534E-4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+        <v>1.035213486660946E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>39</v>
       </c>
       <c r="B16">
-        <v>-1.4454224567220337E-2</v>
+        <v>-1.4059943660082857E-2</v>
       </c>
       <c r="C16">
-        <v>5.8676678094100493E-7</v>
+        <v>1.3433935043590364E-6</v>
       </c>
       <c r="D16">
-        <v>2.5621394730716792E-6</v>
+        <v>1.5809690304022559E-5</v>
       </c>
       <c r="E16">
-        <v>-2.8645990927989492E-8</v>
+        <v>-1.8369582163461772E-7</v>
       </c>
       <c r="F16">
-        <v>2.7621408589225929E-6</v>
+        <v>1.4093380990995644E-5</v>
       </c>
       <c r="G16">
-        <v>-9.326638673380409E-6</v>
+        <v>-5.2962700193619054E-5</v>
       </c>
       <c r="H16">
-        <v>-4.2402732281415401E-8</v>
+        <v>3.7723926279988988E-8</v>
       </c>
       <c r="I16">
-        <v>1.3513458599325228E-7</v>
+        <v>1.24098211441272E-6</v>
       </c>
       <c r="J16">
-        <v>6.7370816983213191E-6</v>
+        <v>6.9200029393912246E-5</v>
       </c>
       <c r="K16">
-        <v>1.037745993368704E-5</v>
+        <v>9.2370009250125119E-5</v>
       </c>
       <c r="L16">
-        <v>1.2081853222642493E-5</v>
+        <v>9.2386284686562701E-5</v>
       </c>
       <c r="M16">
-        <v>1.3104443997159583E-5</v>
+        <v>9.9111763075980936E-5</v>
       </c>
       <c r="N16">
-        <v>2.8544382703923978E-5</v>
+        <v>5.775382529674267E-5</v>
       </c>
       <c r="O16">
-        <v>2.7983827001079284E-5</v>
+        <v>5.4601678812462337E-5</v>
       </c>
       <c r="P16">
-        <v>2.8145612666858112E-5</v>
+        <v>6.3302941167804524E-5</v>
       </c>
       <c r="Q16">
-        <v>3.8972421078342406E-5</v>
+        <v>7.418056940786359E-5</v>
       </c>
       <c r="R16">
-        <v>9.7923303162709634E-7</v>
+        <v>5.0998778711265977E-7</v>
       </c>
       <c r="S16">
-        <v>-6.0006360235203989E-6</v>
+        <v>-9.9388419486366034E-6</v>
       </c>
       <c r="T16">
-        <v>-1.1678145869855616E-6</v>
+        <v>8.2196615317124818E-5</v>
       </c>
       <c r="U16">
-        <v>3.9294427561451115E-7</v>
+        <v>6.7307713098623104E-5</v>
       </c>
       <c r="V16">
-        <v>-9.4925685935384993E-5</v>
+        <v>-7.3931963917271042E-4</v>
       </c>
       <c r="W16">
-        <v>3.1437348634366552E-5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+        <v>3.4477349203792477E-4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>28</v>
       </c>
       <c r="B17">
-        <v>0.16938508904903901</v>
+        <v>0.19288820456660524</v>
       </c>
       <c r="C17">
-        <v>-9.92275680604295E-7</v>
+        <v>-1.8368957003654608E-6</v>
       </c>
       <c r="D17">
-        <v>-2.8895176183032592E-6</v>
+        <v>-2.8070676930198195E-6</v>
       </c>
       <c r="E17">
-        <v>3.0628092813684616E-8</v>
+        <v>3.2038387864762524E-8</v>
       </c>
       <c r="F17">
-        <v>-4.7760222302328181E-6</v>
+        <v>-3.9005344446170628E-6</v>
       </c>
       <c r="G17">
-        <v>2.5611819850506057E-7</v>
+        <v>-2.8796045056160611E-6</v>
       </c>
       <c r="H17">
-        <v>1.6422017026080396E-7</v>
+        <v>4.7462836540201833E-8</v>
       </c>
       <c r="I17">
-        <v>7.5733731992868528E-8</v>
+        <v>-3.5270182403113206E-8</v>
       </c>
       <c r="J17">
-        <v>-1.0605360856870384E-5</v>
+        <v>-2.1233429094132308E-5</v>
       </c>
       <c r="K17">
-        <v>-1.5028157485221406E-5</v>
+        <v>-2.5146487610342003E-5</v>
       </c>
       <c r="L17">
-        <v>-1.6109364217949255E-5</v>
+        <v>-2.3472578418202832E-5</v>
       </c>
       <c r="M17">
-        <v>-1.6439570442140989E-5</v>
+        <v>-2.4754571193417428E-5</v>
       </c>
       <c r="N17">
-        <v>4.3065114441341976E-8</v>
+        <v>1.7289853602060313E-7</v>
       </c>
       <c r="O17">
-        <v>4.0383819866569507E-7</v>
+        <v>3.7041123594333056E-7</v>
       </c>
       <c r="P17">
-        <v>1.7051804713685414E-7</v>
+        <v>-1.8989513276299012E-6</v>
       </c>
       <c r="Q17">
-        <v>9.7923303162709634E-7</v>
+        <v>5.0998778711265977E-7</v>
       </c>
       <c r="R17">
-        <v>7.5384537614697398E-5</v>
+        <v>1.03567169989755E-4</v>
       </c>
       <c r="S17">
-        <v>8.6678164081881714E-6</v>
+        <v>1.1420578596303684E-5</v>
       </c>
       <c r="T17">
-        <v>1.4002679143235768E-6</v>
+        <v>-2.1602954486786491E-5</v>
       </c>
       <c r="U17">
-        <v>-4.8849092862786739E-7</v>
+        <v>-1.7274613821035058E-5</v>
       </c>
       <c r="V17">
-        <v>7.5226406918328393E-5</v>
+        <v>1.3728522148399554E-4</v>
       </c>
       <c r="W17">
-        <v>-4.8234076357770624E-5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+        <v>-9.0260187737022644E-5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>29</v>
       </c>
       <c r="B18">
-        <v>7.3490256508153703E-2</v>
+        <v>7.2107532269841873E-2</v>
       </c>
       <c r="C18">
-        <v>-4.9461644961062621E-6</v>
+        <v>-6.5324441886821259E-6</v>
       </c>
       <c r="D18">
-        <v>-4.2537225607498377E-6</v>
+        <v>-3.7986386822630929E-6</v>
       </c>
       <c r="E18">
-        <v>4.1859321152797972E-8</v>
+        <v>3.7023295809156888E-8</v>
       </c>
       <c r="F18">
-        <v>-5.6587974434996521E-6</v>
+        <v>-3.7634967796842416E-6</v>
       </c>
       <c r="G18">
-        <v>8.8121052149881211E-6</v>
+        <v>8.2749887872700617E-6</v>
       </c>
       <c r="H18">
-        <v>2.3858811993171827E-7</v>
+        <v>1.4265509085303636E-7</v>
       </c>
       <c r="I18">
-        <v>9.6749484363809886E-8</v>
+        <v>3.7049858263981013E-8</v>
       </c>
       <c r="J18">
-        <v>-3.2699952396868393E-6</v>
+        <v>2.2445042639660332E-6</v>
       </c>
       <c r="K18">
-        <v>-1.0325571991745547E-5</v>
+        <v>-6.8875050915536932E-6</v>
       </c>
       <c r="L18">
-        <v>-1.7684853058273192E-5</v>
+        <v>-1.2406848139209457E-5</v>
       </c>
       <c r="M18">
-        <v>-1.7134532582435641E-5</v>
+        <v>-1.3488667029064145E-5</v>
       </c>
       <c r="N18">
-        <v>-8.8244958400673528E-6</v>
+        <v>-1.2031294951611709E-5</v>
       </c>
       <c r="O18">
-        <v>-5.8123974945718794E-6</v>
+        <v>-8.0040826125203215E-6</v>
       </c>
       <c r="P18">
-        <v>-9.8033729597011128E-6</v>
+        <v>-1.4191808031309945E-5</v>
       </c>
       <c r="Q18">
-        <v>-6.0006360235203989E-6</v>
+        <v>-9.9388419486366034E-6</v>
       </c>
       <c r="R18">
-        <v>8.6678164081881714E-6</v>
+        <v>1.1420578596303684E-5</v>
       </c>
       <c r="S18">
-        <v>4.1479459232198504E-4</v>
+        <v>5.5402699513189355E-4</v>
       </c>
       <c r="T18">
-        <v>-6.4908976606680829E-5</v>
+        <v>-1.0658202587259631E-4</v>
       </c>
       <c r="U18">
-        <v>-7.7790619410294187E-5</v>
+        <v>-1.171209163359296E-4</v>
       </c>
       <c r="V18">
-        <v>-3.0420152256669823E-4</v>
+        <v>-4.084676370118212E-4</v>
       </c>
       <c r="W18">
-        <v>-5.6269326448242082E-5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+        <v>-8.4490444235533259E-5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>30</v>
       </c>
       <c r="B19">
-        <v>7.5303086400343527E-2</v>
+        <v>-0.12080380302029196</v>
       </c>
       <c r="C19">
-        <v>-7.3850866757849989E-7</v>
+        <v>4.2955874667280605E-7</v>
       </c>
       <c r="D19">
-        <v>-2.2411125809831106E-5</v>
+        <v>2.8976399777702817E-4</v>
       </c>
       <c r="E19">
-        <v>2.4660864092786197E-7</v>
+        <v>-3.3506296506431838E-6</v>
       </c>
       <c r="F19">
-        <v>-2.1538580474593275E-5</v>
+        <v>2.4944413631331418E-4</v>
       </c>
       <c r="G19">
-        <v>8.2867876657241948E-5</v>
+        <v>-9.7607524404441464E-4</v>
       </c>
       <c r="H19">
-        <v>6.1310136263656683E-7</v>
+        <v>-2.0228503418695436E-7</v>
       </c>
       <c r="I19">
-        <v>-1.0465355664696557E-6</v>
+        <v>2.2303816354850947E-5</v>
       </c>
       <c r="J19">
-        <v>-7.1909717219965051E-5</v>
+        <v>1.3321831206951672E-3</v>
       </c>
       <c r="K19">
-        <v>-1.0329973367661661E-4</v>
+        <v>1.7460797894326215E-3</v>
       </c>
       <c r="L19">
-        <v>-1.1519376809526627E-4</v>
+        <v>1.7428093874511401E-3</v>
       </c>
       <c r="M19">
-        <v>-1.1647680220538452E-4</v>
+        <v>1.8398832741439153E-3</v>
       </c>
       <c r="N19">
-        <v>-9.9373144528639957E-6</v>
+        <v>1.4555290300111222E-4</v>
       </c>
       <c r="O19">
-        <v>-4.5428437685264965E-6</v>
+        <v>8.6537647159350172E-5</v>
       </c>
       <c r="P19">
-        <v>-5.2164369632780852E-6</v>
+        <v>2.4740246010026634E-4</v>
       </c>
       <c r="Q19">
-        <v>-1.1678145869855616E-6</v>
+        <v>8.2196615317124818E-5</v>
       </c>
       <c r="R19">
-        <v>1.4002679143235768E-6</v>
+        <v>-2.1602954486786491E-5</v>
       </c>
       <c r="S19">
-        <v>-6.4908976606680829E-5</v>
+        <v>-1.0658202587259631E-4</v>
       </c>
       <c r="T19">
-        <v>6.3624599886330957E-5</v>
+        <v>1.6175063971092865E-3</v>
       </c>
       <c r="U19">
-        <v>1.5354370057943269E-5</v>
+        <v>1.2903879861166027E-3</v>
       </c>
       <c r="V19">
-        <v>7.1679242716260515E-4</v>
+        <v>-1.282617074737739E-2</v>
       </c>
       <c r="W19">
-        <v>-2.874162238570699E-4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+        <v>6.4124955116283064E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>31</v>
       </c>
       <c r="B20">
-        <v>-8.5296402215338848E-3</v>
+        <v>-0.14067647342361853</v>
       </c>
       <c r="C20">
-        <v>-7.7147918275292697E-7</v>
+        <v>7.0172540214818685E-7</v>
       </c>
       <c r="D20">
-        <v>6.4063764217157828E-6</v>
+        <v>2.3863822950916699E-4</v>
       </c>
       <c r="E20">
-        <v>-6.9941975398108338E-8</v>
+        <v>-2.7597589287345291E-6</v>
       </c>
       <c r="F20">
-        <v>6.4523719138111547E-6</v>
+        <v>2.0499490354647487E-4</v>
       </c>
       <c r="G20">
-        <v>-2.0631116346826324E-5</v>
+        <v>-8.0536694837925378E-4</v>
       </c>
       <c r="H20">
-        <v>-1.9514524696756696E-7</v>
+        <v>-1.4475394787794488E-7</v>
       </c>
       <c r="I20">
-        <v>2.1069304843016725E-7</v>
+        <v>1.8417809724835132E-5</v>
       </c>
       <c r="J20">
-        <v>1.9392059691235841E-5</v>
+        <v>1.1003215851970506E-3</v>
       </c>
       <c r="K20">
-        <v>2.8566572537154473E-5</v>
+        <v>1.4410945127168165E-3</v>
       </c>
       <c r="L20">
-        <v>3.168851124653206E-5</v>
+        <v>1.4369315050589227E-3</v>
       </c>
       <c r="M20">
-        <v>3.2225095101035632E-5</v>
+        <v>1.5166486933470629E-3</v>
       </c>
       <c r="N20">
-        <v>2.7304315443802863E-6</v>
+        <v>1.1939273576474625E-4</v>
       </c>
       <c r="O20">
-        <v>1.232594790959722E-6</v>
+        <v>7.0907865865074644E-5</v>
       </c>
       <c r="P20">
-        <v>2.0452113798045346E-6</v>
+        <v>2.0346134769718441E-4</v>
       </c>
       <c r="Q20">
-        <v>3.9294427561451115E-7</v>
+        <v>6.7307713098623104E-5</v>
       </c>
       <c r="R20">
-        <v>-4.8849092862786739E-7</v>
+        <v>-1.7274613821035058E-5</v>
       </c>
       <c r="S20">
-        <v>-7.7790619410294187E-5</v>
+        <v>-1.171209163359296E-4</v>
       </c>
       <c r="T20">
-        <v>1.5354370057943269E-5</v>
+        <v>1.2903879861166027E-3</v>
       </c>
       <c r="U20">
-        <v>6.8368556184851924E-5</v>
+        <v>1.1517861243469675E-3</v>
       </c>
       <c r="V20">
-        <v>-1.0857014917863261E-4</v>
+        <v>-1.0538237999952264E-2</v>
       </c>
       <c r="W20">
-        <v>8.3882291285647547E-5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+        <v>5.2847035207081458E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>32</v>
       </c>
       <c r="B21">
-        <v>0.26953886648274306</v>
+        <v>0.74166319822301063</v>
       </c>
       <c r="C21">
-        <v>-2.1374411062684165E-5</v>
+        <v>-2.3165028219916705E-5</v>
       </c>
       <c r="D21">
-        <v>-1.3848254906977547E-3</v>
+        <v>-2.5536917718479947E-3</v>
       </c>
       <c r="E21">
-        <v>1.5198276493922737E-5</v>
+        <v>2.9444894584346031E-5</v>
       </c>
       <c r="F21">
-        <v>-1.4694352560823149E-3</v>
+        <v>-2.444339972153594E-3</v>
       </c>
       <c r="G21">
-        <v>4.5326761234257378E-3</v>
+        <v>8.0280663831512333E-3</v>
       </c>
       <c r="H21">
-        <v>4.070975179053112E-5</v>
+        <v>8.4941546973961101E-6</v>
       </c>
       <c r="I21">
-        <v>-5.4299628276469563E-5</v>
+        <v>-1.8528514623863E-4</v>
       </c>
       <c r="J21">
-        <v>-6.5131537695629028E-3</v>
+        <v>-1.5305147248755379E-2</v>
       </c>
       <c r="K21">
-        <v>-8.3798832035729548E-3</v>
+        <v>-1.8785739814026529E-2</v>
       </c>
       <c r="L21">
-        <v>-9.0873588287574102E-3</v>
+        <v>-1.8757291057729567E-2</v>
       </c>
       <c r="M21">
-        <v>-9.2180754635531846E-3</v>
+        <v>-1.9630603412080172E-2</v>
       </c>
       <c r="N21">
-        <v>-6.0876178713357878E-4</v>
+        <v>-1.2722376599199358E-3</v>
       </c>
       <c r="O21">
-        <v>-2.9349844244827615E-4</v>
+        <v>-7.8889681139644578E-4</v>
       </c>
       <c r="P21">
-        <v>-3.463575609462108E-4</v>
+        <v>-2.1241451684502815E-3</v>
       </c>
       <c r="Q21">
-        <v>-9.4925685935384993E-5</v>
+        <v>-7.3931963917271042E-4</v>
       </c>
       <c r="R21">
-        <v>7.5226406918328393E-5</v>
+        <v>1.3728522148399554E-4</v>
       </c>
       <c r="S21">
-        <v>-3.0420152256669823E-4</v>
+        <v>-4.084676370118212E-4</v>
       </c>
       <c r="T21">
-        <v>7.1679242716260515E-4</v>
+        <v>-1.282617074737739E-2</v>
       </c>
       <c r="U21">
-        <v>-1.0857014917863261E-4</v>
+        <v>-1.0538237999952264E-2</v>
       </c>
       <c r="V21">
-        <v>4.2594895772114928E-2</v>
+        <v>0.1159888817170615</v>
       </c>
       <c r="W21">
-        <v>-1.6942913154428463E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+        <v>-5.3996627795477786E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>33</v>
       </c>
       <c r="B22">
-        <v>4.1462470048987843E-2</v>
+        <v>-0.38019700621154473</v>
       </c>
       <c r="C22">
-        <v>1.4054910621654818E-5</v>
+        <v>9.4461595895599787E-6</v>
       </c>
       <c r="D22">
-        <v>5.8367962059674406E-4</v>
+        <v>1.2120651847203525E-3</v>
       </c>
       <c r="E22">
-        <v>-6.4119556614599141E-6</v>
+        <v>-1.4018239629917956E-5</v>
       </c>
       <c r="F22">
-        <v>5.6546647052851473E-4</v>
+        <v>1.0374808443535906E-3</v>
       </c>
       <c r="G22">
-        <v>-2.061730416351618E-3</v>
+        <v>-4.1091039971619218E-3</v>
       </c>
       <c r="H22">
-        <v>-1.6238721122753195E-5</v>
+        <v>-6.4781835722019824E-7</v>
       </c>
       <c r="I22">
-        <v>2.4973235739792267E-5</v>
+        <v>9.3940417879720964E-5</v>
       </c>
       <c r="J22">
-        <v>1.8294576338009649E-3</v>
+        <v>5.5759149442063845E-3</v>
       </c>
       <c r="K22">
-        <v>2.6554835713478073E-3</v>
+        <v>7.305249121175336E-3</v>
       </c>
       <c r="L22">
-        <v>2.9694672088496081E-3</v>
+        <v>7.2921836510720199E-3</v>
       </c>
       <c r="M22">
-        <v>3.0105990569912933E-3</v>
+        <v>7.6946672042879872E-3</v>
       </c>
       <c r="N22">
-        <v>2.5979391748515954E-4</v>
+        <v>6.1169641720209384E-4</v>
       </c>
       <c r="O22">
-        <v>1.163378774196461E-4</v>
+        <v>3.6351484614910527E-4</v>
       </c>
       <c r="P22">
-        <v>1.454029554368534E-4</v>
+        <v>1.035213486660946E-3</v>
       </c>
       <c r="Q22">
-        <v>3.1437348634366552E-5</v>
+        <v>3.4477349203792477E-4</v>
       </c>
       <c r="R22">
-        <v>-4.8234076357770624E-5</v>
+        <v>-9.0260187737022644E-5</v>
       </c>
       <c r="S22">
-        <v>-5.6269326448242082E-5</v>
+        <v>-8.4490444235533259E-5</v>
       </c>
       <c r="T22">
-        <v>-2.874162238570699E-4</v>
+        <v>6.4124955116283064E-3</v>
       </c>
       <c r="U22">
-        <v>8.3882291285647547E-5</v>
+        <v>5.2847035207081458E-3</v>
       </c>
       <c r="V22">
-        <v>-1.6942913154428463E-2</v>
+        <v>-5.3996627795477786E-2</v>
       </c>
       <c r="W22">
-        <v>7.4991758406425758E-3</v>
+        <v>2.6814319966849735E-2</v>
       </c>
     </row>
   </sheetData>
@@ -5117,16 +5113,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:W22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:W1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="35.5703125" customWidth="1"/>
+    <col min="1" max="1" width="35.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -5197,1495 +5191,1495 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>34</v>
       </c>
       <c r="B2">
-        <v>0.64613591540437842</v>
+        <v>0.70586689313720652</v>
       </c>
       <c r="C2">
-        <v>1.0832091217813084E-5</v>
+        <v>2.3918105134371664E-5</v>
       </c>
       <c r="D2">
-        <v>-2.8661736823919145E-7</v>
+        <v>2.3046487084283833E-7</v>
       </c>
       <c r="E2">
-        <v>2.4817748329150581E-9</v>
+        <v>-3.8600651791382092E-9</v>
       </c>
       <c r="F2">
-        <v>5.2780214905377659E-6</v>
+        <v>1.6140566527365891E-5</v>
       </c>
       <c r="G2">
-        <v>4.8050143243539484E-6</v>
+        <v>1.1183004945482432E-5</v>
       </c>
       <c r="H2">
-        <v>3.2554564047709008E-8</v>
+        <v>5.1282019323795826E-8</v>
       </c>
       <c r="I2">
-        <v>9.3554217239871325E-8</v>
+        <v>2.772592865671832E-7</v>
       </c>
       <c r="J2">
-        <v>3.1208569199344655E-6</v>
+        <v>1.1251311014370529E-5</v>
       </c>
       <c r="K2">
-        <v>5.0109716703947096E-6</v>
+        <v>1.5595038631505271E-5</v>
       </c>
       <c r="L2">
-        <v>5.0596974707075795E-6</v>
+        <v>1.3724392458285203E-5</v>
       </c>
       <c r="M2">
-        <v>4.6226644331763199E-6</v>
+        <v>1.3629238710773737E-5</v>
       </c>
       <c r="N2">
-        <v>7.9850840269143558E-7</v>
+        <v>2.5353025552349146E-6</v>
       </c>
       <c r="O2">
-        <v>-8.4572379235280989E-7</v>
+        <v>-6.6399915126167178E-7</v>
       </c>
       <c r="P2">
-        <v>7.4981838632302999E-7</v>
+        <v>3.1861305690317283E-6</v>
       </c>
       <c r="Q2">
-        <v>1.3484448190073486E-6</v>
+        <v>3.7559107284093048E-6</v>
       </c>
       <c r="R2">
-        <v>6.8141302187187628E-7</v>
+        <v>1.5841811817923509E-6</v>
       </c>
       <c r="S2">
-        <v>-5.6406358772816294E-6</v>
+        <v>-9.2111035227322164E-6</v>
       </c>
       <c r="T2">
-        <v>-5.1727710139342653E-7</v>
+        <v>1.1453069594289235E-5</v>
       </c>
       <c r="U2">
-        <v>-3.1482141038486423E-7</v>
+        <v>9.5669918521482474E-6</v>
       </c>
       <c r="V2">
-        <v>-1.4047951362981178E-5</v>
+        <v>-9.57036737721756E-5</v>
       </c>
       <c r="W2">
-        <v>1.3866940920929959E-5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+        <v>5.2732001177139071E-5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>18</v>
       </c>
       <c r="B3">
-        <v>-1.2953937389923197E-2</v>
+        <v>-7.6189227794743993E-3</v>
       </c>
       <c r="C3">
-        <v>-2.8661736823919145E-7</v>
+        <v>2.3046487084283833E-7</v>
       </c>
       <c r="D3">
-        <v>5.2926935977601906E-6</v>
+        <v>1.774772056115779E-5</v>
       </c>
       <c r="E3">
-        <v>-5.4376457315520137E-8</v>
+        <v>-1.8731922722781725E-7</v>
       </c>
       <c r="F3">
-        <v>2.7389877994010806E-5</v>
+        <v>1.2446103595620186E-4</v>
       </c>
       <c r="G3">
-        <v>2.3417910584750678E-5</v>
+        <v>8.942419134248243E-5</v>
       </c>
       <c r="H3">
-        <v>-4.7916871865809116E-7</v>
+        <v>-1.6333464027981427E-6</v>
       </c>
       <c r="I3">
-        <v>-4.4986303188036435E-7</v>
+        <v>-9.3142859868764852E-7</v>
       </c>
       <c r="J3">
-        <v>1.4914505320657644E-5</v>
+        <v>9.5389028584516702E-5</v>
       </c>
       <c r="K3">
-        <v>2.6803467167830266E-5</v>
+        <v>1.3968849647323298E-4</v>
       </c>
       <c r="L3">
-        <v>2.9902651254052151E-5</v>
+        <v>1.365072798112165E-4</v>
       </c>
       <c r="M3">
-        <v>3.1495678052404923E-5</v>
+        <v>1.4644585469806507E-4</v>
       </c>
       <c r="N3">
-        <v>1.8167442554290896E-6</v>
+        <v>1.1808060235843151E-5</v>
       </c>
       <c r="O3">
-        <v>3.3501780949573343E-7</v>
+        <v>1.023694386764147E-5</v>
       </c>
       <c r="P3">
-        <v>1.5675197121717448E-6</v>
+        <v>1.7855027478755847E-5</v>
       </c>
       <c r="Q3">
-        <v>1.1932498952298658E-6</v>
+        <v>1.0782551706407445E-5</v>
       </c>
       <c r="R3">
-        <v>3.2434200352609308E-7</v>
+        <v>5.0645317582465266E-7</v>
       </c>
       <c r="S3">
-        <v>-6.1973182414987634E-7</v>
+        <v>-2.559467218419483E-6</v>
       </c>
       <c r="T3">
-        <v>-2.9503379668183703E-7</v>
+        <v>9.5102048275308689E-5</v>
       </c>
       <c r="U3">
-        <v>2.3792509333842768E-6</v>
+        <v>7.557942239698687E-5</v>
       </c>
       <c r="V3">
-        <v>-1.661211248590175E-4</v>
+        <v>-8.6940033951375022E-4</v>
       </c>
       <c r="W3">
-        <v>5.9458440444159503E-5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+        <v>3.787016173535859E-4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>19</v>
       </c>
       <c r="B4">
-        <v>1.3826788085965927E-4</v>
+        <v>8.6254165574953573E-5</v>
       </c>
       <c r="C4">
-        <v>2.4817748329150581E-9</v>
+        <v>-3.8600651791382092E-9</v>
       </c>
       <c r="D4">
-        <v>-5.4376457315520137E-8</v>
+        <v>-1.8731922722781725E-7</v>
       </c>
       <c r="E4">
-        <v>5.8681367896351634E-10</v>
+        <v>2.0605522200229189E-9</v>
       </c>
       <c r="F4">
-        <v>-1.8340301068395494E-7</v>
+        <v>-1.0256945737864549E-6</v>
       </c>
       <c r="G4">
-        <v>-1.4669366002763793E-7</v>
+        <v>-6.6038310102716875E-7</v>
       </c>
       <c r="H4">
-        <v>2.5866132624529678E-9</v>
+        <v>1.0247588082325363E-8</v>
       </c>
       <c r="I4">
-        <v>2.3343623310840827E-9</v>
+        <v>2.902142185509663E-9</v>
       </c>
       <c r="J4">
-        <v>-1.5046677900096354E-7</v>
+        <v>-1.0128500573029092E-6</v>
       </c>
       <c r="K4">
-        <v>-2.6765434459125756E-7</v>
+        <v>-1.4775157743764652E-6</v>
       </c>
       <c r="L4">
-        <v>-2.9482215456919144E-7</v>
+        <v>-1.4336724787760218E-6</v>
       </c>
       <c r="M4">
-        <v>-3.0805390578884468E-7</v>
+        <v>-1.5281074590009744E-6</v>
       </c>
       <c r="N4">
-        <v>-1.869790629268702E-8</v>
+        <v>-1.2686077279275704E-7</v>
       </c>
       <c r="O4">
-        <v>-4.5113366548476304E-9</v>
+        <v>-1.1192921580917971E-7</v>
       </c>
       <c r="P4">
-        <v>-1.6313674869110879E-8</v>
+        <v>-1.9105047023474183E-7</v>
       </c>
       <c r="Q4">
-        <v>-1.206689486905593E-8</v>
+        <v>-1.1481040211530602E-7</v>
       </c>
       <c r="R4">
-        <v>-8.5428565600745012E-9</v>
+        <v>-1.4065510675352472E-8</v>
       </c>
       <c r="S4">
-        <v>2.1693690917555492E-9</v>
+        <v>2.0066400922523069E-8</v>
       </c>
       <c r="T4">
-        <v>3.4371982632296458E-9</v>
+        <v>-1.0037175109514484E-6</v>
       </c>
       <c r="U4">
-        <v>-2.3712545330280039E-8</v>
+        <v>-7.9864182739895344E-7</v>
       </c>
       <c r="V4">
-        <v>1.643825897398197E-6</v>
+        <v>9.0302917254253072E-6</v>
       </c>
       <c r="W4">
-        <v>-5.9306704133936032E-7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+        <v>-4.0002926519705941E-6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>20</v>
       </c>
       <c r="B5">
-        <v>-0.14273190855312642</v>
+        <v>-0.22668087874721851</v>
       </c>
       <c r="C5">
-        <v>5.2780214905377659E-6</v>
+        <v>1.6140566527365891E-5</v>
       </c>
       <c r="D5">
-        <v>2.7389877994010806E-5</v>
+        <v>1.2446103595620186E-4</v>
       </c>
       <c r="E5">
-        <v>-1.8340301068395494E-7</v>
+        <v>-1.0256945737864549E-6</v>
       </c>
       <c r="F5">
-        <v>6.4994443120329503E-4</v>
+        <v>2.5537299163566297E-3</v>
       </c>
       <c r="G5">
-        <v>4.8312151532215115E-4</v>
+        <v>1.7465963229472987E-3</v>
       </c>
       <c r="H5">
-        <v>-1.3479836351682646E-5</v>
+        <v>-4.5122334406583783E-5</v>
       </c>
       <c r="I5">
-        <v>-1.0431471768803836E-5</v>
+        <v>-2.8926775365090832E-5</v>
       </c>
       <c r="J5">
-        <v>1.0087903937932842E-4</v>
+        <v>9.5784235931209417E-4</v>
       </c>
       <c r="K5">
-        <v>1.8856627840168575E-4</v>
+        <v>1.4214612645603679E-3</v>
       </c>
       <c r="L5">
-        <v>2.1073552320463612E-4</v>
+        <v>1.39523029760259E-3</v>
       </c>
       <c r="M5">
-        <v>2.1742880124003236E-4</v>
+        <v>1.4703562264387234E-3</v>
       </c>
       <c r="N5">
-        <v>9.7762470878417669E-6</v>
+        <v>1.0754163639941662E-4</v>
       </c>
       <c r="O5">
-        <v>-1.4572504617704326E-6</v>
+        <v>9.1419069354756991E-5</v>
       </c>
       <c r="P5">
-        <v>8.3710319432723968E-6</v>
+        <v>1.7166166094165789E-4</v>
       </c>
       <c r="Q5">
-        <v>8.6299294231549476E-6</v>
+        <v>1.0710564923145642E-4</v>
       </c>
       <c r="R5">
-        <v>-1.1197775763584245E-5</v>
+        <v>-2.9473470605503508E-5</v>
       </c>
       <c r="S5">
-        <v>-3.47370182254487E-6</v>
+        <v>-1.8353247757165436E-5</v>
       </c>
       <c r="T5">
-        <v>-1.2801873224327987E-6</v>
+        <v>9.7515189945104495E-4</v>
       </c>
       <c r="U5">
-        <v>1.6159570917554676E-5</v>
+        <v>7.7330497482111971E-4</v>
       </c>
       <c r="V5">
-        <v>-1.1602666702907639E-3</v>
+        <v>-8.2357869189844304E-3</v>
       </c>
       <c r="W5">
-        <v>4.2997941222790793E-4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+        <v>3.8730222052027821E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>21</v>
       </c>
       <c r="B6">
-        <v>-0.14167080422233133</v>
+        <v>-0.14408713364246251</v>
       </c>
       <c r="C6">
-        <v>4.8050143243539484E-6</v>
+        <v>1.1183004945482432E-5</v>
       </c>
       <c r="D6">
-        <v>2.3417910584750678E-5</v>
+        <v>8.942419134248243E-5</v>
       </c>
       <c r="E6">
-        <v>-1.4669366002763793E-7</v>
+        <v>-6.6038310102716875E-7</v>
       </c>
       <c r="F6">
-        <v>4.8312151532215115E-4</v>
+        <v>1.7465963229472987E-3</v>
       </c>
       <c r="G6">
-        <v>1.5389311452526121E-3</v>
+        <v>4.9348322940361887E-3</v>
       </c>
       <c r="H6">
-        <v>-1.0281940806479878E-5</v>
+        <v>-3.2920084906948256E-5</v>
       </c>
       <c r="I6">
-        <v>-3.2172836853081077E-5</v>
+        <v>-9.8411242084182985E-5</v>
       </c>
       <c r="J6">
-        <v>6.7309018957510558E-5</v>
+        <v>5.2023905858301586E-4</v>
       </c>
       <c r="K6">
-        <v>1.1785498609519039E-4</v>
+        <v>7.5990968461632155E-4</v>
       </c>
       <c r="L6">
-        <v>1.2880041864776073E-4</v>
+        <v>7.3686732155977739E-4</v>
       </c>
       <c r="M6">
-        <v>1.3957861989448406E-4</v>
+        <v>7.9689409698726634E-4</v>
       </c>
       <c r="N6">
-        <v>-2.8399134832168317E-7</v>
+        <v>3.6115088364303493E-5</v>
       </c>
       <c r="O6">
-        <v>-3.8795261069056564E-6</v>
+        <v>3.9122085175626402E-5</v>
       </c>
       <c r="P6">
-        <v>-9.6300892680978755E-7</v>
+        <v>7.2664543801324711E-5</v>
       </c>
       <c r="Q6">
-        <v>6.6842666104169684E-6</v>
+        <v>6.1850232516861951E-5</v>
       </c>
       <c r="R6">
-        <v>-2.4001168162366027E-5</v>
+        <v>-4.4113785126503249E-5</v>
       </c>
       <c r="S6">
-        <v>-1.663596730836841E-5</v>
+        <v>-3.2587127706420191E-5</v>
       </c>
       <c r="T6">
-        <v>4.8050977370585445E-7</v>
+        <v>5.3315276698749625E-4</v>
       </c>
       <c r="U6">
-        <v>1.1489568127325739E-5</v>
+        <v>4.2181167267753934E-4</v>
       </c>
       <c r="V6">
-        <v>-9.1944251209758409E-4</v>
+        <v>-5.1836057913692245E-3</v>
       </c>
       <c r="W6">
-        <v>2.6561808234672407E-4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+        <v>2.1074213347229182E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>22</v>
       </c>
       <c r="B7">
-        <v>-1.1453579092743802E-3</v>
+        <v>-2.4930734647392956E-4</v>
       </c>
       <c r="C7">
-        <v>3.2554564047709008E-8</v>
+        <v>5.1282019323795826E-8</v>
       </c>
       <c r="D7">
-        <v>-4.7916871865809116E-7</v>
+        <v>-1.6333464027981427E-6</v>
       </c>
       <c r="E7">
-        <v>2.5866132624529678E-9</v>
+        <v>1.0247588082325363E-8</v>
       </c>
       <c r="F7">
-        <v>-1.3479836351682646E-5</v>
+        <v>-4.5122334406583783E-5</v>
       </c>
       <c r="G7">
-        <v>-1.0281940806479878E-5</v>
+        <v>-3.2920084906948256E-5</v>
       </c>
       <c r="H7">
-        <v>3.0520527470962729E-7</v>
+        <v>9.4293326716897786E-7</v>
       </c>
       <c r="I7">
-        <v>2.4151377081457424E-7</v>
+        <v>6.8463146148263055E-7</v>
       </c>
       <c r="J7">
-        <v>-1.3096137713203032E-6</v>
+        <v>-9.0864010546896015E-6</v>
       </c>
       <c r="K7">
-        <v>-2.5300128743762506E-6</v>
+        <v>-1.3674882634501008E-5</v>
       </c>
       <c r="L7">
-        <v>-2.7533285876334468E-6</v>
+        <v>-1.3095605762632346E-5</v>
       </c>
       <c r="M7">
-        <v>-2.8411633401906557E-6</v>
+        <v>-1.3877135018268514E-5</v>
       </c>
       <c r="N7">
-        <v>-1.6738236806099396E-7</v>
+        <v>-1.1142867781135975E-6</v>
       </c>
       <c r="O7">
-        <v>3.8462554555679317E-8</v>
+        <v>-8.031749435644808E-7</v>
       </c>
       <c r="P7">
-        <v>-1.2101518716797258E-7</v>
+        <v>-1.6697234653304985E-6</v>
       </c>
       <c r="Q7">
-        <v>-1.1718980330131669E-7</v>
+        <v>-1.0387834764368864E-6</v>
       </c>
       <c r="R7">
-        <v>2.9682470125706485E-7</v>
+        <v>5.9968510210685248E-7</v>
       </c>
       <c r="S7">
-        <v>7.5711850210872831E-8</v>
+        <v>2.092946053624082E-7</v>
       </c>
       <c r="T7">
-        <v>-5.5089814106176438E-9</v>
+        <v>-9.7313361339986112E-6</v>
       </c>
       <c r="U7">
-        <v>-2.3604819247277902E-7</v>
+        <v>-7.6834438803590462E-6</v>
       </c>
       <c r="V7">
-        <v>1.9420546372729304E-5</v>
+        <v>9.6236797600863697E-5</v>
       </c>
       <c r="W7">
-        <v>-5.948299181264795E-6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+        <v>-3.8360564173994799E-5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>23</v>
       </c>
       <c r="B8">
-        <v>-2.8763616041775483E-3</v>
+        <v>-3.7571799986522839E-3</v>
       </c>
       <c r="C8">
-        <v>9.3554217239871325E-8</v>
+        <v>2.772592865671832E-7</v>
       </c>
       <c r="D8">
-        <v>-4.4986303188036435E-7</v>
+        <v>-9.3142859868764852E-7</v>
       </c>
       <c r="E8">
-        <v>2.3343623310840827E-9</v>
+        <v>2.902142185509663E-9</v>
       </c>
       <c r="F8">
-        <v>-1.0431471768803836E-5</v>
+        <v>-2.8926775365090832E-5</v>
       </c>
       <c r="G8">
-        <v>-3.2172836853081077E-5</v>
+        <v>-9.8411242084182985E-5</v>
       </c>
       <c r="H8">
-        <v>2.4151377081457424E-7</v>
+        <v>6.8463146148263055E-7</v>
       </c>
       <c r="I8">
-        <v>7.2769923635272963E-7</v>
+        <v>2.2196552005998927E-6</v>
       </c>
       <c r="J8">
-        <v>-1.0660464579097408E-6</v>
+        <v>-7.7821380581643602E-7</v>
       </c>
       <c r="K8">
-        <v>-1.8465695183447708E-6</v>
+        <v>-1.0079176870252128E-6</v>
       </c>
       <c r="L8">
-        <v>-1.9202651743950699E-6</v>
+        <v>-3.9665684769682145E-7</v>
       </c>
       <c r="M8">
-        <v>-2.0715443818283291E-6</v>
+        <v>-8.3620950897391638E-7</v>
       </c>
       <c r="N8">
-        <v>-3.1825936976701247E-8</v>
+        <v>1.9840362914486387E-7</v>
       </c>
       <c r="O8">
-        <v>5.8298742658622554E-8</v>
+        <v>1.4769785883218562E-7</v>
       </c>
       <c r="P8">
-        <v>-1.6768079553639118E-8</v>
+        <v>1.0077039488288251E-7</v>
       </c>
       <c r="Q8">
-        <v>-1.5764053456794613E-7</v>
+        <v>-3.2681682756223785E-7</v>
       </c>
       <c r="R8">
-        <v>4.9652124854209307E-7</v>
+        <v>6.7528053592363991E-7</v>
       </c>
       <c r="S8">
-        <v>4.362656743072188E-7</v>
+        <v>6.5234034581941291E-7</v>
       </c>
       <c r="T8">
-        <v>-3.3712655780690036E-8</v>
+        <v>-1.2504356588059708E-6</v>
       </c>
       <c r="U8">
-        <v>-2.0914942719013844E-7</v>
+        <v>-9.4588404259779249E-7</v>
       </c>
       <c r="V8">
-        <v>1.6871765273359414E-5</v>
+        <v>3.6727742106337945E-5</v>
       </c>
       <c r="W8">
-        <v>-4.1793656915614841E-6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+        <v>-4.5417601117819725E-6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>24</v>
       </c>
       <c r="B9">
-        <v>-0.11125915798822797</v>
+        <v>-0.33576302036346567</v>
       </c>
       <c r="C9">
-        <v>3.1208569199344655E-6</v>
+        <v>1.1251311014370529E-5</v>
       </c>
       <c r="D9">
-        <v>1.4914505320657644E-5</v>
+        <v>9.5389028584516702E-5</v>
       </c>
       <c r="E9">
-        <v>-1.5046677900096354E-7</v>
+        <v>-1.0128500573029092E-6</v>
       </c>
       <c r="F9">
-        <v>1.0087903937932842E-4</v>
+        <v>9.5784235931209417E-4</v>
       </c>
       <c r="G9">
-        <v>6.7309018957510558E-5</v>
+        <v>5.2023905858301586E-4</v>
       </c>
       <c r="H9">
-        <v>-1.3096137713203032E-6</v>
+        <v>-9.0864010546896015E-6</v>
       </c>
       <c r="I9">
-        <v>-1.0660464579097408E-6</v>
+        <v>-7.7821380581643602E-7</v>
       </c>
       <c r="J9">
-        <v>2.3964444279223822E-3</v>
+        <v>8.2177831166606926E-3</v>
       </c>
       <c r="K9">
-        <v>2.287471459845686E-3</v>
+        <v>8.1258715046013709E-3</v>
       </c>
       <c r="L9">
-        <v>2.3113988801420271E-3</v>
+        <v>8.1156568071591717E-3</v>
       </c>
       <c r="M9">
-        <v>2.3122076283007302E-3</v>
+        <v>8.175628525604722E-3</v>
       </c>
       <c r="N9">
-        <v>1.3316640933780034E-5</v>
+        <v>1.2622823368975538E-4</v>
       </c>
       <c r="O9">
-        <v>3.7541224645473615E-6</v>
+        <v>1.104588752983444E-4</v>
       </c>
       <c r="P9">
-        <v>1.0092659002401593E-5</v>
+        <v>1.8871060191330498E-4</v>
       </c>
       <c r="Q9">
-        <v>7.2698165746130041E-6</v>
+        <v>1.1203793679929786E-4</v>
       </c>
       <c r="R9">
-        <v>-1.6618945893323333E-6</v>
+        <v>-4.3861189267880952E-6</v>
       </c>
       <c r="S9">
-        <v>2.5772497901099839E-6</v>
+        <v>-1.9730350280694508E-5</v>
       </c>
       <c r="T9">
-        <v>-4.7069537411983986E-6</v>
+        <v>9.9407211710295746E-4</v>
       </c>
       <c r="U9">
-        <v>1.474736644284496E-5</v>
+        <v>7.9913735634165443E-4</v>
       </c>
       <c r="V9">
-        <v>-2.7696648679837671E-3</v>
+        <v>-1.3802348748255559E-2</v>
       </c>
       <c r="W9">
-        <v>3.7660386628941134E-4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+        <v>3.9912069384067566E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>25</v>
       </c>
       <c r="B10">
-        <v>-0.15751271082626675</v>
+        <v>-0.38150500481945182</v>
       </c>
       <c r="C10">
-        <v>5.0109716703947096E-6</v>
+        <v>1.5595038631505271E-5</v>
       </c>
       <c r="D10">
-        <v>2.6803467167830266E-5</v>
+        <v>1.3968849647323298E-4</v>
       </c>
       <c r="E10">
-        <v>-2.6765434459125756E-7</v>
+        <v>-1.4775157743764652E-6</v>
       </c>
       <c r="F10">
-        <v>1.8856627840168575E-4</v>
+        <v>1.4214612645603679E-3</v>
       </c>
       <c r="G10">
-        <v>1.1785498609519039E-4</v>
+        <v>7.5990968461632155E-4</v>
       </c>
       <c r="H10">
-        <v>-2.5300128743762506E-6</v>
+        <v>-1.3674882634501008E-5</v>
       </c>
       <c r="I10">
-        <v>-1.8465695183447708E-6</v>
+        <v>-1.0079176870252128E-6</v>
       </c>
       <c r="J10">
-        <v>2.287471459845686E-3</v>
+        <v>8.1258715046013709E-3</v>
       </c>
       <c r="K10">
-        <v>2.4575328597356838E-3</v>
+        <v>8.9243816885409746E-3</v>
       </c>
       <c r="L10">
-        <v>2.4749730766713274E-3</v>
+        <v>8.8270984289409819E-3</v>
       </c>
       <c r="M10">
-        <v>2.4766651536928591E-3</v>
+        <v>8.9163184176637468E-3</v>
       </c>
       <c r="N10">
-        <v>2.1584186715639541E-5</v>
+        <v>1.8208838419538778E-4</v>
       </c>
       <c r="O10">
-        <v>4.803827867729984E-6</v>
+        <v>1.5810519188233358E-4</v>
       </c>
       <c r="P10">
-        <v>1.7651286010097944E-5</v>
+        <v>2.7628001694673303E-4</v>
       </c>
       <c r="Q10">
-        <v>1.2847800706738829E-5</v>
+        <v>1.622814659951245E-4</v>
       </c>
       <c r="R10">
-        <v>-1.6259202171080837E-6</v>
+        <v>-3.9441848084517686E-6</v>
       </c>
       <c r="S10">
-        <v>-8.5562507220657123E-6</v>
+        <v>-4.4246460481424438E-5</v>
       </c>
       <c r="T10">
-        <v>-5.2340636026977352E-6</v>
+        <v>1.4748453444962109E-3</v>
       </c>
       <c r="U10">
-        <v>2.7645728090690966E-5</v>
+        <v>1.1788326538063655E-3</v>
       </c>
       <c r="V10">
-        <v>-3.2901163921741708E-3</v>
+        <v>-1.7186803363351773E-2</v>
       </c>
       <c r="W10">
-        <v>6.882822194583132E-4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+        <v>5.8939938780086052E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>26</v>
       </c>
       <c r="B11">
-        <v>-0.152636995281071</v>
+        <v>-0.35653629281731108</v>
       </c>
       <c r="C11">
-        <v>5.0596974707075795E-6</v>
+        <v>1.3724392458285203E-5</v>
       </c>
       <c r="D11">
-        <v>2.9902651254052151E-5</v>
+        <v>1.365072798112165E-4</v>
       </c>
       <c r="E11">
-        <v>-2.9482215456919144E-7</v>
+        <v>-1.4336724787760218E-6</v>
       </c>
       <c r="F11">
-        <v>2.1073552320463612E-4</v>
+        <v>1.39523029760259E-3</v>
       </c>
       <c r="G11">
-        <v>1.2880041864776073E-4</v>
+        <v>7.3686732155977739E-4</v>
       </c>
       <c r="H11">
-        <v>-2.7533285876334468E-6</v>
+        <v>-1.3095605762632346E-5</v>
       </c>
       <c r="I11">
-        <v>-1.9202651743950699E-6</v>
+        <v>-3.9665684769682145E-7</v>
       </c>
       <c r="J11">
-        <v>2.3113988801420271E-3</v>
+        <v>8.1156568071591717E-3</v>
       </c>
       <c r="K11">
-        <v>2.4749730766713274E-3</v>
+        <v>8.8270984289409819E-3</v>
       </c>
       <c r="L11">
-        <v>2.5383179167463338E-3</v>
+        <v>8.8524707258623592E-3</v>
       </c>
       <c r="M11">
-        <v>2.5335561726643626E-3</v>
+        <v>8.9206909593451955E-3</v>
       </c>
       <c r="N11">
-        <v>2.4209487291322295E-5</v>
+        <v>1.8027042954505508E-4</v>
       </c>
       <c r="O11">
-        <v>5.5876907107089101E-6</v>
+        <v>1.5894942413346725E-4</v>
       </c>
       <c r="P11">
-        <v>2.0420347037056943E-5</v>
+        <v>2.7493265971937047E-4</v>
       </c>
       <c r="Q11">
-        <v>1.5428923124586722E-5</v>
+        <v>1.6322754519607199E-4</v>
       </c>
       <c r="R11">
-        <v>-8.808173036044447E-7</v>
+        <v>-6.4340510677690619E-7</v>
       </c>
       <c r="S11">
-        <v>-1.4863876069770791E-5</v>
+        <v>-5.2572655947444078E-5</v>
       </c>
       <c r="T11">
-        <v>-5.8244469497478831E-6</v>
+        <v>1.4631920337456698E-3</v>
       </c>
       <c r="U11">
-        <v>3.0425115316169548E-5</v>
+        <v>1.1661193473245335E-3</v>
       </c>
       <c r="V11">
-        <v>-3.4458139863152949E-3</v>
+        <v>-1.7088535944172187E-2</v>
       </c>
       <c r="W11">
-        <v>7.8447152774872679E-4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+        <v>5.8505997682450029E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>27</v>
       </c>
       <c r="B12">
-        <v>-0.13765860769817109</v>
+        <v>-0.36206243292451901</v>
       </c>
       <c r="C12">
-        <v>4.6226644331763199E-6</v>
+        <v>1.3629238710773737E-5</v>
       </c>
       <c r="D12">
-        <v>3.1495678052404923E-5</v>
+        <v>1.4644585469806507E-4</v>
       </c>
       <c r="E12">
-        <v>-3.0805390578884468E-7</v>
+        <v>-1.5281074590009744E-6</v>
       </c>
       <c r="F12">
-        <v>2.1742880124003236E-4</v>
+        <v>1.4703562264387234E-3</v>
       </c>
       <c r="G12">
-        <v>1.3957861989448406E-4</v>
+        <v>7.9689409698726634E-4</v>
       </c>
       <c r="H12">
-        <v>-2.8411633401906557E-6</v>
+        <v>-1.3877135018268514E-5</v>
       </c>
       <c r="I12">
-        <v>-2.0715443818283291E-6</v>
+        <v>-8.3620950897391638E-7</v>
       </c>
       <c r="J12">
-        <v>2.3122076283007302E-3</v>
+        <v>8.175628525604722E-3</v>
       </c>
       <c r="K12">
-        <v>2.4766651536928591E-3</v>
+        <v>8.9163184176637468E-3</v>
       </c>
       <c r="L12">
-        <v>2.5335561726643626E-3</v>
+        <v>8.9206909593451955E-3</v>
       </c>
       <c r="M12">
-        <v>2.569302466784914E-3</v>
+        <v>9.1171907382154166E-3</v>
       </c>
       <c r="N12">
-        <v>2.4152325085650722E-5</v>
+        <v>1.8682063538565962E-4</v>
       </c>
       <c r="O12">
-        <v>6.3938813445184671E-6</v>
+        <v>1.674991438453946E-4</v>
       </c>
       <c r="P12">
-        <v>2.017163740722905E-5</v>
+        <v>2.8544695562314818E-4</v>
       </c>
       <c r="Q12">
-        <v>1.5551009623153864E-5</v>
+        <v>1.7003228345384286E-4</v>
       </c>
       <c r="R12">
-        <v>-1.1463656579755431E-6</v>
+        <v>-2.7330838644244415E-6</v>
       </c>
       <c r="S12">
-        <v>-1.3533566394722419E-5</v>
+        <v>-5.2382797283227124E-5</v>
       </c>
       <c r="T12">
-        <v>-5.8211611599798465E-6</v>
+        <v>1.5221483124822324E-3</v>
       </c>
       <c r="U12">
-        <v>3.0809095352237088E-5</v>
+        <v>1.2135297405861147E-3</v>
       </c>
       <c r="V12">
-        <v>-3.4966199328095911E-3</v>
+        <v>-1.7644838697362962E-2</v>
       </c>
       <c r="W12">
-        <v>7.8718611223618914E-4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+        <v>6.0859328919617966E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>35</v>
       </c>
       <c r="B13">
-        <v>-3.0389712907382616E-2</v>
+        <v>-4.1979847497823013E-2</v>
       </c>
       <c r="C13">
-        <v>7.9850840269143558E-7</v>
+        <v>2.5353025552349146E-6</v>
       </c>
       <c r="D13">
-        <v>1.8167442554290896E-6</v>
+        <v>1.1808060235843151E-5</v>
       </c>
       <c r="E13">
-        <v>-1.869790629268702E-8</v>
+        <v>-1.2686077279275704E-7</v>
       </c>
       <c r="F13">
-        <v>9.7762470878417669E-6</v>
+        <v>1.0754163639941662E-4</v>
       </c>
       <c r="G13">
-        <v>-2.8399134832168317E-7</v>
+        <v>3.6115088364303493E-5</v>
       </c>
       <c r="H13">
-        <v>-1.6738236806099396E-7</v>
+        <v>-1.1142867781135975E-6</v>
       </c>
       <c r="I13">
-        <v>-3.1825936976701247E-8</v>
+        <v>1.9840362914486387E-7</v>
       </c>
       <c r="J13">
-        <v>1.3316640933780034E-5</v>
+        <v>1.2622823368975538E-4</v>
       </c>
       <c r="K13">
-        <v>2.1584186715639541E-5</v>
+        <v>1.8208838419538778E-4</v>
       </c>
       <c r="L13">
-        <v>2.4209487291322295E-5</v>
+        <v>1.8027042954505508E-4</v>
       </c>
       <c r="M13">
-        <v>2.4152325085650722E-5</v>
+        <v>1.8682063538565962E-4</v>
       </c>
       <c r="N13">
-        <v>6.9802031609701558E-5</v>
+        <v>2.2889412524173806E-4</v>
       </c>
       <c r="O13">
-        <v>3.5743649517834726E-5</v>
+        <v>1.2541930767747078E-4</v>
       </c>
       <c r="P13">
-        <v>3.6959494568476501E-5</v>
+        <v>1.3615013793441045E-4</v>
       </c>
       <c r="Q13">
-        <v>3.6576762672074946E-5</v>
+        <v>1.2681974154338488E-4</v>
       </c>
       <c r="R13">
-        <v>1.5613542872417501E-6</v>
+        <v>2.3070704648810171E-6</v>
       </c>
       <c r="S13">
-        <v>-8.6678976759669802E-6</v>
+        <v>-2.0053643325049102E-5</v>
       </c>
       <c r="T13">
-        <v>-4.6324305012734787E-7</v>
+        <v>1.1657198182431618E-4</v>
       </c>
       <c r="U13">
-        <v>2.0158902719918675E-6</v>
+        <v>9.3532668696017109E-5</v>
       </c>
       <c r="V13">
-        <v>-1.0269342801910487E-4</v>
+        <v>-9.509205359816015E-4</v>
       </c>
       <c r="W13">
-        <v>4.2481710328392211E-5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+        <v>4.7238975240783084E-4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>36</v>
       </c>
       <c r="B14">
-        <v>2.5235476524959864E-2</v>
+        <v>-1.2840133624791874E-3</v>
       </c>
       <c r="C14">
-        <v>-8.4572379235280989E-7</v>
+        <v>-6.6399915126167178E-7</v>
       </c>
       <c r="D14">
-        <v>3.3501780949573343E-7</v>
+        <v>1.023694386764147E-5</v>
       </c>
       <c r="E14">
-        <v>-4.5113366548476304E-9</v>
+        <v>-1.1192921580917971E-7</v>
       </c>
       <c r="F14">
-        <v>-1.4572504617704326E-6</v>
+        <v>9.1419069354756991E-5</v>
       </c>
       <c r="G14">
-        <v>-3.8795261069056564E-6</v>
+        <v>3.9122085175626402E-5</v>
       </c>
       <c r="H14">
-        <v>3.8462554555679317E-8</v>
+        <v>-8.031749435644808E-7</v>
       </c>
       <c r="I14">
-        <v>5.8298742658622554E-8</v>
+        <v>1.4769785883218562E-7</v>
       </c>
       <c r="J14">
-        <v>3.7541224645473615E-6</v>
+        <v>1.104588752983444E-4</v>
       </c>
       <c r="K14">
-        <v>4.803827867729984E-6</v>
+        <v>1.5810519188233358E-4</v>
       </c>
       <c r="L14">
-        <v>5.5876907107089101E-6</v>
+        <v>1.5894942413346725E-4</v>
       </c>
       <c r="M14">
-        <v>6.3938813445184671E-6</v>
+        <v>1.674991438453946E-4</v>
       </c>
       <c r="N14">
-        <v>3.5743649517834726E-5</v>
+        <v>1.2541930767747078E-4</v>
       </c>
       <c r="O14">
-        <v>8.7384521804135127E-5</v>
+        <v>2.8390318181877023E-4</v>
       </c>
       <c r="P14">
-        <v>3.57808576933609E-5</v>
+        <v>1.3236040442720243E-4</v>
       </c>
       <c r="Q14">
-        <v>3.5648470159987272E-5</v>
+        <v>1.2454517497741905E-4</v>
       </c>
       <c r="R14">
-        <v>3.5010925725679508E-6</v>
+        <v>4.5553372707044791E-6</v>
       </c>
       <c r="S14">
-        <v>-7.7492399940056136E-6</v>
+        <v>-1.8625184605222526E-5</v>
       </c>
       <c r="T14">
-        <v>-5.8705222560235367E-8</v>
+        <v>9.9454810192440833E-5</v>
       </c>
       <c r="U14">
-        <v>2.5958524008535768E-7</v>
+        <v>7.8762646052544296E-5</v>
       </c>
       <c r="V14">
-        <v>-3.7927878411698825E-5</v>
+        <v>-8.3165831547022621E-4</v>
       </c>
       <c r="W14">
-        <v>3.7111573138162583E-6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+        <v>4.0302124375883347E-4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>37</v>
       </c>
       <c r="B15">
-        <v>-2.0012162371934525E-2</v>
+        <v>-5.6955821787569645E-2</v>
       </c>
       <c r="C15">
-        <v>7.4981838632302999E-7</v>
+        <v>3.1861305690317283E-6</v>
       </c>
       <c r="D15">
-        <v>1.5675197121717448E-6</v>
+        <v>1.7855027478755847E-5</v>
       </c>
       <c r="E15">
-        <v>-1.6313674869110879E-8</v>
+        <v>-1.9105047023474183E-7</v>
       </c>
       <c r="F15">
-        <v>8.3710319432723968E-6</v>
+        <v>1.7166166094165789E-4</v>
       </c>
       <c r="G15">
-        <v>-9.6300892680978755E-7</v>
+        <v>7.2664543801324711E-5</v>
       </c>
       <c r="H15">
-        <v>-1.2101518716797258E-7</v>
+        <v>-1.6697234653304985E-6</v>
       </c>
       <c r="I15">
-        <v>-1.6768079553639118E-8</v>
+        <v>1.0077039488288251E-7</v>
       </c>
       <c r="J15">
-        <v>1.0092659002401593E-5</v>
+        <v>1.8871060191330498E-4</v>
       </c>
       <c r="K15">
-        <v>1.7651286010097944E-5</v>
+        <v>2.7628001694673303E-4</v>
       </c>
       <c r="L15">
-        <v>2.0420347037056943E-5</v>
+        <v>2.7493265971937047E-4</v>
       </c>
       <c r="M15">
-        <v>2.017163740722905E-5</v>
+        <v>2.8544695562314818E-4</v>
       </c>
       <c r="N15">
-        <v>3.6959494568476501E-5</v>
+        <v>1.3615013793441045E-4</v>
       </c>
       <c r="O15">
-        <v>3.57808576933609E-5</v>
+        <v>1.3236040442720243E-4</v>
       </c>
       <c r="P15">
-        <v>6.6828298985952876E-5</v>
+        <v>2.4095236954046312E-4</v>
       </c>
       <c r="Q15">
-        <v>3.6553217248712334E-5</v>
+        <v>1.3443538336721072E-4</v>
       </c>
       <c r="R15">
-        <v>2.2050656960775941E-6</v>
+        <v>1.5173823934969047E-6</v>
       </c>
       <c r="S15">
-        <v>-1.0571841552270321E-5</v>
+        <v>-2.3885148387155908E-5</v>
       </c>
       <c r="T15">
-        <v>6.018904199992745E-8</v>
+        <v>1.843391603018268E-4</v>
       </c>
       <c r="U15">
-        <v>2.3746712632051357E-6</v>
+        <v>1.4696763195759044E-4</v>
       </c>
       <c r="V15">
-        <v>-9.0598876328177439E-5</v>
+        <v>-1.4177474758182902E-3</v>
       </c>
       <c r="W15">
-        <v>3.9397141542966647E-5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+        <v>7.4013750563340936E-4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>39</v>
       </c>
       <c r="B16">
-        <v>-4.7569912096156068E-2</v>
+        <v>-5.7197013978604744E-2</v>
       </c>
       <c r="C16">
-        <v>1.3484448190073486E-6</v>
+        <v>3.7559107284093048E-6</v>
       </c>
       <c r="D16">
-        <v>1.1932498952298658E-6</v>
+        <v>1.0782551706407445E-5</v>
       </c>
       <c r="E16">
-        <v>-1.206689486905593E-8</v>
+        <v>-1.1481040211530602E-7</v>
       </c>
       <c r="F16">
-        <v>8.6299294231549476E-6</v>
+        <v>1.0710564923145642E-4</v>
       </c>
       <c r="G16">
-        <v>6.6842666104169684E-6</v>
+        <v>6.1850232516861951E-5</v>
       </c>
       <c r="H16">
-        <v>-1.1718980330131669E-7</v>
+        <v>-1.0387834764368864E-6</v>
       </c>
       <c r="I16">
-        <v>-1.5764053456794613E-7</v>
+        <v>-3.2681682756223785E-7</v>
       </c>
       <c r="J16">
-        <v>7.2698165746130041E-6</v>
+        <v>1.1203793679929786E-4</v>
       </c>
       <c r="K16">
-        <v>1.2847800706738829E-5</v>
+        <v>1.622814659951245E-4</v>
       </c>
       <c r="L16">
-        <v>1.5428923124586722E-5</v>
+        <v>1.6322754519607199E-4</v>
       </c>
       <c r="M16">
-        <v>1.5551009623153864E-5</v>
+        <v>1.7003228345384286E-4</v>
       </c>
       <c r="N16">
-        <v>3.6576762672074946E-5</v>
+        <v>1.2681974154338488E-4</v>
       </c>
       <c r="O16">
-        <v>3.5648470159987272E-5</v>
+        <v>1.2454517497741905E-4</v>
       </c>
       <c r="P16">
-        <v>3.6553217248712334E-5</v>
+        <v>1.3443538336721072E-4</v>
       </c>
       <c r="Q16">
-        <v>4.9377918176314844E-5</v>
+        <v>1.6570152931314708E-4</v>
       </c>
       <c r="R16">
-        <v>2.310905816077352E-6</v>
+        <v>2.8487975206483102E-6</v>
       </c>
       <c r="S16">
-        <v>-8.3664598956701718E-6</v>
+        <v>-2.035929668150279E-5</v>
       </c>
       <c r="T16">
-        <v>-4.5076157419279961E-7</v>
+        <v>1.0939367557435777E-4</v>
       </c>
       <c r="U16">
-        <v>1.1810908698799823E-6</v>
+        <v>8.6918936664097071E-5</v>
       </c>
       <c r="V16">
-        <v>-7.9633502387396767E-5</v>
+        <v>-8.938567615503826E-4</v>
       </c>
       <c r="W16">
-        <v>3.0902437565049315E-5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+        <v>4.4377138100365005E-4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>28</v>
       </c>
       <c r="B17">
-        <v>0.14043368462662148</v>
+        <v>0.23262550343784483</v>
       </c>
       <c r="C17">
-        <v>6.8141302187187628E-7</v>
+        <v>1.5841811817923509E-6</v>
       </c>
       <c r="D17">
-        <v>3.2434200352609308E-7</v>
+        <v>5.0645317582465266E-7</v>
       </c>
       <c r="E17">
-        <v>-8.5428565600745012E-9</v>
+        <v>-1.4065510675352472E-8</v>
       </c>
       <c r="F17">
-        <v>-1.1197775763584245E-5</v>
+        <v>-2.9473470605503508E-5</v>
       </c>
       <c r="G17">
-        <v>-2.4001168162366027E-5</v>
+        <v>-4.4113785126503249E-5</v>
       </c>
       <c r="H17">
-        <v>2.9682470125706485E-7</v>
+        <v>5.9968510210685248E-7</v>
       </c>
       <c r="I17">
-        <v>4.9652124854209307E-7</v>
+        <v>6.7528053592363991E-7</v>
       </c>
       <c r="J17">
-        <v>-1.6618945893323333E-6</v>
+        <v>-4.3861189267880952E-6</v>
       </c>
       <c r="K17">
-        <v>-1.6259202171080837E-6</v>
+        <v>-3.9441848084517686E-6</v>
       </c>
       <c r="L17">
-        <v>-8.808173036044447E-7</v>
+        <v>-6.4340510677690619E-7</v>
       </c>
       <c r="M17">
-        <v>-1.1463656579755431E-6</v>
+        <v>-2.7330838644244415E-6</v>
       </c>
       <c r="N17">
-        <v>1.5613542872417501E-6</v>
+        <v>2.3070704648810171E-6</v>
       </c>
       <c r="O17">
-        <v>3.5010925725679508E-6</v>
+        <v>4.5553372707044791E-6</v>
       </c>
       <c r="P17">
-        <v>2.2050656960775941E-6</v>
+        <v>1.5173823934969047E-6</v>
       </c>
       <c r="Q17">
-        <v>2.310905816077352E-6</v>
+        <v>2.8487975206483102E-6</v>
       </c>
       <c r="R17">
-        <v>2.5724479433856032E-4</v>
+        <v>5.3031248881361471E-4</v>
       </c>
       <c r="S17">
-        <v>9.9316768412893959E-6</v>
+        <v>1.8307186638849713E-5</v>
       </c>
       <c r="T17">
-        <v>-1.128124707341177E-6</v>
+        <v>-2.575893832297601E-5</v>
       </c>
       <c r="U17">
-        <v>-1.9617485994833136E-6</v>
+        <v>-1.964482021781292E-5</v>
       </c>
       <c r="V17">
-        <v>-9.4746725666199348E-6</v>
+        <v>5.0300414636128027E-5</v>
       </c>
       <c r="W17">
-        <v>-2.7901884613649814E-5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+        <v>-9.4550028225399348E-5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>29</v>
       </c>
       <c r="B18">
-        <v>5.6136329125649247E-2</v>
+        <v>0.10887194931365628</v>
       </c>
       <c r="C18">
-        <v>-5.6406358772816294E-6</v>
+        <v>-9.2111035227322164E-6</v>
       </c>
       <c r="D18">
-        <v>-6.1973182414987634E-7</v>
+        <v>-2.559467218419483E-6</v>
       </c>
       <c r="E18">
-        <v>2.1693690917555492E-9</v>
+        <v>2.0066400922523069E-8</v>
       </c>
       <c r="F18">
-        <v>-3.47370182254487E-6</v>
+        <v>-1.8353247757165436E-5</v>
       </c>
       <c r="G18">
-        <v>-1.663596730836841E-5</v>
+        <v>-3.2587127706420191E-5</v>
       </c>
       <c r="H18">
-        <v>7.5711850210872831E-8</v>
+        <v>2.092946053624082E-7</v>
       </c>
       <c r="I18">
-        <v>4.362656743072188E-7</v>
+        <v>6.5234034581941291E-7</v>
       </c>
       <c r="J18">
-        <v>2.5772497901099839E-6</v>
+        <v>-1.9730350280694508E-5</v>
       </c>
       <c r="K18">
-        <v>-8.5562507220657123E-6</v>
+        <v>-4.4246460481424438E-5</v>
       </c>
       <c r="L18">
-        <v>-1.4863876069770791E-5</v>
+        <v>-5.2572655947444078E-5</v>
       </c>
       <c r="M18">
-        <v>-1.3533566394722419E-5</v>
+        <v>-5.2382797283227124E-5</v>
       </c>
       <c r="N18">
-        <v>-8.6678976759669802E-6</v>
+        <v>-2.0053643325049102E-5</v>
       </c>
       <c r="O18">
-        <v>-7.7492399940056136E-6</v>
+        <v>-1.8625184605222526E-5</v>
       </c>
       <c r="P18">
-        <v>-1.0571841552270321E-5</v>
+        <v>-2.3885148387155908E-5</v>
       </c>
       <c r="Q18">
-        <v>-8.3664598956701718E-6</v>
+        <v>-2.035929668150279E-5</v>
       </c>
       <c r="R18">
-        <v>9.9316768412893959E-6</v>
+        <v>1.8307186638849713E-5</v>
       </c>
       <c r="S18">
-        <v>4.2580584913136323E-4</v>
+        <v>7.9934199956438164E-4</v>
       </c>
       <c r="T18">
-        <v>-7.0792116328409805E-5</v>
+        <v>-1.5977211954699215E-4</v>
       </c>
       <c r="U18">
-        <v>-8.2708141238996757E-5</v>
+        <v>-1.742796940528661E-4</v>
       </c>
       <c r="V18">
-        <v>-3.9545920597747338E-4</v>
+        <v>-6.0173577131586138E-4</v>
       </c>
       <c r="W18">
-        <v>-2.8996078324286067E-5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+        <v>-1.1894998085917759E-4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>30</v>
       </c>
       <c r="B19">
-        <v>7.0431359076970262E-2</v>
+        <v>-0.23486454255297237</v>
       </c>
       <c r="C19">
-        <v>-5.1727710139342653E-7</v>
+        <v>1.1453069594289235E-5</v>
       </c>
       <c r="D19">
-        <v>-2.9503379668183703E-7</v>
+        <v>9.5102048275308689E-5</v>
       </c>
       <c r="E19">
-        <v>3.4371982632296458E-9</v>
+        <v>-1.0037175109514484E-6</v>
       </c>
       <c r="F19">
-        <v>-1.2801873224327987E-6</v>
+        <v>9.7515189945104495E-4</v>
       </c>
       <c r="G19">
-        <v>4.8050977370585445E-7</v>
+        <v>5.3315276698749625E-4</v>
       </c>
       <c r="H19">
-        <v>-5.5089814106176438E-9</v>
+        <v>-9.7313361339986112E-6</v>
       </c>
       <c r="I19">
-        <v>-3.3712655780690036E-8</v>
+        <v>-1.2504356588059708E-6</v>
       </c>
       <c r="J19">
-        <v>-4.7069537411983986E-6</v>
+        <v>9.9407211710295746E-4</v>
       </c>
       <c r="K19">
-        <v>-5.2340636026977352E-6</v>
+        <v>1.4748453444962109E-3</v>
       </c>
       <c r="L19">
-        <v>-5.8244469497478831E-6</v>
+        <v>1.4631920337456698E-3</v>
       </c>
       <c r="M19">
-        <v>-5.8211611599798465E-6</v>
+        <v>1.5221483124822324E-3</v>
       </c>
       <c r="N19">
-        <v>-4.6324305012734787E-7</v>
+        <v>1.1657198182431618E-4</v>
       </c>
       <c r="O19">
-        <v>-5.8705222560235367E-8</v>
+        <v>9.9454810192440833E-5</v>
       </c>
       <c r="P19">
-        <v>6.018904199992745E-8</v>
+        <v>1.843391603018268E-4</v>
       </c>
       <c r="Q19">
-        <v>-4.5076157419279961E-7</v>
+        <v>1.0939367557435777E-4</v>
       </c>
       <c r="R19">
-        <v>-1.128124707341177E-6</v>
+        <v>-2.575893832297601E-5</v>
       </c>
       <c r="S19">
-        <v>-7.0792116328409805E-5</v>
+        <v>-1.5977211954699215E-4</v>
       </c>
       <c r="T19">
-        <v>6.3489839333416613E-5</v>
+        <v>1.1676028503011856E-3</v>
       </c>
       <c r="U19">
-        <v>2.0343954344567766E-5</v>
+        <v>8.3256052458482391E-4</v>
       </c>
       <c r="V19">
-        <v>8.3687074723405374E-5</v>
+        <v>-6.9815059886697665E-3</v>
       </c>
       <c r="W19">
-        <v>-8.8747890018224439E-6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+        <v>3.9475811697295476E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>31</v>
       </c>
       <c r="B20">
-        <v>-3.1818933789247862E-2</v>
+        <v>-0.2440623080816022</v>
       </c>
       <c r="C20">
-        <v>-3.1482141038486423E-7</v>
+        <v>9.5669918521482474E-6</v>
       </c>
       <c r="D20">
-        <v>2.3792509333842768E-6</v>
+        <v>7.557942239698687E-5</v>
       </c>
       <c r="E20">
-        <v>-2.3712545330280039E-8</v>
+        <v>-7.9864182739895344E-7</v>
       </c>
       <c r="F20">
-        <v>1.6159570917554676E-5</v>
+        <v>7.7330497482111971E-4</v>
       </c>
       <c r="G20">
-        <v>1.1489568127325739E-5</v>
+        <v>4.2181167267753934E-4</v>
       </c>
       <c r="H20">
-        <v>-2.3604819247277902E-7</v>
+        <v>-7.6834438803590462E-6</v>
       </c>
       <c r="I20">
-        <v>-2.0914942719013844E-7</v>
+        <v>-9.4588404259779249E-7</v>
       </c>
       <c r="J20">
-        <v>1.474736644284496E-5</v>
+        <v>7.9913735634165443E-4</v>
       </c>
       <c r="K20">
-        <v>2.7645728090690966E-5</v>
+        <v>1.1788326538063655E-3</v>
       </c>
       <c r="L20">
-        <v>3.0425115316169548E-5</v>
+        <v>1.1661193473245335E-3</v>
       </c>
       <c r="M20">
-        <v>3.0809095352237088E-5</v>
+        <v>1.2135297405861147E-3</v>
       </c>
       <c r="N20">
-        <v>2.0158902719918675E-6</v>
+        <v>9.3532668696017109E-5</v>
       </c>
       <c r="O20">
-        <v>2.5958524008535768E-7</v>
+        <v>7.8762646052544296E-5</v>
       </c>
       <c r="P20">
-        <v>2.3746712632051357E-6</v>
+        <v>1.4696763195759044E-4</v>
       </c>
       <c r="Q20">
-        <v>1.1810908698799823E-6</v>
+        <v>8.6918936664097071E-5</v>
       </c>
       <c r="R20">
-        <v>-1.9617485994833136E-6</v>
+        <v>-1.964482021781292E-5</v>
       </c>
       <c r="S20">
-        <v>-8.2708141238996757E-5</v>
+        <v>-1.742796940528661E-4</v>
       </c>
       <c r="T20">
-        <v>2.0343954344567766E-5</v>
+        <v>8.3256052458482391E-4</v>
       </c>
       <c r="U20">
-        <v>8.3491877877015159E-5</v>
+        <v>8.5611150910547577E-4</v>
       </c>
       <c r="V20">
-        <v>-2.118452539507355E-5</v>
+        <v>-5.5063424522106778E-3</v>
       </c>
       <c r="W20">
-        <v>5.9919349203853429E-5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+        <v>3.1379405043363518E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>32</v>
       </c>
       <c r="B21">
-        <v>1.1347791630594948</v>
+        <v>1.6796044546812863</v>
       </c>
       <c r="C21">
-        <v>-1.4047951362981178E-5</v>
+        <v>-9.57036737721756E-5</v>
       </c>
       <c r="D21">
-        <v>-1.661211248590175E-4</v>
+        <v>-8.6940033951375022E-4</v>
       </c>
       <c r="E21">
-        <v>1.643825897398197E-6</v>
+        <v>9.0302917254253072E-6</v>
       </c>
       <c r="F21">
-        <v>-1.1602666702907639E-3</v>
+        <v>-8.2357869189844304E-3</v>
       </c>
       <c r="G21">
-        <v>-9.1944251209758409E-4</v>
+        <v>-5.1836057913692245E-3</v>
       </c>
       <c r="H21">
-        <v>1.9420546372729304E-5</v>
+        <v>9.6236797600863697E-5</v>
       </c>
       <c r="I21">
-        <v>1.6871765273359414E-5</v>
+        <v>3.6727742106337945E-5</v>
       </c>
       <c r="J21">
-        <v>-2.7696648679837671E-3</v>
+        <v>-1.3802348748255559E-2</v>
       </c>
       <c r="K21">
-        <v>-3.2901163921741708E-3</v>
+        <v>-1.7186803363351773E-2</v>
       </c>
       <c r="L21">
-        <v>-3.4458139863152949E-3</v>
+        <v>-1.7088535944172187E-2</v>
       </c>
       <c r="M21">
-        <v>-3.4966199328095911E-3</v>
+        <v>-1.7644838697362962E-2</v>
       </c>
       <c r="N21">
-        <v>-1.0269342801910487E-4</v>
+        <v>-9.509205359816015E-4</v>
       </c>
       <c r="O21">
-        <v>-3.7927878411698825E-5</v>
+        <v>-8.3165831547022621E-4</v>
       </c>
       <c r="P21">
-        <v>-9.0598876328177439E-5</v>
+        <v>-1.4177474758182902E-3</v>
       </c>
       <c r="Q21">
-        <v>-7.9633502387396767E-5</v>
+        <v>-8.938567615503826E-4</v>
       </c>
       <c r="R21">
-        <v>-9.4746725666199348E-6</v>
+        <v>5.0300414636128027E-5</v>
       </c>
       <c r="S21">
-        <v>-3.9545920597747338E-4</v>
+        <v>-6.0173577131586138E-4</v>
       </c>
       <c r="T21">
-        <v>8.3687074723405374E-5</v>
+        <v>-6.9815059886697665E-3</v>
       </c>
       <c r="U21">
-        <v>-2.118452539507355E-5</v>
+        <v>-5.5063424522106778E-3</v>
       </c>
       <c r="V21">
-        <v>8.558372253250535E-3</v>
+        <v>6.3044159601908151E-2</v>
       </c>
       <c r="W21">
-        <v>-2.5807129015840268E-3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+        <v>-2.8328071579671363E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>33</v>
       </c>
       <c r="B22">
-        <v>-0.38934744067541965</v>
+        <v>-0.8261443982433514</v>
       </c>
       <c r="C22">
-        <v>1.3866940920929959E-5</v>
+        <v>5.2732001177139071E-5</v>
       </c>
       <c r="D22">
-        <v>5.9458440444159503E-5</v>
+        <v>3.787016173535859E-4</v>
       </c>
       <c r="E22">
-        <v>-5.9306704133936032E-7</v>
+        <v>-4.0002926519705941E-6</v>
       </c>
       <c r="F22">
-        <v>4.2997941222790793E-4</v>
+        <v>3.8730222052027821E-3</v>
       </c>
       <c r="G22">
-        <v>2.6561808234672407E-4</v>
+        <v>2.1074213347229182E-3</v>
       </c>
       <c r="H22">
-        <v>-5.948299181264795E-6</v>
+        <v>-3.8360564173994799E-5</v>
       </c>
       <c r="I22">
-        <v>-4.1793656915614841E-6</v>
+        <v>-4.5417601117819725E-6</v>
       </c>
       <c r="J22">
-        <v>3.7660386628941134E-4</v>
+        <v>3.9912069384067566E-3</v>
       </c>
       <c r="K22">
-        <v>6.882822194583132E-4</v>
+        <v>5.8939938780086052E-3</v>
       </c>
       <c r="L22">
-        <v>7.8447152774872679E-4</v>
+        <v>5.8505997682450029E-3</v>
       </c>
       <c r="M22">
-        <v>7.8718611223618914E-4</v>
+        <v>6.0859328919617966E-3</v>
       </c>
       <c r="N22">
-        <v>4.2481710328392211E-5</v>
+        <v>4.7238975240783084E-4</v>
       </c>
       <c r="O22">
-        <v>3.7111573138162583E-6</v>
+        <v>4.0302124375883347E-4</v>
       </c>
       <c r="P22">
-        <v>3.9397141542966647E-5</v>
+        <v>7.4013750563340936E-4</v>
       </c>
       <c r="Q22">
-        <v>3.0902437565049315E-5</v>
+        <v>4.4377138100365005E-4</v>
       </c>
       <c r="R22">
-        <v>-2.7901884613649814E-5</v>
+        <v>-9.4550028225399348E-5</v>
       </c>
       <c r="S22">
-        <v>-2.8996078324286067E-5</v>
+        <v>-1.1894998085917759E-4</v>
       </c>
       <c r="T22">
-        <v>-8.8747890018224439E-6</v>
+        <v>3.9475811697295476E-3</v>
       </c>
       <c r="U22">
-        <v>5.9919349203853429E-5</v>
+        <v>3.1379405043363518E-3</v>
       </c>
       <c r="V22">
-        <v>-2.5807129015840268E-3</v>
+        <v>-2.8328071579671363E-2</v>
       </c>
       <c r="W22">
-        <v>1.5089510135688645E-3</v>
+        <v>1.5747414812131162E-2</v>
       </c>
     </row>
   </sheetData>

--- a/input/reg_wages.xlsx
+++ b/input/reg_wages.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patryk\git\SimPaths_HU\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F567F15-7C3E-4A2F-981F-457A889A34D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{999FCE25-15E9-48C9-9D98-CFB688F080CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-83" yWindow="0" windowWidth="14566" windowHeight="17363" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -727,67 +727,67 @@
         <v>18</v>
       </c>
       <c r="B2">
-        <v>1.5480113912950087E-2</v>
+        <v>1.4127942989029306E-2</v>
       </c>
       <c r="C2">
-        <v>7.1127588084689483E-6</v>
+        <v>6.6893400358688662E-6</v>
       </c>
       <c r="D2">
-        <v>-7.9757633614627737E-8</v>
+        <v>-7.5172351829064714E-8</v>
       </c>
       <c r="E2">
-        <v>1.39605207105314E-5</v>
+        <v>1.4200738752403053E-5</v>
       </c>
       <c r="F2">
-        <v>1.2466097163920378E-5</v>
+        <v>1.6326411118274609E-5</v>
       </c>
       <c r="G2">
-        <v>-3.0091676969628554E-7</v>
+        <v>-3.1390895529854434E-7</v>
       </c>
       <c r="H2">
-        <v>-2.7267595929057485E-7</v>
+        <v>-3.5306934052010016E-7</v>
       </c>
       <c r="I2">
-        <v>1.4550655116348484E-6</v>
+        <v>5.2191933898302608E-7</v>
       </c>
       <c r="J2">
-        <v>2.5751089586659854E-6</v>
+        <v>1.5333570311600105E-6</v>
       </c>
       <c r="K2">
-        <v>2.2563399033664776E-6</v>
+        <v>1.1389036250969674E-6</v>
       </c>
       <c r="L2">
-        <v>5.1063666915474843E-6</v>
+        <v>3.8684506068066719E-6</v>
       </c>
       <c r="M2">
-        <v>4.4151966812266023E-7</v>
+        <v>-3.100608382898743E-8</v>
       </c>
       <c r="N2">
-        <v>1.2227382191795803E-6</v>
+        <v>7.7706159693911757E-7</v>
       </c>
       <c r="O2">
-        <v>6.0690407531789986E-7</v>
+        <v>1.0873296208038032E-7</v>
       </c>
       <c r="P2">
-        <v>5.7503003436120629E-7</v>
+        <v>1.2737303853425186E-7</v>
       </c>
       <c r="Q2">
-        <v>1.0980540487328166E-6</v>
+        <v>7.6020354002806439E-7</v>
       </c>
       <c r="R2">
-        <v>-1.4956620084041213E-6</v>
+        <v>-6.0182714182736144E-7</v>
       </c>
       <c r="S2">
-        <v>1.5888584572992342E-6</v>
+        <v>1.6723042664373846E-6</v>
       </c>
       <c r="T2">
-        <v>1.229313569753428E-6</v>
+        <v>1.306520123698462E-6</v>
       </c>
       <c r="U2">
-        <v>-1.5933694661009071E-4</v>
+        <v>-1.4909008787779339E-4</v>
       </c>
       <c r="V2">
-        <v>8.5071394222263699E-6</v>
+        <v>8.6004851812019255E-6</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.45">
@@ -795,67 +795,67 @@
         <v>19</v>
       </c>
       <c r="B3">
-        <v>-7.2970025909650238E-6</v>
+        <v>6.6769217454640004E-6</v>
       </c>
       <c r="C3">
-        <v>-7.9757633614627737E-8</v>
+        <v>-7.5172351829064714E-8</v>
       </c>
       <c r="D3">
-        <v>9.3150913988143226E-10</v>
+        <v>8.8112427337910947E-10</v>
       </c>
       <c r="E3">
-        <v>-3.390643230691571E-8</v>
+        <v>-4.0459038695721613E-8</v>
       </c>
       <c r="F3">
-        <v>-1.7290354526064623E-8</v>
+        <v>-6.5795851982129797E-8</v>
       </c>
       <c r="G3">
-        <v>3.8893744260246279E-10</v>
+        <v>6.2399804685593934E-10</v>
       </c>
       <c r="H3">
-        <v>8.3292707493163875E-11</v>
+        <v>1.1019388075021572E-9</v>
       </c>
       <c r="I3">
-        <v>-1.8922679592678675E-8</v>
+        <v>-6.5843705748059433E-9</v>
       </c>
       <c r="J3">
-        <v>-3.1115678828273638E-8</v>
+        <v>-1.7337317680154612E-8</v>
       </c>
       <c r="K3">
-        <v>-2.1775363548630176E-8</v>
+        <v>-7.2640635384731349E-9</v>
       </c>
       <c r="L3">
-        <v>-4.5522554741136941E-8</v>
+        <v>-3.0220150384792202E-8</v>
       </c>
       <c r="M3">
-        <v>-5.8738606473010284E-9</v>
+        <v>-3.416234983635163E-10</v>
       </c>
       <c r="N3">
-        <v>-1.4685814442014623E-8</v>
+        <v>-9.3900051489581933E-9</v>
       </c>
       <c r="O3">
-        <v>-8.4863972177928964E-9</v>
+        <v>-2.6171936184743102E-9</v>
       </c>
       <c r="P3">
-        <v>-7.3002707586178508E-9</v>
+        <v>-1.9750139829535358E-9</v>
       </c>
       <c r="Q3">
-        <v>-1.4640711591866925E-8</v>
+        <v>-1.0622229993644364E-8</v>
       </c>
       <c r="R3">
-        <v>3.1048906804133775E-9</v>
+        <v>-6.3744218054156889E-9</v>
       </c>
       <c r="S3">
-        <v>-1.6887215715471747E-8</v>
+        <v>-1.8232313064430036E-8</v>
       </c>
       <c r="T3">
-        <v>-1.3272413199489726E-8</v>
+        <v>-1.4326424739272051E-8</v>
       </c>
       <c r="U3">
-        <v>1.7320997701301001E-6</v>
+        <v>1.6205969464593366E-6</v>
       </c>
       <c r="V3">
-        <v>-9.5780797943743603E-8</v>
+        <v>-9.8269788264392313E-8</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.45">
@@ -863,67 +863,67 @@
         <v>20</v>
       </c>
       <c r="B4">
-        <v>-6.3461577639454925E-2</v>
+        <v>-3.6912674709195736E-2</v>
       </c>
       <c r="C4">
-        <v>1.39605207105314E-5</v>
+        <v>1.4200738752403053E-5</v>
       </c>
       <c r="D4">
-        <v>-3.390643230691571E-8</v>
+        <v>-4.0459038695721613E-8</v>
       </c>
       <c r="E4">
-        <v>8.3622237352277691E-4</v>
+        <v>7.9128381688149923E-4</v>
       </c>
       <c r="F4">
-        <v>4.8913495218234676E-4</v>
+        <v>4.8379469601322959E-4</v>
       </c>
       <c r="G4">
-        <v>-1.8542495570384543E-5</v>
+        <v>-1.7611317740275793E-5</v>
       </c>
       <c r="H4">
-        <v>-1.1177521597377809E-5</v>
+        <v>-1.1002311805839985E-5</v>
       </c>
       <c r="I4">
-        <v>-5.9648083801114725E-6</v>
+        <v>-7.865472667699858E-6</v>
       </c>
       <c r="J4">
-        <v>-1.1573891143053765E-5</v>
+        <v>-1.3320142693466829E-5</v>
       </c>
       <c r="K4">
-        <v>-1.6811226096926086E-5</v>
+        <v>-1.8117103300378176E-5</v>
       </c>
       <c r="L4">
-        <v>-4.243480982189056E-6</v>
+        <v>-8.2831931574261925E-6</v>
       </c>
       <c r="M4">
-        <v>-8.9694311364526852E-6</v>
+        <v>-6.334927569330672E-6</v>
       </c>
       <c r="N4">
-        <v>-1.4293680973194623E-6</v>
+        <v>1.0641887004716853E-6</v>
       </c>
       <c r="O4">
-        <v>-7.3289992377250205E-6</v>
+        <v>-4.3346540775572345E-6</v>
       </c>
       <c r="P4">
-        <v>1.0164366233192993E-6</v>
+        <v>2.7854452812609953E-6</v>
       </c>
       <c r="Q4">
-        <v>-3.782986605420025E-6</v>
+        <v>-6.8873252340333591E-7</v>
       </c>
       <c r="R4">
-        <v>3.0820380676953535E-6</v>
+        <v>-3.8733377050689871E-6</v>
       </c>
       <c r="S4">
-        <v>9.1411487075207717E-7</v>
+        <v>-1.5110731512861124E-7</v>
       </c>
       <c r="T4">
-        <v>-1.0325945374454206E-6</v>
+        <v>-1.3160597573091725E-6</v>
       </c>
       <c r="U4">
-        <v>-5.2657710495985306E-4</v>
+        <v>-5.1045451649922374E-4</v>
       </c>
       <c r="V4">
-        <v>-8.4771581142810307E-7</v>
+        <v>-8.4639509762888575E-6</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.45">
@@ -931,67 +931,67 @@
         <v>21</v>
       </c>
       <c r="B5">
-        <v>-0.11278142799786742</v>
+        <v>-5.1626368399867062E-2</v>
       </c>
       <c r="C5">
-        <v>1.2466097163920378E-5</v>
+        <v>1.6326411118274609E-5</v>
       </c>
       <c r="D5">
-        <v>-1.7290354526064623E-8</v>
+        <v>-6.5795851982129797E-8</v>
       </c>
       <c r="E5">
-        <v>4.8913495218234676E-4</v>
+        <v>4.8379469601322959E-4</v>
       </c>
       <c r="F5">
-        <v>5.1003474193414295E-3</v>
+        <v>3.7793165632434198E-3</v>
       </c>
       <c r="G5">
-        <v>-1.1152591702306034E-5</v>
+        <v>-1.0948598845358577E-5</v>
       </c>
       <c r="H5">
-        <v>-1.0433566121744277E-4</v>
+        <v>-7.9016785077437999E-5</v>
       </c>
       <c r="I5">
-        <v>-4.7670560848744368E-5</v>
+        <v>-5.539426667007558E-5</v>
       </c>
       <c r="J5">
-        <v>-6.825083006797958E-5</v>
+        <v>-7.3916246237321225E-5</v>
       </c>
       <c r="K5">
-        <v>-7.5792167663661243E-5</v>
+        <v>-8.0358843661520777E-5</v>
       </c>
       <c r="L5">
-        <v>-5.0358078720110137E-5</v>
+        <v>-6.116903916242425E-5</v>
       </c>
       <c r="M5">
-        <v>-1.9699399889695063E-5</v>
+        <v>-7.7391183593353212E-6</v>
       </c>
       <c r="N5">
-        <v>-5.1833326783120503E-7</v>
+        <v>8.1410886955374992E-6</v>
       </c>
       <c r="O5">
-        <v>-9.7476164790243588E-6</v>
+        <v>-1.3202955628964108E-6</v>
       </c>
       <c r="P5">
-        <v>-2.6907265010842423E-7</v>
+        <v>8.7063768746210081E-6</v>
       </c>
       <c r="Q5">
-        <v>-1.9230938860993924E-5</v>
+        <v>-3.3396181597798519E-6</v>
       </c>
       <c r="R5">
-        <v>-3.8923625597379499E-6</v>
+        <v>-2.0536583593198589E-5</v>
       </c>
       <c r="S5">
-        <v>-5.157981230609925E-6</v>
+        <v>-4.6724798017734076E-6</v>
       </c>
       <c r="T5">
-        <v>-6.8822015829762088E-6</v>
+        <v>-7.9777537268594786E-6</v>
       </c>
       <c r="U5">
-        <v>-3.7974350286134738E-4</v>
+        <v>-4.3898166601645397E-4</v>
       </c>
       <c r="V5">
-        <v>-5.7869132540309102E-5</v>
+        <v>-5.7297673208809368E-5</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.45">
@@ -999,67 +999,67 @@
         <v>22</v>
       </c>
       <c r="B6">
-        <v>-9.953393251249984E-3</v>
+        <v>-9.8341271429091531E-3</v>
       </c>
       <c r="C6">
-        <v>-3.0091676969628554E-7</v>
+        <v>-3.1390895529854434E-7</v>
       </c>
       <c r="D6">
-        <v>3.8893744260246279E-10</v>
+        <v>6.2399804685593934E-10</v>
       </c>
       <c r="E6">
-        <v>-1.8542495570384543E-5</v>
+        <v>-1.7611317740275793E-5</v>
       </c>
       <c r="F6">
-        <v>-1.1152591702306034E-5</v>
+        <v>-1.0948598845358577E-5</v>
       </c>
       <c r="G6">
-        <v>4.358592710042027E-7</v>
+        <v>4.1642172073558963E-7</v>
       </c>
       <c r="H6">
-        <v>2.7092094046570672E-7</v>
+        <v>2.6551616765533746E-7</v>
       </c>
       <c r="I6">
-        <v>2.6145119792560518E-8</v>
+        <v>4.10826020822006E-8</v>
       </c>
       <c r="J6">
-        <v>1.8631348548634003E-7</v>
+        <v>1.7120710914847456E-7</v>
       </c>
       <c r="K6">
-        <v>4.0482180268313516E-7</v>
+        <v>3.7509380629311956E-7</v>
       </c>
       <c r="L6">
-        <v>2.1240598096514318E-7</v>
+        <v>2.2813911364762507E-7</v>
       </c>
       <c r="M6">
-        <v>1.7530001883485156E-7</v>
+        <v>1.1343049775971018E-7</v>
       </c>
       <c r="N6">
-        <v>6.7829277521374339E-8</v>
+        <v>7.8546663538919346E-9</v>
       </c>
       <c r="O6">
-        <v>1.8034306501066659E-7</v>
+        <v>1.089806462690597E-7</v>
       </c>
       <c r="P6">
-        <v>4.1630368712126931E-8</v>
+        <v>-5.4679950134618622E-9</v>
       </c>
       <c r="Q6">
-        <v>1.7535665525485707E-7</v>
+        <v>1.2006212049751726E-7</v>
       </c>
       <c r="R6">
-        <v>2.8225844168944421E-7</v>
+        <v>4.0970008435576205E-7</v>
       </c>
       <c r="S6">
-        <v>-2.462870248257693E-8</v>
+        <v>-1.8666865736887262E-8</v>
       </c>
       <c r="T6">
-        <v>1.4149763880930139E-8</v>
+        <v>4.6432941710986602E-9</v>
       </c>
       <c r="U6">
-        <v>1.0984571337613032E-5</v>
+        <v>1.0964031381647645E-5</v>
       </c>
       <c r="V6">
-        <v>-2.5275885959211387E-8</v>
+        <v>4.150578894592855E-8</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.45">
@@ -1067,67 +1067,67 @@
         <v>23</v>
       </c>
       <c r="B7">
-        <v>-1.2994630442215594E-2</v>
+        <v>-1.3186557885890449E-2</v>
       </c>
       <c r="C7">
-        <v>-2.7267595929057485E-7</v>
+        <v>-3.5306934052010016E-7</v>
       </c>
       <c r="D7">
-        <v>8.3292707493163875E-11</v>
+        <v>1.1019388075021572E-9</v>
       </c>
       <c r="E7">
-        <v>-1.1177521597377809E-5</v>
+        <v>-1.1002311805839985E-5</v>
       </c>
       <c r="F7">
-        <v>-1.0433566121744277E-4</v>
+        <v>-7.9016785077437999E-5</v>
       </c>
       <c r="G7">
-        <v>2.7092094046570672E-7</v>
+        <v>2.6551616765533746E-7</v>
       </c>
       <c r="H7">
-        <v>2.2599860353546843E-6</v>
+        <v>1.7724769526214488E-6</v>
       </c>
       <c r="I7">
-        <v>1.4841115371447032E-6</v>
+        <v>1.5365725381973936E-6</v>
       </c>
       <c r="J7">
-        <v>2.019033561154817E-6</v>
+        <v>2.0033696908774094E-6</v>
       </c>
       <c r="K7">
-        <v>2.422941854481499E-6</v>
+        <v>2.368215489957859E-6</v>
       </c>
       <c r="L7">
-        <v>1.9959621327260744E-6</v>
+        <v>2.0532796698277411E-6</v>
       </c>
       <c r="M7">
-        <v>2.5212835954495956E-7</v>
+        <v>3.9839231209358005E-8</v>
       </c>
       <c r="N7">
-        <v>2.3724220558263129E-8</v>
+        <v>-1.3715144143958095E-7</v>
       </c>
       <c r="O7">
-        <v>6.4218511320855552E-8</v>
+        <v>-8.198849708304484E-8</v>
       </c>
       <c r="P7">
-        <v>6.7056741765086407E-9</v>
+        <v>-1.5605197627059473E-7</v>
       </c>
       <c r="Q7">
-        <v>3.9120387921005469E-7</v>
+        <v>9.6208930351677977E-8</v>
       </c>
       <c r="R7">
-        <v>6.3900689334369787E-7</v>
+        <v>8.9332821825992187E-7</v>
       </c>
       <c r="S7">
-        <v>5.2837663585639183E-8</v>
+        <v>3.5809783503687078E-8</v>
       </c>
       <c r="T7">
-        <v>1.0237482967583039E-7</v>
+        <v>1.1100070132392949E-7</v>
       </c>
       <c r="U7">
-        <v>7.3043391758059595E-6</v>
+        <v>8.8086976822022036E-6</v>
       </c>
       <c r="V7">
-        <v>8.6727234952892878E-7</v>
+        <v>7.6765534369444682E-7</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.45">
@@ -1135,67 +1135,67 @@
         <v>24</v>
       </c>
       <c r="B8">
-        <v>0.20752779855982872</v>
+        <v>0.25266283698278746</v>
       </c>
       <c r="C8">
-        <v>1.4550655116348484E-6</v>
+        <v>5.2191933898302608E-7</v>
       </c>
       <c r="D8">
-        <v>-1.8922679592678675E-8</v>
+        <v>-6.5843705748059433E-9</v>
       </c>
       <c r="E8">
-        <v>-5.9648083801114725E-6</v>
+        <v>-7.865472667699858E-6</v>
       </c>
       <c r="F8">
-        <v>-4.7670560848744368E-5</v>
+        <v>-5.539426667007558E-5</v>
       </c>
       <c r="G8">
-        <v>2.6145119792560518E-8</v>
+        <v>4.10826020822006E-8</v>
       </c>
       <c r="H8">
-        <v>1.4841115371447032E-6</v>
+        <v>1.5365725381973936E-6</v>
       </c>
       <c r="I8">
-        <v>5.4616880923924124E-3</v>
+        <v>4.9814160041648948E-3</v>
       </c>
       <c r="J8">
-        <v>5.1042151970832929E-3</v>
+        <v>4.642987910200163E-3</v>
       </c>
       <c r="K8">
-        <v>5.1045692003296259E-3</v>
+        <v>4.6440059131953341E-3</v>
       </c>
       <c r="L8">
-        <v>5.1031716203052309E-3</v>
+        <v>4.6430454194559892E-3</v>
       </c>
       <c r="M8">
-        <v>-1.4830180883014599E-6</v>
+        <v>8.7571890926467982E-7</v>
       </c>
       <c r="N8">
-        <v>-4.4170237494588969E-6</v>
+        <v>-4.4767064247061674E-6</v>
       </c>
       <c r="O8">
-        <v>-4.3526821769587457E-7</v>
+        <v>5.764249474513149E-7</v>
       </c>
       <c r="P8">
-        <v>-6.306233577834668E-6</v>
+        <v>-5.2626834488531347E-6</v>
       </c>
       <c r="Q8">
-        <v>-4.1624232502529999E-6</v>
+        <v>-4.5357289000522897E-6</v>
       </c>
       <c r="R8">
-        <v>2.1021873678520292E-5</v>
+        <v>2.4194926851590166E-5</v>
       </c>
       <c r="S8">
-        <v>6.0746598907570916E-7</v>
+        <v>-1.9783342120422524E-7</v>
       </c>
       <c r="T8">
-        <v>8.213472980740339E-6</v>
+        <v>5.1170373967533359E-6</v>
       </c>
       <c r="U8">
-        <v>-5.1695623184485088E-3</v>
+        <v>-4.6960094683195733E-3</v>
       </c>
       <c r="V8">
-        <v>2.503319819362831E-5</v>
+        <v>2.5454487580777366E-5</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.45">
@@ -1203,67 +1203,67 @@
         <v>25</v>
       </c>
       <c r="B9">
-        <v>0.24701430713076597</v>
+        <v>0.29410427287171287</v>
       </c>
       <c r="C9">
-        <v>2.5751089586659854E-6</v>
+        <v>1.5333570311600105E-6</v>
       </c>
       <c r="D9">
-        <v>-3.1115678828273638E-8</v>
+        <v>-1.7337317680154612E-8</v>
       </c>
       <c r="E9">
-        <v>-1.1573891143053765E-5</v>
+        <v>-1.3320142693466829E-5</v>
       </c>
       <c r="F9">
-        <v>-6.825083006797958E-5</v>
+        <v>-7.3916246237321225E-5</v>
       </c>
       <c r="G9">
-        <v>1.8631348548634003E-7</v>
+        <v>1.7120710914847456E-7</v>
       </c>
       <c r="H9">
-        <v>2.019033561154817E-6</v>
+        <v>2.0033696908774094E-6</v>
       </c>
       <c r="I9">
-        <v>5.1042151970832929E-3</v>
+        <v>4.642987910200163E-3</v>
       </c>
       <c r="J9">
-        <v>5.1601137750674009E-3</v>
+        <v>4.6978913669749106E-3</v>
       </c>
       <c r="K9">
-        <v>5.1129700892158323E-3</v>
+        <v>4.6525024714090396E-3</v>
       </c>
       <c r="L9">
-        <v>5.1127222927524292E-3</v>
+        <v>4.6526163724035091E-3</v>
       </c>
       <c r="M9">
-        <v>-9.6618948632712321E-7</v>
+        <v>9.1024168433282592E-7</v>
       </c>
       <c r="N9">
-        <v>-1.8231430905255316E-6</v>
+        <v>-2.8192306166854556E-6</v>
       </c>
       <c r="O9">
-        <v>3.8201771457264419E-7</v>
+        <v>9.5263544203907789E-7</v>
       </c>
       <c r="P9">
-        <v>-4.7123148569667452E-6</v>
+        <v>-4.2182862533434023E-6</v>
       </c>
       <c r="Q9">
-        <v>-3.034430533350378E-6</v>
+        <v>-4.1540721187930334E-6</v>
       </c>
       <c r="R9">
-        <v>1.697407490928134E-5</v>
+        <v>2.1352725318492084E-5</v>
       </c>
       <c r="S9">
-        <v>2.7728610691738784E-6</v>
+        <v>2.5414739963321016E-6</v>
       </c>
       <c r="T9">
-        <v>9.6443468511844414E-6</v>
+        <v>6.4098652877563625E-6</v>
       </c>
       <c r="U9">
-        <v>-5.210856190784696E-3</v>
+        <v>-4.7361894065869568E-3</v>
       </c>
       <c r="V9">
-        <v>3.7492743340893531E-5</v>
+        <v>3.8894849895047118E-5</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.45">
@@ -1271,67 +1271,67 @@
         <v>26</v>
       </c>
       <c r="B10">
-        <v>0.30728618391958468</v>
+        <v>0.35873814592203379</v>
       </c>
       <c r="C10">
-        <v>2.2563399033664776E-6</v>
+        <v>1.1389036250969674E-6</v>
       </c>
       <c r="D10">
-        <v>-2.1775363548630176E-8</v>
+        <v>-7.2640635384731349E-9</v>
       </c>
       <c r="E10">
-        <v>-1.6811226096926086E-5</v>
+        <v>-1.8117103300378176E-5</v>
       </c>
       <c r="F10">
-        <v>-7.5792167663661243E-5</v>
+        <v>-8.0358843661520777E-5</v>
       </c>
       <c r="G10">
-        <v>4.0482180268313516E-7</v>
+        <v>3.7509380629311956E-7</v>
       </c>
       <c r="H10">
-        <v>2.422941854481499E-6</v>
+        <v>2.368215489957859E-6</v>
       </c>
       <c r="I10">
-        <v>5.1045692003296259E-3</v>
+        <v>4.6440059131953341E-3</v>
       </c>
       <c r="J10">
-        <v>5.1129700892158323E-3</v>
+        <v>4.6525024714090396E-3</v>
       </c>
       <c r="K10">
-        <v>5.1379178397476227E-3</v>
+        <v>4.6773847922887144E-3</v>
       </c>
       <c r="L10">
-        <v>5.1242857846887108E-3</v>
+        <v>4.6642742399150595E-3</v>
       </c>
       <c r="M10">
-        <v>-1.7526964551510545E-6</v>
+        <v>2.2501797838620241E-7</v>
       </c>
       <c r="N10">
-        <v>-1.7149553468464359E-6</v>
+        <v>-2.5275191433853335E-6</v>
       </c>
       <c r="O10">
-        <v>2.5067665951300378E-7</v>
+        <v>6.608814400247033E-7</v>
       </c>
       <c r="P10">
-        <v>-4.2563624707978356E-6</v>
+        <v>-3.9527787390018319E-6</v>
       </c>
       <c r="Q10">
-        <v>-9.225120729353929E-7</v>
+        <v>-2.4499808589349135E-6</v>
       </c>
       <c r="R10">
-        <v>7.1282094857233867E-6</v>
+        <v>1.2530601748771119E-5</v>
       </c>
       <c r="S10">
-        <v>3.0478935665868615E-6</v>
+        <v>2.6039138551776302E-6</v>
       </c>
       <c r="T10">
-        <v>8.2952680968771936E-6</v>
+        <v>5.3954385962878996E-6</v>
       </c>
       <c r="U10">
-        <v>-5.2174809260281804E-3</v>
+        <v>-4.7412987243796636E-3</v>
       </c>
       <c r="V10">
-        <v>4.0591226333024823E-5</v>
+        <v>4.1282103330686993E-5</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.45">
@@ -1339,67 +1339,67 @@
         <v>27</v>
       </c>
       <c r="B11">
-        <v>0.34942282003200142</v>
+        <v>0.40095122004670641</v>
       </c>
       <c r="C11">
-        <v>5.1063666915474843E-6</v>
+        <v>3.8684506068066719E-6</v>
       </c>
       <c r="D11">
-        <v>-4.5522554741136941E-8</v>
+        <v>-3.0220150384792202E-8</v>
       </c>
       <c r="E11">
-        <v>-4.243480982189056E-6</v>
+        <v>-8.2831931574261925E-6</v>
       </c>
       <c r="F11">
-        <v>-5.0358078720110137E-5</v>
+        <v>-6.116903916242425E-5</v>
       </c>
       <c r="G11">
-        <v>2.1240598096514318E-7</v>
+        <v>2.2813911364762507E-7</v>
       </c>
       <c r="H11">
-        <v>1.9959621327260744E-6</v>
+        <v>2.0532796698277411E-6</v>
       </c>
       <c r="I11">
-        <v>5.1031716203052309E-3</v>
+        <v>4.6430454194559892E-3</v>
       </c>
       <c r="J11">
-        <v>5.1127222927524292E-3</v>
+        <v>4.6526163724035091E-3</v>
       </c>
       <c r="K11">
-        <v>5.1242857846887108E-3</v>
+        <v>4.6642742399150595E-3</v>
       </c>
       <c r="L11">
-        <v>5.1959802853261952E-3</v>
+        <v>4.7324516091255282E-3</v>
       </c>
       <c r="M11">
-        <v>-6.755622108371564E-7</v>
+        <v>1.1887182061167092E-6</v>
       </c>
       <c r="N11">
-        <v>-4.651760867121056E-7</v>
+        <v>-1.2672049938006944E-6</v>
       </c>
       <c r="O11">
-        <v>1.1595008666270568E-7</v>
+        <v>6.9135600228445518E-7</v>
       </c>
       <c r="P11">
-        <v>-2.4386768289791733E-6</v>
+        <v>-2.0099333693214594E-6</v>
       </c>
       <c r="Q11">
-        <v>-5.6253486312175501E-7</v>
+        <v>-1.8111083809447791E-6</v>
       </c>
       <c r="R11">
-        <v>7.4331851865402881E-6</v>
+        <v>1.139598804064136E-5</v>
       </c>
       <c r="S11">
-        <v>4.4585131653617669E-6</v>
+        <v>3.946935447268987E-6</v>
       </c>
       <c r="T11">
-        <v>8.9473664297849363E-6</v>
+        <v>6.06715764828386E-6</v>
       </c>
       <c r="U11">
-        <v>-5.3023835327402243E-3</v>
+        <v>-4.8201081387825809E-3</v>
       </c>
       <c r="V11">
-        <v>4.1426567991621489E-5</v>
+        <v>4.1543267275669267E-5</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.45">
@@ -1407,67 +1407,67 @@
         <v>35</v>
       </c>
       <c r="B12">
-        <v>-2.8002523581106263E-3</v>
+        <v>-8.9199940310972243E-3</v>
       </c>
       <c r="C12">
-        <v>4.4151966812266023E-7</v>
+        <v>-3.100608382898743E-8</v>
       </c>
       <c r="D12">
-        <v>-5.8738606473010284E-9</v>
+        <v>-3.416234983635163E-10</v>
       </c>
       <c r="E12">
-        <v>-8.9694311364526852E-6</v>
+        <v>-6.334927569330672E-6</v>
       </c>
       <c r="F12">
-        <v>-1.9699399889695063E-5</v>
+        <v>-7.7391183593353212E-6</v>
       </c>
       <c r="G12">
-        <v>1.7530001883485156E-7</v>
+        <v>1.1343049775971018E-7</v>
       </c>
       <c r="H12">
-        <v>2.5212835954495956E-7</v>
+        <v>3.9839231209358005E-8</v>
       </c>
       <c r="I12">
-        <v>-1.4830180883014599E-6</v>
+        <v>8.7571890926467982E-7</v>
       </c>
       <c r="J12">
-        <v>-9.6618948632712321E-7</v>
+        <v>9.1024168433282592E-7</v>
       </c>
       <c r="K12">
-        <v>-1.7526964551510545E-6</v>
+        <v>2.2501797838620241E-7</v>
       </c>
       <c r="L12">
-        <v>-6.755622108371564E-7</v>
+        <v>1.1887182061167092E-6</v>
       </c>
       <c r="M12">
-        <v>1.3027136176387407E-4</v>
+        <v>1.2301889008553186E-4</v>
       </c>
       <c r="N12">
-        <v>6.4717767890933034E-5</v>
+        <v>5.9457007376851358E-5</v>
       </c>
       <c r="O12">
-        <v>6.5151724014853144E-5</v>
+        <v>5.9825777446713687E-5</v>
       </c>
       <c r="P12">
-        <v>6.4715114158160538E-5</v>
+        <v>5.9517611767108685E-5</v>
       </c>
       <c r="Q12">
-        <v>3.5421098373726555E-6</v>
+        <v>2.7783891052751376E-6</v>
       </c>
       <c r="R12">
-        <v>-1.5437372242279984E-5</v>
+        <v>-1.3177164999498923E-5</v>
       </c>
       <c r="S12">
-        <v>1.0179372180249233E-7</v>
+        <v>-2.6235525453672721E-7</v>
       </c>
       <c r="T12">
-        <v>-6.5203613415927646E-7</v>
+        <v>-6.0972876199782736E-7</v>
       </c>
       <c r="U12">
-        <v>-5.6127523591145185E-5</v>
+        <v>-4.4212135527625123E-5</v>
       </c>
       <c r="V12">
-        <v>3.4075377748076019E-6</v>
+        <v>1.7258603046282383E-6</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.45">
@@ -1475,67 +1475,67 @@
         <v>36</v>
       </c>
       <c r="B13">
-        <v>1.3438461772660379E-2</v>
+        <v>1.3449135636994387E-2</v>
       </c>
       <c r="C13">
-        <v>1.2227382191795803E-6</v>
+        <v>7.7706159693911757E-7</v>
       </c>
       <c r="D13">
-        <v>-1.4685814442014623E-8</v>
+        <v>-9.3900051489581933E-9</v>
       </c>
       <c r="E13">
-        <v>-1.4293680973194623E-6</v>
+        <v>1.0641887004716853E-6</v>
       </c>
       <c r="F13">
-        <v>-5.1833326783120503E-7</v>
+        <v>8.1410886955374992E-6</v>
       </c>
       <c r="G13">
-        <v>6.7829277521374339E-8</v>
+        <v>7.8546663538919346E-9</v>
       </c>
       <c r="H13">
-        <v>2.3724220558263129E-8</v>
+        <v>-1.3715144143958095E-7</v>
       </c>
       <c r="I13">
-        <v>-4.4170237494588969E-6</v>
+        <v>-4.4767064247061674E-6</v>
       </c>
       <c r="J13">
-        <v>-1.8231430905255316E-6</v>
+        <v>-2.8192306166854556E-6</v>
       </c>
       <c r="K13">
-        <v>-1.7149553468464359E-6</v>
+        <v>-2.5275191433853335E-6</v>
       </c>
       <c r="L13">
-        <v>-4.651760867121056E-7</v>
+        <v>-1.2672049938006944E-6</v>
       </c>
       <c r="M13">
-        <v>6.4717767890933034E-5</v>
+        <v>5.9457007376851358E-5</v>
       </c>
       <c r="N13">
-        <v>1.6439171380716326E-4</v>
+        <v>1.5752153404082584E-4</v>
       </c>
       <c r="O13">
-        <v>6.4815407676287919E-5</v>
+        <v>5.9547185732558176E-5</v>
       </c>
       <c r="P13">
-        <v>6.4740945569246634E-5</v>
+        <v>5.9585445088241518E-5</v>
       </c>
       <c r="Q13">
-        <v>2.2644025606561353E-6</v>
+        <v>1.3827517990428919E-6</v>
       </c>
       <c r="R13">
-        <v>-9.8604597656469192E-6</v>
+        <v>-7.5082575300085826E-6</v>
       </c>
       <c r="S13">
-        <v>3.625552739468996E-7</v>
+        <v>-5.6925125257676772E-8</v>
       </c>
       <c r="T13">
-        <v>-4.6650803378107139E-7</v>
+        <v>-2.8923685899761343E-7</v>
       </c>
       <c r="U13">
-        <v>-7.9955857795098302E-5</v>
+        <v>-6.6044690678816447E-5</v>
       </c>
       <c r="V13">
-        <v>3.2794703550231556E-6</v>
+        <v>1.5353650857194497E-6</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.45">
@@ -1543,67 +1543,67 @@
         <v>37</v>
       </c>
       <c r="B14">
-        <v>-1.44118389824475E-2</v>
+        <v>-9.9265634294780983E-3</v>
       </c>
       <c r="C14">
-        <v>6.0690407531789986E-7</v>
+        <v>1.0873296208038032E-7</v>
       </c>
       <c r="D14">
-        <v>-8.4863972177928964E-9</v>
+        <v>-2.6171936184743102E-9</v>
       </c>
       <c r="E14">
-        <v>-7.3289992377250205E-6</v>
+        <v>-4.3346540775572345E-6</v>
       </c>
       <c r="F14">
-        <v>-9.7476164790243588E-6</v>
+        <v>-1.3202955628964108E-6</v>
       </c>
       <c r="G14">
-        <v>1.8034306501066659E-7</v>
+        <v>1.089806462690597E-7</v>
       </c>
       <c r="H14">
-        <v>6.4218511320855552E-8</v>
+        <v>-8.198849708304484E-8</v>
       </c>
       <c r="I14">
-        <v>-4.3526821769587457E-7</v>
+        <v>5.764249474513149E-7</v>
       </c>
       <c r="J14">
-        <v>3.8201771457264419E-7</v>
+        <v>9.5263544203907789E-7</v>
       </c>
       <c r="K14">
-        <v>2.5067665951300378E-7</v>
+        <v>6.608814400247033E-7</v>
       </c>
       <c r="L14">
-        <v>1.1595008666270568E-7</v>
+        <v>6.9135600228445518E-7</v>
       </c>
       <c r="M14">
-        <v>6.5151724014853144E-5</v>
+        <v>5.9825777446713687E-5</v>
       </c>
       <c r="N14">
-        <v>6.4815407676287919E-5</v>
+        <v>5.9547185732558176E-5</v>
       </c>
       <c r="O14">
-        <v>1.2520026993564193E-4</v>
+        <v>1.1913720391624752E-4</v>
       </c>
       <c r="P14">
-        <v>6.4858883387974961E-5</v>
+        <v>5.964780316520743E-5</v>
       </c>
       <c r="Q14">
-        <v>2.471150523176832E-6</v>
+        <v>1.6251272993979422E-6</v>
       </c>
       <c r="R14">
-        <v>-1.8047141506108638E-5</v>
+        <v>-1.5086877588142124E-5</v>
       </c>
       <c r="S14">
-        <v>1.278523559387897E-6</v>
+        <v>7.5268002930410567E-7</v>
       </c>
       <c r="T14">
-        <v>3.3840039429458545E-9</v>
+        <v>-7.7487311624946921E-9</v>
       </c>
       <c r="U14">
-        <v>-5.8377830230209688E-5</v>
+        <v>-4.4969180346210916E-5</v>
       </c>
       <c r="V14">
-        <v>3.6690197326062295E-6</v>
+        <v>1.6461849389177788E-6</v>
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.45">
@@ -1611,67 +1611,67 @@
         <v>39</v>
       </c>
       <c r="B15">
-        <v>-5.9113531186044635E-2</v>
+        <v>-4.5004641239292258E-2</v>
       </c>
       <c r="C15">
-        <v>5.7503003436120629E-7</v>
+        <v>1.2737303853425186E-7</v>
       </c>
       <c r="D15">
-        <v>-7.3002707586178508E-9</v>
+        <v>-1.9750139829535358E-9</v>
       </c>
       <c r="E15">
-        <v>1.0164366233192993E-6</v>
+        <v>2.7854452812609953E-6</v>
       </c>
       <c r="F15">
-        <v>-2.6907265010842423E-7</v>
+        <v>8.7063768746210081E-6</v>
       </c>
       <c r="G15">
-        <v>4.1630368712126931E-8</v>
+        <v>-5.4679950134618622E-9</v>
       </c>
       <c r="H15">
-        <v>6.7056741765086407E-9</v>
+        <v>-1.5605197627059473E-7</v>
       </c>
       <c r="I15">
-        <v>-6.306233577834668E-6</v>
+        <v>-5.2626834488531347E-6</v>
       </c>
       <c r="J15">
-        <v>-4.7123148569667452E-6</v>
+        <v>-4.2182862533434023E-6</v>
       </c>
       <c r="K15">
-        <v>-4.2563624707978356E-6</v>
+        <v>-3.9527787390018319E-6</v>
       </c>
       <c r="L15">
-        <v>-2.4386768289791733E-6</v>
+        <v>-2.0099333693214594E-6</v>
       </c>
       <c r="M15">
-        <v>6.4715114158160538E-5</v>
+        <v>5.9517611767108685E-5</v>
       </c>
       <c r="N15">
-        <v>6.4740945569246634E-5</v>
+        <v>5.9585445088241518E-5</v>
       </c>
       <c r="O15">
-        <v>6.4858883387974961E-5</v>
+        <v>5.964780316520743E-5</v>
       </c>
       <c r="P15">
-        <v>9.0605783685723674E-5</v>
+        <v>8.5160854250551594E-5</v>
       </c>
       <c r="Q15">
-        <v>3.0317557918962174E-6</v>
+        <v>2.1381320190663249E-6</v>
       </c>
       <c r="R15">
-        <v>-1.3218583202574251E-5</v>
+        <v>-1.1092558206494613E-5</v>
       </c>
       <c r="S15">
-        <v>4.9169999077140715E-7</v>
+        <v>-8.0140731069668757E-8</v>
       </c>
       <c r="T15">
-        <v>-2.1969847988588212E-7</v>
+        <v>-2.8637878540146369E-7</v>
       </c>
       <c r="U15">
-        <v>-5.9585999694824487E-5</v>
+        <v>-4.6134763612868178E-5</v>
       </c>
       <c r="V15">
-        <v>1.3775232823295929E-6</v>
+        <v>-9.2366252541108526E-7</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.45">
@@ -1679,67 +1679,67 @@
         <v>28</v>
       </c>
       <c r="B16">
-        <v>0.25957586913692388</v>
+        <v>0.28079649297649306</v>
       </c>
       <c r="C16">
-        <v>1.0980540487328166E-6</v>
+        <v>7.6020354002806439E-7</v>
       </c>
       <c r="D16">
-        <v>-1.4640711591866925E-8</v>
+        <v>-1.0622229993644364E-8</v>
       </c>
       <c r="E16">
-        <v>-3.782986605420025E-6</v>
+        <v>-6.8873252340333591E-7</v>
       </c>
       <c r="F16">
-        <v>-1.9230938860993924E-5</v>
+        <v>-3.3396181597798519E-6</v>
       </c>
       <c r="G16">
-        <v>1.7535665525485707E-7</v>
+        <v>1.2006212049751726E-7</v>
       </c>
       <c r="H16">
-        <v>3.9120387921005469E-7</v>
+        <v>9.6208930351677977E-8</v>
       </c>
       <c r="I16">
-        <v>-4.1624232502529999E-6</v>
+        <v>-4.5357289000522897E-6</v>
       </c>
       <c r="J16">
-        <v>-3.034430533350378E-6</v>
+        <v>-4.1540721187930334E-6</v>
       </c>
       <c r="K16">
-        <v>-9.225120729353929E-7</v>
+        <v>-2.4499808589349135E-6</v>
       </c>
       <c r="L16">
-        <v>-5.6253486312175501E-7</v>
+        <v>-1.8111083809447791E-6</v>
       </c>
       <c r="M16">
-        <v>3.5421098373726555E-6</v>
+        <v>2.7783891052751376E-6</v>
       </c>
       <c r="N16">
-        <v>2.2644025606561353E-6</v>
+        <v>1.3827517990428919E-6</v>
       </c>
       <c r="O16">
-        <v>2.471150523176832E-6</v>
+        <v>1.6251272993979422E-6</v>
       </c>
       <c r="P16">
-        <v>3.0317557918962174E-6</v>
+        <v>2.1381320190663249E-6</v>
       </c>
       <c r="Q16">
-        <v>1.5232558811907428E-4</v>
+        <v>1.5487180219899395E-4</v>
       </c>
       <c r="R16">
-        <v>1.6543908628363688E-5</v>
+        <v>1.7847213122547239E-5</v>
       </c>
       <c r="S16">
-        <v>-1.8503556192745612E-6</v>
+        <v>-2.1847180456207114E-6</v>
       </c>
       <c r="T16">
-        <v>-9.3940750737549572E-7</v>
+        <v>-1.2501419709545241E-6</v>
       </c>
       <c r="U16">
-        <v>-4.2554706711649121E-5</v>
+        <v>-3.4494254653873996E-5</v>
       </c>
       <c r="V16">
-        <v>-9.4639793107988877E-6</v>
+        <v>-1.038499870096442E-5</v>
       </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.45">
@@ -1747,67 +1747,67 @@
         <v>29</v>
       </c>
       <c r="B17">
-        <v>0.28368736804887662</v>
+        <v>0.46644608003998045</v>
       </c>
       <c r="C17">
-        <v>-1.4956620084041213E-6</v>
+        <v>-6.0182714182736144E-7</v>
       </c>
       <c r="D17">
-        <v>3.1048906804133775E-9</v>
+        <v>-6.3744218054156889E-9</v>
       </c>
       <c r="E17">
-        <v>3.0820380676953535E-6</v>
+        <v>-3.8733377050689871E-6</v>
       </c>
       <c r="F17">
-        <v>-3.8923625597379499E-6</v>
+        <v>-2.0536583593198589E-5</v>
       </c>
       <c r="G17">
-        <v>2.8225844168944421E-7</v>
+        <v>4.0970008435576205E-7</v>
       </c>
       <c r="H17">
-        <v>6.3900689334369787E-7</v>
+        <v>8.9332821825992187E-7</v>
       </c>
       <c r="I17">
-        <v>2.1021873678520292E-5</v>
+        <v>2.4194926851590166E-5</v>
       </c>
       <c r="J17">
-        <v>1.697407490928134E-5</v>
+        <v>2.1352725318492084E-5</v>
       </c>
       <c r="K17">
-        <v>7.1282094857233867E-6</v>
+        <v>1.2530601748771119E-5</v>
       </c>
       <c r="L17">
-        <v>7.4331851865402881E-6</v>
+        <v>1.139598804064136E-5</v>
       </c>
       <c r="M17">
-        <v>-1.5437372242279984E-5</v>
+        <v>-1.3177164999498923E-5</v>
       </c>
       <c r="N17">
-        <v>-9.8604597656469192E-6</v>
+        <v>-7.5082575300085826E-6</v>
       </c>
       <c r="O17">
-        <v>-1.8047141506108638E-5</v>
+        <v>-1.5086877588142124E-5</v>
       </c>
       <c r="P17">
-        <v>-1.3218583202574251E-5</v>
+        <v>-1.1092558206494613E-5</v>
       </c>
       <c r="Q17">
-        <v>1.6543908628363688E-5</v>
+        <v>1.7847213122547239E-5</v>
       </c>
       <c r="R17">
-        <v>8.5702250143448501E-4</v>
+        <v>8.1902626246768489E-4</v>
       </c>
       <c r="S17">
-        <v>-1.500240655241596E-4</v>
+        <v>-1.4087317886538192E-4</v>
       </c>
       <c r="T17">
-        <v>-1.7138900962193938E-4</v>
+        <v>-1.616471109135661E-4</v>
       </c>
       <c r="U17">
-        <v>-8.4453617703435571E-4</v>
+        <v>-8.370977666342979E-4</v>
       </c>
       <c r="V17">
-        <v>-9.5746601582941276E-6</v>
+        <v>-4.8168792072994974E-6</v>
       </c>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.45">
@@ -1815,67 +1815,67 @@
         <v>30</v>
       </c>
       <c r="B18">
-        <v>1.1540962507768647E-2</v>
+        <v>-4.0781018843480737E-3</v>
       </c>
       <c r="C18">
-        <v>1.5888584572992342E-6</v>
+        <v>1.6723042664373846E-6</v>
       </c>
       <c r="D18">
-        <v>-1.6887215715471747E-8</v>
+        <v>-1.8232313064430036E-8</v>
       </c>
       <c r="E18">
-        <v>9.1411487075207717E-7</v>
+        <v>-1.5110731512861124E-7</v>
       </c>
       <c r="F18">
-        <v>-5.157981230609925E-6</v>
+        <v>-4.6724798017734076E-6</v>
       </c>
       <c r="G18">
-        <v>-2.462870248257693E-8</v>
+        <v>-1.8666865736887262E-8</v>
       </c>
       <c r="H18">
-        <v>5.2837663585639183E-8</v>
+        <v>3.5809783503687078E-8</v>
       </c>
       <c r="I18">
-        <v>6.0746598907570916E-7</v>
+        <v>-1.9783342120422524E-7</v>
       </c>
       <c r="J18">
-        <v>2.7728610691738784E-6</v>
+        <v>2.5414739963321016E-6</v>
       </c>
       <c r="K18">
-        <v>3.0478935665868615E-6</v>
+        <v>2.6039138551776302E-6</v>
       </c>
       <c r="L18">
-        <v>4.4585131653617669E-6</v>
+        <v>3.946935447268987E-6</v>
       </c>
       <c r="M18">
-        <v>1.0179372180249233E-7</v>
+        <v>-2.6235525453672721E-7</v>
       </c>
       <c r="N18">
-        <v>3.625552739468996E-7</v>
+        <v>-5.6925125257676772E-8</v>
       </c>
       <c r="O18">
-        <v>1.278523559387897E-6</v>
+        <v>7.5268002930410567E-7</v>
       </c>
       <c r="P18">
-        <v>4.9169999077140715E-7</v>
+        <v>-8.0140731069668757E-8</v>
       </c>
       <c r="Q18">
-        <v>-1.8503556192745612E-6</v>
+        <v>-2.1847180456207114E-6</v>
       </c>
       <c r="R18">
-        <v>-1.500240655241596E-4</v>
+        <v>-1.4087317886538192E-4</v>
       </c>
       <c r="S18">
-        <v>1.2228944999290628E-4</v>
+        <v>1.1796417293124136E-4</v>
       </c>
       <c r="T18">
-        <v>4.6224143546778153E-5</v>
+        <v>4.432242358333788E-5</v>
       </c>
       <c r="U18">
-        <v>9.1427397015555052E-5</v>
+        <v>8.1291031329707944E-5</v>
       </c>
       <c r="V18">
-        <v>1.6389901829992694E-5</v>
+        <v>1.8545150473114667E-5</v>
       </c>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.45">
@@ -1883,67 +1883,67 @@
         <v>31</v>
       </c>
       <c r="B19">
-        <v>-4.5034150128031768E-2</v>
+        <v>7.9235929379585634E-3</v>
       </c>
       <c r="C19">
-        <v>1.229313569753428E-6</v>
+        <v>1.306520123698462E-6</v>
       </c>
       <c r="D19">
-        <v>-1.3272413199489726E-8</v>
+        <v>-1.4326424739272051E-8</v>
       </c>
       <c r="E19">
-        <v>-1.0325945374454206E-6</v>
+        <v>-1.3160597573091725E-6</v>
       </c>
       <c r="F19">
-        <v>-6.8822015829762088E-6</v>
+        <v>-7.9777537268594786E-6</v>
       </c>
       <c r="G19">
-        <v>1.4149763880930139E-8</v>
+        <v>4.6432941710986602E-9</v>
       </c>
       <c r="H19">
-        <v>1.0237482967583039E-7</v>
+        <v>1.1100070132392949E-7</v>
       </c>
       <c r="I19">
-        <v>8.213472980740339E-6</v>
+        <v>5.1170373967533359E-6</v>
       </c>
       <c r="J19">
-        <v>9.6443468511844414E-6</v>
+        <v>6.4098652877563625E-6</v>
       </c>
       <c r="K19">
-        <v>8.2952680968771936E-6</v>
+        <v>5.3954385962878996E-6</v>
       </c>
       <c r="L19">
-        <v>8.9473664297849363E-6</v>
+        <v>6.06715764828386E-6</v>
       </c>
       <c r="M19">
-        <v>-6.5203613415927646E-7</v>
+        <v>-6.0972876199782736E-7</v>
       </c>
       <c r="N19">
-        <v>-4.6650803378107139E-7</v>
+        <v>-2.8923685899761343E-7</v>
       </c>
       <c r="O19">
-        <v>3.3840039429458545E-9</v>
+        <v>-7.7487311624946921E-9</v>
       </c>
       <c r="P19">
-        <v>-2.1969847988588212E-7</v>
+        <v>-2.8637878540146369E-7</v>
       </c>
       <c r="Q19">
-        <v>-9.3940750737549572E-7</v>
+        <v>-1.2501419709545241E-6</v>
       </c>
       <c r="R19">
-        <v>-1.7138900962193938E-4</v>
+        <v>-1.616471109135661E-4</v>
       </c>
       <c r="S19">
-        <v>4.6224143546778153E-5</v>
+        <v>4.432242358333788E-5</v>
       </c>
       <c r="T19">
-        <v>1.6275923234219559E-4</v>
+        <v>1.5609827590040652E-4</v>
       </c>
       <c r="U19">
-        <v>1.1916936991965922E-4</v>
+        <v>1.1056673832271717E-4</v>
       </c>
       <c r="V19">
-        <v>1.4541020180305559E-5</v>
+        <v>1.6304672789199459E-5</v>
       </c>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.45">
@@ -1951,67 +1951,67 @@
         <v>32</v>
       </c>
       <c r="B20">
-        <v>0.51948954830877114</v>
+        <v>0.34326791602459061</v>
       </c>
       <c r="C20">
-        <v>-1.5933694661009071E-4</v>
+        <v>-1.4909008787779339E-4</v>
       </c>
       <c r="D20">
-        <v>1.7320997701301001E-6</v>
+        <v>1.6205969464593366E-6</v>
       </c>
       <c r="E20">
-        <v>-5.2657710495985306E-4</v>
+        <v>-5.1045451649922374E-4</v>
       </c>
       <c r="F20">
-        <v>-3.7974350286134738E-4</v>
+        <v>-4.3898166601645397E-4</v>
       </c>
       <c r="G20">
-        <v>1.0984571337613032E-5</v>
+        <v>1.0964031381647645E-5</v>
       </c>
       <c r="H20">
-        <v>7.3043391758059595E-6</v>
+        <v>8.8086976822022036E-6</v>
       </c>
       <c r="I20">
-        <v>-5.1695623184485088E-3</v>
+        <v>-4.6960094683195733E-3</v>
       </c>
       <c r="J20">
-        <v>-5.210856190784696E-3</v>
+        <v>-4.7361894065869568E-3</v>
       </c>
       <c r="K20">
-        <v>-5.2174809260281804E-3</v>
+        <v>-4.7412987243796636E-3</v>
       </c>
       <c r="L20">
-        <v>-5.3023835327402243E-3</v>
+        <v>-4.8201081387825809E-3</v>
       </c>
       <c r="M20">
-        <v>-5.6127523591145185E-5</v>
+        <v>-4.4212135527625123E-5</v>
       </c>
       <c r="N20">
-        <v>-7.9955857795098302E-5</v>
+        <v>-6.6044690678816447E-5</v>
       </c>
       <c r="O20">
-        <v>-5.8377830230209688E-5</v>
+        <v>-4.4969180346210916E-5</v>
       </c>
       <c r="P20">
-        <v>-5.9585999694824487E-5</v>
+        <v>-4.6134763612868178E-5</v>
       </c>
       <c r="Q20">
-        <v>-4.2554706711649121E-5</v>
+        <v>-3.4494254653873996E-5</v>
       </c>
       <c r="R20">
-        <v>-8.4453617703435571E-4</v>
+        <v>-8.370977666342979E-4</v>
       </c>
       <c r="S20">
-        <v>9.1427397015555052E-5</v>
+        <v>8.1291031329707944E-5</v>
       </c>
       <c r="T20">
-        <v>1.1916936991965922E-4</v>
+        <v>1.1056673832271717E-4</v>
       </c>
       <c r="U20">
-        <v>9.9096089116600204E-3</v>
+        <v>9.1804771868372777E-3</v>
       </c>
       <c r="V20">
-        <v>-2.8160930074145517E-4</v>
+        <v>-2.8811305494300663E-4</v>
       </c>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.45">
@@ -2019,67 +2019,67 @@
         <v>33</v>
       </c>
       <c r="B21">
-        <v>-0.15933348626994642</v>
+        <v>-0.21114204408453274</v>
       </c>
       <c r="C21">
-        <v>8.5071394222263699E-6</v>
+        <v>8.6004851812019255E-6</v>
       </c>
       <c r="D21">
-        <v>-9.5780797943743603E-8</v>
+        <v>-9.8269788264392313E-8</v>
       </c>
       <c r="E21">
-        <v>-8.4771581142810307E-7</v>
+        <v>-8.4639509762888575E-6</v>
       </c>
       <c r="F21">
-        <v>-5.7869132540309102E-5</v>
+        <v>-5.7297673208809368E-5</v>
       </c>
       <c r="G21">
-        <v>-2.5275885959211387E-8</v>
+        <v>4.150578894592855E-8</v>
       </c>
       <c r="H21">
-        <v>8.6727234952892878E-7</v>
+        <v>7.6765534369444682E-7</v>
       </c>
       <c r="I21">
-        <v>2.503319819362831E-5</v>
+        <v>2.5454487580777366E-5</v>
       </c>
       <c r="J21">
-        <v>3.7492743340893531E-5</v>
+        <v>3.8894849895047118E-5</v>
       </c>
       <c r="K21">
-        <v>4.0591226333024823E-5</v>
+        <v>4.1282103330686993E-5</v>
       </c>
       <c r="L21">
-        <v>4.1426567991621489E-5</v>
+        <v>4.1543267275669267E-5</v>
       </c>
       <c r="M21">
-        <v>3.4075377748076019E-6</v>
+        <v>1.7258603046282383E-6</v>
       </c>
       <c r="N21">
-        <v>3.2794703550231556E-6</v>
+        <v>1.5353650857194497E-6</v>
       </c>
       <c r="O21">
-        <v>3.6690197326062295E-6</v>
+        <v>1.6461849389177788E-6</v>
       </c>
       <c r="P21">
-        <v>1.3775232823295929E-6</v>
+        <v>-9.2366252541108526E-7</v>
       </c>
       <c r="Q21">
-        <v>-9.4639793107988877E-6</v>
+        <v>-1.038499870096442E-5</v>
       </c>
       <c r="R21">
-        <v>-9.5746601582941276E-6</v>
+        <v>-4.8168792072994974E-6</v>
       </c>
       <c r="S21">
-        <v>1.6389901829992694E-5</v>
+        <v>1.8545150473114667E-5</v>
       </c>
       <c r="T21">
-        <v>1.4541020180305559E-5</v>
+        <v>1.6304672789199459E-5</v>
       </c>
       <c r="U21">
-        <v>-2.8160930074145517E-4</v>
+        <v>-2.8811305494300663E-4</v>
       </c>
       <c r="V21">
-        <v>8.3000960658398179E-5</v>
+        <v>9.205685756101138E-5</v>
       </c>
     </row>
   </sheetData>
@@ -2171,67 +2171,67 @@
         <v>18</v>
       </c>
       <c r="B2">
-        <v>3.9759745867694381E-2</v>
+        <v>3.4840436671963071E-2</v>
       </c>
       <c r="C2">
-        <v>6.4340121819186968E-6</v>
+        <v>5.6986737332425552E-6</v>
       </c>
       <c r="D2">
-        <v>-6.7525931846446172E-8</v>
+        <v>-6.0545424197484031E-8</v>
       </c>
       <c r="E2">
-        <v>3.0387178480732583E-5</v>
+        <v>2.4413032086452932E-5</v>
       </c>
       <c r="F2">
-        <v>3.2001609497540675E-5</v>
+        <v>2.6739169880584209E-5</v>
       </c>
       <c r="G2">
-        <v>-6.4516012755933352E-7</v>
+        <v>-5.37858196646436E-7</v>
       </c>
       <c r="H2">
-        <v>-6.6313757437488586E-7</v>
+        <v>-5.7026376543130317E-7</v>
       </c>
       <c r="I2">
-        <v>1.9386635978851178E-6</v>
+        <v>1.3623841683726606E-6</v>
       </c>
       <c r="J2">
-        <v>3.1291317696965306E-6</v>
+        <v>2.4554866032939656E-6</v>
       </c>
       <c r="K2">
-        <v>1.9731400202890582E-6</v>
+        <v>1.3993846477356379E-6</v>
       </c>
       <c r="L2">
-        <v>5.0389973682978872E-6</v>
+        <v>4.1160719898843348E-6</v>
       </c>
       <c r="M2">
-        <v>9.5090032166777057E-7</v>
+        <v>2.949769031611062E-7</v>
       </c>
       <c r="N2">
-        <v>9.9795430963928009E-7</v>
+        <v>3.595065784127528E-7</v>
       </c>
       <c r="O2">
-        <v>7.5451810562831619E-7</v>
+        <v>8.1987497585462563E-8</v>
       </c>
       <c r="P2">
-        <v>7.0145002575936086E-7</v>
+        <v>-2.3281841882983873E-8</v>
       </c>
       <c r="Q2">
-        <v>2.8992480259470054E-6</v>
+        <v>2.3311234559516306E-6</v>
       </c>
       <c r="R2">
-        <v>-6.1454418855833277E-7</v>
+        <v>3.7076167952441818E-7</v>
       </c>
       <c r="S2">
-        <v>1.9274255388636937E-6</v>
+        <v>2.0939892724427558E-6</v>
       </c>
       <c r="T2">
-        <v>1.4957377364991421E-6</v>
+        <v>1.6005814415967465E-6</v>
       </c>
       <c r="U2">
-        <v>-1.5508398949142942E-4</v>
+        <v>-1.3581812153349269E-4</v>
       </c>
       <c r="V2">
-        <v>8.960335623176053E-6</v>
+        <v>9.1279307263844744E-6</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.45">
@@ -2239,67 +2239,67 @@
         <v>19</v>
       </c>
       <c r="B3">
-        <v>-3.6416034649222568E-4</v>
+        <v>-3.0679660477702883E-4</v>
       </c>
       <c r="C3">
-        <v>-6.7525931846446172E-8</v>
+        <v>-6.0545424197484031E-8</v>
       </c>
       <c r="D3">
-        <v>7.7278876567090288E-10</v>
+        <v>6.9995335127539854E-10</v>
       </c>
       <c r="E3">
-        <v>-1.0310847154132236E-7</v>
+        <v>-7.0104119907341718E-8</v>
       </c>
       <c r="F3">
-        <v>-1.2338801725073356E-7</v>
+        <v>-9.8225845135557766E-8</v>
       </c>
       <c r="G3">
-        <v>1.4861921131842019E-9</v>
+        <v>1.081915034740086E-9</v>
       </c>
       <c r="H3">
-        <v>1.7299191813367613E-9</v>
+        <v>1.4848708539475569E-9</v>
       </c>
       <c r="I3">
-        <v>-2.7415109261825024E-8</v>
+        <v>-1.6941232216605479E-8</v>
       </c>
       <c r="J3">
-        <v>-3.8481689190160879E-8</v>
+        <v>-2.6945657646358621E-8</v>
       </c>
       <c r="K3">
-        <v>-1.914955834455691E-8</v>
+        <v>-8.7092626712178219E-9</v>
       </c>
       <c r="L3">
-        <v>-4.385912803908526E-8</v>
+        <v>-3.071046900091008E-8</v>
       </c>
       <c r="M3">
-        <v>-1.1459192900873751E-8</v>
+        <v>-4.4417171990954327E-9</v>
       </c>
       <c r="N3">
-        <v>-1.3623270356359833E-8</v>
+        <v>-6.3442595729857358E-9</v>
       </c>
       <c r="O3">
-        <v>-9.7399294723006021E-9</v>
+        <v>-2.5743511654047842E-9</v>
       </c>
       <c r="P3">
-        <v>-7.9164716815852616E-9</v>
+        <v>3.1046221292538584E-11</v>
       </c>
       <c r="Q3">
-        <v>-4.0180734407472368E-8</v>
+        <v>-3.2458175100124355E-8</v>
       </c>
       <c r="R3">
-        <v>-4.4274582676928459E-9</v>
+        <v>-1.2670265087721762E-8</v>
       </c>
       <c r="S3">
-        <v>-1.9896247670083309E-8</v>
+        <v>-2.2899823452566937E-8</v>
       </c>
       <c r="T3">
-        <v>-1.5513986517103527E-8</v>
+        <v>-1.7813978746361688E-8</v>
       </c>
       <c r="U3">
-        <v>1.5259104208562563E-6</v>
+        <v>1.3486738456722985E-6</v>
       </c>
       <c r="V3">
-        <v>-9.7310949942539979E-8</v>
+        <v>-1.0185170581099823E-7</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.45">
@@ -2307,67 +2307,67 @@
         <v>20</v>
       </c>
       <c r="B4">
-        <v>-0.16346076774682619</v>
+        <v>-0.10108301463226016</v>
       </c>
       <c r="C4">
-        <v>3.0387178480732583E-5</v>
+        <v>2.4413032086452932E-5</v>
       </c>
       <c r="D4">
-        <v>-1.0310847154132236E-7</v>
+        <v>-7.0104119907341718E-8</v>
       </c>
       <c r="E4">
-        <v>1.2030384410601929E-3</v>
+        <v>1.0326858147472002E-3</v>
       </c>
       <c r="F4">
-        <v>9.3832265571152274E-4</v>
+        <v>8.1035090340074293E-4</v>
       </c>
       <c r="G4">
-        <v>-2.6847307413816139E-5</v>
+        <v>-2.3221766806219256E-5</v>
       </c>
       <c r="H4">
-        <v>-2.1279044200980811E-5</v>
+        <v>-1.8445815668539957E-5</v>
       </c>
       <c r="I4">
-        <v>-7.6683052988331487E-6</v>
+        <v>-6.532436236298054E-6</v>
       </c>
       <c r="J4">
-        <v>-1.1663708316376631E-6</v>
+        <v>-4.9804172615751079E-6</v>
       </c>
       <c r="K4">
-        <v>-1.1223195646818734E-5</v>
+        <v>-1.3382264093969E-5</v>
       </c>
       <c r="L4">
-        <v>3.2372932294624501E-6</v>
+        <v>-2.7937605784065891E-6</v>
       </c>
       <c r="M4">
-        <v>-2.0333479726125717E-6</v>
+        <v>-3.6886490946937121E-6</v>
       </c>
       <c r="N4">
-        <v>-2.782028808590139E-6</v>
+        <v>-3.37180437211594E-6</v>
       </c>
       <c r="O4">
-        <v>-3.0078095984160877E-6</v>
+        <v>-4.2549242598393153E-6</v>
       </c>
       <c r="P4">
-        <v>1.7226152327206421E-6</v>
+        <v>6.5054749629529081E-7</v>
       </c>
       <c r="Q4">
-        <v>-1.0058344521740388E-5</v>
+        <v>-4.119942267194147E-6</v>
       </c>
       <c r="R4">
-        <v>1.1550904740004167E-5</v>
+        <v>1.499408458050277E-5</v>
       </c>
       <c r="S4">
-        <v>9.9325327759699673E-6</v>
+        <v>3.4008964754771031E-6</v>
       </c>
       <c r="T4">
-        <v>8.7794411196413081E-6</v>
+        <v>2.1805580686902072E-6</v>
       </c>
       <c r="U4">
-        <v>-1.1702066884681339E-3</v>
+        <v>-9.4751014556620095E-4</v>
       </c>
       <c r="V4">
-        <v>4.4493764707005579E-5</v>
+        <v>1.8413144912225894E-5</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.45">
@@ -2375,67 +2375,67 @@
         <v>21</v>
       </c>
       <c r="B5">
-        <v>-0.12847288550775551</v>
+        <v>-1.6354157064779717E-2</v>
       </c>
       <c r="C5">
-        <v>3.2001609497540675E-5</v>
+        <v>2.6739169880584209E-5</v>
       </c>
       <c r="D5">
-        <v>-1.2338801725073356E-7</v>
+        <v>-9.8225845135557766E-8</v>
       </c>
       <c r="E5">
-        <v>9.3832265571152274E-4</v>
+        <v>8.1035090340074293E-4</v>
       </c>
       <c r="F5">
-        <v>2.9757779794535233E-3</v>
+        <v>2.4126845211709133E-3</v>
       </c>
       <c r="G5">
-        <v>-2.1454950629401073E-5</v>
+        <v>-1.846456669034658E-5</v>
       </c>
       <c r="H5">
-        <v>-6.3702579287890478E-5</v>
+        <v>-5.2469089308068972E-5</v>
       </c>
       <c r="I5">
-        <v>-4.7751251166141139E-5</v>
+        <v>-3.8028399428972491E-5</v>
       </c>
       <c r="J5">
-        <v>-5.708606879397536E-5</v>
+        <v>-5.3268640940138764E-5</v>
       </c>
       <c r="K5">
-        <v>-7.2797440088899894E-5</v>
+        <v>-6.511173297974387E-5</v>
       </c>
       <c r="L5">
-        <v>-5.3181865513447626E-5</v>
+        <v>-5.2180432419043218E-5</v>
       </c>
       <c r="M5">
-        <v>-1.8134286416527054E-5</v>
+        <v>-1.1327668934678029E-5</v>
       </c>
       <c r="N5">
-        <v>-8.7533134135600946E-6</v>
+        <v>-4.8496502370130173E-6</v>
       </c>
       <c r="O5">
-        <v>-1.7276905078906226E-5</v>
+        <v>-1.0781356924684606E-5</v>
       </c>
       <c r="P5">
-        <v>2.3987639581803593E-6</v>
+        <v>5.5600771944695675E-6</v>
       </c>
       <c r="Q5">
-        <v>-3.3605142851759773E-5</v>
+        <v>-1.5547578247912876E-5</v>
       </c>
       <c r="R5">
-        <v>-1.3802452904544876E-5</v>
+        <v>-7.4744298684988527E-6</v>
       </c>
       <c r="S5">
-        <v>-1.0571208185655473E-6</v>
+        <v>-1.0070726085223427E-5</v>
       </c>
       <c r="T5">
-        <v>-1.2413387059614713E-6</v>
+        <v>-5.712838351681779E-6</v>
       </c>
       <c r="U5">
-        <v>-1.0424186495602466E-3</v>
+        <v>-8.6410843228728771E-4</v>
       </c>
       <c r="V5">
-        <v>-2.2619361286945278E-5</v>
+        <v>-4.5895415781448083E-5</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.45">
@@ -2443,67 +2443,67 @@
         <v>22</v>
       </c>
       <c r="B6">
-        <v>-7.508481329409282E-3</v>
+        <v>-7.3915049005992793E-3</v>
       </c>
       <c r="C6">
-        <v>-6.4516012755933352E-7</v>
+        <v>-5.37858196646436E-7</v>
       </c>
       <c r="D6">
-        <v>1.4861921131842019E-9</v>
+        <v>1.081915034740086E-9</v>
       </c>
       <c r="E6">
-        <v>-2.6847307413816139E-5</v>
+        <v>-2.3221766806219256E-5</v>
       </c>
       <c r="F6">
-        <v>-2.1454950629401073E-5</v>
+        <v>-1.846456669034658E-5</v>
       </c>
       <c r="G6">
-        <v>6.4163196923652035E-7</v>
+        <v>5.5808160833680496E-7</v>
       </c>
       <c r="H6">
-        <v>5.1948388520054326E-7</v>
+        <v>4.4831048520835548E-7</v>
       </c>
       <c r="I6">
-        <v>4.1466111844453508E-7</v>
+        <v>1.4392676360290159E-7</v>
       </c>
       <c r="J6">
-        <v>3.800537178610983E-7</v>
+        <v>1.3166668628301518E-7</v>
       </c>
       <c r="K6">
-        <v>7.5009544507165276E-7</v>
+        <v>4.0745865422078428E-7</v>
       </c>
       <c r="L6">
-        <v>5.6475047071769195E-7</v>
+        <v>2.7070409411438739E-7</v>
       </c>
       <c r="M6">
-        <v>-4.1724831653812047E-8</v>
+        <v>-2.6915295097430125E-8</v>
       </c>
       <c r="N6">
-        <v>1.1014776169544901E-7</v>
+        <v>7.2623739533446615E-8</v>
       </c>
       <c r="O6">
-        <v>3.8414084219164404E-8</v>
+        <v>3.2923552959201947E-8</v>
       </c>
       <c r="P6">
-        <v>-2.6888623684960292E-8</v>
+        <v>-4.3036992442897991E-8</v>
       </c>
       <c r="Q6">
-        <v>4.0275427195405298E-7</v>
+        <v>2.6899986951472137E-7</v>
       </c>
       <c r="R6">
-        <v>5.8410714865205047E-8</v>
+        <v>-4.2323382836181997E-9</v>
       </c>
       <c r="S6">
-        <v>-1.3320815834739511E-7</v>
+        <v>-6.7898478951046268E-8</v>
       </c>
       <c r="T6">
-        <v>-1.1280318473546705E-7</v>
+        <v>-3.2283158252683384E-8</v>
       </c>
       <c r="U6">
-        <v>2.3606983882771988E-5</v>
+        <v>2.0080090501533579E-5</v>
       </c>
       <c r="V6">
-        <v>-4.5262153861596644E-7</v>
+        <v>-2.719494429391718E-7</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.45">
@@ -2511,67 +2511,67 @@
         <v>23</v>
       </c>
       <c r="B7">
-        <v>-1.3972232676139852E-2</v>
+        <v>-1.4348777439292146E-2</v>
       </c>
       <c r="C7">
-        <v>-6.6313757437488586E-7</v>
+        <v>-5.7026376543130317E-7</v>
       </c>
       <c r="D7">
-        <v>1.7299191813367613E-9</v>
+        <v>1.4848708539475569E-9</v>
       </c>
       <c r="E7">
-        <v>-2.1279044200980811E-5</v>
+        <v>-1.8445815668539957E-5</v>
       </c>
       <c r="F7">
-        <v>-6.3702579287890478E-5</v>
+        <v>-5.2469089308068972E-5</v>
       </c>
       <c r="G7">
-        <v>5.1948388520054326E-7</v>
+        <v>4.4831048520835548E-7</v>
       </c>
       <c r="H7">
-        <v>1.4766303779329741E-6</v>
+        <v>1.2431769155845353E-6</v>
       </c>
       <c r="I7">
-        <v>1.3053393391961594E-6</v>
+        <v>8.8331233538064331E-7</v>
       </c>
       <c r="J7">
-        <v>1.5690401900071769E-6</v>
+        <v>1.2048929140618313E-6</v>
       </c>
       <c r="K7">
-        <v>2.1161838010254561E-6</v>
+        <v>1.5985663449147936E-6</v>
       </c>
       <c r="L7">
-        <v>1.8682751873742279E-6</v>
+        <v>1.4403627030885985E-6</v>
       </c>
       <c r="M7">
-        <v>2.1229943862250996E-7</v>
+        <v>8.2004733635208744E-8</v>
       </c>
       <c r="N7">
-        <v>1.8410677082872121E-7</v>
+        <v>7.1965242527789975E-8</v>
       </c>
       <c r="O7">
-        <v>1.9749502767260322E-7</v>
+        <v>6.7482296630195276E-8</v>
       </c>
       <c r="P7">
-        <v>-1.7668878543439591E-7</v>
+        <v>-2.4122153715414899E-7</v>
       </c>
       <c r="Q7">
-        <v>6.6073322792872961E-7</v>
+        <v>3.2542737255945559E-7</v>
       </c>
       <c r="R7">
-        <v>8.0690062988683154E-7</v>
+        <v>6.4148439819486487E-7</v>
       </c>
       <c r="S7">
-        <v>5.2960763983834096E-8</v>
+        <v>1.6312560004224657E-7</v>
       </c>
       <c r="T7">
-        <v>3.9464077835310438E-8</v>
+        <v>7.771277598722228E-8</v>
       </c>
       <c r="U7">
-        <v>2.0652346672889212E-5</v>
+        <v>1.7986736255274053E-5</v>
       </c>
       <c r="V7">
-        <v>6.8299161542846731E-7</v>
+        <v>8.0800389682367631E-7</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.45">
@@ -2579,67 +2579,67 @@
         <v>24</v>
       </c>
       <c r="B8">
-        <v>-7.094049546124688E-2</v>
+        <v>-8.8705833021006139E-2</v>
       </c>
       <c r="C8">
-        <v>1.9386635978851178E-6</v>
+        <v>1.3623841683726606E-6</v>
       </c>
       <c r="D8">
-        <v>-2.7415109261825024E-8</v>
+        <v>-1.6941232216605479E-8</v>
       </c>
       <c r="E8">
-        <v>-7.6683052988331487E-6</v>
+        <v>-6.532436236298054E-6</v>
       </c>
       <c r="F8">
-        <v>-4.7751251166141139E-5</v>
+        <v>-3.8028399428972491E-5</v>
       </c>
       <c r="G8">
-        <v>4.1466111844453508E-7</v>
+        <v>1.4392676360290159E-7</v>
       </c>
       <c r="H8">
-        <v>1.3053393391961594E-6</v>
+        <v>8.8331233538064331E-7</v>
       </c>
       <c r="I8">
-        <v>6.1001405968765876E-3</v>
+        <v>4.8194164762390005E-3</v>
       </c>
       <c r="J8">
-        <v>5.6812217319398804E-3</v>
+        <v>4.4500994265630877E-3</v>
       </c>
       <c r="K8">
-        <v>5.6829580148487734E-3</v>
+        <v>4.4515727480572906E-3</v>
       </c>
       <c r="L8">
-        <v>5.6827548202413704E-3</v>
+        <v>4.4516411812655782E-3</v>
       </c>
       <c r="M8">
-        <v>5.7530971680169482E-6</v>
+        <v>2.7244344753638281E-6</v>
       </c>
       <c r="N8">
-        <v>5.2795033998553662E-6</v>
+        <v>2.9882155646952901E-6</v>
       </c>
       <c r="O8">
-        <v>-1.2856162473985458E-7</v>
+        <v>6.1355318876248853E-7</v>
       </c>
       <c r="P8">
-        <v>-1.5251429048612383E-6</v>
+        <v>-2.9837235401468715E-6</v>
       </c>
       <c r="Q8">
-        <v>4.3694123089535128E-6</v>
+        <v>-3.6263597194265199E-6</v>
       </c>
       <c r="R8">
-        <v>1.9120599141684589E-5</v>
+        <v>6.736875302017909E-6</v>
       </c>
       <c r="S8">
-        <v>-3.5031284676449775E-6</v>
+        <v>2.3916564297223943E-6</v>
       </c>
       <c r="T8">
-        <v>3.1849819263808005E-6</v>
+        <v>5.5295837727037128E-6</v>
       </c>
       <c r="U8">
-        <v>-5.7716414462508211E-3</v>
+        <v>-4.5114645261043404E-3</v>
       </c>
       <c r="V8">
-        <v>3.8028898010591502E-5</v>
+        <v>3.599024376947505E-5</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.45">
@@ -2647,67 +2647,67 @@
         <v>25</v>
       </c>
       <c r="B9">
-        <v>7.2394025698331388E-3</v>
+        <v>-5.1564762867642659E-2</v>
       </c>
       <c r="C9">
-        <v>3.1291317696965306E-6</v>
+        <v>2.4554866032939656E-6</v>
       </c>
       <c r="D9">
-        <v>-3.8481689190160879E-8</v>
+        <v>-2.6945657646358621E-8</v>
       </c>
       <c r="E9">
-        <v>-1.1663708316376631E-6</v>
+        <v>-4.9804172615751079E-6</v>
       </c>
       <c r="F9">
-        <v>-5.708606879397536E-5</v>
+        <v>-5.3268640940138764E-5</v>
       </c>
       <c r="G9">
-        <v>3.800537178610983E-7</v>
+        <v>1.3166668628301518E-7</v>
       </c>
       <c r="H9">
-        <v>1.5690401900071769E-6</v>
+        <v>1.2048929140618313E-6</v>
       </c>
       <c r="I9">
-        <v>5.6812217319398804E-3</v>
+        <v>4.4500994265630877E-3</v>
       </c>
       <c r="J9">
-        <v>5.7587393875750308E-3</v>
+        <v>4.5228179848468292E-3</v>
       </c>
       <c r="K9">
-        <v>5.7027105140220937E-3</v>
+        <v>4.4710199405521237E-3</v>
       </c>
       <c r="L9">
-        <v>5.7034126696367624E-3</v>
+        <v>4.4722646133619551E-3</v>
       </c>
       <c r="M9">
-        <v>6.6216577905559298E-6</v>
+        <v>3.1855212694371666E-6</v>
       </c>
       <c r="N9">
-        <v>6.5706239747282867E-6</v>
+        <v>3.1804175559043622E-6</v>
       </c>
       <c r="O9">
-        <v>5.023040594675328E-7</v>
+        <v>-8.0943494483226186E-8</v>
       </c>
       <c r="P9">
-        <v>-2.1015169914228372E-6</v>
+        <v>-4.8703422599011252E-6</v>
       </c>
       <c r="Q9">
-        <v>1.9772451617812727E-5</v>
+        <v>8.7954911366892145E-6</v>
       </c>
       <c r="R9">
-        <v>5.7687787835625166E-6</v>
+        <v>-3.2474026218060261E-6</v>
       </c>
       <c r="S9">
-        <v>5.4492447371655401E-6</v>
+        <v>1.2559599052851983E-5</v>
       </c>
       <c r="T9">
-        <v>9.6766185773044048E-6</v>
+        <v>1.2505753271091705E-5</v>
       </c>
       <c r="U9">
-        <v>-5.8340935249302853E-3</v>
+        <v>-4.5731332264543857E-3</v>
       </c>
       <c r="V9">
-        <v>6.6175842679888877E-5</v>
+        <v>6.7748653785755313E-5</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.45">
@@ -2715,67 +2715,67 @@
         <v>26</v>
       </c>
       <c r="B10">
-        <v>7.7754799766990956E-2</v>
+        <v>9.6834806541594327E-3</v>
       </c>
       <c r="C10">
-        <v>1.9731400202890582E-6</v>
+        <v>1.3993846477356379E-6</v>
       </c>
       <c r="D10">
-        <v>-1.914955834455691E-8</v>
+        <v>-8.7092626712178219E-9</v>
       </c>
       <c r="E10">
-        <v>-1.1223195646818734E-5</v>
+        <v>-1.3382264093969E-5</v>
       </c>
       <c r="F10">
-        <v>-7.2797440088899894E-5</v>
+        <v>-6.511173297974387E-5</v>
       </c>
       <c r="G10">
-        <v>7.5009544507165276E-7</v>
+        <v>4.0745865422078428E-7</v>
       </c>
       <c r="H10">
-        <v>2.1161838010254561E-6</v>
+        <v>1.5985663449147936E-6</v>
       </c>
       <c r="I10">
-        <v>5.6829580148487734E-3</v>
+        <v>4.4515727480572906E-3</v>
       </c>
       <c r="J10">
-        <v>5.7027105140220937E-3</v>
+        <v>4.4710199405521237E-3</v>
       </c>
       <c r="K10">
-        <v>5.7361760836431496E-3</v>
+        <v>4.5013231878842114E-3</v>
       </c>
       <c r="L10">
-        <v>5.7220134562861267E-3</v>
+        <v>4.4884630368118997E-3</v>
       </c>
       <c r="M10">
-        <v>6.9095162711857492E-6</v>
+        <v>2.9915551892416007E-6</v>
       </c>
       <c r="N10">
-        <v>8.1197718873856888E-6</v>
+        <v>3.5714373510706628E-6</v>
       </c>
       <c r="O10">
-        <v>1.995247197919461E-6</v>
+        <v>2.6480015483035129E-7</v>
       </c>
       <c r="P10">
-        <v>3.0110120647617354E-7</v>
+        <v>-3.5830539745832624E-6</v>
       </c>
       <c r="Q10">
-        <v>2.3927126373810596E-5</v>
+        <v>1.2085668782808015E-5</v>
       </c>
       <c r="R10">
-        <v>-7.957801469767098E-6</v>
+        <v>-1.2987835127945289E-5</v>
       </c>
       <c r="S10">
-        <v>6.5460439487107253E-6</v>
+        <v>1.3054145041939306E-5</v>
       </c>
       <c r="T10">
-        <v>8.8576614787810585E-6</v>
+        <v>1.1503337722759279E-5</v>
       </c>
       <c r="U10">
-        <v>-5.8315798592219869E-3</v>
+        <v>-4.5702996244230722E-3</v>
       </c>
       <c r="V10">
-        <v>7.2015521750454006E-5</v>
+        <v>7.1653071228394276E-5</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.45">
@@ -2783,67 +2783,67 @@
         <v>27</v>
       </c>
       <c r="B11">
-        <v>0.11271256911000357</v>
+        <v>4.5648394710861302E-2</v>
       </c>
       <c r="C11">
-        <v>5.0389973682978872E-6</v>
+        <v>4.1160719898843348E-6</v>
       </c>
       <c r="D11">
-        <v>-4.385912803908526E-8</v>
+        <v>-3.071046900091008E-8</v>
       </c>
       <c r="E11">
-        <v>3.2372932294624501E-6</v>
+        <v>-2.7937605784065891E-6</v>
       </c>
       <c r="F11">
-        <v>-5.3181865513447626E-5</v>
+        <v>-5.2180432419043218E-5</v>
       </c>
       <c r="G11">
-        <v>5.6475047071769195E-7</v>
+        <v>2.7070409411438739E-7</v>
       </c>
       <c r="H11">
-        <v>1.8682751873742279E-6</v>
+        <v>1.4403627030885985E-6</v>
       </c>
       <c r="I11">
-        <v>5.6827548202413704E-3</v>
+        <v>4.4516411812655782E-3</v>
       </c>
       <c r="J11">
-        <v>5.7034126696367624E-3</v>
+        <v>4.4722646133619551E-3</v>
       </c>
       <c r="K11">
-        <v>5.7220134562861267E-3</v>
+        <v>4.4884630368118997E-3</v>
       </c>
       <c r="L11">
-        <v>5.7962428675365973E-3</v>
+        <v>4.5546002384389316E-3</v>
       </c>
       <c r="M11">
-        <v>6.53564654739029E-6</v>
+        <v>3.006014048495382E-6</v>
       </c>
       <c r="N11">
-        <v>9.9024148038266049E-6</v>
+        <v>5.3542296365095791E-6</v>
       </c>
       <c r="O11">
-        <v>1.5160045950841424E-6</v>
+        <v>3.2618223043460696E-7</v>
       </c>
       <c r="P11">
-        <v>2.2385126007062945E-7</v>
+        <v>-3.0582820180085781E-6</v>
       </c>
       <c r="Q11">
-        <v>2.4015695497177766E-5</v>
+        <v>1.199537587238855E-5</v>
       </c>
       <c r="R11">
-        <v>-5.9267697942573033E-6</v>
+        <v>-1.3143692511056237E-5</v>
       </c>
       <c r="S11">
-        <v>6.3016808087360598E-6</v>
+        <v>1.2921330916555514E-5</v>
       </c>
       <c r="T11">
-        <v>9.4248966828697231E-6</v>
+        <v>1.185367266240246E-5</v>
       </c>
       <c r="U11">
-        <v>-5.9293441571045113E-3</v>
+        <v>-4.6544832507781977E-3</v>
       </c>
       <c r="V11">
-        <v>7.3080957330617162E-5</v>
+        <v>7.2775823502468332E-5</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.45">
@@ -2851,67 +2851,67 @@
         <v>35</v>
       </c>
       <c r="B12">
-        <v>-5.0744453770870793E-2</v>
+        <v>-4.1009520207858648E-2</v>
       </c>
       <c r="C12">
-        <v>9.5090032166777057E-7</v>
+        <v>2.949769031611062E-7</v>
       </c>
       <c r="D12">
-        <v>-1.1459192900873751E-8</v>
+        <v>-4.4417171990954327E-9</v>
       </c>
       <c r="E12">
-        <v>-2.0333479726125717E-6</v>
+        <v>-3.6886490946937121E-6</v>
       </c>
       <c r="F12">
-        <v>-1.8134286416527054E-5</v>
+        <v>-1.1327668934678029E-5</v>
       </c>
       <c r="G12">
-        <v>-4.1724831653812047E-8</v>
+        <v>-2.6915295097430125E-8</v>
       </c>
       <c r="H12">
-        <v>2.1229943862250996E-7</v>
+        <v>8.2004733635208744E-8</v>
       </c>
       <c r="I12">
-        <v>5.7530971680169482E-6</v>
+        <v>2.7244344753638281E-6</v>
       </c>
       <c r="J12">
-        <v>6.6216577905559298E-6</v>
+        <v>3.1855212694371666E-6</v>
       </c>
       <c r="K12">
-        <v>6.9095162711857492E-6</v>
+        <v>2.9915551892416007E-6</v>
       </c>
       <c r="L12">
-        <v>6.53564654739029E-6</v>
+        <v>3.006014048495382E-6</v>
       </c>
       <c r="M12">
-        <v>1.5617744054489895E-4</v>
+        <v>1.3418773549330254E-4</v>
       </c>
       <c r="N12">
-        <v>8.1143977005427724E-5</v>
+        <v>6.5643249303240956E-5</v>
       </c>
       <c r="O12">
-        <v>8.1606928595355358E-5</v>
+        <v>6.5909904673133764E-5</v>
       </c>
       <c r="P12">
-        <v>8.1072655373345232E-5</v>
+        <v>6.5514208354696624E-5</v>
       </c>
       <c r="Q12">
-        <v>5.5971377823818045E-6</v>
+        <v>3.1693172847536746E-6</v>
       </c>
       <c r="R12">
-        <v>-1.9601359062975503E-5</v>
+        <v>-1.2996193363187645E-5</v>
       </c>
       <c r="S12">
-        <v>2.0103077085908407E-6</v>
+        <v>5.3452059334860041E-7</v>
       </c>
       <c r="T12">
-        <v>2.190096241429905E-6</v>
+        <v>4.4644545223549961E-7</v>
       </c>
       <c r="U12">
-        <v>-8.8231397759865412E-5</v>
+        <v>-5.7819169517711795E-5</v>
       </c>
       <c r="V12">
-        <v>7.913920060132692E-6</v>
+        <v>4.3277350063823145E-6</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.45">
@@ -2919,67 +2919,67 @@
         <v>36</v>
       </c>
       <c r="B13">
-        <v>5.9189066218905136E-2</v>
+        <v>6.2273959829214152E-2</v>
       </c>
       <c r="C13">
-        <v>9.9795430963928009E-7</v>
+        <v>3.595065784127528E-7</v>
       </c>
       <c r="D13">
-        <v>-1.3623270356359833E-8</v>
+        <v>-6.3442595729857358E-9</v>
       </c>
       <c r="E13">
-        <v>-2.782028808590139E-6</v>
+        <v>-3.37180437211594E-6</v>
       </c>
       <c r="F13">
-        <v>-8.7533134135600946E-6</v>
+        <v>-4.8496502370130173E-6</v>
       </c>
       <c r="G13">
-        <v>1.1014776169544901E-7</v>
+        <v>7.2623739533446615E-8</v>
       </c>
       <c r="H13">
-        <v>1.8410677082872121E-7</v>
+        <v>7.1965242527789975E-8</v>
       </c>
       <c r="I13">
-        <v>5.2795033998553662E-6</v>
+        <v>2.9882155646952901E-6</v>
       </c>
       <c r="J13">
-        <v>6.5706239747282867E-6</v>
+        <v>3.1804175559043622E-6</v>
       </c>
       <c r="K13">
-        <v>8.1197718873856888E-6</v>
+        <v>3.5714373510706628E-6</v>
       </c>
       <c r="L13">
-        <v>9.9024148038266049E-6</v>
+        <v>5.3542296365095791E-6</v>
       </c>
       <c r="M13">
-        <v>8.1143977005427724E-5</v>
+        <v>6.5643249303240956E-5</v>
       </c>
       <c r="N13">
-        <v>1.9679062397245215E-4</v>
+        <v>1.7318561454483664E-4</v>
       </c>
       <c r="O13">
-        <v>8.1287402601232554E-5</v>
+        <v>6.5665430336381671E-5</v>
       </c>
       <c r="P13">
-        <v>8.1016058095751542E-5</v>
+        <v>6.5450769051177062E-5</v>
       </c>
       <c r="Q13">
-        <v>7.526454058853123E-6</v>
+        <v>4.4606433650293859E-6</v>
       </c>
       <c r="R13">
-        <v>-1.812863575343928E-5</v>
+        <v>-1.2153697979402808E-5</v>
       </c>
       <c r="S13">
-        <v>9.8603534665171992E-7</v>
+        <v>3.020615171256352E-7</v>
       </c>
       <c r="T13">
-        <v>1.6148726553076424E-6</v>
+        <v>9.9339962425815193E-7</v>
       </c>
       <c r="U13">
-        <v>-9.289493762926936E-5</v>
+        <v>-6.1413736609797494E-5</v>
       </c>
       <c r="V13">
-        <v>7.3137663336327047E-6</v>
+        <v>3.322856165865744E-6</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.45">
@@ -2987,67 +2987,67 @@
         <v>37</v>
       </c>
       <c r="B14">
-        <v>-4.2426116296650759E-2</v>
+        <v>-3.921508967154326E-2</v>
       </c>
       <c r="C14">
-        <v>7.5451810562831619E-7</v>
+        <v>8.1987497585462563E-8</v>
       </c>
       <c r="D14">
-        <v>-9.7399294723006021E-9</v>
+        <v>-2.5743511654047842E-9</v>
       </c>
       <c r="E14">
-        <v>-3.0078095984160877E-6</v>
+        <v>-4.2549242598393153E-6</v>
       </c>
       <c r="F14">
-        <v>-1.7276905078906226E-5</v>
+        <v>-1.0781356924684606E-5</v>
       </c>
       <c r="G14">
-        <v>3.8414084219164404E-8</v>
+        <v>3.2923552959201947E-8</v>
       </c>
       <c r="H14">
-        <v>1.9749502767260322E-7</v>
+        <v>6.7482296630195276E-8</v>
       </c>
       <c r="I14">
-        <v>-1.2856162473985458E-7</v>
+        <v>6.1355318876248853E-7</v>
       </c>
       <c r="J14">
-        <v>5.023040594675328E-7</v>
+        <v>-8.0943494483226186E-8</v>
       </c>
       <c r="K14">
-        <v>1.995247197919461E-6</v>
+        <v>2.6480015483035129E-7</v>
       </c>
       <c r="L14">
-        <v>1.5160045950841424E-6</v>
+        <v>3.2618223043460696E-7</v>
       </c>
       <c r="M14">
-        <v>8.1606928595355358E-5</v>
+        <v>6.5909904673133764E-5</v>
       </c>
       <c r="N14">
-        <v>8.1287402601232554E-5</v>
+        <v>6.5665430336381671E-5</v>
       </c>
       <c r="O14">
-        <v>1.4900863463004113E-4</v>
+        <v>1.2952244372627547E-4</v>
       </c>
       <c r="P14">
-        <v>8.1256110505917252E-5</v>
+        <v>6.556201847487329E-5</v>
       </c>
       <c r="Q14">
-        <v>6.0519147226061608E-6</v>
+        <v>3.2352246398359208E-6</v>
       </c>
       <c r="R14">
-        <v>-2.2822101479029314E-5</v>
+        <v>-1.4888136750538953E-5</v>
       </c>
       <c r="S14">
-        <v>3.0741793352755214E-6</v>
+        <v>1.6303204947681391E-6</v>
       </c>
       <c r="T14">
-        <v>2.4493588959883725E-6</v>
+        <v>1.3686157552775058E-6</v>
       </c>
       <c r="U14">
-        <v>-7.7392085534455136E-5</v>
+        <v>-4.9159091156030703E-5</v>
       </c>
       <c r="V14">
-        <v>8.899691650869313E-6</v>
+        <v>4.3296922017281402E-6</v>
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.45">
@@ -3055,67 +3055,67 @@
         <v>39</v>
       </c>
       <c r="B15">
-        <v>-0.11775897128601467</v>
+        <v>-9.8226405484498944E-2</v>
       </c>
       <c r="C15">
-        <v>7.0145002575936086E-7</v>
+        <v>-2.3281841882983873E-8</v>
       </c>
       <c r="D15">
-        <v>-7.9164716815852616E-9</v>
+        <v>3.1046221292538584E-11</v>
       </c>
       <c r="E15">
-        <v>1.7226152327206421E-6</v>
+        <v>6.5054749629529081E-7</v>
       </c>
       <c r="F15">
-        <v>2.3987639581803593E-6</v>
+        <v>5.5600771944695675E-6</v>
       </c>
       <c r="G15">
-        <v>-2.6888623684960292E-8</v>
+        <v>-4.3036992442897991E-8</v>
       </c>
       <c r="H15">
-        <v>-1.7668878543439591E-7</v>
+        <v>-2.4122153715414899E-7</v>
       </c>
       <c r="I15">
-        <v>-1.5251429048612383E-6</v>
+        <v>-2.9837235401468715E-6</v>
       </c>
       <c r="J15">
-        <v>-2.1015169914228372E-6</v>
+        <v>-4.8703422599011252E-6</v>
       </c>
       <c r="K15">
-        <v>3.0110120647617354E-7</v>
+        <v>-3.5830539745832624E-6</v>
       </c>
       <c r="L15">
-        <v>2.2385126007062945E-7</v>
+        <v>-3.0582820180085781E-6</v>
       </c>
       <c r="M15">
-        <v>8.1072655373345232E-5</v>
+        <v>6.5514208354696624E-5</v>
       </c>
       <c r="N15">
-        <v>8.1016058095751542E-5</v>
+        <v>6.5450769051177062E-5</v>
       </c>
       <c r="O15">
-        <v>8.1256110505917252E-5</v>
+        <v>6.556201847487329E-5</v>
       </c>
       <c r="P15">
-        <v>1.0958679435972819E-4</v>
+        <v>9.2685869867560589E-5</v>
       </c>
       <c r="Q15">
-        <v>4.9601996608413303E-6</v>
+        <v>2.5787129519944006E-6</v>
       </c>
       <c r="R15">
-        <v>-1.8357359964859394E-5</v>
+        <v>-1.1118958659300825E-5</v>
       </c>
       <c r="S15">
-        <v>1.4346224440735759E-6</v>
+        <v>-6.3408684105038968E-8</v>
       </c>
       <c r="T15">
-        <v>1.2341932771683724E-6</v>
+        <v>-1.3199493747572004E-7</v>
       </c>
       <c r="U15">
-        <v>-8.1007099396400201E-5</v>
+        <v>-4.8216519231986875E-5</v>
       </c>
       <c r="V15">
-        <v>6.7160353599280286E-6</v>
+        <v>1.0058047075186908E-6</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.45">
@@ -3123,67 +3123,67 @@
         <v>28</v>
       </c>
       <c r="B16">
-        <v>0.13476527201676086</v>
+        <v>0.17427172234685118</v>
       </c>
       <c r="C16">
-        <v>2.8992480259470054E-6</v>
+        <v>2.3311234559516306E-6</v>
       </c>
       <c r="D16">
-        <v>-4.0180734407472368E-8</v>
+        <v>-3.2458175100124355E-8</v>
       </c>
       <c r="E16">
-        <v>-1.0058344521740388E-5</v>
+        <v>-4.119942267194147E-6</v>
       </c>
       <c r="F16">
-        <v>-3.3605142851759773E-5</v>
+        <v>-1.5547578247912876E-5</v>
       </c>
       <c r="G16">
-        <v>4.0275427195405298E-7</v>
+        <v>2.6899986951472137E-7</v>
       </c>
       <c r="H16">
-        <v>6.6073322792872961E-7</v>
+        <v>3.2542737255945559E-7</v>
       </c>
       <c r="I16">
-        <v>4.3694123089535128E-6</v>
+        <v>-3.6263597194265199E-6</v>
       </c>
       <c r="J16">
-        <v>1.9772451617812727E-5</v>
+        <v>8.7954911366892145E-6</v>
       </c>
       <c r="K16">
-        <v>2.3927126373810596E-5</v>
+        <v>1.2085668782808015E-5</v>
       </c>
       <c r="L16">
-        <v>2.4015695497177766E-5</v>
+        <v>1.199537587238855E-5</v>
       </c>
       <c r="M16">
-        <v>5.5971377823818045E-6</v>
+        <v>3.1693172847536746E-6</v>
       </c>
       <c r="N16">
-        <v>7.526454058853123E-6</v>
+        <v>4.4606433650293859E-6</v>
       </c>
       <c r="O16">
-        <v>6.0519147226061608E-6</v>
+        <v>3.2352246398359208E-6</v>
       </c>
       <c r="P16">
-        <v>4.9601996608413303E-6</v>
+        <v>2.5787129519944006E-6</v>
       </c>
       <c r="Q16">
-        <v>5.8376416168035375E-4</v>
+        <v>5.8031824711238787E-4</v>
       </c>
       <c r="R16">
-        <v>1.8264200437786692E-5</v>
+        <v>1.8985272691404358E-5</v>
       </c>
       <c r="S16">
-        <v>-4.9759019025892016E-6</v>
+        <v>-5.8715215078727868E-6</v>
       </c>
       <c r="T16">
-        <v>-3.9384673374884882E-6</v>
+        <v>-5.055724048259883E-6</v>
       </c>
       <c r="U16">
-        <v>-9.3936724113380114E-5</v>
+        <v>-6.9379689896345619E-5</v>
       </c>
       <c r="V16">
-        <v>-1.772854696045211E-5</v>
+        <v>-1.9858735223044794E-5</v>
       </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.45">
@@ -3191,67 +3191,67 @@
         <v>29</v>
       </c>
       <c r="B17">
-        <v>0.41060858205701517</v>
+        <v>0.57448370350814926</v>
       </c>
       <c r="C17">
-        <v>-6.1454418855833277E-7</v>
+        <v>3.7076167952441818E-7</v>
       </c>
       <c r="D17">
-        <v>-4.4274582676928459E-9</v>
+        <v>-1.2670265087721762E-8</v>
       </c>
       <c r="E17">
-        <v>1.1550904740004167E-5</v>
+        <v>1.499408458050277E-5</v>
       </c>
       <c r="F17">
-        <v>-1.3802452904544876E-5</v>
+        <v>-7.4744298684988527E-6</v>
       </c>
       <c r="G17">
-        <v>5.8410714865205047E-8</v>
+        <v>-4.2323382836181997E-9</v>
       </c>
       <c r="H17">
-        <v>8.0690062988683154E-7</v>
+        <v>6.4148439819486487E-7</v>
       </c>
       <c r="I17">
-        <v>1.9120599141684589E-5</v>
+        <v>6.736875302017909E-6</v>
       </c>
       <c r="J17">
-        <v>5.7687787835625166E-6</v>
+        <v>-3.2474026218060261E-6</v>
       </c>
       <c r="K17">
-        <v>-7.957801469767098E-6</v>
+        <v>-1.2987835127945289E-5</v>
       </c>
       <c r="L17">
-        <v>-5.9267697942573033E-6</v>
+        <v>-1.3143692511056237E-5</v>
       </c>
       <c r="M17">
-        <v>-1.9601359062975503E-5</v>
+        <v>-1.2996193363187645E-5</v>
       </c>
       <c r="N17">
-        <v>-1.812863575343928E-5</v>
+        <v>-1.2153697979402808E-5</v>
       </c>
       <c r="O17">
-        <v>-2.2822101479029314E-5</v>
+        <v>-1.4888136750538953E-5</v>
       </c>
       <c r="P17">
-        <v>-1.8357359964859394E-5</v>
+        <v>-1.1118958659300825E-5</v>
       </c>
       <c r="Q17">
-        <v>1.8264200437786692E-5</v>
+        <v>1.8985272691404358E-5</v>
       </c>
       <c r="R17">
-        <v>9.8534893079686952E-4</v>
+        <v>8.7598904304059982E-4</v>
       </c>
       <c r="S17">
-        <v>-1.7968716171257119E-4</v>
+        <v>-1.5402962393720336E-4</v>
       </c>
       <c r="T17">
-        <v>-2.0440697622719895E-4</v>
+        <v>-1.7657669317334447E-4</v>
       </c>
       <c r="U17">
-        <v>-9.8150056558226045E-4</v>
+        <v>-9.0583391620158507E-4</v>
       </c>
       <c r="V17">
-        <v>-6.5958908089247562E-6</v>
+        <v>3.0560925618840727E-6</v>
       </c>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.45">
@@ -3259,67 +3259,67 @@
         <v>30</v>
       </c>
       <c r="B18">
-        <v>-2.6240143316569836E-3</v>
+        <v>-2.8982680365170016E-2</v>
       </c>
       <c r="C18">
-        <v>1.9274255388636937E-6</v>
+        <v>2.0939892724427558E-6</v>
       </c>
       <c r="D18">
-        <v>-1.9896247670083309E-8</v>
+        <v>-2.2899823452566937E-8</v>
       </c>
       <c r="E18">
-        <v>9.9325327759699673E-6</v>
+        <v>3.4008964754771031E-6</v>
       </c>
       <c r="F18">
-        <v>-1.0571208185655473E-6</v>
+        <v>-1.0070726085223427E-5</v>
       </c>
       <c r="G18">
-        <v>-1.3320815834739511E-7</v>
+        <v>-6.7898478951046268E-8</v>
       </c>
       <c r="H18">
-        <v>5.2960763983834096E-8</v>
+        <v>1.6312560004224657E-7</v>
       </c>
       <c r="I18">
-        <v>-3.5031284676449775E-6</v>
+        <v>2.3916564297223943E-6</v>
       </c>
       <c r="J18">
-        <v>5.4492447371655401E-6</v>
+        <v>1.2559599052851983E-5</v>
       </c>
       <c r="K18">
-        <v>6.5460439487107253E-6</v>
+        <v>1.3054145041939306E-5</v>
       </c>
       <c r="L18">
-        <v>6.3016808087360598E-6</v>
+        <v>1.2921330916555514E-5</v>
       </c>
       <c r="M18">
-        <v>2.0103077085908407E-6</v>
+        <v>5.3452059334860041E-7</v>
       </c>
       <c r="N18">
-        <v>9.8603534665171992E-7</v>
+        <v>3.020615171256352E-7</v>
       </c>
       <c r="O18">
-        <v>3.0741793352755214E-6</v>
+        <v>1.6303204947681391E-6</v>
       </c>
       <c r="P18">
-        <v>1.4346224440735759E-6</v>
+        <v>-6.3408684105038968E-8</v>
       </c>
       <c r="Q18">
-        <v>-4.9759019025892016E-6</v>
+        <v>-5.8715215078727868E-6</v>
       </c>
       <c r="R18">
-        <v>-1.7968716171257119E-4</v>
+        <v>-1.5402962393720336E-4</v>
       </c>
       <c r="S18">
-        <v>1.4663366024122155E-4</v>
+        <v>1.3278772794685843E-4</v>
       </c>
       <c r="T18">
-        <v>5.6543446679741755E-5</v>
+        <v>5.1451894860847389E-5</v>
       </c>
       <c r="U18">
-        <v>9.765896324695703E-5</v>
+        <v>6.3063757134275227E-5</v>
       </c>
       <c r="V18">
-        <v>2.5146673306909538E-5</v>
+        <v>3.320797210910334E-5</v>
       </c>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.45">
@@ -3327,67 +3327,67 @@
         <v>31</v>
       </c>
       <c r="B19">
-        <v>-6.9391168175160764E-2</v>
+        <v>-2.8506905737782064E-2</v>
       </c>
       <c r="C19">
-        <v>1.4957377364991421E-6</v>
+        <v>1.6005814415967465E-6</v>
       </c>
       <c r="D19">
-        <v>-1.5513986517103527E-8</v>
+        <v>-1.7813978746361688E-8</v>
       </c>
       <c r="E19">
-        <v>8.7794411196413081E-6</v>
+        <v>2.1805580686902072E-6</v>
       </c>
       <c r="F19">
-        <v>-1.2413387059614713E-6</v>
+        <v>-5.712838351681779E-6</v>
       </c>
       <c r="G19">
-        <v>-1.1280318473546705E-7</v>
+        <v>-3.2283158252683384E-8</v>
       </c>
       <c r="H19">
-        <v>3.9464077835310438E-8</v>
+        <v>7.771277598722228E-8</v>
       </c>
       <c r="I19">
-        <v>3.1849819263808005E-6</v>
+        <v>5.5295837727037128E-6</v>
       </c>
       <c r="J19">
-        <v>9.6766185773044048E-6</v>
+        <v>1.2505753271091705E-5</v>
       </c>
       <c r="K19">
-        <v>8.8576614787810585E-6</v>
+        <v>1.1503337722759279E-5</v>
       </c>
       <c r="L19">
-        <v>9.4248966828697231E-6</v>
+        <v>1.185367266240246E-5</v>
       </c>
       <c r="M19">
-        <v>2.190096241429905E-6</v>
+        <v>4.4644545223549961E-7</v>
       </c>
       <c r="N19">
-        <v>1.6148726553076424E-6</v>
+        <v>9.9339962425815193E-7</v>
       </c>
       <c r="O19">
-        <v>2.4493588959883725E-6</v>
+        <v>1.3686157552775058E-6</v>
       </c>
       <c r="P19">
-        <v>1.2341932771683724E-6</v>
+        <v>-1.3199493747572004E-7</v>
       </c>
       <c r="Q19">
-        <v>-3.9384673374884882E-6</v>
+        <v>-5.055724048259883E-6</v>
       </c>
       <c r="R19">
-        <v>-2.0440697622719895E-4</v>
+        <v>-1.7657669317334447E-4</v>
       </c>
       <c r="S19">
-        <v>5.6543446679741755E-5</v>
+        <v>5.1451894860847389E-5</v>
       </c>
       <c r="T19">
-        <v>1.9416050632125315E-4</v>
+        <v>1.7317003731916634E-4</v>
       </c>
       <c r="U19">
-        <v>1.3441540144499859E-4</v>
+        <v>1.0463344949107422E-4</v>
       </c>
       <c r="V19">
-        <v>2.0821775556882383E-5</v>
+        <v>2.5869244040823447E-5</v>
       </c>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.45">
@@ -3395,67 +3395,67 @@
         <v>32</v>
       </c>
       <c r="B20">
-        <v>0.43203695208544818</v>
+        <v>0.46989316624259214</v>
       </c>
       <c r="C20">
-        <v>-1.5508398949142942E-4</v>
+        <v>-1.3581812153349269E-4</v>
       </c>
       <c r="D20">
-        <v>1.5259104208562563E-6</v>
+        <v>1.3486738456722985E-6</v>
       </c>
       <c r="E20">
-        <v>-1.1702066884681339E-3</v>
+        <v>-9.4751014556620095E-4</v>
       </c>
       <c r="F20">
-        <v>-1.0424186495602466E-3</v>
+        <v>-8.6410843228728771E-4</v>
       </c>
       <c r="G20">
-        <v>2.3606983882771988E-5</v>
+        <v>2.0080090501533579E-5</v>
       </c>
       <c r="H20">
-        <v>2.0652346672889212E-5</v>
+        <v>1.7986736255274053E-5</v>
       </c>
       <c r="I20">
-        <v>-5.7716414462508211E-3</v>
+        <v>-4.5114645261043404E-3</v>
       </c>
       <c r="J20">
-        <v>-5.8340935249302853E-3</v>
+        <v>-4.5731332264543857E-3</v>
       </c>
       <c r="K20">
-        <v>-5.8315798592219869E-3</v>
+        <v>-4.5702996244230722E-3</v>
       </c>
       <c r="L20">
-        <v>-5.9293441571045113E-3</v>
+        <v>-4.6544832507781977E-3</v>
       </c>
       <c r="M20">
-        <v>-8.8231397759865412E-5</v>
+        <v>-5.7819169517711795E-5</v>
       </c>
       <c r="N20">
-        <v>-9.289493762926936E-5</v>
+        <v>-6.1413736609797494E-5</v>
       </c>
       <c r="O20">
-        <v>-7.7392085534455136E-5</v>
+        <v>-4.9159091156030703E-5</v>
       </c>
       <c r="P20">
-        <v>-8.1007099396400201E-5</v>
+        <v>-4.8216519231986875E-5</v>
       </c>
       <c r="Q20">
-        <v>-9.3936724113380114E-5</v>
+        <v>-6.9379689896345619E-5</v>
       </c>
       <c r="R20">
-        <v>-9.8150056558226045E-4</v>
+        <v>-9.0583391620158507E-4</v>
       </c>
       <c r="S20">
-        <v>9.765896324695703E-5</v>
+        <v>6.3063757134275227E-5</v>
       </c>
       <c r="T20">
-        <v>1.3441540144499859E-4</v>
+        <v>1.0463344949107422E-4</v>
       </c>
       <c r="U20">
-        <v>1.103172077339178E-2</v>
+        <v>9.1241469539011574E-3</v>
       </c>
       <c r="V20">
-        <v>-3.8516204717332231E-4</v>
+        <v>-3.9013101193907489E-4</v>
       </c>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.45">
@@ -3463,67 +3463,67 @@
         <v>33</v>
       </c>
       <c r="B21">
-        <v>-0.14916125126462956</v>
+        <v>-0.26860491363099981</v>
       </c>
       <c r="C21">
-        <v>8.960335623176053E-6</v>
+        <v>9.1279307263844744E-6</v>
       </c>
       <c r="D21">
-        <v>-9.7310949942539979E-8</v>
+        <v>-1.0185170581099823E-7</v>
       </c>
       <c r="E21">
-        <v>4.4493764707005579E-5</v>
+        <v>1.8413144912225894E-5</v>
       </c>
       <c r="F21">
-        <v>-2.2619361286945278E-5</v>
+        <v>-4.5895415781448083E-5</v>
       </c>
       <c r="G21">
-        <v>-4.5262153861596644E-7</v>
+        <v>-2.719494429391718E-7</v>
       </c>
       <c r="H21">
-        <v>6.8299161542846731E-7</v>
+        <v>8.0800389682367631E-7</v>
       </c>
       <c r="I21">
-        <v>3.8028898010591502E-5</v>
+        <v>3.599024376947505E-5</v>
       </c>
       <c r="J21">
-        <v>6.6175842679888877E-5</v>
+        <v>6.7748653785755313E-5</v>
       </c>
       <c r="K21">
-        <v>7.2015521750454006E-5</v>
+        <v>7.1653071228394276E-5</v>
       </c>
       <c r="L21">
-        <v>7.3080957330617162E-5</v>
+        <v>7.2775823502468332E-5</v>
       </c>
       <c r="M21">
-        <v>7.913920060132692E-6</v>
+        <v>4.3277350063823145E-6</v>
       </c>
       <c r="N21">
-        <v>7.3137663336327047E-6</v>
+        <v>3.322856165865744E-6</v>
       </c>
       <c r="O21">
-        <v>8.899691650869313E-6</v>
+        <v>4.3296922017281402E-6</v>
       </c>
       <c r="P21">
-        <v>6.7160353599280286E-6</v>
+        <v>1.0058047075186908E-6</v>
       </c>
       <c r="Q21">
-        <v>-1.772854696045211E-5</v>
+        <v>-1.9858735223044794E-5</v>
       </c>
       <c r="R21">
-        <v>-6.5958908089247562E-6</v>
+        <v>3.0560925618840727E-6</v>
       </c>
       <c r="S21">
-        <v>2.5146673306909538E-5</v>
+        <v>3.320797210910334E-5</v>
       </c>
       <c r="T21">
-        <v>2.0821775556882383E-5</v>
+        <v>2.5869244040823447E-5</v>
       </c>
       <c r="U21">
-        <v>-3.8516204717332231E-4</v>
+        <v>-3.9013101193907489E-4</v>
       </c>
       <c r="V21">
-        <v>1.2442189993190983E-4</v>
+        <v>1.4723012525599691E-4</v>
       </c>
     </row>
   </sheetData>
@@ -3618,70 +3618,70 @@
         <v>34</v>
       </c>
       <c r="B2">
-        <v>0.68147228503237056</v>
+        <v>0.65493635925190907</v>
       </c>
       <c r="C2">
-        <v>2.2360059507349992E-5</v>
+        <v>1.9059346603558915E-5</v>
       </c>
       <c r="D2">
-        <v>-1.4651051676318775E-7</v>
+        <v>-8.6000997790478567E-7</v>
       </c>
       <c r="E2">
-        <v>-2.1550090935842793E-9</v>
+        <v>6.5833370101400614E-9</v>
       </c>
       <c r="F2">
-        <v>2.7562469703107602E-6</v>
+        <v>2.5815287862041771E-6</v>
       </c>
       <c r="G2">
-        <v>5.8409713772429599E-6</v>
+        <v>6.2122722714125124E-6</v>
       </c>
       <c r="H2">
-        <v>1.9801416630209272E-7</v>
+        <v>1.6027587317936903E-7</v>
       </c>
       <c r="I2">
-        <v>2.3379502822577055E-7</v>
+        <v>1.7721779842000854E-7</v>
       </c>
       <c r="J2">
-        <v>-2.5200594008657392E-6</v>
+        <v>-5.6976714104845028E-6</v>
       </c>
       <c r="K2">
-        <v>-2.5433823430328099E-6</v>
+        <v>-6.9014266545178116E-6</v>
       </c>
       <c r="L2">
-        <v>-3.8943505692465604E-6</v>
+        <v>-8.2162222025952288E-6</v>
       </c>
       <c r="M2">
-        <v>-4.7033095931954316E-6</v>
+        <v>-8.9891244627903394E-6</v>
       </c>
       <c r="N2">
-        <v>4.2385799578582774E-7</v>
+        <v>1.2661970906163399E-7</v>
       </c>
       <c r="O2">
-        <v>-6.1740829952475008E-8</v>
+        <v>-6.9518493894611307E-8</v>
       </c>
       <c r="P2">
-        <v>7.2885657548829167E-7</v>
+        <v>2.5798700839611718E-7</v>
       </c>
       <c r="Q2">
-        <v>1.3433935043590364E-6</v>
+        <v>8.3306930155372634E-7</v>
       </c>
       <c r="R2">
-        <v>-1.8368957003654608E-6</v>
+        <v>-1.8094256791904283E-6</v>
       </c>
       <c r="S2">
-        <v>-6.5324441886821259E-6</v>
+        <v>-7.638810731636932E-6</v>
       </c>
       <c r="T2">
-        <v>4.2955874667280605E-7</v>
+        <v>-1.1465682683918667E-6</v>
       </c>
       <c r="U2">
-        <v>7.0172540214818685E-7</v>
+        <v>-1.0630336282290113E-6</v>
       </c>
       <c r="V2">
-        <v>-2.3165028219916705E-5</v>
+        <v>9.3022942377407939E-6</v>
       </c>
       <c r="W2">
-        <v>9.4461595895599787E-6</v>
+        <v>-3.9804410411673696E-6</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.45">
@@ -3689,70 +3689,70 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>-5.6604700757689483E-3</v>
+        <v>4.8869417376104611E-3</v>
       </c>
       <c r="C3">
-        <v>-1.4651051676318775E-7</v>
+        <v>-8.6000997790478567E-7</v>
       </c>
       <c r="D3">
-        <v>6.0142549212859145E-5</v>
+        <v>2.8306116272505912E-5</v>
       </c>
       <c r="E3">
-        <v>-6.9326204707032159E-7</v>
+        <v>-3.1522980496079686E-7</v>
       </c>
       <c r="F3">
-        <v>5.5117270806019205E-5</v>
+        <v>-6.6652925054609161E-6</v>
       </c>
       <c r="G3">
-        <v>-1.787868589334567E-4</v>
+        <v>-7.923517373037985E-5</v>
       </c>
       <c r="H3">
-        <v>-2.0714062320790535E-7</v>
+        <v>-3.2474287091841127E-7</v>
       </c>
       <c r="I3">
-        <v>4.1052669773281425E-6</v>
+        <v>7.70839157869008E-7</v>
       </c>
       <c r="J3">
-        <v>2.5145378121038523E-4</v>
+        <v>3.9583365777945032E-5</v>
       </c>
       <c r="K3">
-        <v>3.2957369481437893E-4</v>
+        <v>8.1416534515752875E-5</v>
       </c>
       <c r="L3">
-        <v>3.2854949797798705E-4</v>
+        <v>9.3302368470046218E-5</v>
       </c>
       <c r="M3">
-        <v>3.4885572666523419E-4</v>
+        <v>9.7300430334447635E-5</v>
       </c>
       <c r="N3">
-        <v>2.776631403964927E-5</v>
+        <v>5.2546956420048831E-6</v>
       </c>
       <c r="O3">
-        <v>1.710503374563238E-5</v>
+        <v>1.5215252554740551E-6</v>
       </c>
       <c r="P3">
-        <v>4.6837942350939346E-5</v>
+        <v>-6.0713117218063579E-7</v>
       </c>
       <c r="Q3">
-        <v>1.5809690304022559E-5</v>
+        <v>-3.5737912806322696E-6</v>
       </c>
       <c r="R3">
-        <v>-2.8070676930198195E-6</v>
+        <v>-2.4174388696472871E-6</v>
       </c>
       <c r="S3">
-        <v>-3.7986386822630929E-6</v>
+        <v>-2.3288747794297768E-6</v>
       </c>
       <c r="T3">
-        <v>2.8976399777702817E-4</v>
+        <v>-1.2011560041361067E-5</v>
       </c>
       <c r="U3">
-        <v>2.3863822950916699E-4</v>
+        <v>3.6721627883471212E-6</v>
       </c>
       <c r="V3">
-        <v>-2.5536917718479947E-3</v>
+        <v>-7.3442857595154803E-4</v>
       </c>
       <c r="W3">
-        <v>1.2120651847203525E-3</v>
+        <v>3.4473550948212645E-4</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.45">
@@ -3760,70 +3760,70 @@
         <v>19</v>
       </c>
       <c r="B4">
-        <v>1.102244628395309E-4</v>
+        <v>-1.090864030679191E-5</v>
       </c>
       <c r="C4">
-        <v>-2.1550090935842793E-9</v>
+        <v>6.5833370101400614E-9</v>
       </c>
       <c r="D4">
-        <v>-6.9326204707032159E-7</v>
+        <v>-3.1522980496079686E-7</v>
       </c>
       <c r="E4">
-        <v>8.0200414284199952E-9</v>
+        <v>3.530960030493122E-9</v>
       </c>
       <c r="F4">
-        <v>-5.4032398549458657E-7</v>
+        <v>1.4071100442493119E-7</v>
       </c>
       <c r="G4">
-        <v>2.165101105483001E-6</v>
+        <v>9.4759598504475022E-7</v>
       </c>
       <c r="H4">
-        <v>3.7756479623675787E-11</v>
+        <v>1.9785606840727647E-9</v>
       </c>
       <c r="I4">
-        <v>-4.9844417294427551E-8</v>
+        <v>-1.0209826380098016E-8</v>
       </c>
       <c r="J4">
-        <v>-2.9097137897835514E-6</v>
+        <v>-4.3981695760348006E-7</v>
       </c>
       <c r="K4">
-        <v>-3.812755127015082E-6</v>
+        <v>-9.050022493727554E-7</v>
       </c>
       <c r="L4">
-        <v>-3.7967358489356546E-6</v>
+        <v>-1.0339765347455164E-6</v>
       </c>
       <c r="M4">
-        <v>-4.0241708663400443E-6</v>
+        <v>-1.0740431484015635E-6</v>
       </c>
       <c r="N4">
-        <v>-3.2193457508631488E-7</v>
+        <v>-5.8915762565559313E-8</v>
       </c>
       <c r="O4">
-        <v>-1.9832489459398075E-7</v>
+        <v>-1.728569909033523E-8</v>
       </c>
       <c r="P4">
-        <v>-5.431660236376962E-7</v>
+        <v>5.9579792976407265E-9</v>
       </c>
       <c r="Q4">
-        <v>-1.8369582163461772E-7</v>
+        <v>3.9340621499817277E-8</v>
       </c>
       <c r="R4">
-        <v>3.2038387864762524E-8</v>
+        <v>2.5712388004624476E-8</v>
       </c>
       <c r="S4">
-        <v>3.7023295809156888E-8</v>
+        <v>1.9964741322797355E-8</v>
       </c>
       <c r="T4">
-        <v>-3.3506296506431838E-6</v>
+        <v>1.3434161569865041E-7</v>
       </c>
       <c r="U4">
-        <v>-2.7597589287345291E-6</v>
+        <v>-4.0311005139486502E-8</v>
       </c>
       <c r="V4">
-        <v>2.9444894584346031E-5</v>
+        <v>8.1480030688777704E-6</v>
       </c>
       <c r="W4">
-        <v>-1.4018239629917956E-5</v>
+        <v>-3.8377086730127302E-6</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.45">
@@ -3831,70 +3831,70 @@
         <v>20</v>
       </c>
       <c r="B5">
-        <v>-3.2513337399273742E-2</v>
+        <v>4.1421043731995587E-3</v>
       </c>
       <c r="C5">
-        <v>2.7562469703107602E-6</v>
+        <v>2.5815287862041771E-6</v>
       </c>
       <c r="D5">
-        <v>5.5117270806019205E-5</v>
+        <v>-6.6652925054609161E-6</v>
       </c>
       <c r="E5">
-        <v>-5.4032398549458657E-7</v>
+        <v>1.4071100442493119E-7</v>
       </c>
       <c r="F5">
-        <v>7.2096742294374782E-4</v>
+        <v>4.7634081059959668E-4</v>
       </c>
       <c r="G5">
-        <v>2.1470443786749543E-4</v>
+        <v>3.1569438400348856E-4</v>
       </c>
       <c r="H5">
-        <v>-1.4868312825963847E-5</v>
+        <v>-1.0205890539477948E-5</v>
       </c>
       <c r="I5">
-        <v>-4.7989096370380809E-6</v>
+        <v>-6.5582710243005488E-6</v>
       </c>
       <c r="J5">
-        <v>2.0885377047132666E-4</v>
+        <v>-2.5789985308893408E-5</v>
       </c>
       <c r="K5">
-        <v>2.7174732191481525E-4</v>
+        <v>-5.1509009140939901E-5</v>
       </c>
       <c r="L5">
-        <v>2.6708842214724507E-4</v>
+        <v>-6.0565364043603856E-5</v>
       </c>
       <c r="M5">
-        <v>2.9341390569347114E-4</v>
+        <v>-5.6261975882459649E-5</v>
       </c>
       <c r="N5">
-        <v>1.517099126368985E-5</v>
+        <v>-7.0815441203368106E-6</v>
       </c>
       <c r="O5">
-        <v>1.2794421842732568E-5</v>
+        <v>8.242789506296652E-7</v>
       </c>
       <c r="P5">
-        <v>3.4167185177198987E-5</v>
+        <v>-1.5120695527670823E-6</v>
       </c>
       <c r="Q5">
-        <v>1.4093380990995644E-5</v>
+        <v>4.0492306247985855E-6</v>
       </c>
       <c r="R5">
-        <v>-3.9005344446170628E-6</v>
+        <v>2.3124537256061089E-6</v>
       </c>
       <c r="S5">
-        <v>-3.7634967796842416E-6</v>
+        <v>-9.7893174518942825E-7</v>
       </c>
       <c r="T5">
-        <v>2.4944413631331418E-4</v>
+        <v>7.1616666509452442E-6</v>
       </c>
       <c r="U5">
-        <v>2.0499490354647487E-4</v>
+        <v>-1.5890262900624007E-6</v>
       </c>
       <c r="V5">
-        <v>-2.444339972153594E-3</v>
+        <v>8.5618214057655776E-5</v>
       </c>
       <c r="W5">
-        <v>1.0374808443535906E-3</v>
+        <v>-1.8916149681202706E-4</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.45">
@@ -3902,70 +3902,70 @@
         <v>21</v>
       </c>
       <c r="B6">
-        <v>-0.10696436612973251</v>
+        <v>1.286669848501985E-2</v>
       </c>
       <c r="C6">
-        <v>5.8409713772429599E-6</v>
+        <v>6.2122722714125124E-6</v>
       </c>
       <c r="D6">
-        <v>-1.787868589334567E-4</v>
+        <v>-7.923517373037985E-5</v>
       </c>
       <c r="E6">
-        <v>2.165101105483001E-6</v>
+        <v>9.4759598504475022E-7</v>
       </c>
       <c r="F6">
-        <v>2.1470443786749543E-4</v>
+        <v>3.1569438400348856E-4</v>
       </c>
       <c r="G6">
-        <v>6.0409713734897452E-3</v>
+        <v>3.1109900291074154E-3</v>
       </c>
       <c r="H6">
-        <v>-8.3001036405353392E-6</v>
+        <v>-5.3881922403952672E-6</v>
       </c>
       <c r="I6">
-        <v>-1.2283843469512999E-4</v>
+        <v>-6.0697756048079386E-5</v>
       </c>
       <c r="J6">
-        <v>-9.4519966903698995E-4</v>
+        <v>-1.9430753933216552E-4</v>
       </c>
       <c r="K6">
-        <v>-1.2185647069483958E-3</v>
+        <v>-3.5181364120181373E-4</v>
       </c>
       <c r="L6">
-        <v>-1.221144726476804E-3</v>
+        <v>-3.9873747540823267E-4</v>
       </c>
       <c r="M6">
-        <v>-1.2639268307380431E-3</v>
+        <v>-3.9648793457203668E-4</v>
       </c>
       <c r="N6">
-        <v>-1.0703977159967275E-4</v>
+        <v>-2.3376317780741311E-5</v>
       </c>
       <c r="O6">
-        <v>-5.0506781737186235E-5</v>
+        <v>2.5565518385991422E-6</v>
       </c>
       <c r="P6">
-        <v>-1.6088309448472783E-4</v>
+        <v>5.1405605933026E-6</v>
       </c>
       <c r="Q6">
-        <v>-5.2962700193619054E-5</v>
+        <v>1.8472014403955481E-5</v>
       </c>
       <c r="R6">
-        <v>-2.8796045056160611E-6</v>
+        <v>7.2920127248009296E-6</v>
       </c>
       <c r="S6">
-        <v>8.2749887872700617E-6</v>
+        <v>4.111706877664224E-6</v>
       </c>
       <c r="T6">
-        <v>-9.7607524404441464E-4</v>
+        <v>4.6121558840662034E-5</v>
       </c>
       <c r="U6">
-        <v>-8.0536694837925378E-4</v>
+        <v>-1.2937138249507326E-5</v>
       </c>
       <c r="V6">
-        <v>8.0280663831512333E-3</v>
+        <v>2.0823410431065666E-3</v>
       </c>
       <c r="W6">
-        <v>-4.1091039971619218E-3</v>
+        <v>-1.2330880286022979E-3</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.45">
@@ -3973,70 +3973,70 @@
         <v>22</v>
       </c>
       <c r="B7">
-        <v>-2.7171175157510241E-3</v>
+        <v>-3.2382357430452077E-3</v>
       </c>
       <c r="C7">
-        <v>1.9801416630209272E-7</v>
+        <v>1.6027587317936903E-7</v>
       </c>
       <c r="D7">
-        <v>-2.0714062320790535E-7</v>
+        <v>-3.2474287091841127E-7</v>
       </c>
       <c r="E7">
-        <v>3.7756479623675787E-11</v>
+        <v>1.9785606840727647E-9</v>
       </c>
       <c r="F7">
-        <v>-1.4868312825963847E-5</v>
+        <v>-1.0205890539477948E-5</v>
       </c>
       <c r="G7">
-        <v>-8.3001036405353392E-6</v>
+        <v>-5.3881922403952672E-6</v>
       </c>
       <c r="H7">
-        <v>3.4440163446798225E-7</v>
+        <v>2.4290266211954658E-7</v>
       </c>
       <c r="I7">
-        <v>2.0248985668914054E-7</v>
+        <v>1.4068548901363407E-7</v>
       </c>
       <c r="J7">
-        <v>-9.0499260189733169E-8</v>
+        <v>-3.1950932896227382E-7</v>
       </c>
       <c r="K7">
-        <v>-2.6875690656621181E-8</v>
+        <v>-5.4972616012511739E-7</v>
       </c>
       <c r="L7">
-        <v>1.2624913778262673E-7</v>
+        <v>-5.4485382243105407E-7</v>
       </c>
       <c r="M7">
-        <v>-6.3680666452162684E-8</v>
+        <v>-6.5772627917917458E-7</v>
       </c>
       <c r="N7">
-        <v>1.572922321920243E-7</v>
+        <v>4.2365679773938872E-8</v>
       </c>
       <c r="O7">
-        <v>4.7767056151632819E-8</v>
+        <v>-2.1729568684264149E-8</v>
       </c>
       <c r="P7">
-        <v>1.263059559784043E-7</v>
+        <v>5.7380381254192762E-8</v>
       </c>
       <c r="Q7">
-        <v>3.7723926279988988E-8</v>
+        <v>2.2200708155012414E-8</v>
       </c>
       <c r="R7">
-        <v>4.7462836540201833E-8</v>
+        <v>6.0561680090871548E-8</v>
       </c>
       <c r="S7">
-        <v>1.4265509085303636E-7</v>
+        <v>1.8315129449694071E-7</v>
       </c>
       <c r="T7">
-        <v>-2.0228503418695436E-7</v>
+        <v>5.6901951212809838E-8</v>
       </c>
       <c r="U7">
-        <v>-1.4475394787794488E-7</v>
+        <v>-5.1889532429139078E-8</v>
       </c>
       <c r="V7">
-        <v>8.4941546973961101E-6</v>
+        <v>1.0301303485391382E-5</v>
       </c>
       <c r="W7">
-        <v>-6.4781835722019824E-7</v>
+        <v>-2.4601043376857489E-6</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.45">
@@ -4044,70 +4044,70 @@
         <v>23</v>
       </c>
       <c r="B8">
-        <v>-2.3586863798153671E-3</v>
+        <v>-4.4994366116995971E-3</v>
       </c>
       <c r="C8">
-        <v>2.3379502822577055E-7</v>
+        <v>1.7721779842000854E-7</v>
       </c>
       <c r="D8">
-        <v>4.1052669773281425E-6</v>
+        <v>7.70839157869008E-7</v>
       </c>
       <c r="E8">
-        <v>-4.9844417294427551E-8</v>
+        <v>-1.0209826380098016E-8</v>
       </c>
       <c r="F8">
-        <v>-4.7989096370380809E-6</v>
+        <v>-6.5582710243005488E-6</v>
       </c>
       <c r="G8">
-        <v>-1.2283843469512999E-4</v>
+        <v>-6.0697756048079386E-5</v>
       </c>
       <c r="H8">
-        <v>2.0248985668914054E-7</v>
+        <v>1.4068548901363407E-7</v>
       </c>
       <c r="I8">
-        <v>2.6051278054057815E-6</v>
+        <v>1.2837244723289613E-6</v>
       </c>
       <c r="J8">
-        <v>2.1745559180920622E-5</v>
+        <v>2.830573149224847E-6</v>
       </c>
       <c r="K8">
-        <v>2.8089998222907147E-5</v>
+        <v>4.658912122360981E-6</v>
       </c>
       <c r="L8">
-        <v>2.8304834528794687E-5</v>
+        <v>5.3053558690130104E-6</v>
       </c>
       <c r="M8">
-        <v>2.9390881008957209E-5</v>
+        <v>5.2040068415561265E-6</v>
       </c>
       <c r="N8">
-        <v>2.3229684200600833E-6</v>
+        <v>2.3745757529987608E-7</v>
       </c>
       <c r="O8">
-        <v>1.2030883645435488E-6</v>
+        <v>-6.4093377719123066E-8</v>
       </c>
       <c r="P8">
-        <v>3.5913273962783737E-6</v>
+        <v>-1.2783805269460975E-7</v>
       </c>
       <c r="Q8">
-        <v>1.24098211441272E-6</v>
+        <v>-2.2329774810566435E-7</v>
       </c>
       <c r="R8">
-        <v>-3.5270182403113206E-8</v>
+        <v>-6.7465645008383177E-8</v>
       </c>
       <c r="S8">
-        <v>3.7049858263981013E-8</v>
+        <v>1.8190676294545632E-7</v>
       </c>
       <c r="T8">
-        <v>2.2303816354850947E-5</v>
+        <v>-5.4830564957133893E-7</v>
       </c>
       <c r="U8">
-        <v>1.8417809724835132E-5</v>
+        <v>1.1503473760666792E-7</v>
       </c>
       <c r="V8">
-        <v>-1.8528514623863E-4</v>
+        <v>-2.0710492214583206E-5</v>
       </c>
       <c r="W8">
-        <v>9.3940417879720964E-5</v>
+        <v>1.3237742946188823E-5</v>
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.45">
@@ -4115,70 +4115,70 @@
         <v>24</v>
       </c>
       <c r="B9">
-        <v>1.0758292431468953E-2</v>
+        <v>0.16167612244374621</v>
       </c>
       <c r="C9">
-        <v>-2.5200594008657392E-6</v>
+        <v>-5.6976714104845028E-6</v>
       </c>
       <c r="D9">
-        <v>2.5145378121038523E-4</v>
+        <v>3.9583365777945032E-5</v>
       </c>
       <c r="E9">
-        <v>-2.9097137897835514E-6</v>
+        <v>-4.3981695760348006E-7</v>
       </c>
       <c r="F9">
-        <v>2.0885377047132666E-4</v>
+        <v>-2.5789985308893408E-5</v>
       </c>
       <c r="G9">
-        <v>-9.4519966903698995E-4</v>
+        <v>-1.9430753933216552E-4</v>
       </c>
       <c r="H9">
-        <v>-9.0499260189733169E-8</v>
+        <v>-3.1950932896227382E-7</v>
       </c>
       <c r="I9">
-        <v>2.1745559180920622E-5</v>
+        <v>2.830573149224847E-6</v>
       </c>
       <c r="J9">
-        <v>5.5028651607627573E-3</v>
+        <v>3.2837608197614355E-3</v>
       </c>
       <c r="K9">
-        <v>5.5975429568585634E-3</v>
+        <v>3.1625816526356619E-3</v>
       </c>
       <c r="L9">
-        <v>5.5950373614824947E-3</v>
+        <v>3.1833652638951094E-3</v>
       </c>
       <c r="M9">
-        <v>5.6780996718541355E-3</v>
+        <v>3.1873626920500241E-3</v>
       </c>
       <c r="N9">
-        <v>1.2858250988918212E-4</v>
+        <v>9.9080770162347396E-6</v>
       </c>
       <c r="O9">
-        <v>7.5286426199749182E-5</v>
+        <v>5.9494935563580898E-7</v>
       </c>
       <c r="P9">
-        <v>2.1822353222458735E-4</v>
+        <v>1.8700704428425198E-6</v>
       </c>
       <c r="Q9">
-        <v>6.9200029393912246E-5</v>
+        <v>-7.8370437410436407E-6</v>
       </c>
       <c r="R9">
-        <v>-2.1233429094132308E-5</v>
+        <v>-8.5472579157798499E-6</v>
       </c>
       <c r="S9">
-        <v>2.2445042639660332E-6</v>
+        <v>1.4207074890481747E-5</v>
       </c>
       <c r="T9">
-        <v>1.3321831206951672E-3</v>
+        <v>-2.1790482295466835E-5</v>
       </c>
       <c r="U9">
-        <v>1.1003215851970506E-3</v>
+        <v>6.0913651543852054E-6</v>
       </c>
       <c r="V9">
-        <v>-1.5305147248755379E-2</v>
+        <v>-4.1017031403905498E-3</v>
       </c>
       <c r="W9">
-        <v>5.5759149442063845E-3</v>
+        <v>5.6759748676092755E-4</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.45">
@@ -4186,70 +4186,70 @@
         <v>25</v>
       </c>
       <c r="B10">
-        <v>2.3727675111876498E-2</v>
+        <v>0.18973741410203654</v>
       </c>
       <c r="C10">
-        <v>-2.5433823430328099E-6</v>
+        <v>-6.9014266545178116E-6</v>
       </c>
       <c r="D10">
-        <v>3.2957369481437893E-4</v>
+        <v>8.1416534515752875E-5</v>
       </c>
       <c r="E10">
-        <v>-3.812755127015082E-6</v>
+        <v>-9.050022493727554E-7</v>
       </c>
       <c r="F10">
-        <v>2.7174732191481525E-4</v>
+        <v>-5.1509009140939901E-5</v>
       </c>
       <c r="G10">
-        <v>-1.2185647069483958E-3</v>
+        <v>-3.5181364120181373E-4</v>
       </c>
       <c r="H10">
-        <v>-2.6875690656621181E-8</v>
+        <v>-5.4972616012511739E-7</v>
       </c>
       <c r="I10">
-        <v>2.8089998222907147E-5</v>
+        <v>4.658912122360981E-6</v>
       </c>
       <c r="J10">
-        <v>5.5975429568585634E-3</v>
+        <v>3.1625816526356619E-3</v>
       </c>
       <c r="K10">
-        <v>6.1070346255876866E-3</v>
+        <v>3.330544332883685E-3</v>
       </c>
       <c r="L10">
-        <v>6.067299903093298E-3</v>
+        <v>3.3464812395687369E-3</v>
       </c>
       <c r="M10">
-        <v>6.1770704895783455E-3</v>
+        <v>3.3553058359356977E-3</v>
       </c>
       <c r="N10">
-        <v>1.682490608084893E-4</v>
+        <v>1.888232428344625E-5</v>
       </c>
       <c r="O10">
-        <v>1.0026118310844248E-4</v>
+        <v>3.6887404228962898E-6</v>
       </c>
       <c r="P10">
-        <v>2.8509048011863679E-4</v>
+        <v>8.7708916391257764E-7</v>
       </c>
       <c r="Q10">
-        <v>9.2370009250125119E-5</v>
+        <v>-1.3316266556745697E-5</v>
       </c>
       <c r="R10">
-        <v>-2.5146487610342003E-5</v>
+        <v>-1.3060196754304832E-5</v>
       </c>
       <c r="S10">
-        <v>-6.8875050915536932E-6</v>
+        <v>8.605497912210492E-6</v>
       </c>
       <c r="T10">
-        <v>1.7460797894326215E-3</v>
+        <v>-4.171583904291808E-5</v>
       </c>
       <c r="U10">
-        <v>1.4410945127168165E-3</v>
+        <v>1.2141635783602395E-5</v>
       </c>
       <c r="V10">
-        <v>-1.8785739814026529E-2</v>
+        <v>-5.2212564622056909E-3</v>
       </c>
       <c r="W10">
-        <v>7.305249121175336E-3</v>
+        <v>1.1562173899322644E-3</v>
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.45">
@@ -4257,70 +4257,70 @@
         <v>26</v>
       </c>
       <c r="B11">
-        <v>4.6091839006987198E-2</v>
+        <v>0.21212185294897459</v>
       </c>
       <c r="C11">
-        <v>-3.8943505692465604E-6</v>
+        <v>-8.2162222025952288E-6</v>
       </c>
       <c r="D11">
-        <v>3.2854949797798705E-4</v>
+        <v>9.3302368470046218E-5</v>
       </c>
       <c r="E11">
-        <v>-3.7967358489356546E-6</v>
+        <v>-1.0339765347455164E-6</v>
       </c>
       <c r="F11">
-        <v>2.6708842214724507E-4</v>
+        <v>-6.0565364043603856E-5</v>
       </c>
       <c r="G11">
-        <v>-1.221144726476804E-3</v>
+        <v>-3.9873747540823267E-4</v>
       </c>
       <c r="H11">
-        <v>1.2624913778262673E-7</v>
+        <v>-5.4485382243105407E-7</v>
       </c>
       <c r="I11">
-        <v>2.8304834528794687E-5</v>
+        <v>5.3053558690130104E-6</v>
       </c>
       <c r="J11">
-        <v>5.5950373614824947E-3</v>
+        <v>3.1833652638951094E-3</v>
       </c>
       <c r="K11">
-        <v>6.067299903093298E-3</v>
+        <v>3.3464812395687369E-3</v>
       </c>
       <c r="L11">
-        <v>6.0817604652049807E-3</v>
+        <v>3.4068925215203186E-3</v>
       </c>
       <c r="M11">
-        <v>6.181138950191652E-3</v>
+        <v>3.4096375164412778E-3</v>
       </c>
       <c r="N11">
-        <v>1.6736281779087308E-4</v>
+        <v>2.1259373765465343E-5</v>
       </c>
       <c r="O11">
-        <v>1.001699577904068E-4</v>
+        <v>4.402967444260334E-6</v>
       </c>
       <c r="P11">
-        <v>2.8431475811620689E-4</v>
+        <v>5.8272237350252336E-7</v>
       </c>
       <c r="Q11">
-        <v>9.2386284686562701E-5</v>
+        <v>-1.4954245164430802E-5</v>
       </c>
       <c r="R11">
-        <v>-2.3472578418202832E-5</v>
+        <v>-1.3507609366260723E-5</v>
       </c>
       <c r="S11">
-        <v>-1.2406848139209457E-5</v>
+        <v>2.5277616941142774E-6</v>
       </c>
       <c r="T11">
-        <v>1.7428093874511401E-3</v>
+        <v>-4.7714175864834933E-5</v>
       </c>
       <c r="U11">
-        <v>1.4369315050589227E-3</v>
+        <v>1.3304948543835776E-5</v>
       </c>
       <c r="V11">
-        <v>-1.8757291057729567E-2</v>
+        <v>-5.5452823308483334E-3</v>
       </c>
       <c r="W11">
-        <v>7.2921836510720199E-3</v>
+        <v>1.3270136214409999E-3</v>
       </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.45">
@@ -4328,70 +4328,70 @@
         <v>27</v>
       </c>
       <c r="B12">
-        <v>5.3330561431971048E-2</v>
+        <v>0.22636365858606519</v>
       </c>
       <c r="C12">
-        <v>-4.7033095931954316E-6</v>
+        <v>-8.9891244627903394E-6</v>
       </c>
       <c r="D12">
-        <v>3.4885572666523419E-4</v>
+        <v>9.7300430334447635E-5</v>
       </c>
       <c r="E12">
-        <v>-4.0241708663400443E-6</v>
+        <v>-1.0740431484015635E-6</v>
       </c>
       <c r="F12">
-        <v>2.9341390569347114E-4</v>
+        <v>-5.6261975882459649E-5</v>
       </c>
       <c r="G12">
-        <v>-1.2639268307380431E-3</v>
+        <v>-3.9648793457203668E-4</v>
       </c>
       <c r="H12">
-        <v>-6.3680666452162684E-8</v>
+        <v>-6.5772627917917458E-7</v>
       </c>
       <c r="I12">
-        <v>2.9390881008957209E-5</v>
+        <v>5.2040068415561265E-6</v>
       </c>
       <c r="J12">
-        <v>5.6780996718541355E-3</v>
+        <v>3.1873626920500241E-3</v>
       </c>
       <c r="K12">
-        <v>6.1770704895783455E-3</v>
+        <v>3.3553058359356977E-3</v>
       </c>
       <c r="L12">
-        <v>6.181138950191652E-3</v>
+        <v>3.4096375164412778E-3</v>
       </c>
       <c r="M12">
-        <v>6.3534840367186996E-3</v>
+        <v>3.4588229173083767E-3</v>
       </c>
       <c r="N12">
-        <v>1.7752768087108209E-4</v>
+        <v>2.2359840298451983E-5</v>
       </c>
       <c r="O12">
-        <v>1.0668930690487563E-4</v>
+        <v>5.1616597157373258E-6</v>
       </c>
       <c r="P12">
-        <v>2.9985493085308592E-4</v>
+        <v>5.407295903706677E-7</v>
       </c>
       <c r="Q12">
-        <v>9.9111763075980936E-5</v>
+        <v>-1.4231341862010386E-5</v>
       </c>
       <c r="R12">
-        <v>-2.4754571193417428E-5</v>
+        <v>-1.3626308887664722E-5</v>
       </c>
       <c r="S12">
-        <v>-1.3488667029064145E-5</v>
+        <v>2.2265893624223426E-6</v>
       </c>
       <c r="T12">
-        <v>1.8398832741439153E-3</v>
+        <v>-4.8252409326986841E-5</v>
       </c>
       <c r="U12">
-        <v>1.5166486933470629E-3</v>
+        <v>1.4034662792986058E-5</v>
       </c>
       <c r="V12">
-        <v>-1.9630603412080172E-2</v>
+        <v>-5.6559134183112088E-3</v>
       </c>
       <c r="W12">
-        <v>7.6946672042879872E-3</v>
+        <v>1.3620000551586274E-3</v>
       </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.45">
@@ -4399,70 +4399,70 @@
         <v>35</v>
       </c>
       <c r="B13">
-        <v>-9.4036871969538343E-3</v>
+        <v>-7.4342097182633375E-3</v>
       </c>
       <c r="C13">
-        <v>4.2385799578582774E-7</v>
+        <v>1.2661970906163399E-7</v>
       </c>
       <c r="D13">
-        <v>2.776631403964927E-5</v>
+        <v>5.2546956420048831E-6</v>
       </c>
       <c r="E13">
-        <v>-3.2193457508631488E-7</v>
+        <v>-5.8915762565559313E-8</v>
       </c>
       <c r="F13">
-        <v>1.517099126368985E-5</v>
+        <v>-7.0815441203368106E-6</v>
       </c>
       <c r="G13">
-        <v>-1.0703977159967275E-4</v>
+        <v>-2.3376317780741311E-5</v>
       </c>
       <c r="H13">
-        <v>1.572922321920243E-7</v>
+        <v>4.2365679773938872E-8</v>
       </c>
       <c r="I13">
-        <v>2.3229684200600833E-6</v>
+        <v>2.3745757529987608E-7</v>
       </c>
       <c r="J13">
-        <v>1.2858250988918212E-4</v>
+        <v>9.9080770162347396E-6</v>
       </c>
       <c r="K13">
-        <v>1.682490608084893E-4</v>
+        <v>1.888232428344625E-5</v>
       </c>
       <c r="L13">
-        <v>1.6736281779087308E-4</v>
+        <v>2.1259373765465343E-5</v>
       </c>
       <c r="M13">
-        <v>1.7752768087108209E-4</v>
+        <v>2.2359840298451983E-5</v>
       </c>
       <c r="N13">
-        <v>1.1253711670416483E-4</v>
+        <v>6.8773196863339947E-5</v>
       </c>
       <c r="O13">
-        <v>5.8133080334929092E-5</v>
+        <v>3.3090843969030949E-5</v>
       </c>
       <c r="P13">
-        <v>7.3717485090283479E-5</v>
+        <v>3.2905924990475407E-5</v>
       </c>
       <c r="Q13">
-        <v>5.775382529674267E-5</v>
+        <v>3.2094126045819074E-5</v>
       </c>
       <c r="R13">
-        <v>1.7289853602060313E-7</v>
+        <v>5.4150531919788664E-7</v>
       </c>
       <c r="S13">
-        <v>-1.2031294951611709E-5</v>
+        <v>-8.8129052333525527E-6</v>
       </c>
       <c r="T13">
-        <v>1.4555290300111222E-4</v>
+        <v>-2.866647960646127E-6</v>
       </c>
       <c r="U13">
-        <v>1.1939273576474625E-4</v>
+        <v>3.5418332925924737E-7</v>
       </c>
       <c r="V13">
-        <v>-1.2722376599199358E-3</v>
+        <v>-1.6457776308506091E-4</v>
       </c>
       <c r="W13">
-        <v>6.1169641720209384E-4</v>
+        <v>7.4806736932902737E-5</v>
       </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.45">
@@ -4470,70 +4470,70 @@
         <v>36</v>
       </c>
       <c r="B14">
-        <v>2.7202520480531069E-3</v>
+        <v>8.6272601741241659E-3</v>
       </c>
       <c r="C14">
-        <v>-6.1740829952475008E-8</v>
+        <v>-6.9518493894611307E-8</v>
       </c>
       <c r="D14">
-        <v>1.710503374563238E-5</v>
+        <v>1.5215252554740551E-6</v>
       </c>
       <c r="E14">
-        <v>-1.9832489459398075E-7</v>
+        <v>-1.728569909033523E-8</v>
       </c>
       <c r="F14">
-        <v>1.2794421842732568E-5</v>
+        <v>8.242789506296652E-7</v>
       </c>
       <c r="G14">
-        <v>-5.0506781737186235E-5</v>
+        <v>2.5565518385991422E-6</v>
       </c>
       <c r="H14">
-        <v>4.7767056151632819E-8</v>
+        <v>-2.1729568684264149E-8</v>
       </c>
       <c r="I14">
-        <v>1.2030883645435488E-6</v>
+        <v>-6.4093377719123066E-8</v>
       </c>
       <c r="J14">
-        <v>7.5286426199749182E-5</v>
+        <v>5.9494935563580898E-7</v>
       </c>
       <c r="K14">
-        <v>1.0026118310844248E-4</v>
+        <v>3.6887404228962898E-6</v>
       </c>
       <c r="L14">
-        <v>1.001699577904068E-4</v>
+        <v>4.402967444260334E-6</v>
       </c>
       <c r="M14">
-        <v>1.0668930690487563E-4</v>
+        <v>5.1616597157373258E-6</v>
       </c>
       <c r="N14">
-        <v>5.8133080334929092E-5</v>
+        <v>3.3090843969030949E-5</v>
       </c>
       <c r="O14">
-        <v>1.3089335426323158E-4</v>
+        <v>8.7408098994077693E-5</v>
       </c>
       <c r="P14">
-        <v>6.3925027670543098E-5</v>
+        <v>3.2873917247482316E-5</v>
       </c>
       <c r="Q14">
-        <v>5.4601678812462337E-5</v>
+        <v>3.2766508495468833E-5</v>
       </c>
       <c r="R14">
-        <v>3.7041123594333056E-7</v>
+        <v>8.2071768636296974E-7</v>
       </c>
       <c r="S14">
-        <v>-8.0040826125203215E-6</v>
+        <v>-4.7797111860285313E-6</v>
       </c>
       <c r="T14">
-        <v>8.6537647159350172E-5</v>
+        <v>-8.0363386787651864E-7</v>
       </c>
       <c r="U14">
-        <v>7.0907865865074644E-5</v>
+        <v>-9.7824359039269792E-8</v>
       </c>
       <c r="V14">
-        <v>-7.8889681139644578E-4</v>
+        <v>-6.6289282635189167E-5</v>
       </c>
       <c r="W14">
-        <v>3.6351484614910527E-4</v>
+        <v>1.6886916987252356E-5</v>
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.45">
@@ -4541,70 +4541,70 @@
         <v>37</v>
       </c>
       <c r="B15">
-        <v>-1.4374257575710267E-2</v>
+        <v>-1.1672282220383994E-3</v>
       </c>
       <c r="C15">
-        <v>7.2885657548829167E-7</v>
+        <v>2.5798700839611718E-7</v>
       </c>
       <c r="D15">
-        <v>4.6837942350939346E-5</v>
+        <v>-6.0713117218063579E-7</v>
       </c>
       <c r="E15">
-        <v>-5.431660236376962E-7</v>
+        <v>5.9579792976407265E-9</v>
       </c>
       <c r="F15">
-        <v>3.4167185177198987E-5</v>
+        <v>-1.5120695527670823E-6</v>
       </c>
       <c r="G15">
-        <v>-1.6088309448472783E-4</v>
+        <v>5.1405605933026E-6</v>
       </c>
       <c r="H15">
-        <v>1.263059559784043E-7</v>
+        <v>5.7380381254192762E-8</v>
       </c>
       <c r="I15">
-        <v>3.5913273962783737E-6</v>
+        <v>-1.2783805269460975E-7</v>
       </c>
       <c r="J15">
-        <v>2.1822353222458735E-4</v>
+        <v>1.8700704428425198E-6</v>
       </c>
       <c r="K15">
-        <v>2.8509048011863679E-4</v>
+        <v>8.7708916391257764E-7</v>
       </c>
       <c r="L15">
-        <v>2.8431475811620689E-4</v>
+        <v>5.8272237350252336E-7</v>
       </c>
       <c r="M15">
-        <v>2.9985493085308592E-4</v>
+        <v>5.407295903706677E-7</v>
       </c>
       <c r="N15">
-        <v>7.3717485090283479E-5</v>
+        <v>3.2905924990475407E-5</v>
       </c>
       <c r="O15">
-        <v>6.3925027670543098E-5</v>
+        <v>3.2873917247482316E-5</v>
       </c>
       <c r="P15">
-        <v>1.3564992398061424E-4</v>
+        <v>6.6046356122941626E-5</v>
       </c>
       <c r="Q15">
-        <v>6.3302941167804524E-5</v>
+        <v>3.3050708144639963E-5</v>
       </c>
       <c r="R15">
-        <v>-1.8989513276299012E-6</v>
+        <v>9.1231396466698654E-7</v>
       </c>
       <c r="S15">
-        <v>-1.4191808031309945E-5</v>
+        <v>-8.3489369278263319E-6</v>
       </c>
       <c r="T15">
-        <v>2.4740246010026634E-4</v>
+        <v>3.6967798489379838E-7</v>
       </c>
       <c r="U15">
-        <v>2.0346134769718441E-4</v>
+        <v>-1.6459620265211745E-7</v>
       </c>
       <c r="V15">
-        <v>-2.1241451684502815E-3</v>
+        <v>-9.6978097838441269E-6</v>
       </c>
       <c r="W15">
-        <v>1.035213486660946E-3</v>
+        <v>-6.844438910271103E-6</v>
       </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.45">
@@ -4612,70 +4612,70 @@
         <v>39</v>
       </c>
       <c r="B16">
-        <v>-1.4059943660082857E-2</v>
+        <v>-9.2334790253776212E-3</v>
       </c>
       <c r="C16">
-        <v>1.3433935043590364E-6</v>
+        <v>8.3306930155372634E-7</v>
       </c>
       <c r="D16">
-        <v>1.5809690304022559E-5</v>
+        <v>-3.5737912806322696E-6</v>
       </c>
       <c r="E16">
-        <v>-1.8369582163461772E-7</v>
+        <v>3.9340621499817277E-8</v>
       </c>
       <c r="F16">
-        <v>1.4093380990995644E-5</v>
+        <v>4.0492306247985855E-6</v>
       </c>
       <c r="G16">
-        <v>-5.2962700193619054E-5</v>
+        <v>1.8472014403955481E-5</v>
       </c>
       <c r="H16">
-        <v>3.7723926279988988E-8</v>
+        <v>2.2200708155012414E-8</v>
       </c>
       <c r="I16">
-        <v>1.24098211441272E-6</v>
+        <v>-2.2329774810566435E-7</v>
       </c>
       <c r="J16">
-        <v>6.9200029393912246E-5</v>
+        <v>-7.8370437410436407E-6</v>
       </c>
       <c r="K16">
-        <v>9.2370009250125119E-5</v>
+        <v>-1.3316266556745697E-5</v>
       </c>
       <c r="L16">
-        <v>9.2386284686562701E-5</v>
+        <v>-1.4954245164430802E-5</v>
       </c>
       <c r="M16">
-        <v>9.9111763075980936E-5</v>
+        <v>-1.4231341862010386E-5</v>
       </c>
       <c r="N16">
-        <v>5.775382529674267E-5</v>
+        <v>3.2094126045819074E-5</v>
       </c>
       <c r="O16">
-        <v>5.4601678812462337E-5</v>
+        <v>3.2766508495468833E-5</v>
       </c>
       <c r="P16">
-        <v>6.3302941167804524E-5</v>
+        <v>3.3050708144639963E-5</v>
       </c>
       <c r="Q16">
-        <v>7.418056940786359E-5</v>
+        <v>4.7743215965229756E-5</v>
       </c>
       <c r="R16">
-        <v>5.0998778711265977E-7</v>
+        <v>1.2873935043765611E-6</v>
       </c>
       <c r="S16">
-        <v>-9.9388419486366034E-6</v>
+        <v>-6.1106390858646713E-6</v>
       </c>
       <c r="T16">
-        <v>8.2196615317124818E-5</v>
+        <v>1.7605756789283017E-6</v>
       </c>
       <c r="U16">
-        <v>6.7307713098623104E-5</v>
+        <v>-7.0442337689148468E-7</v>
       </c>
       <c r="V16">
-        <v>-7.3931963917271042E-4</v>
+        <v>6.9511915320588088E-5</v>
       </c>
       <c r="W16">
-        <v>3.4477349203792477E-4</v>
+        <v>-5.0797504197031804E-5</v>
       </c>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.45">
@@ -4683,70 +4683,70 @@
         <v>28</v>
       </c>
       <c r="B17">
-        <v>0.19288820456660524</v>
+        <v>0.1985418854001314</v>
       </c>
       <c r="C17">
-        <v>-1.8368957003654608E-6</v>
+        <v>-1.8094256791904283E-6</v>
       </c>
       <c r="D17">
-        <v>-2.8070676930198195E-6</v>
+        <v>-2.4174388696472871E-6</v>
       </c>
       <c r="E17">
-        <v>3.2038387864762524E-8</v>
+        <v>2.5712388004624476E-8</v>
       </c>
       <c r="F17">
-        <v>-3.9005344446170628E-6</v>
+        <v>2.3124537256061089E-6</v>
       </c>
       <c r="G17">
-        <v>-2.8796045056160611E-6</v>
+        <v>7.2920127248009296E-6</v>
       </c>
       <c r="H17">
-        <v>4.7462836540201833E-8</v>
+        <v>6.0561680090871548E-8</v>
       </c>
       <c r="I17">
-        <v>-3.5270182403113206E-8</v>
+        <v>-6.7465645008383177E-8</v>
       </c>
       <c r="J17">
-        <v>-2.1233429094132308E-5</v>
+        <v>-8.5472579157798499E-6</v>
       </c>
       <c r="K17">
-        <v>-2.5146487610342003E-5</v>
+        <v>-1.3060196754304832E-5</v>
       </c>
       <c r="L17">
-        <v>-2.3472578418202832E-5</v>
+        <v>-1.3507609366260723E-5</v>
       </c>
       <c r="M17">
-        <v>-2.4754571193417428E-5</v>
+        <v>-1.3626308887664722E-5</v>
       </c>
       <c r="N17">
-        <v>1.7289853602060313E-7</v>
+        <v>5.4150531919788664E-7</v>
       </c>
       <c r="O17">
-        <v>3.7041123594333056E-7</v>
+        <v>8.2071768636296974E-7</v>
       </c>
       <c r="P17">
-        <v>-1.8989513276299012E-6</v>
+        <v>9.1231396466698654E-7</v>
       </c>
       <c r="Q17">
-        <v>5.0998778711265977E-7</v>
+        <v>1.2873935043765611E-6</v>
       </c>
       <c r="R17">
-        <v>1.03567169989755E-4</v>
+        <v>9.8146439784850022E-5</v>
       </c>
       <c r="S17">
-        <v>1.1420578596303684E-5</v>
+        <v>1.305529739308122E-5</v>
       </c>
       <c r="T17">
-        <v>-2.1602954486786491E-5</v>
+        <v>1.5395918378208393E-6</v>
       </c>
       <c r="U17">
-        <v>-1.7274613821035058E-5</v>
+        <v>-1.9328955441376705E-7</v>
       </c>
       <c r="V17">
-        <v>1.3728522148399554E-4</v>
+        <v>5.3976139089689344E-5</v>
       </c>
       <c r="W17">
-        <v>-9.0260187737022644E-5</v>
+        <v>-4.8236549934383171E-5</v>
       </c>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.45">
@@ -4754,70 +4754,70 @@
         <v>29</v>
       </c>
       <c r="B18">
-        <v>7.2107532269841873E-2</v>
+        <v>0.19831954916870392</v>
       </c>
       <c r="C18">
-        <v>-6.5324441886821259E-6</v>
+        <v>-7.638810731636932E-6</v>
       </c>
       <c r="D18">
-        <v>-3.7986386822630929E-6</v>
+        <v>-2.3288747794297768E-6</v>
       </c>
       <c r="E18">
-        <v>3.7023295809156888E-8</v>
+        <v>1.9964741322797355E-8</v>
       </c>
       <c r="F18">
-        <v>-3.7634967796842416E-6</v>
+        <v>-9.7893174518942825E-7</v>
       </c>
       <c r="G18">
-        <v>8.2749887872700617E-6</v>
+        <v>4.111706877664224E-6</v>
       </c>
       <c r="H18">
-        <v>1.4265509085303636E-7</v>
+        <v>1.8315129449694071E-7</v>
       </c>
       <c r="I18">
-        <v>3.7049858263981013E-8</v>
+        <v>1.8190676294545632E-7</v>
       </c>
       <c r="J18">
-        <v>2.2445042639660332E-6</v>
+        <v>1.4207074890481747E-5</v>
       </c>
       <c r="K18">
-        <v>-6.8875050915536932E-6</v>
+        <v>8.605497912210492E-6</v>
       </c>
       <c r="L18">
-        <v>-1.2406848139209457E-5</v>
+        <v>2.5277616941142774E-6</v>
       </c>
       <c r="M18">
-        <v>-1.3488667029064145E-5</v>
+        <v>2.2265893624223426E-6</v>
       </c>
       <c r="N18">
-        <v>-1.2031294951611709E-5</v>
+        <v>-8.8129052333525527E-6</v>
       </c>
       <c r="O18">
-        <v>-8.0040826125203215E-6</v>
+        <v>-4.7797111860285313E-6</v>
       </c>
       <c r="P18">
-        <v>-1.4191808031309945E-5</v>
+        <v>-8.3489369278263319E-6</v>
       </c>
       <c r="Q18">
-        <v>-9.9388419486366034E-6</v>
+        <v>-6.1106390858646713E-6</v>
       </c>
       <c r="R18">
-        <v>1.1420578596303684E-5</v>
+        <v>1.305529739308122E-5</v>
       </c>
       <c r="S18">
-        <v>5.5402699513189355E-4</v>
+        <v>4.7109046394717524E-4</v>
       </c>
       <c r="T18">
-        <v>-1.0658202587259631E-4</v>
+        <v>-7.7782780792084858E-5</v>
       </c>
       <c r="U18">
-        <v>-1.171209163359296E-4</v>
+        <v>-9.158772839177199E-5</v>
       </c>
       <c r="V18">
-        <v>-4.084676370118212E-4</v>
+        <v>-4.228463788945396E-4</v>
       </c>
       <c r="W18">
-        <v>-8.4490444235533259E-5</v>
+        <v>-3.8721322988050121E-5</v>
       </c>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.45">
@@ -4825,70 +4825,70 @@
         <v>30</v>
       </c>
       <c r="B19">
-        <v>-0.12080380302029196</v>
+        <v>-1.8413823806612776E-2</v>
       </c>
       <c r="C19">
-        <v>4.2955874667280605E-7</v>
+        <v>-1.1465682683918667E-6</v>
       </c>
       <c r="D19">
-        <v>2.8976399777702817E-4</v>
+        <v>-1.2011560041361067E-5</v>
       </c>
       <c r="E19">
-        <v>-3.3506296506431838E-6</v>
+        <v>1.3434161569865041E-7</v>
       </c>
       <c r="F19">
-        <v>2.4944413631331418E-4</v>
+        <v>7.1616666509452442E-6</v>
       </c>
       <c r="G19">
-        <v>-9.7607524404441464E-4</v>
+        <v>4.6121558840662034E-5</v>
       </c>
       <c r="H19">
-        <v>-2.0228503418695436E-7</v>
+        <v>5.6901951212809838E-8</v>
       </c>
       <c r="I19">
-        <v>2.2303816354850947E-5</v>
+        <v>-5.4830564957133893E-7</v>
       </c>
       <c r="J19">
-        <v>1.3321831206951672E-3</v>
+        <v>-2.1790482295466835E-5</v>
       </c>
       <c r="K19">
-        <v>1.7460797894326215E-3</v>
+        <v>-4.171583904291808E-5</v>
       </c>
       <c r="L19">
-        <v>1.7428093874511401E-3</v>
+        <v>-4.7714175864834933E-5</v>
       </c>
       <c r="M19">
-        <v>1.8398832741439153E-3</v>
+        <v>-4.8252409326986841E-5</v>
       </c>
       <c r="N19">
-        <v>1.4555290300111222E-4</v>
+        <v>-2.866647960646127E-6</v>
       </c>
       <c r="O19">
-        <v>8.6537647159350172E-5</v>
+        <v>-8.0363386787651864E-7</v>
       </c>
       <c r="P19">
-        <v>2.4740246010026634E-4</v>
+        <v>3.6967798489379838E-7</v>
       </c>
       <c r="Q19">
-        <v>8.2196615317124818E-5</v>
+        <v>1.7605756789283017E-6</v>
       </c>
       <c r="R19">
-        <v>-2.1602954486786491E-5</v>
+        <v>1.5395918378208393E-6</v>
       </c>
       <c r="S19">
-        <v>-1.0658202587259631E-4</v>
+        <v>-7.7782780792084858E-5</v>
       </c>
       <c r="T19">
-        <v>1.6175063971092865E-3</v>
+        <v>6.9186083500088853E-5</v>
       </c>
       <c r="U19">
-        <v>1.2903879861166027E-3</v>
+        <v>2.1363187666334755E-5</v>
       </c>
       <c r="V19">
-        <v>-1.282617074737739E-2</v>
+        <v>3.9922483096676903E-4</v>
       </c>
       <c r="W19">
-        <v>6.4124955116283064E-3</v>
+        <v>-1.6684617514025609E-4</v>
       </c>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.45">
@@ -4896,70 +4896,70 @@
         <v>31</v>
       </c>
       <c r="B20">
-        <v>-0.14067647342361853</v>
+        <v>-4.4481752906808817E-3</v>
       </c>
       <c r="C20">
-        <v>7.0172540214818685E-7</v>
+        <v>-1.0630336282290113E-6</v>
       </c>
       <c r="D20">
-        <v>2.3863822950916699E-4</v>
+        <v>3.6721627883471212E-6</v>
       </c>
       <c r="E20">
-        <v>-2.7597589287345291E-6</v>
+        <v>-4.0311005139486502E-8</v>
       </c>
       <c r="F20">
-        <v>2.0499490354647487E-4</v>
+        <v>-1.5890262900624007E-6</v>
       </c>
       <c r="G20">
-        <v>-8.0536694837925378E-4</v>
+        <v>-1.2937138249507326E-5</v>
       </c>
       <c r="H20">
-        <v>-1.4475394787794488E-7</v>
+        <v>-5.1889532429139078E-8</v>
       </c>
       <c r="I20">
-        <v>1.8417809724835132E-5</v>
+        <v>1.1503473760666792E-7</v>
       </c>
       <c r="J20">
-        <v>1.1003215851970506E-3</v>
+        <v>6.0913651543852054E-6</v>
       </c>
       <c r="K20">
-        <v>1.4410945127168165E-3</v>
+        <v>1.2141635783602395E-5</v>
       </c>
       <c r="L20">
-        <v>1.4369315050589227E-3</v>
+        <v>1.3304948543835776E-5</v>
       </c>
       <c r="M20">
-        <v>1.5166486933470629E-3</v>
+        <v>1.4034662792986058E-5</v>
       </c>
       <c r="N20">
-        <v>1.1939273576474625E-4</v>
+        <v>3.5418332925924737E-7</v>
       </c>
       <c r="O20">
-        <v>7.0907865865074644E-5</v>
+        <v>-9.7824359039269792E-8</v>
       </c>
       <c r="P20">
-        <v>2.0346134769718441E-4</v>
+        <v>-1.6459620265211745E-7</v>
       </c>
       <c r="Q20">
-        <v>6.7307713098623104E-5</v>
+        <v>-7.0442337689148468E-7</v>
       </c>
       <c r="R20">
-        <v>-1.7274613821035058E-5</v>
+        <v>-1.9328955441376705E-7</v>
       </c>
       <c r="S20">
-        <v>-1.171209163359296E-4</v>
+        <v>-9.158772839177199E-5</v>
       </c>
       <c r="T20">
-        <v>1.2903879861166027E-3</v>
+        <v>2.1363187666334755E-5</v>
       </c>
       <c r="U20">
-        <v>1.1517861243469675E-3</v>
+        <v>8.4967800266105216E-5</v>
       </c>
       <c r="V20">
-        <v>-1.0538237999952264E-2</v>
+        <v>-8.0667985886098933E-6</v>
       </c>
       <c r="W20">
-        <v>5.2847035207081458E-3</v>
+        <v>5.392090702991862E-5</v>
       </c>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.45">
@@ -4967,70 +4967,70 @@
         <v>32</v>
       </c>
       <c r="B21">
-        <v>0.74166319822301063</v>
+        <v>-2.8699191890553016E-2</v>
       </c>
       <c r="C21">
-        <v>-2.3165028219916705E-5</v>
+        <v>9.3022942377407939E-6</v>
       </c>
       <c r="D21">
-        <v>-2.5536917718479947E-3</v>
+        <v>-7.3442857595154803E-4</v>
       </c>
       <c r="E21">
-        <v>2.9444894584346031E-5</v>
+        <v>8.1480030688777704E-6</v>
       </c>
       <c r="F21">
-        <v>-2.444339972153594E-3</v>
+        <v>8.5618214057655776E-5</v>
       </c>
       <c r="G21">
-        <v>8.0280663831512333E-3</v>
+        <v>2.0823410431065666E-3</v>
       </c>
       <c r="H21">
-        <v>8.4941546973961101E-6</v>
+        <v>1.0301303485391382E-5</v>
       </c>
       <c r="I21">
-        <v>-1.8528514623863E-4</v>
+        <v>-2.0710492214583206E-5</v>
       </c>
       <c r="J21">
-        <v>-1.5305147248755379E-2</v>
+        <v>-4.1017031403905498E-3</v>
       </c>
       <c r="K21">
-        <v>-1.8785739814026529E-2</v>
+        <v>-5.2212564622056909E-3</v>
       </c>
       <c r="L21">
-        <v>-1.8757291057729567E-2</v>
+        <v>-5.5452823308483334E-3</v>
       </c>
       <c r="M21">
-        <v>-1.9630603412080172E-2</v>
+        <v>-5.6559134183112088E-3</v>
       </c>
       <c r="N21">
-        <v>-1.2722376599199358E-3</v>
+        <v>-1.6457776308506091E-4</v>
       </c>
       <c r="O21">
-        <v>-7.8889681139644578E-4</v>
+        <v>-6.6289282635189167E-5</v>
       </c>
       <c r="P21">
-        <v>-2.1241451684502815E-3</v>
+        <v>-9.6978097838441269E-6</v>
       </c>
       <c r="Q21">
-        <v>-7.3931963917271042E-4</v>
+        <v>6.9511915320588088E-5</v>
       </c>
       <c r="R21">
-        <v>1.3728522148399554E-4</v>
+        <v>5.3976139089689344E-5</v>
       </c>
       <c r="S21">
-        <v>-4.084676370118212E-4</v>
+        <v>-4.228463788945396E-4</v>
       </c>
       <c r="T21">
-        <v>-1.282617074737739E-2</v>
+        <v>3.9922483096676903E-4</v>
       </c>
       <c r="U21">
-        <v>-1.0538237999952264E-2</v>
+        <v>-8.0667985886098933E-6</v>
       </c>
       <c r="V21">
-        <v>0.1159888817170615</v>
+        <v>2.2837815923078337E-2</v>
       </c>
       <c r="W21">
-        <v>-5.3996627795477786E-2</v>
+        <v>-9.2094558434223633E-3</v>
       </c>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.45">
@@ -5038,70 +5038,70 @@
         <v>33</v>
       </c>
       <c r="B22">
-        <v>-0.38019700621154473</v>
+        <v>-8.641368807047331E-2</v>
       </c>
       <c r="C22">
-        <v>9.4461595895599787E-6</v>
+        <v>-3.9804410411673696E-6</v>
       </c>
       <c r="D22">
-        <v>1.2120651847203525E-3</v>
+        <v>3.4473550948212645E-4</v>
       </c>
       <c r="E22">
-        <v>-1.4018239629917956E-5</v>
+        <v>-3.8377086730127302E-6</v>
       </c>
       <c r="F22">
-        <v>1.0374808443535906E-3</v>
+        <v>-1.8916149681202706E-4</v>
       </c>
       <c r="G22">
-        <v>-4.1091039971619218E-3</v>
+        <v>-1.2330880286022979E-3</v>
       </c>
       <c r="H22">
-        <v>-6.4781835722019824E-7</v>
+        <v>-2.4601043376857489E-6</v>
       </c>
       <c r="I22">
-        <v>9.3940417879720964E-5</v>
+        <v>1.3237742946188823E-5</v>
       </c>
       <c r="J22">
-        <v>5.5759149442063845E-3</v>
+        <v>5.6759748676092755E-4</v>
       </c>
       <c r="K22">
-        <v>7.305249121175336E-3</v>
+        <v>1.1562173899322644E-3</v>
       </c>
       <c r="L22">
-        <v>7.2921836510720199E-3</v>
+        <v>1.3270136214409999E-3</v>
       </c>
       <c r="M22">
-        <v>7.6946672042879872E-3</v>
+        <v>1.3620000551586274E-3</v>
       </c>
       <c r="N22">
-        <v>6.1169641720209384E-4</v>
+        <v>7.4806736932902737E-5</v>
       </c>
       <c r="O22">
-        <v>3.6351484614910527E-4</v>
+        <v>1.6886916987252356E-5</v>
       </c>
       <c r="P22">
-        <v>1.035213486660946E-3</v>
+        <v>-6.844438910271103E-6</v>
       </c>
       <c r="Q22">
-        <v>3.4477349203792477E-4</v>
+        <v>-5.0797504197031804E-5</v>
       </c>
       <c r="R22">
-        <v>-9.0260187737022644E-5</v>
+        <v>-4.8236549934383171E-5</v>
       </c>
       <c r="S22">
-        <v>-8.4490444235533259E-5</v>
+        <v>-3.8721322988050121E-5</v>
       </c>
       <c r="T22">
-        <v>6.4124955116283064E-3</v>
+        <v>-1.6684617514025609E-4</v>
       </c>
       <c r="U22">
-        <v>5.2847035207081458E-3</v>
+        <v>5.392090702991862E-5</v>
       </c>
       <c r="V22">
-        <v>-5.3996627795477786E-2</v>
+        <v>-9.2094558434223633E-3</v>
       </c>
       <c r="W22">
-        <v>2.6814319966849735E-2</v>
+        <v>4.8369230058739774E-3</v>
       </c>
     </row>
   </sheetData>
@@ -5196,70 +5196,70 @@
         <v>34</v>
       </c>
       <c r="B2">
-        <v>0.70586689313720652</v>
+        <v>0.66513137342541562</v>
       </c>
       <c r="C2">
-        <v>2.3918105134371664E-5</v>
+        <v>2.9781511664421791E-5</v>
       </c>
       <c r="D2">
-        <v>2.3046487084283833E-7</v>
+        <v>6.8256281522153695E-7</v>
       </c>
       <c r="E2">
-        <v>-3.8600651791382092E-9</v>
+        <v>-9.4512066764574648E-9</v>
       </c>
       <c r="F2">
-        <v>1.6140566527365891E-5</v>
+        <v>4.1719635973396052E-6</v>
       </c>
       <c r="G2">
-        <v>1.1183004945482432E-5</v>
+        <v>3.3065079964484152E-6</v>
       </c>
       <c r="H2">
-        <v>5.1282019323795826E-8</v>
+        <v>1.8644903319177992E-7</v>
       </c>
       <c r="I2">
-        <v>2.772592865671832E-7</v>
+        <v>3.0626406483810354E-7</v>
       </c>
       <c r="J2">
-        <v>1.1251311014370529E-5</v>
+        <v>6.3553108297252137E-6</v>
       </c>
       <c r="K2">
-        <v>1.5595038631505271E-5</v>
+        <v>1.4773082306740613E-5</v>
       </c>
       <c r="L2">
-        <v>1.3724392458285203E-5</v>
+        <v>1.4693147504545025E-5</v>
       </c>
       <c r="M2">
-        <v>1.3629238710773737E-5</v>
+        <v>1.3919221228742484E-5</v>
       </c>
       <c r="N2">
-        <v>2.5353025552349146E-6</v>
+        <v>1.9584464511641179E-6</v>
       </c>
       <c r="O2">
-        <v>-6.6399915126167178E-7</v>
+        <v>-2.5765482103170512E-6</v>
       </c>
       <c r="P2">
-        <v>3.1861305690317283E-6</v>
+        <v>4.2304774982416232E-7</v>
       </c>
       <c r="Q2">
-        <v>3.7559107284093048E-6</v>
+        <v>2.8525685469102263E-6</v>
       </c>
       <c r="R2">
-        <v>1.5841811817923509E-6</v>
+        <v>2.6251198159765253E-6</v>
       </c>
       <c r="S2">
-        <v>-9.2111035227322164E-6</v>
+        <v>-1.6269071106821978E-5</v>
       </c>
       <c r="T2">
-        <v>1.1453069594289235E-5</v>
+        <v>-2.0373534725566378E-6</v>
       </c>
       <c r="U2">
-        <v>9.5669918521482474E-6</v>
+        <v>1.1097631830486151E-6</v>
       </c>
       <c r="V2">
-        <v>-9.57036737721756E-5</v>
+        <v>-6.8222665579085348E-5</v>
       </c>
       <c r="W2">
-        <v>5.2732001177139071E-5</v>
+        <v>5.6486469901159332E-5</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.45">
@@ -5267,70 +5267,70 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>-7.6189227794743993E-3</v>
+        <v>-1.7188620575499507E-2</v>
       </c>
       <c r="C3">
-        <v>2.3046487084283833E-7</v>
+        <v>6.8256281522153695E-7</v>
       </c>
       <c r="D3">
-        <v>1.774772056115779E-5</v>
+        <v>2.7649286348083136E-5</v>
       </c>
       <c r="E3">
-        <v>-1.8731922722781725E-7</v>
+        <v>-2.9488127730571164E-7</v>
       </c>
       <c r="F3">
-        <v>1.2446103595620186E-4</v>
+        <v>4.6934138400046775E-5</v>
       </c>
       <c r="G3">
-        <v>8.942419134248243E-5</v>
+        <v>2.599296934784017E-5</v>
       </c>
       <c r="H3">
-        <v>-1.6333464027981427E-6</v>
+        <v>-1.1165485194864804E-6</v>
       </c>
       <c r="I3">
-        <v>-9.3142859868764852E-7</v>
+        <v>-1.2530462522651799E-6</v>
       </c>
       <c r="J3">
-        <v>9.5389028584516702E-5</v>
+        <v>8.9583551745998972E-5</v>
       </c>
       <c r="K3">
-        <v>1.3968849647323298E-4</v>
+        <v>1.8540578587004667E-4</v>
       </c>
       <c r="L3">
-        <v>1.365072798112165E-4</v>
+        <v>2.0286437590948995E-4</v>
       </c>
       <c r="M3">
-        <v>1.4644585469806507E-4</v>
+        <v>2.0886791259893403E-4</v>
       </c>
       <c r="N3">
-        <v>1.1808060235843151E-5</v>
+        <v>7.1353645036278818E-6</v>
       </c>
       <c r="O3">
-        <v>1.023694386764147E-5</v>
+        <v>-3.0203027600992794E-6</v>
       </c>
       <c r="P3">
-        <v>1.7855027478755847E-5</v>
+        <v>-4.2716785834327737E-6</v>
       </c>
       <c r="Q3">
-        <v>1.0782551706407445E-5</v>
+        <v>1.0714533484162646E-6</v>
       </c>
       <c r="R3">
-        <v>5.0645317582465266E-7</v>
+        <v>-9.1167430224432692E-7</v>
       </c>
       <c r="S3">
-        <v>-2.559467218419483E-6</v>
+        <v>-4.6957929476915422E-6</v>
       </c>
       <c r="T3">
-        <v>9.5102048275308689E-5</v>
+        <v>-2.3443821466183038E-6</v>
       </c>
       <c r="U3">
-        <v>7.557942239698687E-5</v>
+        <v>2.0614582664868834E-5</v>
       </c>
       <c r="V3">
-        <v>-8.6940033951375022E-4</v>
+        <v>-8.8216434290872394E-4</v>
       </c>
       <c r="W3">
-        <v>3.787016173535859E-4</v>
+        <v>5.3838961033084252E-4</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.45">
@@ -5338,70 +5338,70 @@
         <v>19</v>
       </c>
       <c r="B4">
-        <v>8.6254165574953573E-5</v>
+        <v>1.9115586891031879E-4</v>
       </c>
       <c r="C4">
-        <v>-3.8600651791382092E-9</v>
+        <v>-9.4512066764574648E-9</v>
       </c>
       <c r="D4">
-        <v>-1.8731922722781725E-7</v>
+        <v>-2.9488127730571164E-7</v>
       </c>
       <c r="E4">
-        <v>2.0605522200229189E-9</v>
+        <v>3.2223481795290922E-9</v>
       </c>
       <c r="F4">
-        <v>-1.0256945737864549E-6</v>
+        <v>-2.3600606195081159E-7</v>
       </c>
       <c r="G4">
-        <v>-6.6038310102716875E-7</v>
+        <v>-1.6730320791878851E-8</v>
       </c>
       <c r="H4">
-        <v>1.0247588082325363E-8</v>
+        <v>5.467048335159627E-9</v>
       </c>
       <c r="I4">
-        <v>2.902142185509663E-9</v>
+        <v>6.9949201850977831E-9</v>
       </c>
       <c r="J4">
-        <v>-1.0128500573029092E-6</v>
+        <v>-9.5979542984271217E-7</v>
       </c>
       <c r="K4">
-        <v>-1.4775157743764652E-6</v>
+        <v>-1.9820018708235795E-6</v>
       </c>
       <c r="L4">
-        <v>-1.4336724787760218E-6</v>
+        <v>-2.1594179743056322E-6</v>
       </c>
       <c r="M4">
-        <v>-1.5281074590009744E-6</v>
+        <v>-2.2137578788436691E-6</v>
       </c>
       <c r="N4">
-        <v>-1.2686077279275704E-7</v>
+        <v>-7.7933408688775533E-8</v>
       </c>
       <c r="O4">
-        <v>-1.1192921580917971E-7</v>
+        <v>2.9478668387934686E-8</v>
       </c>
       <c r="P4">
-        <v>-1.9105047023474183E-7</v>
+        <v>4.3556206259883316E-8</v>
       </c>
       <c r="Q4">
-        <v>-1.1481040211530602E-7</v>
+        <v>-1.1891419062024247E-8</v>
       </c>
       <c r="R4">
-        <v>-1.4065510675352472E-8</v>
+        <v>-1.0536473093768127E-9</v>
       </c>
       <c r="S4">
-        <v>2.0066400922523069E-8</v>
+        <v>4.1682756049469515E-8</v>
       </c>
       <c r="T4">
-        <v>-1.0037175109514484E-6</v>
+        <v>2.5486870801268651E-8</v>
       </c>
       <c r="U4">
-        <v>-7.9864182739895344E-7</v>
+        <v>-2.2082415698646037E-7</v>
       </c>
       <c r="V4">
-        <v>9.0302917254253072E-6</v>
+        <v>9.2798651119866901E-6</v>
       </c>
       <c r="W4">
-        <v>-4.0002926519705941E-6</v>
+        <v>-5.7638091288243958E-6</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.45">
@@ -5409,70 +5409,70 @@
         <v>20</v>
       </c>
       <c r="B5">
-        <v>-0.22668087874721851</v>
+        <v>-4.8796990773666227E-2</v>
       </c>
       <c r="C5">
-        <v>1.6140566527365891E-5</v>
+        <v>4.1719635973396052E-6</v>
       </c>
       <c r="D5">
-        <v>1.2446103595620186E-4</v>
+        <v>4.6934138400046775E-5</v>
       </c>
       <c r="E5">
-        <v>-1.0256945737864549E-6</v>
+        <v>-2.3600606195081159E-7</v>
       </c>
       <c r="F5">
-        <v>2.5537299163566297E-3</v>
+        <v>1.4510849589925219E-3</v>
       </c>
       <c r="G5">
-        <v>1.7465963229472987E-3</v>
+        <v>1.115818666552536E-3</v>
       </c>
       <c r="H5">
-        <v>-4.5122334406583783E-5</v>
+        <v>-3.255081439744038E-5</v>
       </c>
       <c r="I5">
-        <v>-2.8926775365090832E-5</v>
+        <v>-2.5848127212191492E-5</v>
       </c>
       <c r="J5">
-        <v>9.5784235931209417E-4</v>
+        <v>5.4226072143142689E-5</v>
       </c>
       <c r="K5">
-        <v>1.4214612645603679E-3</v>
+        <v>1.2928191597663934E-4</v>
       </c>
       <c r="L5">
-        <v>1.39523029760259E-3</v>
+        <v>1.3224222617762668E-4</v>
       </c>
       <c r="M5">
-        <v>1.4703562264387234E-3</v>
+        <v>1.4822706997866443E-4</v>
       </c>
       <c r="N5">
-        <v>1.0754163639941662E-4</v>
+        <v>8.0012880450271602E-7</v>
       </c>
       <c r="O5">
-        <v>9.1419069354756991E-5</v>
+        <v>-6.111359095921477E-6</v>
       </c>
       <c r="P5">
-        <v>1.7166166094165789E-4</v>
+        <v>-9.2296842888718964E-6</v>
       </c>
       <c r="Q5">
-        <v>1.0710564923145642E-4</v>
+        <v>3.1217641143433062E-6</v>
       </c>
       <c r="R5">
-        <v>-2.9473470605503508E-5</v>
+        <v>-7.4535373665715263E-6</v>
       </c>
       <c r="S5">
-        <v>-1.8353247757165436E-5</v>
+        <v>1.0628255073795765E-5</v>
       </c>
       <c r="T5">
-        <v>9.7515189945104495E-4</v>
+        <v>-2.2739142806513155E-6</v>
       </c>
       <c r="U5">
-        <v>7.7330497482111971E-4</v>
+        <v>1.6135998153020653E-5</v>
       </c>
       <c r="V5">
-        <v>-8.2357869189844304E-3</v>
+        <v>-1.793565155674562E-3</v>
       </c>
       <c r="W5">
-        <v>3.8730222052027821E-3</v>
+        <v>4.3798414943035122E-4</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.45">
@@ -5480,70 +5480,70 @@
         <v>21</v>
       </c>
       <c r="B6">
-        <v>-0.14408713364246251</v>
+        <v>3.0777413594922282E-2</v>
       </c>
       <c r="C6">
-        <v>1.1183004945482432E-5</v>
+        <v>3.3065079964484152E-6</v>
       </c>
       <c r="D6">
-        <v>8.942419134248243E-5</v>
+        <v>2.599296934784017E-5</v>
       </c>
       <c r="E6">
-        <v>-6.6038310102716875E-7</v>
+        <v>-1.6730320791878851E-8</v>
       </c>
       <c r="F6">
-        <v>1.7465963229472987E-3</v>
+        <v>1.115818666552536E-3</v>
       </c>
       <c r="G6">
-        <v>4.9348322940361887E-3</v>
+        <v>3.6131293902987214E-3</v>
       </c>
       <c r="H6">
-        <v>-3.2920084906948256E-5</v>
+        <v>-2.5231872610735981E-5</v>
       </c>
       <c r="I6">
-        <v>-9.8411242084182985E-5</v>
+        <v>-7.7280398953966345E-5</v>
       </c>
       <c r="J6">
-        <v>5.2023905858301586E-4</v>
+        <v>-7.5622432076323005E-5</v>
       </c>
       <c r="K6">
-        <v>7.5990968461632155E-4</v>
+        <v>-1.4507295416177124E-4</v>
       </c>
       <c r="L6">
-        <v>7.3686732155977739E-4</v>
+        <v>-1.7064285092967458E-4</v>
       </c>
       <c r="M6">
-        <v>7.9689409698726634E-4</v>
+        <v>-1.523926671876794E-4</v>
       </c>
       <c r="N6">
-        <v>3.6115088364303493E-5</v>
+        <v>-1.8628060050685004E-5</v>
       </c>
       <c r="O6">
-        <v>3.9122085175626402E-5</v>
+        <v>-4.7358756026565378E-6</v>
       </c>
       <c r="P6">
-        <v>7.2664543801324711E-5</v>
+        <v>-1.2352416588411184E-5</v>
       </c>
       <c r="Q6">
-        <v>6.1850232516861951E-5</v>
+        <v>8.0951486031747971E-6</v>
       </c>
       <c r="R6">
-        <v>-4.4113785126503249E-5</v>
+        <v>-1.6914154235454237E-5</v>
       </c>
       <c r="S6">
-        <v>-3.2587127706420191E-5</v>
+        <v>-9.6277973158491497E-6</v>
       </c>
       <c r="T6">
-        <v>5.3315276698749625E-4</v>
+        <v>3.8525949966782458E-6</v>
       </c>
       <c r="U6">
-        <v>4.2181167267753934E-4</v>
+        <v>-8.3460188608950432E-6</v>
       </c>
       <c r="V6">
-        <v>-5.1836057913692245E-3</v>
+        <v>-8.9708497792628436E-4</v>
       </c>
       <c r="W6">
-        <v>2.1074213347229182E-3</v>
+        <v>-3.1729074343592899E-4</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.45">
@@ -5551,70 +5551,70 @@
         <v>22</v>
       </c>
       <c r="B7">
-        <v>-2.4930734647392956E-4</v>
+        <v>-1.6821429362250397E-3</v>
       </c>
       <c r="C7">
-        <v>5.1282019323795826E-8</v>
+        <v>1.8644903319177992E-7</v>
       </c>
       <c r="D7">
-        <v>-1.6333464027981427E-6</v>
+        <v>-1.1165485194864804E-6</v>
       </c>
       <c r="E7">
-        <v>1.0247588082325363E-8</v>
+        <v>5.467048335159627E-9</v>
       </c>
       <c r="F7">
-        <v>-4.5122334406583783E-5</v>
+        <v>-3.255081439744038E-5</v>
       </c>
       <c r="G7">
-        <v>-3.2920084906948256E-5</v>
+        <v>-2.5231872610735981E-5</v>
       </c>
       <c r="H7">
-        <v>9.4293326716897786E-7</v>
+        <v>7.8087850555728825E-7</v>
       </c>
       <c r="I7">
-        <v>6.8463146148263055E-7</v>
+        <v>6.2832689650211725E-7</v>
       </c>
       <c r="J7">
-        <v>-9.0864010546896015E-6</v>
+        <v>-1.5344180365191802E-6</v>
       </c>
       <c r="K7">
-        <v>-1.3674882634501008E-5</v>
+        <v>-3.493082587817043E-6</v>
       </c>
       <c r="L7">
-        <v>-1.3095605762632346E-5</v>
+        <v>-3.5201201612067897E-6</v>
       </c>
       <c r="M7">
-        <v>-1.3877135018268514E-5</v>
+        <v>-3.7585666969942962E-6</v>
       </c>
       <c r="N7">
-        <v>-1.1142867781135975E-6</v>
+        <v>-1.8041687434528069E-7</v>
       </c>
       <c r="O7">
-        <v>-8.031749435644808E-7</v>
+        <v>1.1791368830457743E-7</v>
       </c>
       <c r="P7">
-        <v>-1.6697234653304985E-6</v>
+        <v>1.3464951566794879E-7</v>
       </c>
       <c r="Q7">
-        <v>-1.0387834764368864E-6</v>
+        <v>-8.3515324418544894E-8</v>
       </c>
       <c r="R7">
-        <v>5.9968510210685248E-7</v>
+        <v>4.6098465433206522E-7</v>
       </c>
       <c r="S7">
-        <v>2.092946053624082E-7</v>
+        <v>-9.0432052359300635E-9</v>
       </c>
       <c r="T7">
-        <v>-9.7313361339986112E-6</v>
+        <v>2.4271349238855517E-8</v>
       </c>
       <c r="U7">
-        <v>-7.6834438803590462E-6</v>
+        <v>-4.2558055364176782E-7</v>
       </c>
       <c r="V7">
-        <v>9.6236797600863697E-5</v>
+        <v>4.1114133081886934E-5</v>
       </c>
       <c r="W7">
-        <v>-3.8360564173994799E-5</v>
+        <v>-1.1232261729371656E-5</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.45">
@@ -5622,70 +5622,70 @@
         <v>23</v>
       </c>
       <c r="B8">
-        <v>-3.7571799986522839E-3</v>
+        <v>-4.2482803486530822E-3</v>
       </c>
       <c r="C8">
-        <v>2.772592865671832E-7</v>
+        <v>3.0626406483810354E-7</v>
       </c>
       <c r="D8">
-        <v>-9.3142859868764852E-7</v>
+        <v>-1.2530462522651799E-6</v>
       </c>
       <c r="E8">
-        <v>2.902142185509663E-9</v>
+        <v>6.9949201850977831E-9</v>
       </c>
       <c r="F8">
-        <v>-2.8926775365090832E-5</v>
+        <v>-2.5848127212191492E-5</v>
       </c>
       <c r="G8">
-        <v>-9.8411242084182985E-5</v>
+        <v>-7.7280398953966345E-5</v>
       </c>
       <c r="H8">
-        <v>6.8463146148263055E-7</v>
+        <v>6.2832689650211725E-7</v>
       </c>
       <c r="I8">
-        <v>2.2196552005998927E-6</v>
+        <v>1.8227059179464656E-6</v>
       </c>
       <c r="J8">
-        <v>-7.7821380581643602E-7</v>
+        <v>-1.6187665907439844E-6</v>
       </c>
       <c r="K8">
-        <v>-1.0079176870252128E-6</v>
+        <v>-3.4722521847018917E-6</v>
       </c>
       <c r="L8">
-        <v>-3.9665684769682145E-7</v>
+        <v>-3.4384468965446624E-6</v>
       </c>
       <c r="M8">
-        <v>-8.3620950897391638E-7</v>
+        <v>-3.7545269768199586E-6</v>
       </c>
       <c r="N8">
-        <v>1.9840362914486387E-7</v>
+        <v>-4.8149041607695311E-8</v>
       </c>
       <c r="O8">
-        <v>1.4769785883218562E-7</v>
+        <v>1.4638845071684591E-7</v>
       </c>
       <c r="P8">
-        <v>1.0077039488288251E-7</v>
+        <v>1.9962198674895822E-7</v>
       </c>
       <c r="Q8">
-        <v>-3.2681682756223785E-7</v>
+        <v>-3.3815270174726978E-7</v>
       </c>
       <c r="R8">
-        <v>6.7528053592363991E-7</v>
+        <v>5.6619139983105389E-7</v>
       </c>
       <c r="S8">
-        <v>6.5234034581941291E-7</v>
+        <v>7.4772800746042425E-7</v>
       </c>
       <c r="T8">
-        <v>-1.2504356588059708E-6</v>
+        <v>-3.2848113589278396E-8</v>
       </c>
       <c r="U8">
-        <v>-9.4588404259779249E-7</v>
+        <v>-5.5841964993455373E-7</v>
       </c>
       <c r="V8">
-        <v>3.6727742106337945E-5</v>
+        <v>4.3090618403197366E-5</v>
       </c>
       <c r="W8">
-        <v>-4.5417601117819725E-6</v>
+        <v>-1.1994285555958712E-5</v>
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.45">
@@ -5693,70 +5693,70 @@
         <v>24</v>
       </c>
       <c r="B9">
-        <v>-0.33576302036346567</v>
+        <v>-0.2279827149235332</v>
       </c>
       <c r="C9">
-        <v>1.1251311014370529E-5</v>
+        <v>6.3553108297252137E-6</v>
       </c>
       <c r="D9">
-        <v>9.5389028584516702E-5</v>
+        <v>8.9583551745998972E-5</v>
       </c>
       <c r="E9">
-        <v>-1.0128500573029092E-6</v>
+        <v>-9.5979542984271217E-7</v>
       </c>
       <c r="F9">
-        <v>9.5784235931209417E-4</v>
+        <v>5.4226072143142689E-5</v>
       </c>
       <c r="G9">
-        <v>5.2023905858301586E-4</v>
+        <v>-7.5622432076323005E-5</v>
       </c>
       <c r="H9">
-        <v>-9.0864010546896015E-6</v>
+        <v>-1.5344180365191802E-6</v>
       </c>
       <c r="I9">
-        <v>-7.7821380581643602E-7</v>
+        <v>-1.6187665907439844E-6</v>
       </c>
       <c r="J9">
-        <v>8.2177831166606926E-3</v>
+        <v>6.5035113745984642E-3</v>
       </c>
       <c r="K9">
-        <v>8.1258715046013709E-3</v>
+        <v>6.4557016470475678E-3</v>
       </c>
       <c r="L9">
-        <v>8.1156568071591717E-3</v>
+        <v>6.5446456463101616E-3</v>
       </c>
       <c r="M9">
-        <v>8.175628525604722E-3</v>
+        <v>6.5552036715116977E-3</v>
       </c>
       <c r="N9">
-        <v>1.2622823368975538E-4</v>
+        <v>3.5340110747310984E-5</v>
       </c>
       <c r="O9">
-        <v>1.104588752983444E-4</v>
+        <v>-1.0096055926097615E-5</v>
       </c>
       <c r="P9">
-        <v>1.8871060191330498E-4</v>
+        <v>-1.7793715146064902E-5</v>
       </c>
       <c r="Q9">
-        <v>1.1203793679929786E-4</v>
+        <v>3.1354973377504787E-6</v>
       </c>
       <c r="R9">
-        <v>-4.3861189267880952E-6</v>
+        <v>-3.6810906402640474E-7</v>
       </c>
       <c r="S9">
-        <v>-1.9730350280694508E-5</v>
+        <v>-2.3155898290259449E-5</v>
       </c>
       <c r="T9">
-        <v>9.9407211710295746E-4</v>
+        <v>-1.5244041990520065E-5</v>
       </c>
       <c r="U9">
-        <v>7.9913735634165443E-4</v>
+        <v>9.7911128076162663E-5</v>
       </c>
       <c r="V9">
-        <v>-1.3802348748255559E-2</v>
+        <v>-8.8270040702563245E-3</v>
       </c>
       <c r="W9">
-        <v>3.9912069384067566E-3</v>
+        <v>2.4497581054538408E-3</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.45">
@@ -5764,70 +5764,70 @@
         <v>25</v>
       </c>
       <c r="B10">
-        <v>-0.38150500481945182</v>
+        <v>-0.31754265331877812</v>
       </c>
       <c r="C10">
-        <v>1.5595038631505271E-5</v>
+        <v>1.4773082306740613E-5</v>
       </c>
       <c r="D10">
-        <v>1.3968849647323298E-4</v>
+        <v>1.8540578587004667E-4</v>
       </c>
       <c r="E10">
-        <v>-1.4775157743764652E-6</v>
+        <v>-1.9820018708235795E-6</v>
       </c>
       <c r="F10">
-        <v>1.4214612645603679E-3</v>
+        <v>1.2928191597663934E-4</v>
       </c>
       <c r="G10">
-        <v>7.5990968461632155E-4</v>
+        <v>-1.4507295416177124E-4</v>
       </c>
       <c r="H10">
-        <v>-1.3674882634501008E-5</v>
+        <v>-3.493082587817043E-6</v>
       </c>
       <c r="I10">
-        <v>-1.0079176870252128E-6</v>
+        <v>-3.4722521847018917E-6</v>
       </c>
       <c r="J10">
-        <v>8.1258715046013709E-3</v>
+        <v>6.4557016470475678E-3</v>
       </c>
       <c r="K10">
-        <v>8.9243816885409746E-3</v>
+        <v>7.4499782848301555E-3</v>
       </c>
       <c r="L10">
-        <v>8.8270984289409819E-3</v>
+        <v>7.55980572652846E-3</v>
       </c>
       <c r="M10">
-        <v>8.9163184176637468E-3</v>
+        <v>7.582710385656154E-3</v>
       </c>
       <c r="N10">
-        <v>1.8208838419538778E-4</v>
+        <v>6.7894804121600643E-5</v>
       </c>
       <c r="O10">
-        <v>1.5810519188233358E-4</v>
+        <v>-2.8451337317572575E-5</v>
       </c>
       <c r="P10">
-        <v>2.7628001694673303E-4</v>
+        <v>-3.9669319499853294E-5</v>
       </c>
       <c r="Q10">
-        <v>1.622814659951245E-4</v>
+        <v>5.6845997546717381E-6</v>
       </c>
       <c r="R10">
-        <v>-3.9441848084517686E-6</v>
+        <v>-9.4565346857397998E-6</v>
       </c>
       <c r="S10">
-        <v>-4.4246460481424438E-5</v>
+        <v>-6.4579276546405289E-5</v>
       </c>
       <c r="T10">
-        <v>1.4748453444962109E-3</v>
+        <v>-2.2990270178747252E-5</v>
       </c>
       <c r="U10">
-        <v>1.1788326538063655E-3</v>
+        <v>1.9990472869835379E-4</v>
       </c>
       <c r="V10">
-        <v>-1.7186803363351773E-2</v>
+        <v>-1.227730709421425E-2</v>
       </c>
       <c r="W10">
-        <v>5.8939938780086052E-3</v>
+        <v>5.0706164084508383E-3</v>
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.45">
@@ -5835,70 +5835,70 @@
         <v>26</v>
       </c>
       <c r="B11">
-        <v>-0.35653629281731108</v>
+        <v>-0.3286590085893718</v>
       </c>
       <c r="C11">
-        <v>1.3724392458285203E-5</v>
+        <v>1.4693147504545025E-5</v>
       </c>
       <c r="D11">
-        <v>1.365072798112165E-4</v>
+        <v>2.0286437590948995E-4</v>
       </c>
       <c r="E11">
-        <v>-1.4336724787760218E-6</v>
+        <v>-2.1594179743056322E-6</v>
       </c>
       <c r="F11">
-        <v>1.39523029760259E-3</v>
+        <v>1.3224222617762668E-4</v>
       </c>
       <c r="G11">
-        <v>7.3686732155977739E-4</v>
+        <v>-1.7064285092967458E-4</v>
       </c>
       <c r="H11">
-        <v>-1.3095605762632346E-5</v>
+        <v>-3.5201201612067897E-6</v>
       </c>
       <c r="I11">
-        <v>-3.9665684769682145E-7</v>
+        <v>-3.4384468965446624E-6</v>
       </c>
       <c r="J11">
-        <v>8.1156568071591717E-3</v>
+        <v>6.5446456463101616E-3</v>
       </c>
       <c r="K11">
-        <v>8.8270984289409819E-3</v>
+        <v>7.55980572652846E-3</v>
       </c>
       <c r="L11">
-        <v>8.8524707258623592E-3</v>
+        <v>7.7984303673808483E-3</v>
       </c>
       <c r="M11">
-        <v>8.9206909593451955E-3</v>
+        <v>7.8042112245766517E-3</v>
       </c>
       <c r="N11">
-        <v>1.8027042954505508E-4</v>
+        <v>7.4363440625789401E-5</v>
       </c>
       <c r="O11">
-        <v>1.5894942413346725E-4</v>
+        <v>-3.1054280066371967E-5</v>
       </c>
       <c r="P11">
-        <v>2.7493265971937047E-4</v>
+        <v>-4.3281801591472799E-5</v>
       </c>
       <c r="Q11">
-        <v>1.6322754519607199E-4</v>
+        <v>8.4643963056943843E-6</v>
       </c>
       <c r="R11">
-        <v>-6.4340510677690619E-7</v>
+        <v>-1.0548416619711486E-5</v>
       </c>
       <c r="S11">
-        <v>-5.2572655947444078E-5</v>
+        <v>-8.1033022969494316E-5</v>
       </c>
       <c r="T11">
-        <v>1.4631920337456698E-3</v>
+        <v>-2.6093748558443494E-5</v>
       </c>
       <c r="U11">
-        <v>1.1661193473245335E-3</v>
+        <v>2.1694949663149989E-4</v>
       </c>
       <c r="V11">
-        <v>-1.7088535944172187E-2</v>
+        <v>-1.2948036033849961E-2</v>
       </c>
       <c r="W11">
-        <v>5.8505997682450029E-3</v>
+        <v>5.5878758083060176E-3</v>
       </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.45">
@@ -5906,70 +5906,70 @@
         <v>27</v>
       </c>
       <c r="B12">
-        <v>-0.36206243292451901</v>
+        <v>-0.32153539739433995</v>
       </c>
       <c r="C12">
-        <v>1.3629238710773737E-5</v>
+        <v>1.3919221228742484E-5</v>
       </c>
       <c r="D12">
-        <v>1.4644585469806507E-4</v>
+        <v>2.0886791259893403E-4</v>
       </c>
       <c r="E12">
-        <v>-1.5281074590009744E-6</v>
+        <v>-2.2137578788436691E-6</v>
       </c>
       <c r="F12">
-        <v>1.4703562264387234E-3</v>
+        <v>1.4822706997866443E-4</v>
       </c>
       <c r="G12">
-        <v>7.9689409698726634E-4</v>
+        <v>-1.523926671876794E-4</v>
       </c>
       <c r="H12">
-        <v>-1.3877135018268514E-5</v>
+        <v>-3.7585666969942962E-6</v>
       </c>
       <c r="I12">
-        <v>-8.3620950897391638E-7</v>
+        <v>-3.7545269768199586E-6</v>
       </c>
       <c r="J12">
-        <v>8.175628525604722E-3</v>
+        <v>6.5552036715116977E-3</v>
       </c>
       <c r="K12">
-        <v>8.9163184176637468E-3</v>
+        <v>7.582710385656154E-3</v>
       </c>
       <c r="L12">
-        <v>8.9206909593451955E-3</v>
+        <v>7.8042112245766517E-3</v>
       </c>
       <c r="M12">
-        <v>9.1171907382154166E-3</v>
+        <v>7.9191640505357763E-3</v>
       </c>
       <c r="N12">
-        <v>1.8682063538565962E-4</v>
+        <v>7.5010111481105544E-5</v>
       </c>
       <c r="O12">
-        <v>1.674991438453946E-4</v>
+        <v>-2.9148891128002836E-5</v>
       </c>
       <c r="P12">
-        <v>2.8544695562314818E-4</v>
+        <v>-4.3785164233834386E-5</v>
       </c>
       <c r="Q12">
-        <v>1.7003228345384286E-4</v>
+        <v>9.205086849772695E-6</v>
       </c>
       <c r="R12">
-        <v>-2.7330838644244415E-6</v>
+        <v>-1.1504615352314001E-5</v>
       </c>
       <c r="S12">
-        <v>-5.2382797283227124E-5</v>
+        <v>-8.1461117168970854E-5</v>
       </c>
       <c r="T12">
-        <v>1.5221483124822324E-3</v>
+        <v>-2.6697244956639329E-5</v>
       </c>
       <c r="U12">
-        <v>1.2135297405861147E-3</v>
+        <v>2.1950842438440233E-4</v>
       </c>
       <c r="V12">
-        <v>-1.7644838697362962E-2</v>
+        <v>-1.3142842165320967E-2</v>
       </c>
       <c r="W12">
-        <v>6.0859328919617966E-3</v>
+        <v>5.6487356498155158E-3</v>
       </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.45">
@@ -5977,70 +5977,70 @@
         <v>35</v>
       </c>
       <c r="B13">
-        <v>-4.1979847497823013E-2</v>
+        <v>-2.6089298240572718E-2</v>
       </c>
       <c r="C13">
-        <v>2.5353025552349146E-6</v>
+        <v>1.9584464511641179E-6</v>
       </c>
       <c r="D13">
-        <v>1.1808060235843151E-5</v>
+        <v>7.1353645036278818E-6</v>
       </c>
       <c r="E13">
-        <v>-1.2686077279275704E-7</v>
+        <v>-7.7933408688775533E-8</v>
       </c>
       <c r="F13">
-        <v>1.0754163639941662E-4</v>
+        <v>8.0012880450271602E-7</v>
       </c>
       <c r="G13">
-        <v>3.6115088364303493E-5</v>
+        <v>-1.8628060050685004E-5</v>
       </c>
       <c r="H13">
-        <v>-1.1142867781135975E-6</v>
+        <v>-1.8041687434528069E-7</v>
       </c>
       <c r="I13">
-        <v>1.9840362914486387E-7</v>
+        <v>-4.8149041607695311E-8</v>
       </c>
       <c r="J13">
-        <v>1.2622823368975538E-4</v>
+        <v>3.5340110747310984E-5</v>
       </c>
       <c r="K13">
-        <v>1.8208838419538778E-4</v>
+        <v>6.7894804121600643E-5</v>
       </c>
       <c r="L13">
-        <v>1.8027042954505508E-4</v>
+        <v>7.4363440625789401E-5</v>
       </c>
       <c r="M13">
-        <v>1.8682063538565962E-4</v>
+        <v>7.5010111481105544E-5</v>
       </c>
       <c r="N13">
-        <v>2.2889412524173806E-4</v>
+        <v>1.8453015839366409E-4</v>
       </c>
       <c r="O13">
-        <v>1.2541930767747078E-4</v>
+        <v>8.8518422065899031E-5</v>
       </c>
       <c r="P13">
-        <v>1.3615013793441045E-4</v>
+        <v>8.8757218887009176E-5</v>
       </c>
       <c r="Q13">
-        <v>1.2681974154338488E-4</v>
+        <v>9.0291676640330998E-5</v>
       </c>
       <c r="R13">
-        <v>2.3070704648810171E-6</v>
+        <v>2.2255930078584726E-6</v>
       </c>
       <c r="S13">
-        <v>-2.0053643325049102E-5</v>
+        <v>-1.854734955115871E-5</v>
       </c>
       <c r="T13">
-        <v>1.1657198182431618E-4</v>
+        <v>-1.7618990395407039E-6</v>
       </c>
       <c r="U13">
-        <v>9.3532668696017109E-5</v>
+        <v>6.3555278355155413E-6</v>
       </c>
       <c r="V13">
-        <v>-9.509205359816015E-4</v>
+        <v>-3.2092802780812044E-4</v>
       </c>
       <c r="W13">
-        <v>4.7238975240783084E-4</v>
+        <v>1.8946298994221126E-4</v>
       </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.45">
@@ -6048,70 +6048,70 @@
         <v>36</v>
       </c>
       <c r="B14">
-        <v>-1.2840133624791874E-3</v>
+        <v>2.3218564983323309E-2</v>
       </c>
       <c r="C14">
-        <v>-6.6399915126167178E-7</v>
+        <v>-2.5765482103170512E-6</v>
       </c>
       <c r="D14">
-        <v>1.023694386764147E-5</v>
+        <v>-3.0203027600992794E-6</v>
       </c>
       <c r="E14">
-        <v>-1.1192921580917971E-7</v>
+        <v>2.9478668387934686E-8</v>
       </c>
       <c r="F14">
-        <v>9.1419069354756991E-5</v>
+        <v>-6.111359095921477E-6</v>
       </c>
       <c r="G14">
-        <v>3.9122085175626402E-5</v>
+        <v>-4.7358756026565378E-6</v>
       </c>
       <c r="H14">
-        <v>-8.031749435644808E-7</v>
+        <v>1.1791368830457743E-7</v>
       </c>
       <c r="I14">
-        <v>1.4769785883218562E-7</v>
+        <v>1.4638845071684591E-7</v>
       </c>
       <c r="J14">
-        <v>1.104588752983444E-4</v>
+        <v>-1.0096055926097615E-5</v>
       </c>
       <c r="K14">
-        <v>1.5810519188233358E-4</v>
+        <v>-2.8451337317572575E-5</v>
       </c>
       <c r="L14">
-        <v>1.5894942413346725E-4</v>
+        <v>-3.1054280066371967E-5</v>
       </c>
       <c r="M14">
-        <v>1.674991438453946E-4</v>
+        <v>-2.9148891128002836E-5</v>
       </c>
       <c r="N14">
-        <v>1.2541930767747078E-4</v>
+        <v>8.8518422065899031E-5</v>
       </c>
       <c r="O14">
-        <v>2.8390318181877023E-4</v>
+        <v>2.3601326712013312E-4</v>
       </c>
       <c r="P14">
-        <v>1.3236040442720243E-4</v>
+        <v>9.0492951907489655E-5</v>
       </c>
       <c r="Q14">
-        <v>1.2454517497741905E-4</v>
+        <v>8.9257891324464678E-5</v>
       </c>
       <c r="R14">
-        <v>4.5553372707044791E-6</v>
+        <v>5.8732300644982525E-6</v>
       </c>
       <c r="S14">
-        <v>-1.8625184605222526E-5</v>
+        <v>-1.3729158095305954E-5</v>
       </c>
       <c r="T14">
-        <v>9.9454810192440833E-5</v>
+        <v>1.1677879895805038E-7</v>
       </c>
       <c r="U14">
-        <v>7.8762646052544296E-5</v>
+        <v>-3.4933476770768082E-6</v>
       </c>
       <c r="V14">
-        <v>-8.3165831547022621E-4</v>
+        <v>4.5645745279004188E-5</v>
       </c>
       <c r="W14">
-        <v>4.0302124375883347E-4</v>
+        <v>-9.2394273094004886E-5</v>
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.45">
@@ -6119,70 +6119,70 @@
         <v>37</v>
       </c>
       <c r="B15">
-        <v>-5.6955821787569645E-2</v>
+        <v>-1.1907480589959956E-2</v>
       </c>
       <c r="C15">
-        <v>3.1861305690317283E-6</v>
+        <v>4.2304774982416232E-7</v>
       </c>
       <c r="D15">
-        <v>1.7855027478755847E-5</v>
+        <v>-4.2716785834327737E-6</v>
       </c>
       <c r="E15">
-        <v>-1.9105047023474183E-7</v>
+        <v>4.3556206259883316E-8</v>
       </c>
       <c r="F15">
-        <v>1.7166166094165789E-4</v>
+        <v>-9.2296842888718964E-6</v>
       </c>
       <c r="G15">
-        <v>7.2664543801324711E-5</v>
+        <v>-1.2352416588411184E-5</v>
       </c>
       <c r="H15">
-        <v>-1.6697234653304985E-6</v>
+        <v>1.3464951566794879E-7</v>
       </c>
       <c r="I15">
-        <v>1.0077039488288251E-7</v>
+        <v>1.9962198674895822E-7</v>
       </c>
       <c r="J15">
-        <v>1.8871060191330498E-4</v>
+        <v>-1.7793715146064902E-5</v>
       </c>
       <c r="K15">
-        <v>2.7628001694673303E-4</v>
+        <v>-3.9669319499853294E-5</v>
       </c>
       <c r="L15">
-        <v>2.7493265971937047E-4</v>
+        <v>-4.3281801591472799E-5</v>
       </c>
       <c r="M15">
-        <v>2.8544695562314818E-4</v>
+        <v>-4.3785164233834386E-5</v>
       </c>
       <c r="N15">
-        <v>1.3615013793441045E-4</v>
+        <v>8.8757218887009176E-5</v>
       </c>
       <c r="O15">
-        <v>1.3236040442720243E-4</v>
+        <v>9.0492951907489655E-5</v>
       </c>
       <c r="P15">
-        <v>2.4095236954046312E-4</v>
+        <v>1.7690892231018345E-4</v>
       </c>
       <c r="Q15">
-        <v>1.3443538336721072E-4</v>
+        <v>8.9619433880310624E-5</v>
       </c>
       <c r="R15">
-        <v>1.5173823934969047E-6</v>
+        <v>4.6458068427497187E-6</v>
       </c>
       <c r="S15">
-        <v>-2.3885148387155908E-5</v>
+        <v>-1.76049576912886E-5</v>
       </c>
       <c r="T15">
-        <v>1.843391603018268E-4</v>
+        <v>9.7445236952594654E-7</v>
       </c>
       <c r="U15">
-        <v>1.4696763195759044E-4</v>
+        <v>-3.9273519584806212E-6</v>
       </c>
       <c r="V15">
-        <v>-1.4177474758182902E-3</v>
+        <v>8.834097129596015E-5</v>
       </c>
       <c r="W15">
-        <v>7.4013750563340936E-4</v>
+        <v>-1.0854251782751141E-4</v>
       </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.45">
@@ -6190,70 +6190,70 @@
         <v>39</v>
       </c>
       <c r="B16">
-        <v>-5.7197013978604744E-2</v>
+        <v>-3.707633825185612E-2</v>
       </c>
       <c r="C16">
-        <v>3.7559107284093048E-6</v>
+        <v>2.8525685469102263E-6</v>
       </c>
       <c r="D16">
-        <v>1.0782551706407445E-5</v>
+        <v>1.0714533484162646E-6</v>
       </c>
       <c r="E16">
-        <v>-1.1481040211530602E-7</v>
+        <v>-1.1891419062024247E-8</v>
       </c>
       <c r="F16">
-        <v>1.0710564923145642E-4</v>
+        <v>3.1217641143433062E-6</v>
       </c>
       <c r="G16">
-        <v>6.1850232516861951E-5</v>
+        <v>8.0951486031747971E-6</v>
       </c>
       <c r="H16">
-        <v>-1.0387834764368864E-6</v>
+        <v>-8.3515324418544894E-8</v>
       </c>
       <c r="I16">
-        <v>-3.2681682756223785E-7</v>
+        <v>-3.3815270174726978E-7</v>
       </c>
       <c r="J16">
-        <v>1.1203793679929786E-4</v>
+        <v>3.1354973377504787E-6</v>
       </c>
       <c r="K16">
-        <v>1.622814659951245E-4</v>
+        <v>5.6845997546717381E-6</v>
       </c>
       <c r="L16">
-        <v>1.6322754519607199E-4</v>
+        <v>8.4643963056943843E-6</v>
       </c>
       <c r="M16">
-        <v>1.7003228345384286E-4</v>
+        <v>9.205086849772695E-6</v>
       </c>
       <c r="N16">
-        <v>1.2681974154338488E-4</v>
+        <v>9.0291676640330998E-5</v>
       </c>
       <c r="O16">
-        <v>1.2454517497741905E-4</v>
+        <v>8.9257891324464678E-5</v>
       </c>
       <c r="P16">
-        <v>1.3443538336721072E-4</v>
+        <v>8.9619433880310624E-5</v>
       </c>
       <c r="Q16">
-        <v>1.6570152931314708E-4</v>
+        <v>1.2726542889930265E-4</v>
       </c>
       <c r="R16">
-        <v>2.8487975206483102E-6</v>
+        <v>2.8993465529373358E-6</v>
       </c>
       <c r="S16">
-        <v>-2.035929668150279E-5</v>
+        <v>-1.548626374087402E-5</v>
       </c>
       <c r="T16">
-        <v>1.0939367557435777E-4</v>
+        <v>-8.7646076881646965E-7</v>
       </c>
       <c r="U16">
-        <v>8.6918936664097071E-5</v>
+        <v>4.14837419089043E-7</v>
       </c>
       <c r="V16">
-        <v>-8.938567615503826E-4</v>
+        <v>-1.1172037643280357E-4</v>
       </c>
       <c r="W16">
-        <v>4.4377138100365005E-4</v>
+        <v>3.4178228187264511E-5</v>
       </c>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.45">
@@ -6261,70 +6261,70 @@
         <v>28</v>
       </c>
       <c r="B17">
-        <v>0.23262550343784483</v>
+        <v>0.2303915654557693</v>
       </c>
       <c r="C17">
-        <v>1.5841811817923509E-6</v>
+        <v>2.6251198159765253E-6</v>
       </c>
       <c r="D17">
-        <v>5.0645317582465266E-7</v>
+        <v>-9.1167430224432692E-7</v>
       </c>
       <c r="E17">
-        <v>-1.4065510675352472E-8</v>
+        <v>-1.0536473093768127E-9</v>
       </c>
       <c r="F17">
-        <v>-2.9473470605503508E-5</v>
+        <v>-7.4535373665715263E-6</v>
       </c>
       <c r="G17">
-        <v>-4.4113785126503249E-5</v>
+        <v>-1.6914154235454237E-5</v>
       </c>
       <c r="H17">
-        <v>5.9968510210685248E-7</v>
+        <v>4.6098465433206522E-7</v>
       </c>
       <c r="I17">
-        <v>6.7528053592363991E-7</v>
+        <v>5.6619139983105389E-7</v>
       </c>
       <c r="J17">
-        <v>-4.3861189267880952E-6</v>
+        <v>-3.6810906402640474E-7</v>
       </c>
       <c r="K17">
-        <v>-3.9441848084517686E-6</v>
+        <v>-9.4565346857397998E-6</v>
       </c>
       <c r="L17">
-        <v>-6.4340510677690619E-7</v>
+        <v>-1.0548416619711486E-5</v>
       </c>
       <c r="M17">
-        <v>-2.7330838644244415E-6</v>
+        <v>-1.1504615352314001E-5</v>
       </c>
       <c r="N17">
-        <v>2.3070704648810171E-6</v>
+        <v>2.2255930078584726E-6</v>
       </c>
       <c r="O17">
-        <v>4.5553372707044791E-6</v>
+        <v>5.8732300644982525E-6</v>
       </c>
       <c r="P17">
-        <v>1.5173823934969047E-6</v>
+        <v>4.6458068427497187E-6</v>
       </c>
       <c r="Q17">
-        <v>2.8487975206483102E-6</v>
+        <v>2.8993465529373358E-6</v>
       </c>
       <c r="R17">
-        <v>5.3031248881361471E-4</v>
+        <v>7.3979523549087031E-4</v>
       </c>
       <c r="S17">
-        <v>1.8307186638849713E-5</v>
+        <v>2.982025433601584E-5</v>
       </c>
       <c r="T17">
-        <v>-2.575893832297601E-5</v>
+        <v>-2.5892774943330862E-6</v>
       </c>
       <c r="U17">
-        <v>-1.964482021781292E-5</v>
+        <v>-7.0979973946274516E-6</v>
       </c>
       <c r="V17">
-        <v>5.0300414636128027E-5</v>
+        <v>1.1179717180480282E-5</v>
       </c>
       <c r="W17">
-        <v>-9.4550028225399348E-5</v>
+        <v>-1.1901311046036851E-4</v>
       </c>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.45">
@@ -6332,70 +6332,70 @@
         <v>29</v>
       </c>
       <c r="B18">
-        <v>0.10887194931365628</v>
+        <v>0.24240892199063058</v>
       </c>
       <c r="C18">
-        <v>-9.2111035227322164E-6</v>
+        <v>-1.6269071106821978E-5</v>
       </c>
       <c r="D18">
-        <v>-2.559467218419483E-6</v>
+        <v>-4.6957929476915422E-6</v>
       </c>
       <c r="E18">
-        <v>2.0066400922523069E-8</v>
+        <v>4.1682756049469515E-8</v>
       </c>
       <c r="F18">
-        <v>-1.8353247757165436E-5</v>
+        <v>1.0628255073795765E-5</v>
       </c>
       <c r="G18">
-        <v>-3.2587127706420191E-5</v>
+        <v>-9.6277973158491497E-6</v>
       </c>
       <c r="H18">
-        <v>2.092946053624082E-7</v>
+        <v>-9.0432052359300635E-9</v>
       </c>
       <c r="I18">
-        <v>6.5234034581941291E-7</v>
+        <v>7.4772800746042425E-7</v>
       </c>
       <c r="J18">
-        <v>-1.9730350280694508E-5</v>
+        <v>-2.3155898290259449E-5</v>
       </c>
       <c r="K18">
-        <v>-4.4246460481424438E-5</v>
+        <v>-6.4579276546405289E-5</v>
       </c>
       <c r="L18">
-        <v>-5.2572655947444078E-5</v>
+        <v>-8.1033022969494316E-5</v>
       </c>
       <c r="M18">
-        <v>-5.2382797283227124E-5</v>
+        <v>-8.1461117168970854E-5</v>
       </c>
       <c r="N18">
-        <v>-2.0053643325049102E-5</v>
+        <v>-1.854734955115871E-5</v>
       </c>
       <c r="O18">
-        <v>-1.8625184605222526E-5</v>
+        <v>-1.3729158095305954E-5</v>
       </c>
       <c r="P18">
-        <v>-2.3885148387155908E-5</v>
+        <v>-1.76049576912886E-5</v>
       </c>
       <c r="Q18">
-        <v>-2.035929668150279E-5</v>
+        <v>-1.548626374087402E-5</v>
       </c>
       <c r="R18">
-        <v>1.8307186638849713E-5</v>
+        <v>2.982025433601584E-5</v>
       </c>
       <c r="S18">
-        <v>7.9934199956438164E-4</v>
+        <v>1.0171604366249489E-3</v>
       </c>
       <c r="T18">
-        <v>-1.5977211954699215E-4</v>
+        <v>-1.7513827172201479E-4</v>
       </c>
       <c r="U18">
-        <v>-1.742796940528661E-4</v>
+        <v>-2.0845457955343905E-4</v>
       </c>
       <c r="V18">
-        <v>-6.0173577131586138E-4</v>
+        <v>-8.2147461466213682E-4</v>
       </c>
       <c r="W18">
-        <v>-1.1894998085917759E-4</v>
+        <v>-1.6858637860914198E-4</v>
       </c>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.45">
@@ -6403,70 +6403,70 @@
         <v>30</v>
       </c>
       <c r="B19">
-        <v>-0.23486454255297237</v>
+        <v>-1.7219079304506082E-2</v>
       </c>
       <c r="C19">
-        <v>1.1453069594289235E-5</v>
+        <v>-2.0373534725566378E-6</v>
       </c>
       <c r="D19">
-        <v>9.5102048275308689E-5</v>
+        <v>-2.3443821466183038E-6</v>
       </c>
       <c r="E19">
-        <v>-1.0037175109514484E-6</v>
+        <v>2.5486870801268651E-8</v>
       </c>
       <c r="F19">
-        <v>9.7515189945104495E-4</v>
+        <v>-2.2739142806513155E-6</v>
       </c>
       <c r="G19">
-        <v>5.3315276698749625E-4</v>
+        <v>3.8525949966782458E-6</v>
       </c>
       <c r="H19">
-        <v>-9.7313361339986112E-6</v>
+        <v>2.4271349238855517E-8</v>
       </c>
       <c r="I19">
-        <v>-1.2504356588059708E-6</v>
+        <v>-3.2848113589278396E-8</v>
       </c>
       <c r="J19">
-        <v>9.9407211710295746E-4</v>
+        <v>-1.5244041990520065E-5</v>
       </c>
       <c r="K19">
-        <v>1.4748453444962109E-3</v>
+        <v>-2.2990270178747252E-5</v>
       </c>
       <c r="L19">
-        <v>1.4631920337456698E-3</v>
+        <v>-2.6093748558443494E-5</v>
       </c>
       <c r="M19">
-        <v>1.5221483124822324E-3</v>
+        <v>-2.6697244956639329E-5</v>
       </c>
       <c r="N19">
-        <v>1.1657198182431618E-4</v>
+        <v>-1.7618990395407039E-6</v>
       </c>
       <c r="O19">
-        <v>9.9454810192440833E-5</v>
+        <v>1.1677879895805038E-7</v>
       </c>
       <c r="P19">
-        <v>1.843391603018268E-4</v>
+        <v>9.7445236952594654E-7</v>
       </c>
       <c r="Q19">
-        <v>1.0939367557435777E-4</v>
+        <v>-8.7646076881646965E-7</v>
       </c>
       <c r="R19">
-        <v>-2.575893832297601E-5</v>
+        <v>-2.5892774943330862E-6</v>
       </c>
       <c r="S19">
-        <v>-1.5977211954699215E-4</v>
+        <v>-1.7513827172201479E-4</v>
       </c>
       <c r="T19">
-        <v>1.1676028503011856E-3</v>
+        <v>1.621431484644642E-4</v>
       </c>
       <c r="U19">
-        <v>8.3256052458482391E-4</v>
+        <v>5.2806656392030528E-5</v>
       </c>
       <c r="V19">
-        <v>-6.9815059886697665E-3</v>
+        <v>2.5471522321693834E-4</v>
       </c>
       <c r="W19">
-        <v>3.9475811697295476E-3</v>
+        <v>-6.2484415108760279E-5</v>
       </c>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.45">
@@ -6474,70 +6474,70 @@
         <v>31</v>
       </c>
       <c r="B20">
-        <v>-0.2440623080816022</v>
+        <v>-4.1553134452478081E-2</v>
       </c>
       <c r="C20">
-        <v>9.5669918521482474E-6</v>
+        <v>1.1097631830486151E-6</v>
       </c>
       <c r="D20">
-        <v>7.557942239698687E-5</v>
+        <v>2.0614582664868834E-5</v>
       </c>
       <c r="E20">
-        <v>-7.9864182739895344E-7</v>
+        <v>-2.2082415698646037E-7</v>
       </c>
       <c r="F20">
-        <v>7.7330497482111971E-4</v>
+        <v>1.6135998153020653E-5</v>
       </c>
       <c r="G20">
-        <v>4.2181167267753934E-4</v>
+        <v>-8.3460188608950432E-6</v>
       </c>
       <c r="H20">
-        <v>-7.6834438803590462E-6</v>
+        <v>-4.2558055364176782E-7</v>
       </c>
       <c r="I20">
-        <v>-9.4588404259779249E-7</v>
+        <v>-5.5841964993455373E-7</v>
       </c>
       <c r="J20">
-        <v>7.9913735634165443E-4</v>
+        <v>9.7911128076162663E-5</v>
       </c>
       <c r="K20">
-        <v>1.1788326538063655E-3</v>
+        <v>1.9990472869835379E-4</v>
       </c>
       <c r="L20">
-        <v>1.1661193473245335E-3</v>
+        <v>2.1694949663149989E-4</v>
       </c>
       <c r="M20">
-        <v>1.2135297405861147E-3</v>
+        <v>2.1950842438440233E-4</v>
       </c>
       <c r="N20">
-        <v>9.3532668696017109E-5</v>
+        <v>6.3555278355155413E-6</v>
       </c>
       <c r="O20">
-        <v>7.8762646052544296E-5</v>
+        <v>-3.4933476770768082E-6</v>
       </c>
       <c r="P20">
-        <v>1.4696763195759044E-4</v>
+        <v>-3.9273519584806212E-6</v>
       </c>
       <c r="Q20">
-        <v>8.6918936664097071E-5</v>
+        <v>4.14837419089043E-7</v>
       </c>
       <c r="R20">
-        <v>-1.964482021781292E-5</v>
+        <v>-7.0979973946274516E-6</v>
       </c>
       <c r="S20">
-        <v>-1.742796940528661E-4</v>
+        <v>-2.0845457955343905E-4</v>
       </c>
       <c r="T20">
-        <v>8.3256052458482391E-4</v>
+        <v>5.2806656392030528E-5</v>
       </c>
       <c r="U20">
-        <v>8.5611150910547577E-4</v>
+        <v>2.4258148706027456E-4</v>
       </c>
       <c r="V20">
-        <v>-5.5063424522106778E-3</v>
+        <v>-5.4692147873705251E-4</v>
       </c>
       <c r="W20">
-        <v>3.1379405043363518E-3</v>
+        <v>5.5791115485019291E-4</v>
       </c>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.45">
@@ -6545,70 +6545,70 @@
         <v>32</v>
       </c>
       <c r="B21">
-        <v>1.6796044546812863</v>
+        <v>1.1470436162993092</v>
       </c>
       <c r="C21">
-        <v>-9.57036737721756E-5</v>
+        <v>-6.8222665579085348E-5</v>
       </c>
       <c r="D21">
-        <v>-8.6940033951375022E-4</v>
+        <v>-8.8216434290872394E-4</v>
       </c>
       <c r="E21">
-        <v>9.0302917254253072E-6</v>
+        <v>9.2798651119866901E-6</v>
       </c>
       <c r="F21">
-        <v>-8.2357869189844304E-3</v>
+        <v>-1.793565155674562E-3</v>
       </c>
       <c r="G21">
-        <v>-5.1836057913692245E-3</v>
+        <v>-8.9708497792628436E-4</v>
       </c>
       <c r="H21">
-        <v>9.6236797600863697E-5</v>
+        <v>4.1114133081886934E-5</v>
       </c>
       <c r="I21">
-        <v>3.6727742106337945E-5</v>
+        <v>4.3090618403197366E-5</v>
       </c>
       <c r="J21">
-        <v>-1.3802348748255559E-2</v>
+        <v>-8.8270040702563245E-3</v>
       </c>
       <c r="K21">
-        <v>-1.7186803363351773E-2</v>
+        <v>-1.227730709421425E-2</v>
       </c>
       <c r="L21">
-        <v>-1.7088535944172187E-2</v>
+        <v>-1.2948036033849961E-2</v>
       </c>
       <c r="M21">
-        <v>-1.7644838697362962E-2</v>
+        <v>-1.3142842165320967E-2</v>
       </c>
       <c r="N21">
-        <v>-9.509205359816015E-4</v>
+        <v>-3.2092802780812044E-4</v>
       </c>
       <c r="O21">
-        <v>-8.3165831547022621E-4</v>
+        <v>4.5645745279004188E-5</v>
       </c>
       <c r="P21">
-        <v>-1.4177474758182902E-3</v>
+        <v>8.834097129596015E-5</v>
       </c>
       <c r="Q21">
-        <v>-8.938567615503826E-4</v>
+        <v>-1.1172037643280357E-4</v>
       </c>
       <c r="R21">
-        <v>5.0300414636128027E-5</v>
+        <v>1.1179717180480282E-5</v>
       </c>
       <c r="S21">
-        <v>-6.0173577131586138E-4</v>
+        <v>-8.2147461466213682E-4</v>
       </c>
       <c r="T21">
-        <v>-6.9815059886697665E-3</v>
+        <v>2.5471522321693834E-4</v>
       </c>
       <c r="U21">
-        <v>-5.5063424522106778E-3</v>
+        <v>-5.4692147873705251E-4</v>
       </c>
       <c r="V21">
-        <v>6.3044159601908151E-2</v>
+        <v>3.6363804447306899E-2</v>
       </c>
       <c r="W21">
-        <v>-2.8328071579671363E-2</v>
+        <v>-1.9295705440239817E-2</v>
       </c>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.45">
@@ -6616,70 +6616,70 @@
         <v>33</v>
       </c>
       <c r="B22">
-        <v>-0.8261443982433514</v>
+        <v>-0.78011504561163858</v>
       </c>
       <c r="C22">
-        <v>5.2732001177139071E-5</v>
+        <v>5.6486469901159332E-5</v>
       </c>
       <c r="D22">
-        <v>3.787016173535859E-4</v>
+        <v>5.3838961033084252E-4</v>
       </c>
       <c r="E22">
-        <v>-4.0002926519705941E-6</v>
+        <v>-5.7638091288243958E-6</v>
       </c>
       <c r="F22">
-        <v>3.8730222052027821E-3</v>
+        <v>4.3798414943035122E-4</v>
       </c>
       <c r="G22">
-        <v>2.1074213347229182E-3</v>
+        <v>-3.1729074343592899E-4</v>
       </c>
       <c r="H22">
-        <v>-3.8360564173994799E-5</v>
+        <v>-1.1232261729371656E-5</v>
       </c>
       <c r="I22">
-        <v>-4.5417601117819725E-6</v>
+        <v>-1.1994285555958712E-5</v>
       </c>
       <c r="J22">
-        <v>3.9912069384067566E-3</v>
+        <v>2.4497581054538408E-3</v>
       </c>
       <c r="K22">
-        <v>5.8939938780086052E-3</v>
+        <v>5.0706164084508383E-3</v>
       </c>
       <c r="L22">
-        <v>5.8505997682450029E-3</v>
+        <v>5.5878758083060176E-3</v>
       </c>
       <c r="M22">
-        <v>6.0859328919617966E-3</v>
+        <v>5.6487356498155158E-3</v>
       </c>
       <c r="N22">
-        <v>4.7238975240783084E-4</v>
+        <v>1.8946298994221126E-4</v>
       </c>
       <c r="O22">
-        <v>4.0302124375883347E-4</v>
+        <v>-9.2394273094004886E-5</v>
       </c>
       <c r="P22">
-        <v>7.4013750563340936E-4</v>
+        <v>-1.0854251782751141E-4</v>
       </c>
       <c r="Q22">
-        <v>4.4377138100365005E-4</v>
+        <v>3.4178228187264511E-5</v>
       </c>
       <c r="R22">
-        <v>-9.4550028225399348E-5</v>
+        <v>-1.1901311046036851E-4</v>
       </c>
       <c r="S22">
-        <v>-1.1894998085917759E-4</v>
+        <v>-1.6858637860914198E-4</v>
       </c>
       <c r="T22">
-        <v>3.9475811697295476E-3</v>
+        <v>-6.2484415108760279E-5</v>
       </c>
       <c r="U22">
-        <v>3.1379405043363518E-3</v>
+        <v>5.5791115485019291E-4</v>
       </c>
       <c r="V22">
-        <v>-2.8328071579671363E-2</v>
+        <v>-1.9295705440239817E-2</v>
       </c>
       <c r="W22">
-        <v>1.5747414812131162E-2</v>
+        <v>1.4510623059623168E-2</v>
       </c>
     </row>
   </sheetData>
